--- a/inst/extdata/main_dict_senegal.xlsx
+++ b/inst/extdata/main_dict_senegal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="602">
   <si>
     <t>old</t>
   </si>
@@ -1532,9 +1532,6 @@
     <t>a4_c_9</t>
   </si>
   <si>
-    <t>crfs-t02b-a4_c_4</t>
-  </si>
-  <si>
     <t>a4_c_4</t>
   </si>
   <si>
@@ -1824,6 +1821,15 @@
   </si>
   <si>
     <t>crfs-t07a-tt06a-d2_3b</t>
+  </si>
+  <si>
+    <t>crfs-t02b-location_name</t>
+  </si>
+  <si>
+    <t>crfs-t02b-a4_c_6</t>
+  </si>
+  <si>
+    <t>cg_district</t>
   </si>
 </sst>
 </file>
@@ -2244,10 +2250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:H204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="D184" sqref="D184"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2281,7 +2287,7 @@
         <v>172</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>194</v>
@@ -3043,37 +3049,37 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="12" t="s">
         <v>510</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>514</v>
-      </c>
       <c r="C32" s="2">
         <v>1</v>
       </c>
@@ -3090,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -3745,11 +3751,11 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="B58" s="19" t="s">
-        <v>506</v>
-      </c>
       <c r="C58" s="2">
         <v>1</v>
       </c>
@@ -3766,16 +3772,16 @@
         <v>1</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="B59" s="19" t="s">
-        <v>508</v>
-      </c>
       <c r="C59" s="2">
         <v>1</v>
       </c>
@@ -3792,75 +3798,75 @@
         <v>1</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+      <c r="H60" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1</v>
-      </c>
-      <c r="E60" s="4">
-        <v>1</v>
-      </c>
-      <c r="F60" s="4">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>503</v>
-      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>52</v>
+      <c r="A61" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>601</v>
       </c>
       <c r="C61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" s="4">
         <v>1</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="4">
         <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>1</v>
       </c>
-      <c r="H61" s="13" t="s">
-        <v>218</v>
+      <c r="H61" s="11" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C62" s="20">
-        <v>0</v>
-      </c>
-      <c r="D62" s="20">
-        <v>0</v>
-      </c>
-      <c r="E62" s="21">
+        <v>52</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
         <v>1</v>
       </c>
       <c r="F62" s="3">
@@ -3870,15 +3876,15 @@
         <v>1</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C63" s="20">
         <v>0</v>
@@ -3886,7 +3892,7 @@
       <c r="D63" s="20">
         <v>0</v>
       </c>
-      <c r="E63" s="20">
+      <c r="E63" s="21">
         <v>1</v>
       </c>
       <c r="F63" s="3">
@@ -3896,15 +3902,15 @@
         <v>1</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C64" s="20">
         <v>0</v>
@@ -3912,7 +3918,7 @@
       <c r="D64" s="20">
         <v>0</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E64" s="20">
         <v>1</v>
       </c>
       <c r="F64" s="3">
@@ -3922,15 +3928,15 @@
         <v>1</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C65" s="20">
         <v>0</v>
@@ -3948,23 +3954,23 @@
         <v>1</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C66" s="2">
-        <v>0</v>
-      </c>
-      <c r="D66" s="2">
-        <v>0</v>
-      </c>
-      <c r="E66" s="4">
+        <v>56</v>
+      </c>
+      <c r="C66" s="20">
+        <v>0</v>
+      </c>
+      <c r="D66" s="20">
+        <v>0</v>
+      </c>
+      <c r="E66" s="21">
         <v>1</v>
       </c>
       <c r="F66" s="3">
@@ -3974,15 +3980,15 @@
         <v>1</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C67" s="2">
         <v>0</v>
@@ -4000,15 +4006,15 @@
         <v>1</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -4026,15 +4032,15 @@
         <v>1</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -4052,15 +4058,15 @@
         <v>1</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -4078,15 +4084,15 @@
         <v>1</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -4104,15 +4110,15 @@
         <v>1</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -4130,15 +4136,15 @@
         <v>1</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -4156,15 +4162,15 @@
         <v>1</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -4182,15 +4188,15 @@
         <v>1</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -4208,15 +4214,15 @@
         <v>1</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -4234,15 +4240,15 @@
         <v>1</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -4260,15 +4266,15 @@
         <v>1</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -4286,15 +4292,15 @@
         <v>1</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -4312,15 +4318,15 @@
         <v>1</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -4338,23 +4344,23 @@
         <v>1</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C81" s="20">
+        <v>71</v>
+      </c>
+      <c r="C81" s="2">
         <v>0</v>
       </c>
       <c r="D81" s="2">
         <v>0</v>
       </c>
-      <c r="E81" s="21">
+      <c r="E81" s="4">
         <v>1</v>
       </c>
       <c r="F81" s="3">
@@ -4364,15 +4370,15 @@
         <v>1</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C82" s="20">
         <v>0</v>
@@ -4380,7 +4386,7 @@
       <c r="D82" s="2">
         <v>0</v>
       </c>
-      <c r="E82" s="20">
+      <c r="E82" s="21">
         <v>1</v>
       </c>
       <c r="F82" s="3">
@@ -4390,15 +4396,15 @@
         <v>1</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C83" s="20">
         <v>0</v>
@@ -4406,7 +4412,7 @@
       <c r="D83" s="2">
         <v>0</v>
       </c>
-      <c r="E83" s="21">
+      <c r="E83" s="20">
         <v>1</v>
       </c>
       <c r="F83" s="3">
@@ -4416,15 +4422,15 @@
         <v>1</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C84" s="20">
         <v>0</v>
@@ -4442,15 +4448,15 @@
         <v>1</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C85" s="20">
         <v>0</v>
@@ -4458,7 +4464,7 @@
       <c r="D85" s="2">
         <v>0</v>
       </c>
-      <c r="E85" s="20">
+      <c r="E85" s="21">
         <v>1</v>
       </c>
       <c r="F85" s="3">
@@ -4468,15 +4474,15 @@
         <v>1</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C86" s="20">
         <v>0</v>
@@ -4484,7 +4490,7 @@
       <c r="D86" s="2">
         <v>0</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="20">
         <v>1</v>
       </c>
       <c r="F86" s="3">
@@ -4494,15 +4500,15 @@
         <v>1</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C87" s="20">
         <v>0</v>
@@ -4520,17 +4526,17 @@
         <v>1</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C88" s="2">
+        <v>78</v>
+      </c>
+      <c r="C88" s="20">
         <v>0</v>
       </c>
       <c r="D88" s="2">
@@ -4546,67 +4552,67 @@
         <v>1</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89" s="4">
+        <v>1</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>1</v>
+      </c>
+      <c r="H89" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B90" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C89" s="2">
-        <v>0</v>
-      </c>
-      <c r="D89" s="2">
-        <v>0</v>
-      </c>
-      <c r="E89" s="4">
-        <v>1</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>1</v>
-      </c>
-      <c r="H89" s="13" t="s">
+      <c r="C90" s="2">
+        <v>0</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0</v>
+      </c>
+      <c r="E90" s="4">
+        <v>1</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="3">
+        <v>1</v>
+      </c>
+      <c r="H90" s="13" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C90" s="2">
-        <v>0</v>
-      </c>
-      <c r="D90" s="2">
-        <v>0</v>
-      </c>
-      <c r="E90" s="2">
-        <v>1</v>
-      </c>
-      <c r="F90" s="3">
-        <v>1</v>
-      </c>
-      <c r="G90" s="3">
-        <v>1</v>
-      </c>
-      <c r="H90" s="17" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
@@ -4621,18 +4627,18 @@
         <v>1</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
@@ -4650,15 +4656,15 @@
         <v>0</v>
       </c>
       <c r="H92" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
@@ -4676,15 +4682,15 @@
         <v>0</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -4702,15 +4708,15 @@
         <v>0</v>
       </c>
       <c r="H94" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -4728,15 +4734,15 @@
         <v>0</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -4754,15 +4760,15 @@
         <v>0</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -4780,15 +4786,15 @@
         <v>0</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -4806,15 +4812,15 @@
         <v>0</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -4832,15 +4838,15 @@
         <v>0</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -4858,15 +4864,15 @@
         <v>0</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -4884,15 +4890,15 @@
         <v>0</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -4910,15 +4916,15 @@
         <v>0</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -4936,15 +4942,15 @@
         <v>0</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -4962,15 +4968,15 @@
         <v>0</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -4988,15 +4994,15 @@
         <v>0</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -5014,15 +5020,15 @@
         <v>0</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -5037,18 +5043,18 @@
         <v>1</v>
       </c>
       <c r="G107" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>99</v>
+        <v>426</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -5066,15 +5072,15 @@
         <v>1</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -5092,15 +5098,15 @@
         <v>1</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -5118,15 +5124,15 @@
         <v>1</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -5144,15 +5150,15 @@
         <v>1</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -5170,15 +5176,15 @@
         <v>1</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -5196,15 +5202,15 @@
         <v>1</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -5222,15 +5228,15 @@
         <v>1</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -5238,25 +5244,25 @@
       <c r="D115" s="2">
         <v>0</v>
       </c>
-      <c r="E115" s="20">
-        <v>1</v>
-      </c>
-      <c r="F115" s="22">
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+      <c r="F115" s="3">
         <v>1</v>
       </c>
       <c r="G115" s="3">
         <v>1</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -5274,15 +5280,15 @@
         <v>1</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -5300,15 +5306,15 @@
         <v>1</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -5319,22 +5325,22 @@
       <c r="E118" s="20">
         <v>1</v>
       </c>
-      <c r="F118" s="20">
+      <c r="F118" s="22">
         <v>1</v>
       </c>
       <c r="G118" s="3">
         <v>1</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -5345,22 +5351,22 @@
       <c r="E119" s="20">
         <v>1</v>
       </c>
-      <c r="F119" s="22">
+      <c r="F119" s="20">
         <v>1</v>
       </c>
       <c r="G119" s="3">
         <v>1</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5378,15 +5384,15 @@
         <v>1</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5404,15 +5410,15 @@
         <v>1</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -5423,22 +5429,22 @@
       <c r="E122" s="20">
         <v>1</v>
       </c>
-      <c r="F122" s="20">
+      <c r="F122" s="22">
         <v>1</v>
       </c>
       <c r="G122" s="3">
         <v>1</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>114</v>
+        <v>441</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -5449,22 +5455,22 @@
       <c r="E123" s="20">
         <v>1</v>
       </c>
-      <c r="F123" s="22">
+      <c r="F123" s="20">
         <v>1</v>
       </c>
       <c r="G123" s="3">
         <v>1</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -5479,18 +5485,18 @@
         <v>1</v>
       </c>
       <c r="G124" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>115</v>
+        <v>280</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -5508,15 +5514,15 @@
         <v>0</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>281</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5534,15 +5540,15 @@
         <v>0</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -5560,15 +5566,15 @@
         <v>0</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -5579,22 +5585,22 @@
       <c r="E128" s="20">
         <v>1</v>
       </c>
-      <c r="F128" s="20">
+      <c r="F128" s="22">
         <v>1</v>
       </c>
       <c r="G128" s="3">
         <v>0</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -5605,22 +5611,22 @@
       <c r="E129" s="20">
         <v>1</v>
       </c>
-      <c r="F129" s="22">
+      <c r="F129" s="20">
         <v>1</v>
       </c>
       <c r="G129" s="3">
         <v>0</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -5638,67 +5644,67 @@
         <v>0</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C131" s="2">
+        <v>0</v>
+      </c>
+      <c r="D131" s="2">
+        <v>0</v>
+      </c>
+      <c r="E131" s="20">
+        <v>1</v>
+      </c>
+      <c r="F131" s="22">
+        <v>1</v>
+      </c>
+      <c r="G131" s="3">
+        <v>0</v>
+      </c>
+      <c r="H131" s="17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B132" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C131" s="2">
-        <v>0</v>
-      </c>
-      <c r="D131" s="2">
-        <v>0</v>
-      </c>
-      <c r="E131" s="20">
-        <v>1</v>
-      </c>
-      <c r="F131" s="22">
-        <v>1</v>
-      </c>
-      <c r="G131" s="3">
-        <v>0</v>
-      </c>
-      <c r="H131" s="17" t="s">
+      <c r="C132" s="2">
+        <v>0</v>
+      </c>
+      <c r="D132" s="2">
+        <v>0</v>
+      </c>
+      <c r="E132" s="20">
+        <v>1</v>
+      </c>
+      <c r="F132" s="22">
+        <v>1</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0</v>
+      </c>
+      <c r="H132" s="17" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="B132" s="16" t="s">
-        <v>582</v>
-      </c>
-      <c r="C132" s="2">
-        <v>0</v>
-      </c>
-      <c r="D132" s="2">
-        <v>0</v>
-      </c>
-      <c r="E132" s="20">
-        <v>1</v>
-      </c>
-      <c r="F132" s="20">
-        <v>1</v>
-      </c>
-      <c r="G132" s="3">
-        <v>0</v>
-      </c>
-      <c r="H132" s="18" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="18" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5716,15 +5722,15 @@
         <v>0</v>
       </c>
       <c r="H133" s="18" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="18" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5742,15 +5748,15 @@
         <v>0</v>
       </c>
       <c r="H134" s="18" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="18" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5768,15 +5774,15 @@
         <v>0</v>
       </c>
       <c r="H135" s="18" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="18" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5794,15 +5800,15 @@
         <v>0</v>
       </c>
       <c r="H136" s="18" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="18" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5820,15 +5826,15 @@
         <v>0</v>
       </c>
       <c r="H137" s="18" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="B138" s="14" t="s">
-        <v>123</v>
+      <c r="A138" s="18" t="s">
+        <v>580</v>
+      </c>
+      <c r="B138" s="16" t="s">
+        <v>586</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5839,22 +5845,22 @@
       <c r="E138" s="20">
         <v>1</v>
       </c>
-      <c r="F138" s="22">
+      <c r="F138" s="20">
         <v>1</v>
       </c>
       <c r="G138" s="3">
         <v>0</v>
       </c>
-      <c r="H138" s="17" t="s">
-        <v>288</v>
+      <c r="H138" s="18" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="17" t="s">
-        <v>558</v>
-      </c>
-      <c r="B139" s="23" t="s">
-        <v>534</v>
+        <v>451</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5862,7 +5868,7 @@
       <c r="D139" s="2">
         <v>0</v>
       </c>
-      <c r="E139" s="4">
+      <c r="E139" s="20">
         <v>1</v>
       </c>
       <c r="F139" s="22">
@@ -5872,15 +5878,15 @@
         <v>0</v>
       </c>
       <c r="H139" s="17" t="s">
-        <v>516</v>
+        <v>288</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="17" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -5898,15 +5904,15 @@
         <v>0</v>
       </c>
       <c r="H140" s="17" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="17" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -5924,15 +5930,15 @@
         <v>0</v>
       </c>
       <c r="H141" s="17" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -5950,15 +5956,15 @@
         <v>0</v>
       </c>
       <c r="H142" s="17" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -5976,15 +5982,15 @@
         <v>0</v>
       </c>
       <c r="H143" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -6002,15 +6008,15 @@
         <v>0</v>
       </c>
       <c r="H144" s="17" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -6028,15 +6034,15 @@
         <v>0</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -6054,15 +6060,15 @@
         <v>0</v>
       </c>
       <c r="H146" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -6080,15 +6086,15 @@
         <v>0</v>
       </c>
       <c r="H147" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -6106,15 +6112,15 @@
         <v>0</v>
       </c>
       <c r="H148" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -6132,15 +6138,15 @@
         <v>0</v>
       </c>
       <c r="H149" s="17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -6158,15 +6164,15 @@
         <v>0</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -6184,15 +6190,15 @@
         <v>0</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -6210,15 +6216,15 @@
         <v>0</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6236,15 +6242,15 @@
         <v>0</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6262,15 +6268,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6288,12 +6294,12 @@
         <v>0</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B156" s="23" t="s">
         <v>550</v>
@@ -6314,15 +6320,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="B157" s="14" t="s">
-        <v>124</v>
+        <v>574</v>
+      </c>
+      <c r="B157" s="23" t="s">
+        <v>549</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6330,7 +6336,7 @@
       <c r="D157" s="2">
         <v>0</v>
       </c>
-      <c r="E157" s="20">
+      <c r="E157" s="4">
         <v>1</v>
       </c>
       <c r="F157" s="22">
@@ -6340,15 +6346,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>289</v>
+        <v>532</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>417</v>
+        <v>452</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6366,15 +6372,15 @@
         <v>0</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6389,18 +6395,18 @@
         <v>1</v>
       </c>
       <c r="G159" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6418,15 +6424,15 @@
         <v>1</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="B161" s="15" t="s">
-        <v>128</v>
+        <v>454</v>
+      </c>
+      <c r="B161" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6441,18 +6447,18 @@
         <v>1</v>
       </c>
       <c r="G161" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6470,15 +6476,15 @@
         <v>0</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="B163" s="14" t="s">
-        <v>130</v>
+        <v>456</v>
+      </c>
+      <c r="B163" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6496,15 +6502,15 @@
         <v>0</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6515,22 +6521,22 @@
       <c r="E164" s="20">
         <v>1</v>
       </c>
-      <c r="F164" s="20">
+      <c r="F164" s="22">
         <v>1</v>
       </c>
       <c r="G164" s="3">
         <v>0</v>
       </c>
       <c r="H164" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6541,22 +6547,22 @@
       <c r="E165" s="20">
         <v>1</v>
       </c>
-      <c r="F165" s="22">
+      <c r="F165" s="20">
         <v>1</v>
       </c>
       <c r="G165" s="3">
         <v>0</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6574,15 +6580,15 @@
         <v>0</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6600,15 +6606,15 @@
         <v>0</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6626,15 +6632,15 @@
         <v>0</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6652,15 +6658,15 @@
         <v>0</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6678,15 +6684,15 @@
         <v>0</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6704,15 +6710,15 @@
         <v>0</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6730,15 +6736,15 @@
         <v>0</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="17" t="s">
-        <v>588</v>
+        <v>466</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6756,15 +6762,15 @@
         <v>0</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="17" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6782,7 +6788,7 @@
         <v>0</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
@@ -6790,7 +6796,7 @@
         <v>589</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6808,15 +6814,15 @@
         <v>0</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="17" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6834,15 +6840,15 @@
         <v>0</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="17" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -6860,15 +6866,15 @@
         <v>0</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="17" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -6886,15 +6892,15 @@
         <v>0</v>
       </c>
       <c r="H178" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="17" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -6912,15 +6918,15 @@
         <v>0</v>
       </c>
       <c r="H179" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="17" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -6938,15 +6944,15 @@
         <v>0</v>
       </c>
       <c r="H180" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="17" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -6964,15 +6970,15 @@
         <v>0</v>
       </c>
       <c r="H181" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="17" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -6990,15 +6996,15 @@
         <v>0</v>
       </c>
       <c r="H182" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="17" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -7016,15 +7022,15 @@
         <v>0</v>
       </c>
       <c r="H183" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="17" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -7042,15 +7048,15 @@
         <v>0</v>
       </c>
       <c r="H184" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="17" t="s">
-        <v>467</v>
+        <v>598</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7068,15 +7074,15 @@
         <v>0</v>
       </c>
       <c r="H185" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7087,22 +7093,22 @@
       <c r="E186" s="20">
         <v>1</v>
       </c>
-      <c r="F186" s="20">
+      <c r="F186" s="22">
         <v>1</v>
       </c>
       <c r="G186" s="3">
         <v>0</v>
       </c>
       <c r="H186" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7113,22 +7119,22 @@
       <c r="E187" s="20">
         <v>1</v>
       </c>
-      <c r="F187" s="22">
+      <c r="F187" s="20">
         <v>1</v>
       </c>
       <c r="G187" s="3">
         <v>0</v>
       </c>
       <c r="H187" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7146,15 +7152,15 @@
         <v>0</v>
       </c>
       <c r="H188" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7172,15 +7178,15 @@
         <v>0</v>
       </c>
       <c r="H189" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7198,15 +7204,15 @@
         <v>0</v>
       </c>
       <c r="H190" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7224,15 +7230,15 @@
         <v>0</v>
       </c>
       <c r="H191" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7250,15 +7256,15 @@
         <v>0</v>
       </c>
       <c r="H192" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7276,15 +7282,15 @@
         <v>0</v>
       </c>
       <c r="H193" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7302,67 +7308,67 @@
         <v>0</v>
       </c>
       <c r="H194" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="B195" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C195" s="2">
+        <v>0</v>
+      </c>
+      <c r="D195" s="2">
+        <v>0</v>
+      </c>
+      <c r="E195" s="20">
+        <v>1</v>
+      </c>
+      <c r="F195" s="22">
+        <v>1</v>
+      </c>
+      <c r="G195" s="3">
+        <v>0</v>
+      </c>
+      <c r="H195" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="B195" s="14" t="s">
+      <c r="B196" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C195" s="2">
-        <v>0</v>
-      </c>
-      <c r="D195" s="2">
-        <v>0</v>
-      </c>
-      <c r="E195" s="20">
-        <v>1</v>
-      </c>
-      <c r="F195" s="22">
-        <v>1</v>
-      </c>
-      <c r="G195" s="3">
-        <v>0</v>
-      </c>
-      <c r="H195" s="17" t="s">
+      <c r="C196" s="2">
+        <v>0</v>
+      </c>
+      <c r="D196" s="2">
+        <v>0</v>
+      </c>
+      <c r="E196" s="20">
+        <v>1</v>
+      </c>
+      <c r="F196" s="22">
+        <v>1</v>
+      </c>
+      <c r="G196" s="3">
+        <v>0</v>
+      </c>
+      <c r="H196" s="17" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A196" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="B196" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C196" s="2">
-        <v>0</v>
-      </c>
-      <c r="D196" s="2">
-        <v>0</v>
-      </c>
-      <c r="E196" s="20">
-        <v>1</v>
-      </c>
-      <c r="F196" s="22">
-        <v>1</v>
-      </c>
-      <c r="G196" s="3">
-        <v>0</v>
-      </c>
-      <c r="H196" s="18" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B197" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -7380,15 +7386,15 @@
         <v>0</v>
       </c>
       <c r="H197" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B198" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -7406,15 +7412,15 @@
         <v>0</v>
       </c>
       <c r="H198" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B199" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -7432,15 +7438,15 @@
         <v>0</v>
       </c>
       <c r="H199" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B200" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -7458,15 +7464,15 @@
         <v>0</v>
       </c>
       <c r="H200" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B201" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -7484,15 +7490,15 @@
         <v>0</v>
       </c>
       <c r="H201" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B202" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -7510,32 +7516,58 @@
         <v>0</v>
       </c>
       <c r="H202" s="18" t="s">
-        <v>214</v>
+        <v>333</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="B203" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C203" s="2">
+        <v>0</v>
+      </c>
+      <c r="D203" s="2">
+        <v>0</v>
+      </c>
+      <c r="E203" s="20">
+        <v>1</v>
+      </c>
+      <c r="F203" s="22">
+        <v>1</v>
+      </c>
+      <c r="G203" s="3">
+        <v>0</v>
+      </c>
+      <c r="H203" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="B203" s="16" t="s">
+      <c r="B204" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C203" s="2">
-        <v>0</v>
-      </c>
-      <c r="D203" s="2">
-        <v>0</v>
-      </c>
-      <c r="E203" s="20">
-        <v>1</v>
-      </c>
-      <c r="F203" s="20">
-        <v>1</v>
-      </c>
-      <c r="G203" s="3">
-        <v>0</v>
-      </c>
-      <c r="H203" s="18" t="s">
+      <c r="C204" s="2">
+        <v>0</v>
+      </c>
+      <c r="D204" s="2">
+        <v>0</v>
+      </c>
+      <c r="E204" s="20">
+        <v>1</v>
+      </c>
+      <c r="F204" s="20">
+        <v>1</v>
+      </c>
+      <c r="G204" s="3">
+        <v>0</v>
+      </c>
+      <c r="H204" s="18" t="s">
         <v>213</v>
       </c>
     </row>

--- a/inst/extdata/main_dict_senegal.xlsx
+++ b/inst/extdata/main_dict_senegal.xlsx
@@ -2252,8 +2252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="L169" sqref="L169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6629,7 +6629,7 @@
         <v>1</v>
       </c>
       <c r="G168" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168" s="17" t="s">
         <v>299</v>
@@ -6655,7 +6655,7 @@
         <v>1</v>
       </c>
       <c r="G169" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169" s="17" t="s">
         <v>300</v>

--- a/inst/extdata/main_dict_senegal.xlsx
+++ b/inst/extdata/main_dict_senegal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="603">
   <si>
     <t>old</t>
   </si>
@@ -1830,6 +1830,9 @@
   </si>
   <si>
     <t>cg_district</t>
+  </si>
+  <si>
+    <t>start</t>
   </si>
 </sst>
 </file>
@@ -2250,10 +2253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H204"/>
+  <dimension ref="A1:H205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="L169" sqref="L169"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2398,95 +2401,95 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>487</v>
+        <v>336</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>487</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>487</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>337</v>
+        <v>487</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>36</v>
+        <v>487</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -2498,67 +2501,67 @@
         <v>0</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>176</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>495</v>
+        <v>339</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>497</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -2573,18 +2576,18 @@
         <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>496</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>340</v>
+        <v>495</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>29</v>
+        <v>497</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -2602,15 +2605,15 @@
         <v>0</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>178</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -2625,24 +2628,24 @@
         <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -2654,15 +2657,15 @@
         <v>1</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>494</v>
+        <v>342</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>493</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -2677,18 +2680,18 @@
         <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>493</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>343</v>
+        <v>494</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>11</v>
+        <v>493</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -2706,15 +2709,15 @@
         <v>0</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>181</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -2732,15 +2735,15 @@
         <v>0</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -2755,44 +2758,44 @@
         <v>1</v>
       </c>
       <c r="G19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="21">
-        <v>1</v>
-      </c>
-      <c r="F20" s="22">
-        <v>1</v>
-      </c>
-      <c r="G20" s="22">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
         <v>1</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="20">
         <v>1</v>
@@ -2800,83 +2803,83 @@
       <c r="D21" s="20">
         <v>0</v>
       </c>
-      <c r="E21" s="20">
-        <v>1</v>
-      </c>
-      <c r="F21" s="20">
+      <c r="E21" s="21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="22">
         <v>1</v>
       </c>
       <c r="G21" s="22">
         <v>1</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C22" s="20">
         <v>1</v>
       </c>
       <c r="D22" s="20">
-        <v>1</v>
-      </c>
-      <c r="E22" s="21">
-        <v>1</v>
-      </c>
-      <c r="F22" s="22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="20">
+        <v>1</v>
+      </c>
+      <c r="F22" s="20">
         <v>1</v>
       </c>
       <c r="G22" s="22">
         <v>1</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
+        <v>8</v>
+      </c>
+      <c r="C23" s="20">
+        <v>1</v>
+      </c>
+      <c r="D23" s="20">
+        <v>1</v>
+      </c>
+      <c r="E23" s="21">
+        <v>1</v>
+      </c>
+      <c r="F23" s="22">
+        <v>1</v>
+      </c>
+      <c r="G23" s="22">
         <v>1</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>186</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
       </c>
       <c r="D24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
@@ -2885,24 +2888,24 @@
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -2911,70 +2914,70 @@
         <v>1</v>
       </c>
       <c r="G25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="11" t="s">
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -2989,18 +2992,18 @@
         <v>1</v>
       </c>
       <c r="G28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -3018,15 +3021,15 @@
         <v>0</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -3044,15 +3047,15 @@
         <v>0</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>508</v>
+        <v>356</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>509</v>
+        <v>5</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -3067,122 +3070,122 @@
         <v>1</v>
       </c>
       <c r="G31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>510</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B33" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="12" t="s">
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="12" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B34" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" s="7" t="s">
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B35" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="H34" s="10" t="s">
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="10" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -3200,15 +3203,15 @@
         <v>1</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -3226,15 +3229,15 @@
         <v>1</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -3249,18 +3252,18 @@
         <v>1</v>
       </c>
       <c r="G38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -3278,15 +3281,15 @@
         <v>0</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -3304,24 +3307,24 @@
         <v>0</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
       </c>
       <c r="D41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="3">
         <v>1</v>
@@ -3330,223 +3333,223 @@
         <v>0</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B43" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="4">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="7" t="s">
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B44" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="6" t="s">
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0</v>
-      </c>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="4">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B46" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="C45" s="2">
-        <v>1</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1</v>
-      </c>
-      <c r="E45" s="4">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1</v>
-      </c>
-      <c r="H45" s="7" t="s">
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1</v>
-      </c>
-      <c r="E46" s="4">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B48" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="2">
-        <v>0</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1</v>
-      </c>
-      <c r="E47" s="4">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="9" t="s">
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B49" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="2">
-        <v>0</v>
-      </c>
-      <c r="D48" s="2">
-        <v>1</v>
-      </c>
-      <c r="E48" s="4">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1</v>
-      </c>
-      <c r="H48" s="11" t="s">
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1</v>
+      </c>
+      <c r="H49" s="11" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1</v>
-      </c>
-      <c r="E49" s="4">
-        <v>0</v>
-      </c>
-      <c r="F49" s="4">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -3564,15 +3567,15 @@
         <v>0</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>488</v>
+        <v>374</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>492</v>
+        <v>40</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -3590,15 +3593,15 @@
         <v>0</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>490</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -3616,15 +3619,15 @@
         <v>0</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -3642,15 +3645,15 @@
         <v>0</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>375</v>
+        <v>499</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>41</v>
+        <v>500</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -3668,15 +3671,15 @@
         <v>0</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>212</v>
+        <v>501</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -3694,15 +3697,15 @@
         <v>0</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -3720,119 +3723,119 @@
         <v>0</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B58" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C57" s="2">
-        <v>0</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0</v>
-      </c>
-      <c r="F57" s="4">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="9" t="s">
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="9" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
-        <v>504</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="C58" s="2">
-        <v>1</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1</v>
-      </c>
-      <c r="E58" s="4">
-        <v>1</v>
-      </c>
-      <c r="F58" s="4">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B60" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="C59" s="2">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1</v>
-      </c>
-      <c r="E59" s="4">
-        <v>1</v>
-      </c>
-      <c r="F59" s="4">
-        <v>1</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1</v>
-      </c>
-      <c r="H59" s="11" t="s">
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+      <c r="H60" s="11" t="s">
         <v>507</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
-        <v>599</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1</v>
-      </c>
-      <c r="E60" s="4">
-        <v>1</v>
-      </c>
-      <c r="F60" s="4">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>601</v>
+        <v>503</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -3854,45 +3857,45 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>52</v>
+      <c r="A62" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>601</v>
       </c>
       <c r="C62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="4">
         <v>1</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="4">
         <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>1</v>
       </c>
-      <c r="H62" s="13" t="s">
-        <v>218</v>
+      <c r="H62" s="11" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" s="20">
-        <v>0</v>
-      </c>
-      <c r="D63" s="20">
-        <v>0</v>
-      </c>
-      <c r="E63" s="21">
+        <v>52</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
         <v>1</v>
       </c>
       <c r="F63" s="3">
@@ -3902,15 +3905,15 @@
         <v>1</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C64" s="20">
         <v>0</v>
@@ -3918,7 +3921,7 @@
       <c r="D64" s="20">
         <v>0</v>
       </c>
-      <c r="E64" s="20">
+      <c r="E64" s="21">
         <v>1</v>
       </c>
       <c r="F64" s="3">
@@ -3928,15 +3931,15 @@
         <v>1</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C65" s="20">
         <v>0</v>
@@ -3944,7 +3947,7 @@
       <c r="D65" s="20">
         <v>0</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E65" s="20">
         <v>1</v>
       </c>
       <c r="F65" s="3">
@@ -3954,15 +3957,15 @@
         <v>1</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C66" s="20">
         <v>0</v>
@@ -3980,23 +3983,23 @@
         <v>1</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C67" s="2">
-        <v>0</v>
-      </c>
-      <c r="D67" s="2">
-        <v>0</v>
-      </c>
-      <c r="E67" s="4">
+        <v>56</v>
+      </c>
+      <c r="C67" s="20">
+        <v>0</v>
+      </c>
+      <c r="D67" s="20">
+        <v>0</v>
+      </c>
+      <c r="E67" s="21">
         <v>1</v>
       </c>
       <c r="F67" s="3">
@@ -4006,15 +4009,15 @@
         <v>1</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -4032,15 +4035,15 @@
         <v>1</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -4058,15 +4061,15 @@
         <v>1</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -4084,15 +4087,15 @@
         <v>1</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -4110,15 +4113,15 @@
         <v>1</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -4136,15 +4139,15 @@
         <v>1</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -4162,15 +4165,15 @@
         <v>1</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -4188,15 +4191,15 @@
         <v>1</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -4214,15 +4217,15 @@
         <v>1</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -4240,15 +4243,15 @@
         <v>1</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -4266,15 +4269,15 @@
         <v>1</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -4292,15 +4295,15 @@
         <v>1</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -4318,15 +4321,15 @@
         <v>1</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -4344,15 +4347,15 @@
         <v>1</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -4370,23 +4373,23 @@
         <v>1</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C82" s="20">
+        <v>71</v>
+      </c>
+      <c r="C82" s="2">
         <v>0</v>
       </c>
       <c r="D82" s="2">
         <v>0</v>
       </c>
-      <c r="E82" s="21">
+      <c r="E82" s="4">
         <v>1</v>
       </c>
       <c r="F82" s="3">
@@ -4396,15 +4399,15 @@
         <v>1</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C83" s="20">
         <v>0</v>
@@ -4412,7 +4415,7 @@
       <c r="D83" s="2">
         <v>0</v>
       </c>
-      <c r="E83" s="20">
+      <c r="E83" s="21">
         <v>1</v>
       </c>
       <c r="F83" s="3">
@@ -4422,15 +4425,15 @@
         <v>1</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C84" s="20">
         <v>0</v>
@@ -4438,7 +4441,7 @@
       <c r="D84" s="2">
         <v>0</v>
       </c>
-      <c r="E84" s="21">
+      <c r="E84" s="20">
         <v>1</v>
       </c>
       <c r="F84" s="3">
@@ -4448,15 +4451,15 @@
         <v>1</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C85" s="20">
         <v>0</v>
@@ -4474,15 +4477,15 @@
         <v>1</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C86" s="20">
         <v>0</v>
@@ -4490,7 +4493,7 @@
       <c r="D86" s="2">
         <v>0</v>
       </c>
-      <c r="E86" s="20">
+      <c r="E86" s="21">
         <v>1</v>
       </c>
       <c r="F86" s="3">
@@ -4500,15 +4503,15 @@
         <v>1</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C87" s="20">
         <v>0</v>
@@ -4516,7 +4519,7 @@
       <c r="D87" s="2">
         <v>0</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="20">
         <v>1</v>
       </c>
       <c r="F87" s="3">
@@ -4526,15 +4529,15 @@
         <v>1</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C88" s="20">
         <v>0</v>
@@ -4552,17 +4555,17 @@
         <v>1</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C89" s="2">
+        <v>78</v>
+      </c>
+      <c r="C89" s="20">
         <v>0</v>
       </c>
       <c r="D89" s="2">
@@ -4578,67 +4581,67 @@
         <v>1</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0</v>
+      </c>
+      <c r="E90" s="4">
+        <v>1</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="3">
+        <v>1</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B91" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C90" s="2">
-        <v>0</v>
-      </c>
-      <c r="D90" s="2">
-        <v>0</v>
-      </c>
-      <c r="E90" s="4">
-        <v>1</v>
-      </c>
-      <c r="F90" s="3">
-        <v>0</v>
-      </c>
-      <c r="G90" s="3">
-        <v>1</v>
-      </c>
-      <c r="H90" s="13" t="s">
+      <c r="C91" s="2">
+        <v>0</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0</v>
+      </c>
+      <c r="E91" s="4">
+        <v>1</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>1</v>
+      </c>
+      <c r="H91" s="13" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C91" s="2">
-        <v>0</v>
-      </c>
-      <c r="D91" s="2">
-        <v>0</v>
-      </c>
-      <c r="E91" s="2">
-        <v>1</v>
-      </c>
-      <c r="F91" s="3">
-        <v>1</v>
-      </c>
-      <c r="G91" s="3">
-        <v>1</v>
-      </c>
-      <c r="H91" s="17" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
@@ -4653,18 +4656,18 @@
         <v>1</v>
       </c>
       <c r="G92" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
@@ -4682,15 +4685,15 @@
         <v>0</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -4708,15 +4711,15 @@
         <v>0</v>
       </c>
       <c r="H94" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -4734,15 +4737,15 @@
         <v>0</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -4760,15 +4763,15 @@
         <v>0</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -4786,15 +4789,15 @@
         <v>0</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -4812,15 +4815,15 @@
         <v>0</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -4838,15 +4841,15 @@
         <v>0</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -4864,15 +4867,15 @@
         <v>0</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -4890,15 +4893,15 @@
         <v>0</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -4916,15 +4919,15 @@
         <v>0</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -4942,15 +4945,15 @@
         <v>0</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -4968,15 +4971,15 @@
         <v>0</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -4994,15 +4997,15 @@
         <v>0</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -5020,15 +5023,15 @@
         <v>0</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -5046,15 +5049,15 @@
         <v>0</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -5069,18 +5072,18 @@
         <v>1</v>
       </c>
       <c r="G108" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>99</v>
+        <v>426</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -5098,15 +5101,15 @@
         <v>1</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -5124,15 +5127,15 @@
         <v>1</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -5150,15 +5153,15 @@
         <v>1</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -5176,15 +5179,15 @@
         <v>1</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -5202,15 +5205,15 @@
         <v>1</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -5228,15 +5231,15 @@
         <v>1</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -5254,15 +5257,15 @@
         <v>1</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -5270,25 +5273,25 @@
       <c r="D116" s="2">
         <v>0</v>
       </c>
-      <c r="E116" s="20">
-        <v>1</v>
-      </c>
-      <c r="F116" s="22">
+      <c r="E116" s="2">
+        <v>1</v>
+      </c>
+      <c r="F116" s="3">
         <v>1</v>
       </c>
       <c r="G116" s="3">
         <v>1</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -5306,15 +5309,15 @@
         <v>1</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -5332,15 +5335,15 @@
         <v>1</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -5351,22 +5354,22 @@
       <c r="E119" s="20">
         <v>1</v>
       </c>
-      <c r="F119" s="20">
+      <c r="F119" s="22">
         <v>1</v>
       </c>
       <c r="G119" s="3">
         <v>1</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5377,22 +5380,22 @@
       <c r="E120" s="20">
         <v>1</v>
       </c>
-      <c r="F120" s="22">
+      <c r="F120" s="20">
         <v>1</v>
       </c>
       <c r="G120" s="3">
         <v>1</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5410,15 +5413,15 @@
         <v>1</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -5436,15 +5439,15 @@
         <v>1</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -5455,22 +5458,22 @@
       <c r="E123" s="20">
         <v>1</v>
       </c>
-      <c r="F123" s="20">
+      <c r="F123" s="22">
         <v>1</v>
       </c>
       <c r="G123" s="3">
         <v>1</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>114</v>
+        <v>441</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -5481,22 +5484,22 @@
       <c r="E124" s="20">
         <v>1</v>
       </c>
-      <c r="F124" s="22">
+      <c r="F124" s="20">
         <v>1</v>
       </c>
       <c r="G124" s="3">
         <v>1</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -5511,18 +5514,18 @@
         <v>1</v>
       </c>
       <c r="G125" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>115</v>
+        <v>280</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5540,15 +5543,15 @@
         <v>0</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>281</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -5566,15 +5569,15 @@
         <v>0</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -5592,15 +5595,15 @@
         <v>0</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -5611,22 +5614,22 @@
       <c r="E129" s="20">
         <v>1</v>
       </c>
-      <c r="F129" s="20">
+      <c r="F129" s="22">
         <v>1</v>
       </c>
       <c r="G129" s="3">
         <v>0</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -5637,22 +5640,22 @@
       <c r="E130" s="20">
         <v>1</v>
       </c>
-      <c r="F130" s="22">
+      <c r="F130" s="20">
         <v>1</v>
       </c>
       <c r="G130" s="3">
         <v>0</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -5670,67 +5673,67 @@
         <v>0</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C132" s="2">
+        <v>0</v>
+      </c>
+      <c r="D132" s="2">
+        <v>0</v>
+      </c>
+      <c r="E132" s="20">
+        <v>1</v>
+      </c>
+      <c r="F132" s="22">
+        <v>1</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0</v>
+      </c>
+      <c r="H132" s="17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="B133" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C132" s="2">
-        <v>0</v>
-      </c>
-      <c r="D132" s="2">
-        <v>0</v>
-      </c>
-      <c r="E132" s="20">
-        <v>1</v>
-      </c>
-      <c r="F132" s="22">
-        <v>1</v>
-      </c>
-      <c r="G132" s="3">
-        <v>0</v>
-      </c>
-      <c r="H132" s="17" t="s">
+      <c r="C133" s="2">
+        <v>0</v>
+      </c>
+      <c r="D133" s="2">
+        <v>0</v>
+      </c>
+      <c r="E133" s="20">
+        <v>1</v>
+      </c>
+      <c r="F133" s="22">
+        <v>1</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0</v>
+      </c>
+      <c r="H133" s="17" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="18" t="s">
-        <v>575</v>
-      </c>
-      <c r="B133" s="16" t="s">
-        <v>581</v>
-      </c>
-      <c r="C133" s="2">
-        <v>0</v>
-      </c>
-      <c r="D133" s="2">
-        <v>0</v>
-      </c>
-      <c r="E133" s="20">
-        <v>1</v>
-      </c>
-      <c r="F133" s="20">
-        <v>1</v>
-      </c>
-      <c r="G133" s="3">
-        <v>0</v>
-      </c>
-      <c r="H133" s="18" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5748,15 +5751,15 @@
         <v>0</v>
       </c>
       <c r="H134" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5774,15 +5777,15 @@
         <v>0</v>
       </c>
       <c r="H135" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5800,15 +5803,15 @@
         <v>0</v>
       </c>
       <c r="H136" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5826,67 +5829,67 @@
         <v>0</v>
       </c>
       <c r="H137" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="18" t="s">
+        <v>579</v>
+      </c>
+      <c r="B138" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="C138" s="2">
+        <v>0</v>
+      </c>
+      <c r="D138" s="2">
+        <v>0</v>
+      </c>
+      <c r="E138" s="20">
+        <v>1</v>
+      </c>
+      <c r="F138" s="20">
+        <v>1</v>
+      </c>
+      <c r="G138" s="3">
+        <v>0</v>
+      </c>
+      <c r="H138" s="18" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="B138" s="16" t="s">
+      <c r="B139" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="C138" s="2">
-        <v>0</v>
-      </c>
-      <c r="D138" s="2">
-        <v>0</v>
-      </c>
-      <c r="E138" s="20">
-        <v>1</v>
-      </c>
-      <c r="F138" s="20">
-        <v>1</v>
-      </c>
-      <c r="G138" s="3">
-        <v>0</v>
-      </c>
-      <c r="H138" s="18" t="s">
+      <c r="C139" s="2">
+        <v>0</v>
+      </c>
+      <c r="D139" s="2">
+        <v>0</v>
+      </c>
+      <c r="E139" s="20">
+        <v>1</v>
+      </c>
+      <c r="F139" s="20">
+        <v>1</v>
+      </c>
+      <c r="G139" s="3">
+        <v>0</v>
+      </c>
+      <c r="H139" s="18" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="B139" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C139" s="2">
-        <v>0</v>
-      </c>
-      <c r="D139" s="2">
-        <v>0</v>
-      </c>
-      <c r="E139" s="20">
-        <v>1</v>
-      </c>
-      <c r="F139" s="22">
-        <v>1</v>
-      </c>
-      <c r="G139" s="3">
-        <v>0</v>
-      </c>
-      <c r="H139" s="17" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="17" t="s">
-        <v>557</v>
-      </c>
-      <c r="B140" s="23" t="s">
-        <v>533</v>
+        <v>451</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -5894,7 +5897,7 @@
       <c r="D140" s="2">
         <v>0</v>
       </c>
-      <c r="E140" s="4">
+      <c r="E140" s="20">
         <v>1</v>
       </c>
       <c r="F140" s="22">
@@ -5904,15 +5907,15 @@
         <v>0</v>
       </c>
       <c r="H140" s="17" t="s">
-        <v>515</v>
+        <v>288</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -5930,15 +5933,15 @@
         <v>0</v>
       </c>
       <c r="H141" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -5956,15 +5959,15 @@
         <v>0</v>
       </c>
       <c r="H142" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -5982,15 +5985,15 @@
         <v>0</v>
       </c>
       <c r="H143" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -6008,15 +6011,15 @@
         <v>0</v>
       </c>
       <c r="H144" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -6034,15 +6037,15 @@
         <v>0</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -6060,15 +6063,15 @@
         <v>0</v>
       </c>
       <c r="H146" s="17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -6086,15 +6089,15 @@
         <v>0</v>
       </c>
       <c r="H147" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -6112,15 +6115,15 @@
         <v>0</v>
       </c>
       <c r="H148" s="17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -6138,15 +6141,15 @@
         <v>0</v>
       </c>
       <c r="H149" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -6164,15 +6167,15 @@
         <v>0</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -6190,15 +6193,15 @@
         <v>0</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -6216,15 +6219,15 @@
         <v>0</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6242,15 +6245,15 @@
         <v>0</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6268,15 +6271,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6294,15 +6297,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6320,15 +6323,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6346,15 +6349,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="B158" s="14" t="s">
-        <v>124</v>
+        <v>574</v>
+      </c>
+      <c r="B158" s="23" t="s">
+        <v>549</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6362,7 +6365,7 @@
       <c r="D158" s="2">
         <v>0</v>
       </c>
-      <c r="E158" s="20">
+      <c r="E158" s="4">
         <v>1</v>
       </c>
       <c r="F158" s="22">
@@ -6372,15 +6375,15 @@
         <v>0</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>289</v>
+        <v>532</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>417</v>
+        <v>452</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6398,15 +6401,15 @@
         <v>0</v>
       </c>
       <c r="H159" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6421,18 +6424,18 @@
         <v>1</v>
       </c>
       <c r="G160" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6450,15 +6453,15 @@
         <v>1</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="B162" s="15" t="s">
-        <v>128</v>
+        <v>454</v>
+      </c>
+      <c r="B162" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6473,18 +6476,18 @@
         <v>1</v>
       </c>
       <c r="G162" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6502,15 +6505,15 @@
         <v>0</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="B164" s="14" t="s">
-        <v>130</v>
+        <v>456</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6528,15 +6531,15 @@
         <v>0</v>
       </c>
       <c r="H164" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6547,22 +6550,22 @@
       <c r="E165" s="20">
         <v>1</v>
       </c>
-      <c r="F165" s="20">
+      <c r="F165" s="22">
         <v>1</v>
       </c>
       <c r="G165" s="3">
         <v>0</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6573,22 +6576,22 @@
       <c r="E166" s="20">
         <v>1</v>
       </c>
-      <c r="F166" s="22">
+      <c r="F166" s="20">
         <v>1</v>
       </c>
       <c r="G166" s="3">
         <v>0</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6606,15 +6609,15 @@
         <v>0</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6629,18 +6632,18 @@
         <v>1</v>
       </c>
       <c r="G168" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6658,15 +6661,15 @@
         <v>1</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6681,18 +6684,18 @@
         <v>1</v>
       </c>
       <c r="G170" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6710,15 +6713,15 @@
         <v>0</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6736,15 +6739,15 @@
         <v>0</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6762,15 +6765,15 @@
         <v>0</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="17" t="s">
-        <v>587</v>
+        <v>466</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6788,15 +6791,15 @@
         <v>0</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="17" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6814,15 +6817,15 @@
         <v>0</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="17" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6840,15 +6843,15 @@
         <v>0</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="17" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -6866,15 +6869,15 @@
         <v>0</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -6892,15 +6895,15 @@
         <v>0</v>
       </c>
       <c r="H178" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -6918,15 +6921,15 @@
         <v>0</v>
       </c>
       <c r="H179" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -6944,15 +6947,15 @@
         <v>0</v>
       </c>
       <c r="H180" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="17" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -6970,15 +6973,15 @@
         <v>0</v>
       </c>
       <c r="H181" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -6996,15 +6999,15 @@
         <v>0</v>
       </c>
       <c r="H182" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -7022,15 +7025,15 @@
         <v>0</v>
       </c>
       <c r="H183" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -7048,15 +7051,15 @@
         <v>0</v>
       </c>
       <c r="H184" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="17" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7074,15 +7077,15 @@
         <v>0</v>
       </c>
       <c r="H185" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="17" t="s">
-        <v>467</v>
+        <v>598</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7100,15 +7103,15 @@
         <v>0</v>
       </c>
       <c r="H186" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7119,22 +7122,22 @@
       <c r="E187" s="20">
         <v>1</v>
       </c>
-      <c r="F187" s="20">
+      <c r="F187" s="22">
         <v>1</v>
       </c>
       <c r="G187" s="3">
         <v>0</v>
       </c>
       <c r="H187" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7145,22 +7148,22 @@
       <c r="E188" s="20">
         <v>1</v>
       </c>
-      <c r="F188" s="22">
+      <c r="F188" s="20">
         <v>1</v>
       </c>
       <c r="G188" s="3">
         <v>0</v>
       </c>
       <c r="H188" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7178,15 +7181,15 @@
         <v>0</v>
       </c>
       <c r="H189" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7204,15 +7207,15 @@
         <v>0</v>
       </c>
       <c r="H190" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7230,15 +7233,15 @@
         <v>0</v>
       </c>
       <c r="H191" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7256,15 +7259,15 @@
         <v>0</v>
       </c>
       <c r="H192" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7282,15 +7285,15 @@
         <v>0</v>
       </c>
       <c r="H193" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7308,15 +7311,15 @@
         <v>0</v>
       </c>
       <c r="H194" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -7334,67 +7337,67 @@
         <v>0</v>
       </c>
       <c r="H195" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="B196" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C196" s="2">
+        <v>0</v>
+      </c>
+      <c r="D196" s="2">
+        <v>0</v>
+      </c>
+      <c r="E196" s="20">
+        <v>1</v>
+      </c>
+      <c r="F196" s="22">
+        <v>1</v>
+      </c>
+      <c r="G196" s="3">
+        <v>0</v>
+      </c>
+      <c r="H196" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="B196" s="14" t="s">
+      <c r="B197" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C196" s="2">
-        <v>0</v>
-      </c>
-      <c r="D196" s="2">
-        <v>0</v>
-      </c>
-      <c r="E196" s="20">
-        <v>1</v>
-      </c>
-      <c r="F196" s="22">
-        <v>1</v>
-      </c>
-      <c r="G196" s="3">
-        <v>0</v>
-      </c>
-      <c r="H196" s="17" t="s">
+      <c r="C197" s="2">
+        <v>0</v>
+      </c>
+      <c r="D197" s="2">
+        <v>0</v>
+      </c>
+      <c r="E197" s="20">
+        <v>1</v>
+      </c>
+      <c r="F197" s="22">
+        <v>1</v>
+      </c>
+      <c r="G197" s="3">
+        <v>0</v>
+      </c>
+      <c r="H197" s="17" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A197" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="B197" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C197" s="2">
-        <v>0</v>
-      </c>
-      <c r="D197" s="2">
-        <v>0</v>
-      </c>
-      <c r="E197" s="20">
-        <v>1</v>
-      </c>
-      <c r="F197" s="22">
-        <v>1</v>
-      </c>
-      <c r="G197" s="3">
-        <v>0</v>
-      </c>
-      <c r="H197" s="18" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B198" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -7412,15 +7415,15 @@
         <v>0</v>
       </c>
       <c r="H198" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B199" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -7438,15 +7441,15 @@
         <v>0</v>
       </c>
       <c r="H199" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B200" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -7464,15 +7467,15 @@
         <v>0</v>
       </c>
       <c r="H200" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B201" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -7490,15 +7493,15 @@
         <v>0</v>
       </c>
       <c r="H201" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B202" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -7516,15 +7519,15 @@
         <v>0</v>
       </c>
       <c r="H202" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B203" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -7542,32 +7545,58 @@
         <v>0</v>
       </c>
       <c r="H203" s="18" t="s">
-        <v>214</v>
+        <v>333</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="B204" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C204" s="2">
+        <v>0</v>
+      </c>
+      <c r="D204" s="2">
+        <v>0</v>
+      </c>
+      <c r="E204" s="20">
+        <v>1</v>
+      </c>
+      <c r="F204" s="22">
+        <v>1</v>
+      </c>
+      <c r="G204" s="3">
+        <v>0</v>
+      </c>
+      <c r="H204" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="B204" s="16" t="s">
+      <c r="B205" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C204" s="2">
-        <v>0</v>
-      </c>
-      <c r="D204" s="2">
-        <v>0</v>
-      </c>
-      <c r="E204" s="20">
-        <v>1</v>
-      </c>
-      <c r="F204" s="20">
-        <v>1</v>
-      </c>
-      <c r="G204" s="3">
-        <v>0</v>
-      </c>
-      <c r="H204" s="18" t="s">
+      <c r="C205" s="2">
+        <v>0</v>
+      </c>
+      <c r="D205" s="2">
+        <v>0</v>
+      </c>
+      <c r="E205" s="20">
+        <v>1</v>
+      </c>
+      <c r="F205" s="20">
+        <v>1</v>
+      </c>
+      <c r="G205" s="3">
+        <v>0</v>
+      </c>
+      <c r="H205" s="18" t="s">
         <v>213</v>
       </c>
     </row>

--- a/inst/extdata/main_dict_senegal.xlsx
+++ b/inst/extdata/main_dict_senegal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="609">
   <si>
     <t>old</t>
   </si>
@@ -1833,6 +1833,24 @@
   </si>
   <si>
     <t>start</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-i2_1b</t>
+  </si>
+  <si>
+    <t>ref_facility</t>
+  </si>
+  <si>
+    <t>i2_1b</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-i2_1o</t>
+  </si>
+  <si>
+    <t>ref_facility_oth</t>
+  </si>
+  <si>
+    <t>i2_1o</t>
   </si>
 </sst>
 </file>
@@ -2253,10 +2271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H205"/>
+  <dimension ref="A1:H207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="J153" sqref="J153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6484,10 +6502,10 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="B163" s="15" t="s">
-        <v>128</v>
+        <v>603</v>
+      </c>
+      <c r="B163" s="14" t="s">
+        <v>604</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6502,18 +6520,18 @@
         <v>1</v>
       </c>
       <c r="G163" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>293</v>
+        <v>605</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="B164" s="15" t="s">
-        <v>129</v>
+        <v>606</v>
+      </c>
+      <c r="B164" s="14" t="s">
+        <v>607</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6528,18 +6546,18 @@
         <v>1</v>
       </c>
       <c r="G164" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164" s="17" t="s">
-        <v>294</v>
+        <v>608</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="B165" s="14" t="s">
-        <v>130</v>
+        <v>455</v>
+      </c>
+      <c r="B165" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6557,15 +6575,15 @@
         <v>0</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="B166" s="14" t="s">
-        <v>131</v>
+        <v>456</v>
+      </c>
+      <c r="B166" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6576,22 +6594,22 @@
       <c r="E166" s="20">
         <v>1</v>
       </c>
-      <c r="F166" s="20">
+      <c r="F166" s="22">
         <v>1</v>
       </c>
       <c r="G166" s="3">
         <v>0</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6609,15 +6627,15 @@
         <v>0</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6628,22 +6646,22 @@
       <c r="E168" s="20">
         <v>1</v>
       </c>
-      <c r="F168" s="22">
+      <c r="F168" s="20">
         <v>1</v>
       </c>
       <c r="G168" s="3">
         <v>0</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6658,18 +6676,18 @@
         <v>1</v>
       </c>
       <c r="G169" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6684,18 +6702,18 @@
         <v>1</v>
       </c>
       <c r="G170" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6710,18 +6728,18 @@
         <v>1</v>
       </c>
       <c r="G171" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6736,18 +6754,18 @@
         <v>1</v>
       </c>
       <c r="G172" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6765,15 +6783,15 @@
         <v>0</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="17" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6791,15 +6809,15 @@
         <v>0</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="17" t="s">
-        <v>587</v>
+        <v>465</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6817,15 +6835,15 @@
         <v>0</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="17" t="s">
-        <v>589</v>
+        <v>466</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6843,15 +6861,15 @@
         <v>0</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -6869,15 +6887,15 @@
         <v>0</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -6895,15 +6913,15 @@
         <v>0</v>
       </c>
       <c r="H178" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="17" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -6921,15 +6939,15 @@
         <v>0</v>
       </c>
       <c r="H179" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="17" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -6947,15 +6965,15 @@
         <v>0</v>
       </c>
       <c r="H180" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="17" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -6973,15 +6991,15 @@
         <v>0</v>
       </c>
       <c r="H181" s="17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="17" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -6999,15 +7017,15 @@
         <v>0</v>
       </c>
       <c r="H182" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="17" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -7025,15 +7043,15 @@
         <v>0</v>
       </c>
       <c r="H183" s="17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="17" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -7051,15 +7069,15 @@
         <v>0</v>
       </c>
       <c r="H184" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="17" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7077,15 +7095,15 @@
         <v>0</v>
       </c>
       <c r="H185" s="17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="17" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7103,15 +7121,15 @@
         <v>0</v>
       </c>
       <c r="H186" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="17" t="s">
-        <v>467</v>
+        <v>597</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7129,15 +7147,15 @@
         <v>0</v>
       </c>
       <c r="H187" s="17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="17" t="s">
-        <v>468</v>
+        <v>598</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7148,22 +7166,22 @@
       <c r="E188" s="20">
         <v>1</v>
       </c>
-      <c r="F188" s="20">
+      <c r="F188" s="22">
         <v>1</v>
       </c>
       <c r="G188" s="3">
         <v>0</v>
       </c>
       <c r="H188" s="17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7181,15 +7199,15 @@
         <v>0</v>
       </c>
       <c r="H189" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7200,22 +7218,22 @@
       <c r="E190" s="20">
         <v>1</v>
       </c>
-      <c r="F190" s="22">
+      <c r="F190" s="20">
         <v>1</v>
       </c>
       <c r="G190" s="3">
         <v>0</v>
       </c>
       <c r="H190" s="17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7233,15 +7251,15 @@
         <v>0</v>
       </c>
       <c r="H191" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7259,15 +7277,15 @@
         <v>0</v>
       </c>
       <c r="H192" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7285,15 +7303,15 @@
         <v>0</v>
       </c>
       <c r="H193" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="17" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7311,15 +7329,15 @@
         <v>0</v>
       </c>
       <c r="H194" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -7337,15 +7355,15 @@
         <v>0</v>
       </c>
       <c r="H195" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -7363,93 +7381,93 @@
         <v>0</v>
       </c>
       <c r="H196" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="B197" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C197" s="2">
+        <v>0</v>
+      </c>
+      <c r="D197" s="2">
+        <v>0</v>
+      </c>
+      <c r="E197" s="20">
+        <v>1</v>
+      </c>
+      <c r="F197" s="22">
+        <v>1</v>
+      </c>
+      <c r="G197" s="3">
+        <v>0</v>
+      </c>
+      <c r="H197" s="17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="B198" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C198" s="2">
+        <v>0</v>
+      </c>
+      <c r="D198" s="2">
+        <v>0</v>
+      </c>
+      <c r="E198" s="20">
+        <v>1</v>
+      </c>
+      <c r="F198" s="22">
+        <v>1</v>
+      </c>
+      <c r="G198" s="3">
+        <v>0</v>
+      </c>
+      <c r="H198" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="B197" s="14" t="s">
+      <c r="B199" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C197" s="2">
-        <v>0</v>
-      </c>
-      <c r="D197" s="2">
-        <v>0</v>
-      </c>
-      <c r="E197" s="20">
-        <v>1</v>
-      </c>
-      <c r="F197" s="22">
-        <v>1</v>
-      </c>
-      <c r="G197" s="3">
-        <v>0</v>
-      </c>
-      <c r="H197" s="17" t="s">
+      <c r="C199" s="2">
+        <v>0</v>
+      </c>
+      <c r="D199" s="2">
+        <v>0</v>
+      </c>
+      <c r="E199" s="20">
+        <v>1</v>
+      </c>
+      <c r="F199" s="22">
+        <v>1</v>
+      </c>
+      <c r="G199" s="3">
+        <v>0</v>
+      </c>
+      <c r="H199" s="17" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="B198" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C198" s="2">
-        <v>0</v>
-      </c>
-      <c r="D198" s="2">
-        <v>0</v>
-      </c>
-      <c r="E198" s="20">
-        <v>1</v>
-      </c>
-      <c r="F198" s="22">
-        <v>1</v>
-      </c>
-      <c r="G198" s="3">
-        <v>0</v>
-      </c>
-      <c r="H198" s="18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A199" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="B199" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C199" s="2">
-        <v>0</v>
-      </c>
-      <c r="D199" s="2">
-        <v>0</v>
-      </c>
-      <c r="E199" s="20">
-        <v>1</v>
-      </c>
-      <c r="F199" s="22">
-        <v>1</v>
-      </c>
-      <c r="G199" s="3">
-        <v>0</v>
-      </c>
-      <c r="H199" s="18" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B200" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -7467,15 +7485,15 @@
         <v>0</v>
       </c>
       <c r="H200" s="18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="18" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B201" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -7493,15 +7511,15 @@
         <v>0</v>
       </c>
       <c r="H201" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="18" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B202" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -7519,15 +7537,15 @@
         <v>0</v>
       </c>
       <c r="H202" s="18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="18" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B203" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -7545,15 +7563,15 @@
         <v>0</v>
       </c>
       <c r="H203" s="18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="18" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B204" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C204" s="2">
         <v>0</v>
@@ -7571,32 +7589,84 @@
         <v>0</v>
       </c>
       <c r="H204" s="18" t="s">
-        <v>214</v>
+        <v>332</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="B205" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C205" s="2">
+        <v>0</v>
+      </c>
+      <c r="D205" s="2">
+        <v>0</v>
+      </c>
+      <c r="E205" s="20">
+        <v>1</v>
+      </c>
+      <c r="F205" s="22">
+        <v>1</v>
+      </c>
+      <c r="G205" s="3">
+        <v>0</v>
+      </c>
+      <c r="H205" s="18" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="B206" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C206" s="2">
+        <v>0</v>
+      </c>
+      <c r="D206" s="2">
+        <v>0</v>
+      </c>
+      <c r="E206" s="20">
+        <v>1</v>
+      </c>
+      <c r="F206" s="22">
+        <v>1</v>
+      </c>
+      <c r="G206" s="3">
+        <v>0</v>
+      </c>
+      <c r="H206" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="B205" s="16" t="s">
+      <c r="B207" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C205" s="2">
-        <v>0</v>
-      </c>
-      <c r="D205" s="2">
-        <v>0</v>
-      </c>
-      <c r="E205" s="20">
-        <v>1</v>
-      </c>
-      <c r="F205" s="20">
-        <v>1</v>
-      </c>
-      <c r="G205" s="3">
-        <v>0</v>
-      </c>
-      <c r="H205" s="18" t="s">
+      <c r="C207" s="2">
+        <v>0</v>
+      </c>
+      <c r="D207" s="2">
+        <v>0</v>
+      </c>
+      <c r="E207" s="20">
+        <v>1</v>
+      </c>
+      <c r="F207" s="20">
+        <v>1</v>
+      </c>
+      <c r="G207" s="3">
+        <v>0</v>
+      </c>
+      <c r="H207" s="18" t="s">
         <v>213</v>
       </c>
     </row>

--- a/inst/extdata/main_dict_senegal.xlsx
+++ b/inst/extdata/main_dict_senegal.xlsx
@@ -1277,9 +1277,6 @@
     <t>crfs-t05a-ttt05a-c1_a_2</t>
   </si>
   <si>
-    <t>crfs-t09a2_g3_1o</t>
-  </si>
-  <si>
     <t>crfs-t05a-ttt05a-c1_a_3</t>
   </si>
   <si>
@@ -1851,6 +1848,9 @@
   </si>
   <si>
     <t>i2_1o</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-g3_1o</t>
   </si>
 </sst>
 </file>
@@ -2273,8 +2273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="J153" sqref="J153"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2308,7 +2308,7 @@
         <v>172</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>194</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>173</v>
@@ -2415,15 +2415,15 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2498,10 +2498,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2602,28 +2602,28 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>495</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2706,10 +2706,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3096,37 +3096,37 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="12" t="s">
         <v>509</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>513</v>
-      </c>
       <c r="C33" s="2">
         <v>1</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -3616,10 +3616,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -3637,15 +3637,15 @@
         <v>0</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -3663,33 +3663,33 @@
         <v>0</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="C54" s="2">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="9" t="s">
         <v>500</v>
-      </c>
-      <c r="C54" s="2">
-        <v>0</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="4">
-        <v>0</v>
-      </c>
-      <c r="F54" s="4">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -3798,11 +3798,11 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="B59" s="19" t="s">
-        <v>505</v>
-      </c>
       <c r="C59" s="2">
         <v>1</v>
       </c>
@@ -3819,16 +3819,16 @@
         <v>1</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="B60" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="B60" s="19" t="s">
-        <v>507</v>
-      </c>
       <c r="C60" s="2">
         <v>1</v>
       </c>
@@ -3845,15 +3845,15 @@
         <v>1</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -3871,16 +3871,16 @@
         <v>1</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>601</v>
-      </c>
       <c r="C62" s="2">
         <v>1</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -4890,7 +4890,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B101" s="14" t="s">
         <v>90</v>
@@ -4916,7 +4916,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>91</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B103" s="14" t="s">
         <v>92</v>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>93</v>
@@ -4994,7 +4994,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B105" s="14" t="s">
         <v>94</v>
@@ -5020,7 +5020,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B106" s="14" t="s">
         <v>95</v>
@@ -5046,7 +5046,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B107" s="14" t="s">
         <v>96</v>
@@ -5072,7 +5072,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>97</v>
@@ -5098,7 +5098,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B109" s="14" t="s">
         <v>98</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B110" s="15" t="s">
         <v>99</v>
@@ -5150,7 +5150,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B111" s="15" t="s">
         <v>100</v>
@@ -5176,7 +5176,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B112" s="15" t="s">
         <v>101</v>
@@ -5202,7 +5202,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B113" s="15" t="s">
         <v>102</v>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B114" s="15" t="s">
         <v>103</v>
@@ -5254,7 +5254,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B115" s="15" t="s">
         <v>104</v>
@@ -5280,7 +5280,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B116" s="15" t="s">
         <v>105</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B117" s="15" t="s">
         <v>106</v>
@@ -5332,7 +5332,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B118" s="15" t="s">
         <v>107</v>
@@ -5358,7 +5358,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B119" s="15" t="s">
         <v>108</v>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B120" s="15" t="s">
         <v>109</v>
@@ -5410,7 +5410,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B121" s="15" t="s">
         <v>110</v>
@@ -5436,7 +5436,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B122" s="15" t="s">
         <v>111</v>
@@ -5462,7 +5462,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B123" s="15" t="s">
         <v>112</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B124" s="15" t="s">
         <v>113</v>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B125" s="14" t="s">
         <v>114</v>
@@ -5540,7 +5540,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B126" s="14" t="s">
         <v>115</v>
@@ -5566,7 +5566,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B127" s="14" t="s">
         <v>116</v>
@@ -5592,7 +5592,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B128" s="14" t="s">
         <v>117</v>
@@ -5618,7 +5618,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B129" s="14" t="s">
         <v>118</v>
@@ -5644,7 +5644,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B130" s="14" t="s">
         <v>119</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B131" s="14" t="s">
         <v>120</v>
@@ -5696,7 +5696,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B132" s="14" t="s">
         <v>121</v>
@@ -5722,7 +5722,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B133" s="14" t="s">
         <v>122</v>
@@ -5748,10 +5748,10 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5769,15 +5769,15 @@
         <v>0</v>
       </c>
       <c r="H134" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5795,15 +5795,15 @@
         <v>0</v>
       </c>
       <c r="H135" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5821,15 +5821,15 @@
         <v>0</v>
       </c>
       <c r="H136" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5847,15 +5847,15 @@
         <v>0</v>
       </c>
       <c r="H137" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5873,15 +5873,15 @@
         <v>0</v>
       </c>
       <c r="H138" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="18" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5899,12 +5899,12 @@
         <v>0</v>
       </c>
       <c r="H139" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B140" s="14" t="s">
         <v>123</v>
@@ -5930,10 +5930,10 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -5951,15 +5951,15 @@
         <v>0</v>
       </c>
       <c r="H141" s="17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -5977,15 +5977,15 @@
         <v>0</v>
       </c>
       <c r="H142" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -6003,15 +6003,15 @@
         <v>0</v>
       </c>
       <c r="H143" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -6029,15 +6029,15 @@
         <v>0</v>
       </c>
       <c r="H144" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -6055,15 +6055,15 @@
         <v>0</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -6081,15 +6081,15 @@
         <v>0</v>
       </c>
       <c r="H146" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -6107,15 +6107,15 @@
         <v>0</v>
       </c>
       <c r="H147" s="17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -6133,15 +6133,15 @@
         <v>0</v>
       </c>
       <c r="H148" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -6159,15 +6159,15 @@
         <v>0</v>
       </c>
       <c r="H149" s="17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -6185,15 +6185,15 @@
         <v>0</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -6211,15 +6211,15 @@
         <v>0</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -6237,15 +6237,15 @@
         <v>0</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6263,15 +6263,15 @@
         <v>0</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6289,15 +6289,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6315,15 +6315,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6341,15 +6341,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6367,15 +6367,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6393,12 +6393,12 @@
         <v>0</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B159" s="14" t="s">
         <v>124</v>
@@ -6424,7 +6424,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>417</v>
+        <v>608</v>
       </c>
       <c r="B160" s="14" t="s">
         <v>125</v>
@@ -6450,7 +6450,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B161" s="14" t="s">
         <v>126</v>
@@ -6476,7 +6476,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B162" s="14" t="s">
         <v>127</v>
@@ -6502,59 +6502,59 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="B163" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="B163" s="14" t="s">
+      <c r="C163" s="2">
+        <v>0</v>
+      </c>
+      <c r="D163" s="2">
+        <v>0</v>
+      </c>
+      <c r="E163" s="20">
+        <v>1</v>
+      </c>
+      <c r="F163" s="22">
+        <v>1</v>
+      </c>
+      <c r="G163" s="3">
+        <v>1</v>
+      </c>
+      <c r="H163" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="C163" s="2">
-        <v>0</v>
-      </c>
-      <c r="D163" s="2">
-        <v>0</v>
-      </c>
-      <c r="E163" s="20">
-        <v>1</v>
-      </c>
-      <c r="F163" s="22">
-        <v>1</v>
-      </c>
-      <c r="G163" s="3">
-        <v>1</v>
-      </c>
-      <c r="H163" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
+        <v>605</v>
+      </c>
+      <c r="B164" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="B164" s="14" t="s">
+      <c r="C164" s="2">
+        <v>0</v>
+      </c>
+      <c r="D164" s="2">
+        <v>0</v>
+      </c>
+      <c r="E164" s="20">
+        <v>1</v>
+      </c>
+      <c r="F164" s="22">
+        <v>1</v>
+      </c>
+      <c r="G164" s="3">
+        <v>1</v>
+      </c>
+      <c r="H164" s="17" t="s">
         <v>607</v>
-      </c>
-      <c r="C164" s="2">
-        <v>0</v>
-      </c>
-      <c r="D164" s="2">
-        <v>0</v>
-      </c>
-      <c r="E164" s="20">
-        <v>1</v>
-      </c>
-      <c r="F164" s="22">
-        <v>1</v>
-      </c>
-      <c r="G164" s="3">
-        <v>1</v>
-      </c>
-      <c r="H164" s="17" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B165" s="15" t="s">
         <v>128</v>
@@ -6580,7 +6580,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B166" s="15" t="s">
         <v>129</v>
@@ -6606,7 +6606,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B167" s="14" t="s">
         <v>130</v>
@@ -6632,7 +6632,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B168" s="14" t="s">
         <v>131</v>
@@ -6658,7 +6658,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B169" s="14" t="s">
         <v>132</v>
@@ -6684,7 +6684,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B170" s="14" t="s">
         <v>133</v>
@@ -6710,7 +6710,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B171" s="14" t="s">
         <v>134</v>
@@ -6736,7 +6736,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B172" s="14" t="s">
         <v>135</v>
@@ -6762,7 +6762,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B173" s="14" t="s">
         <v>136</v>
@@ -6788,7 +6788,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B174" s="14" t="s">
         <v>137</v>
@@ -6814,7 +6814,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B175" s="14" t="s">
         <v>138</v>
@@ -6840,7 +6840,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B176" s="14" t="s">
         <v>139</v>
@@ -6866,7 +6866,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B177" s="14" t="s">
         <v>140</v>
@@ -6892,7 +6892,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B178" s="14" t="s">
         <v>141</v>
@@ -6918,7 +6918,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B179" s="14" t="s">
         <v>142</v>
@@ -6944,7 +6944,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B180" s="14" t="s">
         <v>143</v>
@@ -6970,7 +6970,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B181" s="14" t="s">
         <v>144</v>
@@ -6996,7 +6996,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B182" s="14" t="s">
         <v>145</v>
@@ -7022,7 +7022,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B183" s="14" t="s">
         <v>146</v>
@@ -7048,7 +7048,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="17" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B184" s="14" t="s">
         <v>147</v>
@@ -7074,7 +7074,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B185" s="14" t="s">
         <v>148</v>
@@ -7100,7 +7100,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B186" s="14" t="s">
         <v>149</v>
@@ -7126,7 +7126,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B187" s="14" t="s">
         <v>150</v>
@@ -7152,7 +7152,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="17" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B188" s="14" t="s">
         <v>151</v>
@@ -7178,7 +7178,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B189" s="14" t="s">
         <v>152</v>
@@ -7204,7 +7204,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B190" s="14" t="s">
         <v>153</v>
@@ -7230,7 +7230,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B191" s="14" t="s">
         <v>154</v>
@@ -7256,7 +7256,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B192" s="14" t="s">
         <v>155</v>
@@ -7282,7 +7282,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B193" s="14" t="s">
         <v>156</v>
@@ -7308,7 +7308,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B194" s="14" t="s">
         <v>157</v>
@@ -7334,7 +7334,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B195" s="14" t="s">
         <v>158</v>
@@ -7360,7 +7360,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B196" s="14" t="s">
         <v>159</v>
@@ -7386,7 +7386,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B197" s="14" t="s">
         <v>160</v>
@@ -7412,7 +7412,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B198" s="14" t="s">
         <v>161</v>
@@ -7438,7 +7438,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B199" s="14" t="s">
         <v>162</v>
@@ -7464,7 +7464,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B200" s="16" t="s">
         <v>163</v>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B201" s="16" t="s">
         <v>164</v>
@@ -7516,7 +7516,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B202" s="16" t="s">
         <v>165</v>
@@ -7542,7 +7542,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B203" s="16" t="s">
         <v>166</v>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B204" s="16" t="s">
         <v>167</v>
@@ -7594,7 +7594,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B205" s="16" t="s">
         <v>168</v>
@@ -7620,7 +7620,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B206" s="16" t="s">
         <v>169</v>
@@ -7646,7 +7646,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B207" s="16" t="s">
         <v>170</v>

--- a/inst/extdata/main_dict_senegal.xlsx
+++ b/inst/extdata/main_dict_senegal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="525">
   <si>
     <t>old</t>
   </si>
@@ -68,9 +68,6 @@
     <t>cg_age_yr</t>
   </si>
   <si>
-    <t>yg_age_ctg</t>
-  </si>
-  <si>
     <t>cg_age_ctg</t>
   </si>
   <si>
@@ -236,39 +233,6 @@
     <t>hospit</t>
   </si>
   <si>
-    <t>hh_head</t>
-  </si>
-  <si>
-    <t>hh_u5</t>
-  </si>
-  <si>
-    <t>toilet_type</t>
-  </si>
-  <si>
-    <t>toilet_othtype</t>
-  </si>
-  <si>
-    <t>shared_toilet</t>
-  </si>
-  <si>
-    <t>stove_type</t>
-  </si>
-  <si>
-    <t>stove_othtype</t>
-  </si>
-  <si>
-    <t>water_source</t>
-  </si>
-  <si>
-    <t>water_source_time</t>
-  </si>
-  <si>
-    <t>floor_type</t>
-  </si>
-  <si>
-    <t>roof_type</t>
-  </si>
-  <si>
     <t>sick_duration</t>
   </si>
   <si>
@@ -434,18 +398,6 @@
     <t>spo2_meas1</t>
   </si>
   <si>
-    <t>spo2_rpt2</t>
-  </si>
-  <si>
-    <t>spo2_meas2</t>
-  </si>
-  <si>
-    <t>spo2_rept3</t>
-  </si>
-  <si>
-    <t>spo2_meas3</t>
-  </si>
-  <si>
     <t>temp</t>
   </si>
   <si>
@@ -488,57 +440,18 @@
     <t>tests_oth</t>
   </si>
   <si>
-    <t>malaria_ttype</t>
-  </si>
-  <si>
     <t>malaria_res</t>
   </si>
   <si>
-    <t>hb_ttype</t>
-  </si>
-  <si>
     <t>hb_res</t>
   </si>
   <si>
     <t>bg_res</t>
   </si>
   <si>
-    <t>urine_res</t>
-  </si>
-  <si>
-    <t>stool_res</t>
-  </si>
-  <si>
-    <t>hiv_res</t>
-  </si>
-  <si>
-    <t>tb_res</t>
-  </si>
-  <si>
-    <t>hiv</t>
-  </si>
-  <si>
-    <t>mother_hiv</t>
-  </si>
-  <si>
-    <t>tb_ppx</t>
-  </si>
-  <si>
-    <t>tb</t>
-  </si>
-  <si>
     <t>scd</t>
   </si>
   <si>
-    <t>pwd</t>
-  </si>
-  <si>
-    <t>pwd_type</t>
-  </si>
-  <si>
-    <t>pwd_othtype</t>
-  </si>
-  <si>
     <t>day0</t>
   </si>
   <si>
@@ -665,12 +578,6 @@
     <t>a4_a_1</t>
   </si>
   <si>
-    <t>c3_6o</t>
-  </si>
-  <si>
-    <t>c3_6</t>
-  </si>
-  <si>
     <t>a4_a_3</t>
   </si>
   <si>
@@ -770,39 +677,6 @@
     <t>b1_6</t>
   </si>
   <si>
-    <t>m3_1b</t>
-  </si>
-  <si>
-    <t>m3_2</t>
-  </si>
-  <si>
-    <t>m3_3</t>
-  </si>
-  <si>
-    <t>m3_3o</t>
-  </si>
-  <si>
-    <t>m3_4</t>
-  </si>
-  <si>
-    <t>m3_5</t>
-  </si>
-  <si>
-    <t>m3_5o</t>
-  </si>
-  <si>
-    <t>m3_6</t>
-  </si>
-  <si>
-    <t>m3_7</t>
-  </si>
-  <si>
-    <t>m3_8a</t>
-  </si>
-  <si>
-    <t>m3_9a</t>
-  </si>
-  <si>
     <t>c1_a_7</t>
   </si>
   <si>
@@ -929,18 +803,6 @@
     <t>e2_2a</t>
   </si>
   <si>
-    <t>e2_3</t>
-  </si>
-  <si>
-    <t>e2_3a</t>
-  </si>
-  <si>
-    <t>e2_4</t>
-  </si>
-  <si>
-    <t>e2_4a</t>
-  </si>
-  <si>
     <t>d2_6</t>
   </si>
   <si>
@@ -983,51 +845,18 @@
     <t>f2_1o</t>
   </si>
   <si>
-    <t>f2_2</t>
-  </si>
-  <si>
     <t>f2_3</t>
   </si>
   <si>
-    <t>f2_4</t>
-  </si>
-  <si>
     <t>f2_5</t>
   </si>
   <si>
     <t>f2_10a</t>
   </si>
   <si>
-    <t>f2_6</t>
-  </si>
-  <si>
-    <t>f2_7</t>
-  </si>
-  <si>
-    <t>f2_8</t>
-  </si>
-  <si>
-    <t>f2_9</t>
-  </si>
-  <si>
-    <t>c3_1</t>
-  </si>
-  <si>
-    <t>c3_2</t>
-  </si>
-  <si>
-    <t>c3_3</t>
-  </si>
-  <si>
-    <t>c3_3a</t>
-  </si>
-  <si>
     <t>c3_4</t>
   </si>
   <si>
-    <t>c3_6a</t>
-  </si>
-  <si>
     <t>fid</t>
   </si>
   <si>
@@ -1217,39 +1046,6 @@
     <t>crfs-t03-b1_6</t>
   </si>
   <si>
-    <t>crfs-t03-m3_1b</t>
-  </si>
-  <si>
-    <t>crfs-t03-m3_2</t>
-  </si>
-  <si>
-    <t>crfs-t03-m3_3</t>
-  </si>
-  <si>
-    <t>crfs-t03-m3_3o</t>
-  </si>
-  <si>
-    <t>crfs-t03-m3_4</t>
-  </si>
-  <si>
-    <t>crfs-t03-m3_5</t>
-  </si>
-  <si>
-    <t>crfs-t03-m3_5o</t>
-  </si>
-  <si>
-    <t>crfs-t03-m3_6</t>
-  </si>
-  <si>
-    <t>crfs-t03-m3_7</t>
-  </si>
-  <si>
-    <t>crfs-t03-m3_8a</t>
-  </si>
-  <si>
-    <t>crfs-t03-m3_9a</t>
-  </si>
-  <si>
     <t>crfs-t05a-illnessduration</t>
   </si>
   <si>
@@ -1412,75 +1208,6 @@
     <t>crfs-t07a-tt07a-e2_2a</t>
   </si>
   <si>
-    <t>crfs-t07a-tt07a-e2_3</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt07a-e2_3a</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt07a-e2_4</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt07a-e2_4a</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_1</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_1o</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_2</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_3</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_4</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_5</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_10a</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_6</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_7</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_8</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_9</t>
-  </si>
-  <si>
-    <t>crfs-t05b-c3_1</t>
-  </si>
-  <si>
-    <t>crfs-t05b-c3_2</t>
-  </si>
-  <si>
-    <t>crfs-t05b-c3_3</t>
-  </si>
-  <si>
-    <t>crfs-t05b-c3_3a</t>
-  </si>
-  <si>
-    <t>crfs-t05b-c3_4</t>
-  </si>
-  <si>
-    <t>crfs-t05b-c3_6a</t>
-  </si>
-  <si>
-    <t>crfs-t05b-c3_6</t>
-  </si>
-  <si>
-    <t>crfs-t05b-c3_6o</t>
-  </si>
-  <si>
     <t>SubmitterID</t>
   </si>
   <si>
@@ -1851,6 +1578,27 @@
   </si>
   <si>
     <t>crfs-t09a2-g3_1o</t>
+  </si>
+  <si>
+    <t>crfs-t07a-f2_1</t>
+  </si>
+  <si>
+    <t>crfs-t07a-f2_1o</t>
+  </si>
+  <si>
+    <t>crfs-t07a-f2_3</t>
+  </si>
+  <si>
+    <t>crfs-t07a-f2_5</t>
+  </si>
+  <si>
+    <t>crfs-t07a-f2_10a</t>
+  </si>
+  <si>
+    <t>crfs-t07a-c3_4</t>
+  </si>
+  <si>
+    <t>yg_infant_ctg</t>
   </si>
 </sst>
 </file>
@@ -2271,10 +2019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:H179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2296,22 +2044,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>513</v>
+        <v>422</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2319,7 +2067,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2342,10 +2090,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -2363,16 +2111,16 @@
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
@@ -2389,15 +2137,15 @@
         <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>485</v>
+        <v>394</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -2415,15 +2163,15 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>485</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>601</v>
+        <v>510</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>601</v>
+        <v>510</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -2441,15 +2189,15 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>601</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -2467,15 +2215,15 @@
         <v>0</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -2493,15 +2241,15 @@
         <v>0</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>486</v>
+        <v>395</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>486</v>
+        <v>395</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -2519,15 +2267,15 @@
         <v>0</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>486</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -2545,15 +2293,15 @@
         <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -2571,15 +2319,15 @@
         <v>0</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>339</v>
+        <v>403</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -2594,18 +2342,18 @@
         <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>177</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>494</v>
+        <v>282</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>496</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -2620,18 +2368,18 @@
         <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>495</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -2649,21 +2397,21 @@
         <v>0</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2</v>
+        <v>401</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -2672,24 +2420,24 @@
         <v>1</v>
       </c>
       <c r="G15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>179</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>342</v>
+        <v>284</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -2701,15 +2449,15 @@
         <v>1</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>493</v>
+        <v>286</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>492</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -2727,15 +2475,15 @@
         <v>0</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>492</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>343</v>
+        <v>287</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -2753,21 +2501,21 @@
         <v>0</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>344</v>
+        <v>288</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -2776,24 +2524,24 @@
         <v>1</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>345</v>
+        <v>285</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>10</v>
+        <v>524</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
       </c>
       <c r="D20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -2805,15 +2553,15 @@
         <v>1</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="20">
         <v>1</v>
@@ -2831,15 +2579,15 @@
         <v>1</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="20">
         <v>1</v>
@@ -2857,12 +2605,12 @@
         <v>1</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>8</v>
@@ -2888,10 +2636,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -2909,15 +2657,15 @@
         <v>1</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -2935,12 +2683,12 @@
         <v>0</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>13</v>
@@ -2961,15 +2709,15 @@
         <v>1</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -2987,12 +2735,12 @@
         <v>1</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>4</v>
@@ -3013,12 +2761,12 @@
         <v>1</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>6</v>
@@ -3039,15 +2787,15 @@
         <v>0</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -3065,12 +2813,12 @@
         <v>0</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>5</v>
@@ -3091,15 +2839,15 @@
         <v>0</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>507</v>
+        <v>416</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>508</v>
+        <v>417</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -3117,15 +2865,15 @@
         <v>1</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>509</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>511</v>
+        <v>420</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>512</v>
+        <v>421</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -3143,15 +2891,15 @@
         <v>0</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>510</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -3169,15 +2917,15 @@
         <v>1</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>358</v>
+        <v>301</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -3195,15 +2943,15 @@
         <v>1</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>359</v>
+        <v>302</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -3221,15 +2969,15 @@
         <v>1</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>360</v>
+        <v>303</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -3247,15 +2995,15 @@
         <v>1</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -3273,15 +3021,15 @@
         <v>1</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -3299,15 +3047,15 @@
         <v>0</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>363</v>
+        <v>306</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -3325,15 +3073,15 @@
         <v>0</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -3351,15 +3099,15 @@
         <v>0</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -3377,12 +3125,12 @@
         <v>0</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>366</v>
+        <v>309</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>3</v>
@@ -3403,15 +3151,15 @@
         <v>0</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>367</v>
+        <v>310</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -3429,15 +3177,15 @@
         <v>0</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -3455,15 +3203,15 @@
         <v>1</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>369</v>
+        <v>312</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -3481,15 +3229,15 @@
         <v>1</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -3507,15 +3255,15 @@
         <v>0</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -3533,15 +3281,15 @@
         <v>0</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -3559,15 +3307,15 @@
         <v>1</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>373</v>
+        <v>316</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -3585,15 +3333,15 @@
         <v>0</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -3611,15 +3359,15 @@
         <v>0</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>487</v>
+        <v>396</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>491</v>
+        <v>400</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -3637,15 +3385,15 @@
         <v>0</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>489</v>
+        <v>398</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>488</v>
+        <v>397</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>497</v>
+        <v>406</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -3663,15 +3411,15 @@
         <v>0</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>490</v>
+        <v>399</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>498</v>
+        <v>407</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>499</v>
+        <v>408</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -3689,15 +3437,15 @@
         <v>0</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>500</v>
+        <v>409</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -3715,15 +3463,15 @@
         <v>0</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>376</v>
+        <v>319</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -3741,15 +3489,15 @@
         <v>0</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>377</v>
+        <v>320</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -3767,15 +3515,15 @@
         <v>0</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -3793,15 +3541,15 @@
         <v>0</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>503</v>
+        <v>412</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>504</v>
+        <v>413</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -3819,15 +3567,15 @@
         <v>1</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>504</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>505</v>
+        <v>414</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>506</v>
+        <v>415</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -3845,15 +3593,15 @@
         <v>1</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>506</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>598</v>
+        <v>507</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>502</v>
+        <v>411</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -3871,15 +3619,15 @@
         <v>1</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>501</v>
+        <v>410</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>599</v>
+        <v>508</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -3897,15 +3645,15 @@
         <v>1</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>501</v>
+        <v>410</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>379</v>
+        <v>322</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -3923,15 +3671,15 @@
         <v>1</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C64" s="20">
         <v>0</v>
@@ -3949,15 +3697,15 @@
         <v>1</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C65" s="20">
         <v>0</v>
@@ -3975,15 +3723,15 @@
         <v>1</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C66" s="20">
         <v>0</v>
@@ -4001,15 +3749,15 @@
         <v>1</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>383</v>
+        <v>326</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C67" s="20">
         <v>0</v>
@@ -4027,15 +3775,15 @@
         <v>1</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -4053,15 +3801,15 @@
         <v>1</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -4079,15 +3827,15 @@
         <v>1</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -4105,15 +3853,15 @@
         <v>1</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -4131,15 +3879,15 @@
         <v>1</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -4157,15 +3905,15 @@
         <v>1</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>389</v>
+        <v>332</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -4183,15 +3931,15 @@
         <v>1</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -4209,15 +3957,15 @@
         <v>1</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -4235,15 +3983,15 @@
         <v>1</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -4261,15 +4009,15 @@
         <v>1</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -4287,15 +4035,15 @@
         <v>1</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -4313,15 +4061,15 @@
         <v>1</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -4339,327 +4087,327 @@
         <v>1</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="B80" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0</v>
+      </c>
+      <c r="E80" s="4">
+        <v>1</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0</v>
+      </c>
+      <c r="G80" s="3">
+        <v>1</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="B81" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C80" s="2">
-        <v>0</v>
-      </c>
-      <c r="D80" s="2">
-        <v>0</v>
-      </c>
-      <c r="E80" s="4">
-        <v>1</v>
-      </c>
-      <c r="F80" s="3">
-        <v>0</v>
-      </c>
-      <c r="G80" s="3">
-        <v>1</v>
-      </c>
-      <c r="H80" s="13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="B81" s="13" t="s">
+      <c r="C81" s="2">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0</v>
+      </c>
+      <c r="E81" s="2">
+        <v>1</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1</v>
+      </c>
+      <c r="H81" s="17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="B82" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="2">
-        <v>0</v>
-      </c>
-      <c r="D81" s="2">
-        <v>0</v>
-      </c>
-      <c r="E81" s="4">
-        <v>1</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1</v>
-      </c>
-      <c r="H81" s="13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="B82" s="13" t="s">
+      <c r="C82" s="2">
+        <v>0</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1</v>
+      </c>
+      <c r="F82" s="3">
+        <v>1</v>
+      </c>
+      <c r="G82" s="3">
+        <v>0</v>
+      </c>
+      <c r="H82" s="17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="B83" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C82" s="2">
-        <v>0</v>
-      </c>
-      <c r="D82" s="2">
-        <v>0</v>
-      </c>
-      <c r="E82" s="4">
-        <v>1</v>
-      </c>
-      <c r="F82" s="3">
-        <v>0</v>
-      </c>
-      <c r="G82" s="3">
-        <v>1</v>
-      </c>
-      <c r="H82" s="13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="B83" s="13" t="s">
+      <c r="C83" s="2">
+        <v>0</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="B84" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C83" s="20">
-        <v>0</v>
-      </c>
-      <c r="D83" s="2">
-        <v>0</v>
-      </c>
-      <c r="E83" s="21">
-        <v>1</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1</v>
-      </c>
-      <c r="H83" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="B84" s="13" t="s">
+      <c r="C84" s="2">
+        <v>0</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0</v>
+      </c>
+      <c r="E84" s="2">
+        <v>1</v>
+      </c>
+      <c r="F84" s="3">
+        <v>1</v>
+      </c>
+      <c r="G84" s="3">
+        <v>0</v>
+      </c>
+      <c r="H84" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="B85" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C84" s="20">
-        <v>0</v>
-      </c>
-      <c r="D84" s="2">
-        <v>0</v>
-      </c>
-      <c r="E84" s="20">
-        <v>1</v>
-      </c>
-      <c r="F84" s="3">
-        <v>0</v>
-      </c>
-      <c r="G84" s="3">
-        <v>1</v>
-      </c>
-      <c r="H84" s="13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="B85" s="13" t="s">
+      <c r="C85" s="2">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1</v>
+      </c>
+      <c r="F85" s="3">
+        <v>1</v>
+      </c>
+      <c r="G85" s="3">
+        <v>0</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="B86" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C85" s="20">
-        <v>0</v>
-      </c>
-      <c r="D85" s="2">
-        <v>0</v>
-      </c>
-      <c r="E85" s="21">
-        <v>1</v>
-      </c>
-      <c r="F85" s="3">
-        <v>0</v>
-      </c>
-      <c r="G85" s="3">
-        <v>1</v>
-      </c>
-      <c r="H85" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="B86" s="13" t="s">
+      <c r="C86" s="2">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="B87" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C86" s="20">
-        <v>0</v>
-      </c>
-      <c r="D86" s="2">
-        <v>0</v>
-      </c>
-      <c r="E86" s="21">
-        <v>1</v>
-      </c>
-      <c r="F86" s="3">
-        <v>0</v>
-      </c>
-      <c r="G86" s="3">
-        <v>1</v>
-      </c>
-      <c r="H86" s="13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="B87" s="13" t="s">
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1</v>
+      </c>
+      <c r="F87" s="3">
+        <v>1</v>
+      </c>
+      <c r="G87" s="3">
+        <v>0</v>
+      </c>
+      <c r="H87" s="17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="B88" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C87" s="20">
-        <v>0</v>
-      </c>
-      <c r="D87" s="2">
-        <v>0</v>
-      </c>
-      <c r="E87" s="20">
-        <v>1</v>
-      </c>
-      <c r="F87" s="3">
-        <v>0</v>
-      </c>
-      <c r="G87" s="3">
-        <v>1</v>
-      </c>
-      <c r="H87" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="B88" s="13" t="s">
+      <c r="C88" s="2">
+        <v>0</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3">
+        <v>0</v>
+      </c>
+      <c r="H88" s="17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="B89" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C88" s="20">
-        <v>0</v>
-      </c>
-      <c r="D88" s="2">
-        <v>0</v>
-      </c>
-      <c r="E88" s="4">
-        <v>1</v>
-      </c>
-      <c r="F88" s="3">
-        <v>0</v>
-      </c>
-      <c r="G88" s="3">
-        <v>1</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="B89" s="13" t="s">
+      <c r="C89" s="2">
+        <v>0</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="B90" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C89" s="20">
-        <v>0</v>
-      </c>
-      <c r="D89" s="2">
-        <v>0</v>
-      </c>
-      <c r="E89" s="4">
-        <v>1</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>1</v>
-      </c>
-      <c r="H89" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="B90" s="13" t="s">
+      <c r="C90" s="2">
+        <v>0</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1</v>
+      </c>
+      <c r="F90" s="3">
+        <v>1</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0</v>
+      </c>
+      <c r="H90" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="B91" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C90" s="2">
-        <v>0</v>
-      </c>
-      <c r="D90" s="2">
-        <v>0</v>
-      </c>
-      <c r="E90" s="4">
-        <v>1</v>
-      </c>
-      <c r="F90" s="3">
-        <v>0</v>
-      </c>
-      <c r="G90" s="3">
-        <v>1</v>
-      </c>
-      <c r="H90" s="13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>80</v>
-      </c>
       <c r="C91" s="2">
         <v>0</v>
       </c>
       <c r="D91" s="2">
         <v>0</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="2">
         <v>1</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" s="3">
-        <v>1</v>
-      </c>
-      <c r="H91" s="13" t="s">
-        <v>258</v>
+        <v>0</v>
+      </c>
+      <c r="H91" s="17" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
@@ -4674,18 +4422,18 @@
         <v>1</v>
       </c>
       <c r="G92" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" s="17" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
@@ -4703,15 +4451,15 @@
         <v>0</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -4729,15 +4477,15 @@
         <v>0</v>
       </c>
       <c r="H94" s="17" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -4755,15 +4503,15 @@
         <v>0</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>412</v>
+        <v>355</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -4781,15 +4529,15 @@
         <v>0</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>413</v>
+        <v>356</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -4807,15 +4555,15 @@
         <v>0</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>414</v>
+        <v>357</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -4830,18 +4578,18 @@
         <v>1</v>
       </c>
       <c r="G98" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>88</v>
+        <v>358</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -4856,18 +4604,18 @@
         <v>1</v>
       </c>
       <c r="G99" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>89</v>
+        <v>359</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -4882,18 +4630,18 @@
         <v>1</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>90</v>
+        <v>360</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -4908,18 +4656,18 @@
         <v>1</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>91</v>
+        <v>361</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -4934,18 +4682,18 @@
         <v>1</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>92</v>
+        <v>362</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -4960,18 +4708,18 @@
         <v>1</v>
       </c>
       <c r="G103" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>93</v>
+        <v>363</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -4986,18 +4734,18 @@
         <v>1</v>
       </c>
       <c r="G104" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>94</v>
+        <v>364</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -5012,18 +4760,18 @@
         <v>1</v>
       </c>
       <c r="G105" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>95</v>
+        <v>365</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -5031,25 +4779,25 @@
       <c r="D106" s="2">
         <v>0</v>
       </c>
-      <c r="E106" s="2">
-        <v>1</v>
-      </c>
-      <c r="F106" s="3">
+      <c r="E106" s="20">
+        <v>1</v>
+      </c>
+      <c r="F106" s="22">
         <v>1</v>
       </c>
       <c r="G106" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>96</v>
+        <v>366</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -5057,25 +4805,25 @@
       <c r="D107" s="2">
         <v>0</v>
       </c>
-      <c r="E107" s="2">
-        <v>1</v>
-      </c>
-      <c r="F107" s="3">
+      <c r="E107" s="20">
+        <v>1</v>
+      </c>
+      <c r="F107" s="22">
         <v>1</v>
       </c>
       <c r="G107" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>97</v>
+        <v>367</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -5083,25 +4831,25 @@
       <c r="D108" s="2">
         <v>0</v>
       </c>
-      <c r="E108" s="2">
-        <v>1</v>
-      </c>
-      <c r="F108" s="3">
+      <c r="E108" s="20">
+        <v>1</v>
+      </c>
+      <c r="F108" s="22">
         <v>1</v>
       </c>
       <c r="G108" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>98</v>
+        <v>368</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -5109,25 +4857,25 @@
       <c r="D109" s="2">
         <v>0</v>
       </c>
-      <c r="E109" s="2">
-        <v>1</v>
-      </c>
-      <c r="F109" s="3">
+      <c r="E109" s="20">
+        <v>1</v>
+      </c>
+      <c r="F109" s="20">
         <v>1</v>
       </c>
       <c r="G109" s="3">
         <v>1</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -5135,25 +4883,25 @@
       <c r="D110" s="2">
         <v>0</v>
       </c>
-      <c r="E110" s="2">
-        <v>1</v>
-      </c>
-      <c r="F110" s="3">
+      <c r="E110" s="20">
+        <v>1</v>
+      </c>
+      <c r="F110" s="22">
         <v>1</v>
       </c>
       <c r="G110" s="3">
         <v>1</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>427</v>
+        <v>370</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -5161,25 +4909,25 @@
       <c r="D111" s="2">
         <v>0</v>
       </c>
-      <c r="E111" s="2">
-        <v>1</v>
-      </c>
-      <c r="F111" s="3">
+      <c r="E111" s="20">
+        <v>1</v>
+      </c>
+      <c r="F111" s="22">
         <v>1</v>
       </c>
       <c r="G111" s="3">
         <v>1</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>428</v>
+        <v>371</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -5187,25 +4935,25 @@
       <c r="D112" s="2">
         <v>0</v>
       </c>
-      <c r="E112" s="2">
-        <v>1</v>
-      </c>
-      <c r="F112" s="3">
+      <c r="E112" s="20">
+        <v>1</v>
+      </c>
+      <c r="F112" s="22">
         <v>1</v>
       </c>
       <c r="G112" s="3">
         <v>1</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>429</v>
+        <v>372</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -5213,25 +4961,25 @@
       <c r="D113" s="2">
         <v>0</v>
       </c>
-      <c r="E113" s="2">
-        <v>1</v>
-      </c>
-      <c r="F113" s="3">
+      <c r="E113" s="20">
+        <v>1</v>
+      </c>
+      <c r="F113" s="20">
         <v>1</v>
       </c>
       <c r="G113" s="3">
         <v>1</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>430</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>103</v>
+        <v>373</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -5239,25 +4987,25 @@
       <c r="D114" s="2">
         <v>0</v>
       </c>
-      <c r="E114" s="2">
-        <v>1</v>
-      </c>
-      <c r="F114" s="3">
+      <c r="E114" s="20">
+        <v>1</v>
+      </c>
+      <c r="F114" s="22">
         <v>1</v>
       </c>
       <c r="G114" s="3">
         <v>1</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>104</v>
+        <v>374</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -5265,25 +5013,25 @@
       <c r="D115" s="2">
         <v>0</v>
       </c>
-      <c r="E115" s="2">
-        <v>1</v>
-      </c>
-      <c r="F115" s="3">
+      <c r="E115" s="20">
+        <v>1</v>
+      </c>
+      <c r="F115" s="22">
         <v>1</v>
       </c>
       <c r="G115" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>270</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="B116" s="15" t="s">
-        <v>105</v>
+        <v>375</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -5291,25 +5039,25 @@
       <c r="D116" s="2">
         <v>0</v>
       </c>
-      <c r="E116" s="2">
-        <v>1</v>
-      </c>
-      <c r="F116" s="3">
+      <c r="E116" s="20">
+        <v>1</v>
+      </c>
+      <c r="F116" s="22">
         <v>1</v>
       </c>
       <c r="G116" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>106</v>
+        <v>376</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -5324,18 +5072,18 @@
         <v>1</v>
       </c>
       <c r="G117" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>107</v>
+        <v>377</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -5350,18 +5098,18 @@
         <v>1</v>
       </c>
       <c r="G118" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>108</v>
+        <v>378</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -5372,22 +5120,22 @@
       <c r="E119" s="20">
         <v>1</v>
       </c>
-      <c r="F119" s="22">
+      <c r="F119" s="20">
         <v>1</v>
       </c>
       <c r="G119" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>109</v>
+        <v>379</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5398,22 +5146,22 @@
       <c r="E120" s="20">
         <v>1</v>
       </c>
-      <c r="F120" s="20">
+      <c r="F120" s="22">
         <v>1</v>
       </c>
       <c r="G120" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>437</v>
-      </c>
-      <c r="B121" s="15" t="s">
-        <v>110</v>
+        <v>380</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5428,18 +5176,18 @@
         <v>1</v>
       </c>
       <c r="G121" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="B122" s="15" t="s">
-        <v>111</v>
+        <v>381</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -5454,18 +5202,18 @@
         <v>1</v>
       </c>
       <c r="G122" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="B123" s="15" t="s">
-        <v>112</v>
+      <c r="A123" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>489</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -5476,22 +5224,22 @@
       <c r="E123" s="20">
         <v>1</v>
       </c>
-      <c r="F123" s="22">
+      <c r="F123" s="20">
         <v>1</v>
       </c>
       <c r="G123" s="3">
-        <v>1</v>
-      </c>
-      <c r="H123" s="17" t="s">
-        <v>278</v>
+        <v>0</v>
+      </c>
+      <c r="H123" s="18" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="17" t="s">
-        <v>440</v>
-      </c>
-      <c r="B124" s="15" t="s">
-        <v>113</v>
+      <c r="A124" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>490</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -5506,18 +5254,18 @@
         <v>1</v>
       </c>
       <c r="G124" s="3">
-        <v>1</v>
-      </c>
-      <c r="H124" s="17" t="s">
-        <v>279</v>
+        <v>0</v>
+      </c>
+      <c r="H124" s="18" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>114</v>
+      <c r="A125" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>491</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -5528,22 +5276,22 @@
       <c r="E125" s="20">
         <v>1</v>
       </c>
-      <c r="F125" s="22">
+      <c r="F125" s="20">
         <v>1</v>
       </c>
       <c r="G125" s="3">
-        <v>1</v>
-      </c>
-      <c r="H125" s="17" t="s">
-        <v>280</v>
+        <v>0</v>
+      </c>
+      <c r="H125" s="18" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>115</v>
+      <c r="A126" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>492</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5554,22 +5302,22 @@
       <c r="E126" s="20">
         <v>1</v>
       </c>
-      <c r="F126" s="22">
+      <c r="F126" s="20">
         <v>1</v>
       </c>
       <c r="G126" s="3">
         <v>0</v>
       </c>
-      <c r="H126" s="17" t="s">
-        <v>115</v>
+      <c r="H126" s="18" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>116</v>
+      <c r="A127" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>493</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -5580,22 +5328,22 @@
       <c r="E127" s="20">
         <v>1</v>
       </c>
-      <c r="F127" s="22">
+      <c r="F127" s="20">
         <v>1</v>
       </c>
       <c r="G127" s="3">
         <v>0</v>
       </c>
-      <c r="H127" s="17" t="s">
-        <v>281</v>
+      <c r="H127" s="18" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="17" t="s">
-        <v>444</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>117</v>
+      <c r="A128" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>494</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -5606,22 +5354,22 @@
       <c r="E128" s="20">
         <v>1</v>
       </c>
-      <c r="F128" s="22">
+      <c r="F128" s="20">
         <v>1</v>
       </c>
       <c r="G128" s="3">
         <v>0</v>
       </c>
-      <c r="H128" s="17" t="s">
-        <v>282</v>
+      <c r="H128" s="18" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
-        <v>445</v>
+        <v>382</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -5639,15 +5387,15 @@
         <v>0</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="B130" s="14" t="s">
-        <v>119</v>
+        <v>465</v>
+      </c>
+      <c r="B130" s="23" t="s">
+        <v>441</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -5655,25 +5403,25 @@
       <c r="D130" s="2">
         <v>0</v>
       </c>
-      <c r="E130" s="20">
-        <v>1</v>
-      </c>
-      <c r="F130" s="20">
+      <c r="E130" s="4">
+        <v>1</v>
+      </c>
+      <c r="F130" s="22">
         <v>1</v>
       </c>
       <c r="G130" s="3">
         <v>0</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>284</v>
+        <v>423</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>120</v>
+        <v>466</v>
+      </c>
+      <c r="B131" s="23" t="s">
+        <v>442</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -5681,7 +5429,7 @@
       <c r="D131" s="2">
         <v>0</v>
       </c>
-      <c r="E131" s="20">
+      <c r="E131" s="4">
         <v>1</v>
       </c>
       <c r="F131" s="22">
@@ -5691,23 +5439,23 @@
         <v>0</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>285</v>
+        <v>424</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="B132" s="23" t="s">
         <v>448</v>
       </c>
-      <c r="B132" s="14" t="s">
-        <v>121</v>
-      </c>
       <c r="C132" s="2">
         <v>0</v>
       </c>
       <c r="D132" s="2">
         <v>0</v>
       </c>
-      <c r="E132" s="20">
+      <c r="E132" s="4">
         <v>1</v>
       </c>
       <c r="F132" s="22">
@@ -5717,67 +5465,67 @@
         <v>0</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>286</v>
+        <v>425</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0</v>
+      </c>
+      <c r="D133" s="2">
+        <v>0</v>
+      </c>
+      <c r="E133" s="4">
+        <v>1</v>
+      </c>
+      <c r="F133" s="22">
+        <v>1</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0</v>
+      </c>
+      <c r="H133" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="B134" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="B133" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C133" s="2">
-        <v>0</v>
-      </c>
-      <c r="D133" s="2">
-        <v>0</v>
-      </c>
-      <c r="E133" s="20">
-        <v>1</v>
-      </c>
-      <c r="F133" s="22">
-        <v>1</v>
-      </c>
-      <c r="G133" s="3">
-        <v>0</v>
-      </c>
-      <c r="H133" s="17" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="18" t="s">
-        <v>574</v>
-      </c>
-      <c r="B134" s="16" t="s">
-        <v>580</v>
-      </c>
       <c r="C134" s="2">
         <v>0</v>
       </c>
       <c r="D134" s="2">
         <v>0</v>
       </c>
-      <c r="E134" s="20">
-        <v>1</v>
-      </c>
-      <c r="F134" s="20">
+      <c r="E134" s="4">
+        <v>1</v>
+      </c>
+      <c r="F134" s="22">
         <v>1</v>
       </c>
       <c r="G134" s="3">
         <v>0</v>
       </c>
-      <c r="H134" s="18" t="s">
-        <v>550</v>
+      <c r="H134" s="17" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="18" t="s">
-        <v>575</v>
-      </c>
-      <c r="B135" s="16" t="s">
-        <v>581</v>
+      <c r="A135" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="B135" s="23" t="s">
+        <v>450</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5785,25 +5533,25 @@
       <c r="D135" s="2">
         <v>0</v>
       </c>
-      <c r="E135" s="20">
-        <v>1</v>
-      </c>
-      <c r="F135" s="20">
+      <c r="E135" s="4">
+        <v>1</v>
+      </c>
+      <c r="F135" s="22">
         <v>1</v>
       </c>
       <c r="G135" s="3">
         <v>0</v>
       </c>
-      <c r="H135" s="18" t="s">
-        <v>551</v>
+      <c r="H135" s="17" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="B136" s="16" t="s">
-        <v>582</v>
+      <c r="A136" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="B136" s="23" t="s">
+        <v>444</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5811,25 +5559,25 @@
       <c r="D136" s="2">
         <v>0</v>
       </c>
-      <c r="E136" s="20">
-        <v>1</v>
-      </c>
-      <c r="F136" s="20">
+      <c r="E136" s="4">
+        <v>1</v>
+      </c>
+      <c r="F136" s="22">
         <v>1</v>
       </c>
       <c r="G136" s="3">
         <v>0</v>
       </c>
-      <c r="H136" s="18" t="s">
-        <v>552</v>
+      <c r="H136" s="17" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="18" t="s">
-        <v>577</v>
-      </c>
-      <c r="B137" s="16" t="s">
-        <v>583</v>
+      <c r="A137" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="B137" s="23" t="s">
+        <v>451</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5837,25 +5585,25 @@
       <c r="D137" s="2">
         <v>0</v>
       </c>
-      <c r="E137" s="20">
-        <v>1</v>
-      </c>
-      <c r="F137" s="20">
+      <c r="E137" s="4">
+        <v>1</v>
+      </c>
+      <c r="F137" s="22">
         <v>1</v>
       </c>
       <c r="G137" s="3">
         <v>0</v>
       </c>
-      <c r="H137" s="18" t="s">
-        <v>553</v>
+      <c r="H137" s="17" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="18" t="s">
-        <v>578</v>
-      </c>
-      <c r="B138" s="16" t="s">
-        <v>584</v>
+      <c r="A138" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="B138" s="23" t="s">
+        <v>445</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5863,25 +5611,25 @@
       <c r="D138" s="2">
         <v>0</v>
       </c>
-      <c r="E138" s="20">
-        <v>1</v>
-      </c>
-      <c r="F138" s="20">
+      <c r="E138" s="4">
+        <v>1</v>
+      </c>
+      <c r="F138" s="22">
         <v>1</v>
       </c>
       <c r="G138" s="3">
         <v>0</v>
       </c>
-      <c r="H138" s="18" t="s">
-        <v>554</v>
+      <c r="H138" s="17" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="B139" s="16" t="s">
-        <v>585</v>
+      <c r="A139" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>452</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5889,25 +5637,25 @@
       <c r="D139" s="2">
         <v>0</v>
       </c>
-      <c r="E139" s="20">
-        <v>1</v>
-      </c>
-      <c r="F139" s="20">
+      <c r="E139" s="4">
+        <v>1</v>
+      </c>
+      <c r="F139" s="22">
         <v>1</v>
       </c>
       <c r="G139" s="3">
         <v>0</v>
       </c>
-      <c r="H139" s="18" t="s">
-        <v>555</v>
+      <c r="H139" s="17" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="B140" s="14" t="s">
-        <v>123</v>
+        <v>475</v>
+      </c>
+      <c r="B140" s="23" t="s">
+        <v>453</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -5915,7 +5663,7 @@
       <c r="D140" s="2">
         <v>0</v>
       </c>
-      <c r="E140" s="20">
+      <c r="E140" s="4">
         <v>1</v>
       </c>
       <c r="F140" s="22">
@@ -5925,15 +5673,15 @@
         <v>0</v>
       </c>
       <c r="H140" s="17" t="s">
-        <v>288</v>
+        <v>433</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="17" t="s">
-        <v>556</v>
+        <v>476</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>532</v>
+        <v>454</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -5951,15 +5699,15 @@
         <v>0</v>
       </c>
       <c r="H141" s="17" t="s">
-        <v>514</v>
+        <v>434</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
-        <v>557</v>
+        <v>477</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>533</v>
+        <v>446</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -5977,15 +5725,15 @@
         <v>0</v>
       </c>
       <c r="H142" s="17" t="s">
-        <v>515</v>
+        <v>435</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
-        <v>558</v>
+        <v>478</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>539</v>
+        <v>455</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -6003,15 +5751,15 @@
         <v>0</v>
       </c>
       <c r="H143" s="17" t="s">
-        <v>516</v>
+        <v>436</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>559</v>
+        <v>479</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>534</v>
+        <v>447</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -6029,15 +5777,15 @@
         <v>0</v>
       </c>
       <c r="H144" s="17" t="s">
-        <v>517</v>
+        <v>437</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>540</v>
+        <v>456</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -6055,15 +5803,15 @@
         <v>0</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>518</v>
+        <v>438</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>561</v>
+        <v>481</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>541</v>
+        <v>458</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -6081,15 +5829,15 @@
         <v>0</v>
       </c>
       <c r="H146" s="17" t="s">
-        <v>519</v>
+        <v>439</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>562</v>
+        <v>482</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>535</v>
+        <v>457</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -6107,15 +5855,15 @@
         <v>0</v>
       </c>
       <c r="H147" s="17" t="s">
-        <v>520</v>
+        <v>440</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="B148" s="23" t="s">
-        <v>542</v>
+        <v>383</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -6123,7 +5871,7 @@
       <c r="D148" s="2">
         <v>0</v>
       </c>
-      <c r="E148" s="4">
+      <c r="E148" s="20">
         <v>1</v>
       </c>
       <c r="F148" s="22">
@@ -6133,15 +5881,15 @@
         <v>0</v>
       </c>
       <c r="H148" s="17" t="s">
-        <v>521</v>
+        <v>247</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>564</v>
-      </c>
-      <c r="B149" s="23" t="s">
-        <v>536</v>
+        <v>517</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -6149,7 +5897,7 @@
       <c r="D149" s="2">
         <v>0</v>
       </c>
-      <c r="E149" s="4">
+      <c r="E149" s="20">
         <v>1</v>
       </c>
       <c r="F149" s="22">
@@ -6159,15 +5907,15 @@
         <v>0</v>
       </c>
       <c r="H149" s="17" t="s">
-        <v>522</v>
+        <v>248</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
-        <v>565</v>
-      </c>
-      <c r="B150" s="23" t="s">
-        <v>543</v>
+        <v>384</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -6175,25 +5923,25 @@
       <c r="D150" s="2">
         <v>0</v>
       </c>
-      <c r="E150" s="4">
+      <c r="E150" s="20">
         <v>1</v>
       </c>
       <c r="F150" s="22">
         <v>1</v>
       </c>
       <c r="G150" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>523</v>
+        <v>249</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
-        <v>566</v>
-      </c>
-      <c r="B151" s="23" t="s">
-        <v>544</v>
+        <v>385</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -6201,25 +5949,25 @@
       <c r="D151" s="2">
         <v>0</v>
       </c>
-      <c r="E151" s="4">
+      <c r="E151" s="20">
         <v>1</v>
       </c>
       <c r="F151" s="22">
         <v>1</v>
       </c>
       <c r="G151" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>524</v>
+        <v>250</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>567</v>
-      </c>
-      <c r="B152" s="23" t="s">
-        <v>545</v>
+        <v>511</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>512</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -6227,25 +5975,25 @@
       <c r="D152" s="2">
         <v>0</v>
       </c>
-      <c r="E152" s="4">
+      <c r="E152" s="20">
         <v>1</v>
       </c>
       <c r="F152" s="22">
         <v>1</v>
       </c>
       <c r="G152" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>568</v>
-      </c>
-      <c r="B153" s="23" t="s">
-        <v>537</v>
+        <v>514</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>515</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6253,25 +6001,25 @@
       <c r="D153" s="2">
         <v>0</v>
       </c>
-      <c r="E153" s="4">
+      <c r="E153" s="20">
         <v>1</v>
       </c>
       <c r="F153" s="22">
         <v>1</v>
       </c>
       <c r="G153" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>569</v>
-      </c>
-      <c r="B154" s="23" t="s">
-        <v>546</v>
+        <v>386</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6279,7 +6027,7 @@
       <c r="D154" s="2">
         <v>0</v>
       </c>
-      <c r="E154" s="4">
+      <c r="E154" s="20">
         <v>1</v>
       </c>
       <c r="F154" s="22">
@@ -6289,15 +6037,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>527</v>
+        <v>251</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>570</v>
-      </c>
-      <c r="B155" s="23" t="s">
-        <v>538</v>
+        <v>387</v>
+      </c>
+      <c r="B155" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6305,7 +6053,7 @@
       <c r="D155" s="2">
         <v>0</v>
       </c>
-      <c r="E155" s="4">
+      <c r="E155" s="20">
         <v>1</v>
       </c>
       <c r="F155" s="22">
@@ -6315,15 +6063,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>528</v>
+        <v>252</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
-        <v>571</v>
-      </c>
-      <c r="B156" s="23" t="s">
-        <v>547</v>
+        <v>388</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6331,7 +6079,7 @@
       <c r="D156" s="2">
         <v>0</v>
       </c>
-      <c r="E156" s="4">
+      <c r="E156" s="20">
         <v>1</v>
       </c>
       <c r="F156" s="22">
@@ -6341,15 +6089,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>529</v>
+        <v>253</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
-        <v>572</v>
-      </c>
-      <c r="B157" s="23" t="s">
-        <v>549</v>
+        <v>389</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6357,25 +6105,25 @@
       <c r="D157" s="2">
         <v>0</v>
       </c>
-      <c r="E157" s="4">
-        <v>1</v>
-      </c>
-      <c r="F157" s="22">
+      <c r="E157" s="20">
+        <v>1</v>
+      </c>
+      <c r="F157" s="20">
         <v>1</v>
       </c>
       <c r="G157" s="3">
         <v>0</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>530</v>
+        <v>254</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>573</v>
-      </c>
-      <c r="B158" s="23" t="s">
-        <v>548</v>
+        <v>390</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6383,7 +6131,7 @@
       <c r="D158" s="2">
         <v>0</v>
       </c>
-      <c r="E158" s="4">
+      <c r="E158" s="20">
         <v>1</v>
       </c>
       <c r="F158" s="22">
@@ -6393,15 +6141,15 @@
         <v>0</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>531</v>
+        <v>255</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>451</v>
+        <v>391</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6419,15 +6167,15 @@
         <v>0</v>
       </c>
       <c r="H159" s="17" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>608</v>
+        <v>392</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6442,18 +6190,18 @@
         <v>1</v>
       </c>
       <c r="G160" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6471,15 +6219,15 @@
         <v>1</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
-        <v>453</v>
+        <v>495</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6494,18 +6242,18 @@
         <v>1</v>
       </c>
       <c r="G162" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
-        <v>602</v>
+        <v>497</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>603</v>
+        <v>125</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6520,18 +6268,18 @@
         <v>1</v>
       </c>
       <c r="G163" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>604</v>
+        <v>260</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
-        <v>605</v>
+        <v>496</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>606</v>
+        <v>126</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6546,18 +6294,18 @@
         <v>1</v>
       </c>
       <c r="G164" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164" s="17" t="s">
-        <v>607</v>
+        <v>261</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="B165" s="15" t="s">
-        <v>128</v>
+        <v>498</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6575,15 +6323,15 @@
         <v>0</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="B166" s="15" t="s">
-        <v>129</v>
+        <v>499</v>
+      </c>
+      <c r="B166" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6601,15 +6349,15 @@
         <v>0</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6627,15 +6375,15 @@
         <v>0</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
-        <v>457</v>
+        <v>501</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6646,22 +6394,22 @@
       <c r="E168" s="20">
         <v>1</v>
       </c>
-      <c r="F168" s="20">
+      <c r="F168" s="22">
         <v>1</v>
       </c>
       <c r="G168" s="3">
         <v>0</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
-        <v>458</v>
+        <v>502</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6679,15 +6427,15 @@
         <v>0</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="17" t="s">
-        <v>459</v>
+        <v>503</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6705,15 +6453,15 @@
         <v>0</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="17" t="s">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6728,18 +6476,18 @@
         <v>1</v>
       </c>
       <c r="G171" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="17" t="s">
-        <v>461</v>
+        <v>505</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6754,18 +6502,18 @@
         <v>1</v>
       </c>
       <c r="G172" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="17" t="s">
-        <v>462</v>
+        <v>506</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6783,15 +6531,15 @@
         <v>0</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="17" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6809,15 +6557,15 @@
         <v>0</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="17" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6828,22 +6576,22 @@
       <c r="E175" s="20">
         <v>1</v>
       </c>
-      <c r="F175" s="22">
+      <c r="F175" s="20">
         <v>1</v>
       </c>
       <c r="G175" s="3">
         <v>0</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="17" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6861,15 +6609,15 @@
         <v>0</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="17" t="s">
-        <v>586</v>
+        <v>521</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -6887,42 +6635,42 @@
         <v>0</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="17" t="s">
-        <v>588</v>
+        <v>522</v>
       </c>
       <c r="B178" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C178" s="2">
+        <v>0</v>
+      </c>
+      <c r="D178" s="2">
+        <v>0</v>
+      </c>
+      <c r="E178" s="20">
+        <v>1</v>
+      </c>
+      <c r="F178" s="22">
+        <v>1</v>
+      </c>
+      <c r="G178" s="3">
+        <v>0</v>
+      </c>
+      <c r="H178" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="B179" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C178" s="2">
-        <v>0</v>
-      </c>
-      <c r="D178" s="2">
-        <v>0</v>
-      </c>
-      <c r="E178" s="20">
-        <v>1</v>
-      </c>
-      <c r="F178" s="22">
-        <v>1</v>
-      </c>
-      <c r="G178" s="3">
-        <v>0</v>
-      </c>
-      <c r="H178" s="17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A179" s="17" t="s">
-        <v>587</v>
-      </c>
-      <c r="B179" s="14" t="s">
-        <v>142</v>
-      </c>
       <c r="C179" s="2">
         <v>0</v>
       </c>
@@ -6938,736 +6686,8 @@
       <c r="G179" s="3">
         <v>0</v>
       </c>
-      <c r="H179" s="17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" s="17" t="s">
-        <v>589</v>
-      </c>
-      <c r="B180" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C180" s="2">
-        <v>0</v>
-      </c>
-      <c r="D180" s="2">
-        <v>0</v>
-      </c>
-      <c r="E180" s="20">
-        <v>1</v>
-      </c>
-      <c r="F180" s="22">
-        <v>1</v>
-      </c>
-      <c r="G180" s="3">
-        <v>0</v>
-      </c>
-      <c r="H180" s="17" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="B181" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C181" s="2">
-        <v>0</v>
-      </c>
-      <c r="D181" s="2">
-        <v>0</v>
-      </c>
-      <c r="E181" s="20">
-        <v>1</v>
-      </c>
-      <c r="F181" s="22">
-        <v>1</v>
-      </c>
-      <c r="G181" s="3">
-        <v>0</v>
-      </c>
-      <c r="H181" s="17" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="B182" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C182" s="2">
-        <v>0</v>
-      </c>
-      <c r="D182" s="2">
-        <v>0</v>
-      </c>
-      <c r="E182" s="20">
-        <v>1</v>
-      </c>
-      <c r="F182" s="22">
-        <v>1</v>
-      </c>
-      <c r="G182" s="3">
-        <v>0</v>
-      </c>
-      <c r="H182" s="17" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="17" t="s">
-        <v>592</v>
-      </c>
-      <c r="B183" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C183" s="2">
-        <v>0</v>
-      </c>
-      <c r="D183" s="2">
-        <v>0</v>
-      </c>
-      <c r="E183" s="20">
-        <v>1</v>
-      </c>
-      <c r="F183" s="22">
-        <v>1</v>
-      </c>
-      <c r="G183" s="3">
-        <v>0</v>
-      </c>
-      <c r="H183" s="17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" s="17" t="s">
-        <v>593</v>
-      </c>
-      <c r="B184" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="C184" s="2">
-        <v>0</v>
-      </c>
-      <c r="D184" s="2">
-        <v>0</v>
-      </c>
-      <c r="E184" s="20">
-        <v>1</v>
-      </c>
-      <c r="F184" s="22">
-        <v>1</v>
-      </c>
-      <c r="G184" s="3">
-        <v>0</v>
-      </c>
-      <c r="H184" s="17" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" s="17" t="s">
-        <v>594</v>
-      </c>
-      <c r="B185" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C185" s="2">
-        <v>0</v>
-      </c>
-      <c r="D185" s="2">
-        <v>0</v>
-      </c>
-      <c r="E185" s="20">
-        <v>1</v>
-      </c>
-      <c r="F185" s="22">
-        <v>1</v>
-      </c>
-      <c r="G185" s="3">
-        <v>0</v>
-      </c>
-      <c r="H185" s="17" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A186" s="17" t="s">
-        <v>595</v>
-      </c>
-      <c r="B186" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C186" s="2">
-        <v>0</v>
-      </c>
-      <c r="D186" s="2">
-        <v>0</v>
-      </c>
-      <c r="E186" s="20">
-        <v>1</v>
-      </c>
-      <c r="F186" s="22">
-        <v>1</v>
-      </c>
-      <c r="G186" s="3">
-        <v>0</v>
-      </c>
-      <c r="H186" s="17" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A187" s="17" t="s">
-        <v>596</v>
-      </c>
-      <c r="B187" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C187" s="2">
-        <v>0</v>
-      </c>
-      <c r="D187" s="2">
-        <v>0</v>
-      </c>
-      <c r="E187" s="20">
-        <v>1</v>
-      </c>
-      <c r="F187" s="22">
-        <v>1</v>
-      </c>
-      <c r="G187" s="3">
-        <v>0</v>
-      </c>
-      <c r="H187" s="17" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A188" s="17" t="s">
-        <v>597</v>
-      </c>
-      <c r="B188" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C188" s="2">
-        <v>0</v>
-      </c>
-      <c r="D188" s="2">
-        <v>0</v>
-      </c>
-      <c r="E188" s="20">
-        <v>1</v>
-      </c>
-      <c r="F188" s="22">
-        <v>1</v>
-      </c>
-      <c r="G188" s="3">
-        <v>0</v>
-      </c>
-      <c r="H188" s="17" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A189" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="B189" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C189" s="2">
-        <v>0</v>
-      </c>
-      <c r="D189" s="2">
-        <v>0</v>
-      </c>
-      <c r="E189" s="20">
-        <v>1</v>
-      </c>
-      <c r="F189" s="22">
-        <v>1</v>
-      </c>
-      <c r="G189" s="3">
-        <v>0</v>
-      </c>
-      <c r="H189" s="17" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A190" s="17" t="s">
-        <v>467</v>
-      </c>
-      <c r="B190" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C190" s="2">
-        <v>0</v>
-      </c>
-      <c r="D190" s="2">
-        <v>0</v>
-      </c>
-      <c r="E190" s="20">
-        <v>1</v>
-      </c>
-      <c r="F190" s="20">
-        <v>1</v>
-      </c>
-      <c r="G190" s="3">
-        <v>0</v>
-      </c>
-      <c r="H190" s="17" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A191" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="B191" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C191" s="2">
-        <v>0</v>
-      </c>
-      <c r="D191" s="2">
-        <v>0</v>
-      </c>
-      <c r="E191" s="20">
-        <v>1</v>
-      </c>
-      <c r="F191" s="22">
-        <v>1</v>
-      </c>
-      <c r="G191" s="3">
-        <v>0</v>
-      </c>
-      <c r="H191" s="17" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A192" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="B192" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C192" s="2">
-        <v>0</v>
-      </c>
-      <c r="D192" s="2">
-        <v>0</v>
-      </c>
-      <c r="E192" s="20">
-        <v>1</v>
-      </c>
-      <c r="F192" s="22">
-        <v>1</v>
-      </c>
-      <c r="G192" s="3">
-        <v>0</v>
-      </c>
-      <c r="H192" s="17" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A193" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="B193" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C193" s="2">
-        <v>0</v>
-      </c>
-      <c r="D193" s="2">
-        <v>0</v>
-      </c>
-      <c r="E193" s="20">
-        <v>1</v>
-      </c>
-      <c r="F193" s="22">
-        <v>1</v>
-      </c>
-      <c r="G193" s="3">
-        <v>0</v>
-      </c>
-      <c r="H193" s="17" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A194" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="B194" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C194" s="2">
-        <v>0</v>
-      </c>
-      <c r="D194" s="2">
-        <v>0</v>
-      </c>
-      <c r="E194" s="20">
-        <v>1</v>
-      </c>
-      <c r="F194" s="22">
-        <v>1</v>
-      </c>
-      <c r="G194" s="3">
-        <v>0</v>
-      </c>
-      <c r="H194" s="17" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A195" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="B195" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="C195" s="2">
-        <v>0</v>
-      </c>
-      <c r="D195" s="2">
-        <v>0</v>
-      </c>
-      <c r="E195" s="20">
-        <v>1</v>
-      </c>
-      <c r="F195" s="22">
-        <v>1</v>
-      </c>
-      <c r="G195" s="3">
-        <v>0</v>
-      </c>
-      <c r="H195" s="17" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A196" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="B196" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C196" s="2">
-        <v>0</v>
-      </c>
-      <c r="D196" s="2">
-        <v>0</v>
-      </c>
-      <c r="E196" s="20">
-        <v>1</v>
-      </c>
-      <c r="F196" s="22">
-        <v>1</v>
-      </c>
-      <c r="G196" s="3">
-        <v>0</v>
-      </c>
-      <c r="H196" s="17" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A197" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="B197" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C197" s="2">
-        <v>0</v>
-      </c>
-      <c r="D197" s="2">
-        <v>0</v>
-      </c>
-      <c r="E197" s="20">
-        <v>1</v>
-      </c>
-      <c r="F197" s="22">
-        <v>1</v>
-      </c>
-      <c r="G197" s="3">
-        <v>0</v>
-      </c>
-      <c r="H197" s="17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" s="17" t="s">
-        <v>475</v>
-      </c>
-      <c r="B198" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C198" s="2">
-        <v>0</v>
-      </c>
-      <c r="D198" s="2">
-        <v>0</v>
-      </c>
-      <c r="E198" s="20">
-        <v>1</v>
-      </c>
-      <c r="F198" s="22">
-        <v>1</v>
-      </c>
-      <c r="G198" s="3">
-        <v>0</v>
-      </c>
-      <c r="H198" s="17" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A199" s="17" t="s">
-        <v>476</v>
-      </c>
-      <c r="B199" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C199" s="2">
-        <v>0</v>
-      </c>
-      <c r="D199" s="2">
-        <v>0</v>
-      </c>
-      <c r="E199" s="20">
-        <v>1</v>
-      </c>
-      <c r="F199" s="22">
-        <v>1</v>
-      </c>
-      <c r="G199" s="3">
-        <v>0</v>
-      </c>
-      <c r="H199" s="17" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A200" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="B200" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C200" s="2">
-        <v>0</v>
-      </c>
-      <c r="D200" s="2">
-        <v>0</v>
-      </c>
-      <c r="E200" s="20">
-        <v>1</v>
-      </c>
-      <c r="F200" s="22">
-        <v>1</v>
-      </c>
-      <c r="G200" s="3">
-        <v>0</v>
-      </c>
-      <c r="H200" s="18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A201" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="B201" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C201" s="2">
-        <v>0</v>
-      </c>
-      <c r="D201" s="2">
-        <v>0</v>
-      </c>
-      <c r="E201" s="20">
-        <v>1</v>
-      </c>
-      <c r="F201" s="22">
-        <v>1</v>
-      </c>
-      <c r="G201" s="3">
-        <v>0</v>
-      </c>
-      <c r="H201" s="18" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A202" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="B202" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="C202" s="2">
-        <v>0</v>
-      </c>
-      <c r="D202" s="2">
-        <v>0</v>
-      </c>
-      <c r="E202" s="20">
-        <v>1</v>
-      </c>
-      <c r="F202" s="22">
-        <v>1</v>
-      </c>
-      <c r="G202" s="3">
-        <v>0</v>
-      </c>
-      <c r="H202" s="18" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A203" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="B203" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C203" s="2">
-        <v>0</v>
-      </c>
-      <c r="D203" s="2">
-        <v>0</v>
-      </c>
-      <c r="E203" s="20">
-        <v>1</v>
-      </c>
-      <c r="F203" s="22">
-        <v>1</v>
-      </c>
-      <c r="G203" s="3">
-        <v>0</v>
-      </c>
-      <c r="H203" s="18" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A204" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="B204" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C204" s="2">
-        <v>0</v>
-      </c>
-      <c r="D204" s="2">
-        <v>0</v>
-      </c>
-      <c r="E204" s="20">
-        <v>1</v>
-      </c>
-      <c r="F204" s="22">
-        <v>1</v>
-      </c>
-      <c r="G204" s="3">
-        <v>0</v>
-      </c>
-      <c r="H204" s="18" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A205" s="18" t="s">
-        <v>482</v>
-      </c>
-      <c r="B205" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C205" s="2">
-        <v>0</v>
-      </c>
-      <c r="D205" s="2">
-        <v>0</v>
-      </c>
-      <c r="E205" s="20">
-        <v>1</v>
-      </c>
-      <c r="F205" s="22">
-        <v>1</v>
-      </c>
-      <c r="G205" s="3">
-        <v>0</v>
-      </c>
-      <c r="H205" s="18" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A206" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="B206" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C206" s="2">
-        <v>0</v>
-      </c>
-      <c r="D206" s="2">
-        <v>0</v>
-      </c>
-      <c r="E206" s="20">
-        <v>1</v>
-      </c>
-      <c r="F206" s="22">
-        <v>1</v>
-      </c>
-      <c r="G206" s="3">
-        <v>0</v>
-      </c>
-      <c r="H206" s="18" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A207" s="18" t="s">
-        <v>484</v>
-      </c>
-      <c r="B207" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C207" s="2">
-        <v>0</v>
-      </c>
-      <c r="D207" s="2">
-        <v>0</v>
-      </c>
-      <c r="E207" s="20">
-        <v>1</v>
-      </c>
-      <c r="F207" s="20">
-        <v>1</v>
-      </c>
-      <c r="G207" s="3">
-        <v>0</v>
-      </c>
-      <c r="H207" s="18" t="s">
-        <v>213</v>
+      <c r="H179" s="18" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/main_dict_senegal.xlsx
+++ b/inst/extdata/main_dict_senegal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="528">
   <si>
     <t>old</t>
   </si>
@@ -1599,6 +1599,15 @@
   </si>
   <si>
     <t>yg_infant_ctg</t>
+  </si>
+  <si>
+    <t>crfs-t02b-a4_a_10a</t>
+  </si>
+  <si>
+    <t>phone_nb_avail</t>
+  </si>
+  <si>
+    <t>a4_a_10a</t>
   </si>
 </sst>
 </file>
@@ -2019,10 +2028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H179"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3311,11 +3320,11 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>38</v>
+      <c r="A50" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>526</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -3324,24 +3333,24 @@
         <v>1</v>
       </c>
       <c r="E50" s="4">
-        <v>0</v>
-      </c>
-      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
         <v>0</v>
       </c>
       <c r="G50" s="3">
-        <v>0</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>181</v>
+        <v>1</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -3359,15 +3368,15 @@
         <v>0</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>396</v>
+        <v>317</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>400</v>
+        <v>39</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -3385,15 +3394,15 @@
         <v>0</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>398</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -3411,15 +3420,15 @@
         <v>0</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -3437,15 +3446,15 @@
         <v>0</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>318</v>
+        <v>407</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>40</v>
+        <v>408</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -3463,15 +3472,15 @@
         <v>0</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>183</v>
+        <v>409</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -3489,15 +3498,15 @@
         <v>0</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -3515,119 +3524,119 @@
         <v>0</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B59" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C58" s="2">
-        <v>0</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1</v>
-      </c>
-      <c r="E58" s="4">
-        <v>0</v>
-      </c>
-      <c r="F58" s="4">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="9" t="s">
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="9" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="C59" s="2">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1</v>
-      </c>
-      <c r="E59" s="4">
-        <v>1</v>
-      </c>
-      <c r="F59" s="4">
-        <v>1</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B61" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1</v>
-      </c>
-      <c r="E60" s="4">
-        <v>1</v>
-      </c>
-      <c r="F60" s="4">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1</v>
-      </c>
-      <c r="H60" s="11" t="s">
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+      <c r="H61" s="11" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="C61" s="2">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2">
-        <v>1</v>
-      </c>
-      <c r="E61" s="4">
-        <v>1</v>
-      </c>
-      <c r="F61" s="4">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>509</v>
+        <v>411</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -3649,45 +3658,45 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>51</v>
+      <c r="A63" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>509</v>
       </c>
       <c r="C63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" s="4">
         <v>1</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="4">
         <v>0</v>
       </c>
       <c r="G63" s="3">
         <v>1</v>
       </c>
-      <c r="H63" s="13" t="s">
-        <v>187</v>
+      <c r="H63" s="11" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="20">
-        <v>0</v>
-      </c>
-      <c r="D64" s="20">
-        <v>0</v>
-      </c>
-      <c r="E64" s="21">
+        <v>51</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
         <v>1</v>
       </c>
       <c r="F64" s="3">
@@ -3697,15 +3706,15 @@
         <v>1</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C65" s="20">
         <v>0</v>
@@ -3713,7 +3722,7 @@
       <c r="D65" s="20">
         <v>0</v>
       </c>
-      <c r="E65" s="20">
+      <c r="E65" s="21">
         <v>1</v>
       </c>
       <c r="F65" s="3">
@@ -3723,15 +3732,15 @@
         <v>1</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C66" s="20">
         <v>0</v>
@@ -3739,7 +3748,7 @@
       <c r="D66" s="20">
         <v>0</v>
       </c>
-      <c r="E66" s="21">
+      <c r="E66" s="20">
         <v>1</v>
       </c>
       <c r="F66" s="3">
@@ -3749,15 +3758,15 @@
         <v>1</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C67" s="20">
         <v>0</v>
@@ -3775,23 +3784,23 @@
         <v>1</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="2">
-        <v>0</v>
-      </c>
-      <c r="D68" s="2">
-        <v>0</v>
-      </c>
-      <c r="E68" s="4">
+        <v>55</v>
+      </c>
+      <c r="C68" s="20">
+        <v>0</v>
+      </c>
+      <c r="D68" s="20">
+        <v>0</v>
+      </c>
+      <c r="E68" s="21">
         <v>1</v>
       </c>
       <c r="F68" s="3">
@@ -3801,15 +3810,15 @@
         <v>1</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -3827,15 +3836,15 @@
         <v>1</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -3853,15 +3862,15 @@
         <v>1</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -3879,15 +3888,15 @@
         <v>1</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -3905,15 +3914,15 @@
         <v>1</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -3931,15 +3940,15 @@
         <v>1</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -3957,15 +3966,15 @@
         <v>1</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -3983,15 +3992,15 @@
         <v>1</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -4009,15 +4018,15 @@
         <v>1</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -4035,15 +4044,15 @@
         <v>1</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -4061,15 +4070,15 @@
         <v>1</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -4087,67 +4096,67 @@
         <v>1</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0</v>
+      </c>
+      <c r="E80" s="4">
+        <v>1</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0</v>
+      </c>
+      <c r="G80" s="3">
+        <v>1</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B81" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C80" s="2">
-        <v>0</v>
-      </c>
-      <c r="D80" s="2">
-        <v>0</v>
-      </c>
-      <c r="E80" s="4">
-        <v>1</v>
-      </c>
-      <c r="F80" s="3">
-        <v>0</v>
-      </c>
-      <c r="G80" s="3">
-        <v>1</v>
-      </c>
-      <c r="H80" s="13" t="s">
+      <c r="C81" s="2">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <v>1</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1</v>
+      </c>
+      <c r="H81" s="13" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C81" s="2">
-        <v>0</v>
-      </c>
-      <c r="D81" s="2">
-        <v>0</v>
-      </c>
-      <c r="E81" s="2">
-        <v>1</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1</v>
-      </c>
-      <c r="H81" s="17" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -4162,18 +4171,18 @@
         <v>1</v>
       </c>
       <c r="G82" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -4191,15 +4200,15 @@
         <v>0</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -4217,15 +4226,15 @@
         <v>0</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -4243,15 +4252,15 @@
         <v>0</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
@@ -4269,15 +4278,15 @@
         <v>0</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
@@ -4295,15 +4304,15 @@
         <v>0</v>
       </c>
       <c r="H87" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
@@ -4321,15 +4330,15 @@
         <v>0</v>
       </c>
       <c r="H88" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2">
         <v>0</v>
@@ -4347,15 +4356,15 @@
         <v>0</v>
       </c>
       <c r="H89" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C90" s="2">
         <v>0</v>
@@ -4373,15 +4382,15 @@
         <v>0</v>
       </c>
       <c r="H90" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
@@ -4399,15 +4408,15 @@
         <v>0</v>
       </c>
       <c r="H91" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
@@ -4425,15 +4434,15 @@
         <v>0</v>
       </c>
       <c r="H92" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
@@ -4451,15 +4460,15 @@
         <v>0</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -4477,15 +4486,15 @@
         <v>0</v>
       </c>
       <c r="H94" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -4503,15 +4512,15 @@
         <v>0</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -4529,15 +4538,15 @@
         <v>0</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -4555,15 +4564,15 @@
         <v>0</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -4578,18 +4587,18 @@
         <v>1</v>
       </c>
       <c r="G98" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>87</v>
+        <v>357</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -4607,15 +4616,15 @@
         <v>1</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -4633,15 +4642,15 @@
         <v>1</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -4659,15 +4668,15 @@
         <v>1</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -4685,15 +4694,15 @@
         <v>1</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -4711,15 +4720,15 @@
         <v>1</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -4737,15 +4746,15 @@
         <v>1</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -4763,15 +4772,15 @@
         <v>1</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -4779,25 +4788,25 @@
       <c r="D106" s="2">
         <v>0</v>
       </c>
-      <c r="E106" s="20">
-        <v>1</v>
-      </c>
-      <c r="F106" s="22">
+      <c r="E106" s="2">
+        <v>1</v>
+      </c>
+      <c r="F106" s="3">
         <v>1</v>
       </c>
       <c r="G106" s="3">
         <v>1</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -4815,15 +4824,15 @@
         <v>1</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -4841,15 +4850,15 @@
         <v>1</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -4860,22 +4869,22 @@
       <c r="E109" s="20">
         <v>1</v>
       </c>
-      <c r="F109" s="20">
+      <c r="F109" s="22">
         <v>1</v>
       </c>
       <c r="G109" s="3">
         <v>1</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -4886,22 +4895,22 @@
       <c r="E110" s="20">
         <v>1</v>
       </c>
-      <c r="F110" s="22">
+      <c r="F110" s="20">
         <v>1</v>
       </c>
       <c r="G110" s="3">
         <v>1</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -4919,15 +4928,15 @@
         <v>1</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -4945,15 +4954,15 @@
         <v>1</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -4964,22 +4973,22 @@
       <c r="E113" s="20">
         <v>1</v>
       </c>
-      <c r="F113" s="20">
+      <c r="F113" s="22">
         <v>1</v>
       </c>
       <c r="G113" s="3">
         <v>1</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>102</v>
+        <v>372</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -4990,22 +4999,22 @@
       <c r="E114" s="20">
         <v>1</v>
       </c>
-      <c r="F114" s="22">
+      <c r="F114" s="20">
         <v>1</v>
       </c>
       <c r="G114" s="3">
         <v>1</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -5020,18 +5029,18 @@
         <v>1</v>
       </c>
       <c r="G115" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -5049,15 +5058,15 @@
         <v>0</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>239</v>
+        <v>103</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -5075,15 +5084,15 @@
         <v>0</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -5101,15 +5110,15 @@
         <v>0</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -5120,22 +5129,22 @@
       <c r="E119" s="20">
         <v>1</v>
       </c>
-      <c r="F119" s="20">
+      <c r="F119" s="22">
         <v>1</v>
       </c>
       <c r="G119" s="3">
         <v>0</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5146,22 +5155,22 @@
       <c r="E120" s="20">
         <v>1</v>
       </c>
-      <c r="F120" s="22">
+      <c r="F120" s="20">
         <v>1</v>
       </c>
       <c r="G120" s="3">
         <v>0</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5179,67 +5188,67 @@
         <v>0</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C122" s="2">
+        <v>0</v>
+      </c>
+      <c r="D122" s="2">
+        <v>0</v>
+      </c>
+      <c r="E122" s="20">
+        <v>1</v>
+      </c>
+      <c r="F122" s="22">
+        <v>1</v>
+      </c>
+      <c r="G122" s="3">
+        <v>0</v>
+      </c>
+      <c r="H122" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B123" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C122" s="2">
-        <v>0</v>
-      </c>
-      <c r="D122" s="2">
-        <v>0</v>
-      </c>
-      <c r="E122" s="20">
-        <v>1</v>
-      </c>
-      <c r="F122" s="22">
-        <v>1</v>
-      </c>
-      <c r="G122" s="3">
-        <v>0</v>
-      </c>
-      <c r="H122" s="17" t="s">
+      <c r="C123" s="2">
+        <v>0</v>
+      </c>
+      <c r="D123" s="2">
+        <v>0</v>
+      </c>
+      <c r="E123" s="20">
+        <v>1</v>
+      </c>
+      <c r="F123" s="22">
+        <v>1</v>
+      </c>
+      <c r="G123" s="3">
+        <v>0</v>
+      </c>
+      <c r="H123" s="17" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="C123" s="2">
-        <v>0</v>
-      </c>
-      <c r="D123" s="2">
-        <v>0</v>
-      </c>
-      <c r="E123" s="20">
-        <v>1</v>
-      </c>
-      <c r="F123" s="20">
-        <v>1</v>
-      </c>
-      <c r="G123" s="3">
-        <v>0</v>
-      </c>
-      <c r="H123" s="18" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -5257,15 +5266,15 @@
         <v>0</v>
       </c>
       <c r="H124" s="18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -5283,15 +5292,15 @@
         <v>0</v>
       </c>
       <c r="H125" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5309,15 +5318,15 @@
         <v>0</v>
       </c>
       <c r="H126" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -5335,67 +5344,67 @@
         <v>0</v>
       </c>
       <c r="H127" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="C128" s="2">
+        <v>0</v>
+      </c>
+      <c r="D128" s="2">
+        <v>0</v>
+      </c>
+      <c r="E128" s="20">
+        <v>1</v>
+      </c>
+      <c r="F128" s="20">
+        <v>1</v>
+      </c>
+      <c r="G128" s="3">
+        <v>0</v>
+      </c>
+      <c r="H128" s="18" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="B128" s="16" t="s">
+      <c r="B129" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="C128" s="2">
-        <v>0</v>
-      </c>
-      <c r="D128" s="2">
-        <v>0</v>
-      </c>
-      <c r="E128" s="20">
-        <v>1</v>
-      </c>
-      <c r="F128" s="20">
-        <v>1</v>
-      </c>
-      <c r="G128" s="3">
-        <v>0</v>
-      </c>
-      <c r="H128" s="18" t="s">
+      <c r="C129" s="2">
+        <v>0</v>
+      </c>
+      <c r="D129" s="2">
+        <v>0</v>
+      </c>
+      <c r="E129" s="20">
+        <v>1</v>
+      </c>
+      <c r="F129" s="20">
+        <v>1</v>
+      </c>
+      <c r="G129" s="3">
+        <v>0</v>
+      </c>
+      <c r="H129" s="18" t="s">
         <v>464</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C129" s="2">
-        <v>0</v>
-      </c>
-      <c r="D129" s="2">
-        <v>0</v>
-      </c>
-      <c r="E129" s="20">
-        <v>1</v>
-      </c>
-      <c r="F129" s="22">
-        <v>1</v>
-      </c>
-      <c r="G129" s="3">
-        <v>0</v>
-      </c>
-      <c r="H129" s="17" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B130" s="23" t="s">
-        <v>441</v>
+        <v>382</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -5403,7 +5412,7 @@
       <c r="D130" s="2">
         <v>0</v>
       </c>
-      <c r="E130" s="4">
+      <c r="E130" s="20">
         <v>1</v>
       </c>
       <c r="F130" s="22">
@@ -5413,15 +5422,15 @@
         <v>0</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>423</v>
+        <v>246</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -5439,15 +5448,15 @@
         <v>0</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5465,15 +5474,15 @@
         <v>0</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5491,15 +5500,15 @@
         <v>0</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5517,15 +5526,15 @@
         <v>0</v>
       </c>
       <c r="H134" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5543,15 +5552,15 @@
         <v>0</v>
       </c>
       <c r="H135" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5569,15 +5578,15 @@
         <v>0</v>
       </c>
       <c r="H136" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B137" s="23" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5595,15 +5604,15 @@
         <v>0</v>
       </c>
       <c r="H137" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B138" s="23" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5621,15 +5630,15 @@
         <v>0</v>
       </c>
       <c r="H138" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5647,15 +5656,15 @@
         <v>0</v>
       </c>
       <c r="H139" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -5673,15 +5682,15 @@
         <v>0</v>
       </c>
       <c r="H140" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -5699,15 +5708,15 @@
         <v>0</v>
       </c>
       <c r="H141" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -5725,15 +5734,15 @@
         <v>0</v>
       </c>
       <c r="H142" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -5751,15 +5760,15 @@
         <v>0</v>
       </c>
       <c r="H143" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -5777,15 +5786,15 @@
         <v>0</v>
       </c>
       <c r="H144" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -5803,15 +5812,15 @@
         <v>0</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -5829,15 +5838,15 @@
         <v>0</v>
       </c>
       <c r="H146" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -5855,15 +5864,15 @@
         <v>0</v>
       </c>
       <c r="H147" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="B148" s="14" t="s">
-        <v>112</v>
+        <v>482</v>
+      </c>
+      <c r="B148" s="23" t="s">
+        <v>457</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -5871,7 +5880,7 @@
       <c r="D148" s="2">
         <v>0</v>
       </c>
-      <c r="E148" s="20">
+      <c r="E148" s="4">
         <v>1</v>
       </c>
       <c r="F148" s="22">
@@ -5881,15 +5890,15 @@
         <v>0</v>
       </c>
       <c r="H148" s="17" t="s">
-        <v>247</v>
+        <v>440</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>517</v>
+        <v>383</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -5907,15 +5916,15 @@
         <v>0</v>
       </c>
       <c r="H149" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
-        <v>384</v>
+        <v>517</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -5930,18 +5939,18 @@
         <v>1</v>
       </c>
       <c r="G150" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -5959,15 +5968,15 @@
         <v>1</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>511</v>
+        <v>385</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>512</v>
+        <v>115</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -5985,15 +5994,15 @@
         <v>1</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>513</v>
+        <v>250</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6011,15 +6020,15 @@
         <v>1</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="B154" s="15" t="s">
-        <v>116</v>
+        <v>514</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>515</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6034,18 +6043,18 @@
         <v>1</v>
       </c>
       <c r="G154" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>251</v>
+        <v>516</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6063,15 +6072,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="B156" s="14" t="s">
-        <v>118</v>
+        <v>387</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6089,15 +6098,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6108,22 +6117,22 @@
       <c r="E157" s="20">
         <v>1</v>
       </c>
-      <c r="F157" s="20">
+      <c r="F157" s="22">
         <v>1</v>
       </c>
       <c r="G157" s="3">
         <v>0</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6134,22 +6143,22 @@
       <c r="E158" s="20">
         <v>1</v>
       </c>
-      <c r="F158" s="22">
+      <c r="F158" s="20">
         <v>1</v>
       </c>
       <c r="G158" s="3">
         <v>0</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6167,15 +6176,15 @@
         <v>0</v>
       </c>
       <c r="H159" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6190,18 +6199,18 @@
         <v>1</v>
       </c>
       <c r="G160" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6219,15 +6228,15 @@
         <v>1</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
-        <v>495</v>
+        <v>393</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6242,18 +6251,18 @@
         <v>1</v>
       </c>
       <c r="G162" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6271,15 +6280,15 @@
         <v>0</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6297,15 +6306,15 @@
         <v>0</v>
       </c>
       <c r="H164" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6323,15 +6332,15 @@
         <v>0</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6349,15 +6358,15 @@
         <v>0</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6375,15 +6384,15 @@
         <v>0</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6401,15 +6410,15 @@
         <v>0</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6427,15 +6436,15 @@
         <v>0</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6453,15 +6462,15 @@
         <v>0</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6479,15 +6488,15 @@
         <v>0</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6505,15 +6514,15 @@
         <v>0</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6531,15 +6540,15 @@
         <v>0</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="17" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6557,15 +6566,15 @@
         <v>0</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6576,22 +6585,22 @@
       <c r="E175" s="20">
         <v>1</v>
       </c>
-      <c r="F175" s="20">
+      <c r="F175" s="22">
         <v>1</v>
       </c>
       <c r="G175" s="3">
         <v>0</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6602,22 +6611,22 @@
       <c r="E176" s="20">
         <v>1</v>
       </c>
-      <c r="F176" s="22">
+      <c r="F176" s="20">
         <v>1</v>
       </c>
       <c r="G176" s="3">
         <v>0</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -6635,58 +6644,84 @@
         <v>0</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="B178" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C178" s="2">
+        <v>0</v>
+      </c>
+      <c r="D178" s="2">
+        <v>0</v>
+      </c>
+      <c r="E178" s="20">
+        <v>1</v>
+      </c>
+      <c r="F178" s="22">
+        <v>1</v>
+      </c>
+      <c r="G178" s="3">
+        <v>0</v>
+      </c>
+      <c r="H178" s="17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="B178" s="14" t="s">
+      <c r="B179" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C178" s="2">
-        <v>0</v>
-      </c>
-      <c r="D178" s="2">
-        <v>0</v>
-      </c>
-      <c r="E178" s="20">
-        <v>1</v>
-      </c>
-      <c r="F178" s="22">
-        <v>1</v>
-      </c>
-      <c r="G178" s="3">
-        <v>0</v>
-      </c>
-      <c r="H178" s="17" t="s">
+      <c r="C179" s="2">
+        <v>0</v>
+      </c>
+      <c r="D179" s="2">
+        <v>0</v>
+      </c>
+      <c r="E179" s="20">
+        <v>1</v>
+      </c>
+      <c r="F179" s="22">
+        <v>1</v>
+      </c>
+      <c r="G179" s="3">
+        <v>0</v>
+      </c>
+      <c r="H179" s="17" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A179" s="18" t="s">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="B179" s="16" t="s">
+      <c r="B180" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C179" s="2">
-        <v>0</v>
-      </c>
-      <c r="D179" s="2">
-        <v>0</v>
-      </c>
-      <c r="E179" s="20">
-        <v>1</v>
-      </c>
-      <c r="F179" s="22">
-        <v>1</v>
-      </c>
-      <c r="G179" s="3">
-        <v>0</v>
-      </c>
-      <c r="H179" s="18" t="s">
+      <c r="C180" s="2">
+        <v>0</v>
+      </c>
+      <c r="D180" s="2">
+        <v>0</v>
+      </c>
+      <c r="E180" s="20">
+        <v>1</v>
+      </c>
+      <c r="F180" s="22">
+        <v>1</v>
+      </c>
+      <c r="G180" s="3">
+        <v>0</v>
+      </c>
+      <c r="H180" s="18" t="s">
         <v>276</v>
       </c>
     </row>

--- a/inst/extdata/main_dict_senegal.xlsx
+++ b/inst/extdata/main_dict_senegal.xlsx
@@ -2030,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/inst/extdata/main_dict_senegal.xlsx
+++ b/inst/extdata/main_dict_senegal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="529">
   <si>
     <t>old</t>
   </si>
@@ -1608,6 +1608,9 @@
   </si>
   <si>
     <t>a4_a_10a</t>
+  </si>
+  <si>
+    <t>end</t>
   </si>
 </sst>
 </file>
@@ -2028,10 +2031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H180"/>
+  <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2202,95 +2205,95 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>395</v>
+        <v>279</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>395</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>395</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>280</v>
+        <v>395</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>35</v>
+        <v>395</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -2302,67 +2305,67 @@
         <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>147</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>282</v>
+        <v>403</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -2377,18 +2380,18 @@
         <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>148</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -2403,18 +2406,18 @@
         <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>402</v>
+        <v>283</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>401</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -2432,21 +2435,21 @@
         <v>0</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>401</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>284</v>
+        <v>402</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2</v>
+        <v>401</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -2455,24 +2458,24 @@
         <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>150</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -2481,18 +2484,18 @@
         <v>1</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -2510,21 +2513,21 @@
         <v>0</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -2533,18 +2536,18 @@
         <v>1</v>
       </c>
       <c r="G19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>524</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -2562,41 +2565,41 @@
         <v>1</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="20">
-        <v>1</v>
-      </c>
-      <c r="D21" s="20">
-        <v>0</v>
-      </c>
-      <c r="E21" s="21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="22">
-        <v>1</v>
-      </c>
-      <c r="G21" s="22">
+        <v>524</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
         <v>1</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="20">
         <v>1</v>
@@ -2604,83 +2607,83 @@
       <c r="D22" s="20">
         <v>0</v>
       </c>
-      <c r="E22" s="20">
-        <v>1</v>
-      </c>
-      <c r="F22" s="20">
+      <c r="E22" s="21">
+        <v>1</v>
+      </c>
+      <c r="F22" s="22">
         <v>1</v>
       </c>
       <c r="G22" s="22">
         <v>1</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C23" s="20">
         <v>1</v>
       </c>
       <c r="D23" s="20">
-        <v>1</v>
-      </c>
-      <c r="E23" s="21">
-        <v>1</v>
-      </c>
-      <c r="F23" s="22">
+        <v>0</v>
+      </c>
+      <c r="E23" s="20">
+        <v>1</v>
+      </c>
+      <c r="F23" s="20">
         <v>1</v>
       </c>
       <c r="G23" s="22">
         <v>1</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
+        <v>8</v>
+      </c>
+      <c r="C24" s="20">
+        <v>1</v>
+      </c>
+      <c r="D24" s="20">
+        <v>1</v>
+      </c>
+      <c r="E24" s="21">
+        <v>1</v>
+      </c>
+      <c r="F24" s="22">
+        <v>1</v>
+      </c>
+      <c r="G24" s="22">
         <v>1</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>157</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -2689,24 +2692,24 @@
         <v>1</v>
       </c>
       <c r="G25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
       </c>
       <c r="D26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
@@ -2715,70 +2718,70 @@
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="11" t="s">
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -2793,18 +2796,18 @@
         <v>1</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -2822,15 +2825,15 @@
         <v>0</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -2848,15 +2851,15 @@
         <v>0</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>416</v>
+        <v>299</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>417</v>
+        <v>5</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -2871,122 +2874,122 @@
         <v>1</v>
       </c>
       <c r="G32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>418</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B34" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="12" t="s">
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="12" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B35" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="H34" s="7" t="s">
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B36" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35" s="10" t="s">
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="10" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -3004,15 +3007,15 @@
         <v>1</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -3030,15 +3033,15 @@
         <v>1</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -3053,18 +3056,18 @@
         <v>1</v>
       </c>
       <c r="G39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -3082,15 +3085,15 @@
         <v>0</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -3108,24 +3111,24 @@
         <v>0</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
       </c>
       <c r="D42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="3">
         <v>1</v>
@@ -3134,249 +3137,249 @@
         <v>0</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="7" t="s">
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="4">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="6" t="s">
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1</v>
-      </c>
-      <c r="E45" s="4">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C46" s="2">
-        <v>1</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1</v>
-      </c>
-      <c r="E46" s="4">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1</v>
-      </c>
-      <c r="H46" s="7" t="s">
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+      <c r="H47" s="7" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="2">
-        <v>0</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1</v>
-      </c>
-      <c r="E47" s="4">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B49" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="2">
-        <v>0</v>
-      </c>
-      <c r="D48" s="2">
-        <v>1</v>
-      </c>
-      <c r="E48" s="4">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="9" t="s">
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="9" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1</v>
-      </c>
-      <c r="E49" s="4">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B51" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="C50" s="2">
-        <v>0</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1</v>
-      </c>
-      <c r="E50" s="4">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3">
-        <v>1</v>
-      </c>
-      <c r="H50" s="11" t="s">
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1</v>
+      </c>
+      <c r="H51" s="11" t="s">
         <v>527</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1</v>
-      </c>
-      <c r="E51" s="4">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4">
-        <v>0</v>
-      </c>
-      <c r="G51" s="3">
-        <v>0</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -3394,15 +3397,15 @@
         <v>0</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>396</v>
+        <v>317</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>400</v>
+        <v>39</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -3420,15 +3423,15 @@
         <v>0</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>398</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -3446,15 +3449,15 @@
         <v>0</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -3472,15 +3475,15 @@
         <v>0</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>318</v>
+        <v>407</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>40</v>
+        <v>408</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -3498,15 +3501,15 @@
         <v>0</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>183</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -3524,15 +3527,15 @@
         <v>0</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -3550,119 +3553,119 @@
         <v>0</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B60" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="2">
-        <v>0</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1</v>
-      </c>
-      <c r="E59" s="4">
-        <v>0</v>
-      </c>
-      <c r="F59" s="4">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="9" t="s">
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="9" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1</v>
-      </c>
-      <c r="E60" s="4">
-        <v>1</v>
-      </c>
-      <c r="F60" s="4">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B62" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="C61" s="2">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2">
-        <v>1</v>
-      </c>
-      <c r="E61" s="4">
-        <v>1</v>
-      </c>
-      <c r="F61" s="4">
-        <v>1</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1</v>
-      </c>
-      <c r="H61" s="11" t="s">
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1</v>
+      </c>
+      <c r="H62" s="11" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="C62" s="2">
-        <v>1</v>
-      </c>
-      <c r="D62" s="2">
-        <v>1</v>
-      </c>
-      <c r="E62" s="4">
-        <v>1</v>
-      </c>
-      <c r="F62" s="4">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>509</v>
+        <v>411</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -3684,45 +3687,45 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>51</v>
+      <c r="A64" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>509</v>
       </c>
       <c r="C64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="4">
         <v>1</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="4">
         <v>0</v>
       </c>
       <c r="G64" s="3">
         <v>1</v>
       </c>
-      <c r="H64" s="13" t="s">
-        <v>187</v>
+      <c r="H64" s="11" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C65" s="20">
-        <v>0</v>
-      </c>
-      <c r="D65" s="20">
-        <v>0</v>
-      </c>
-      <c r="E65" s="21">
+        <v>51</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
         <v>1</v>
       </c>
       <c r="F65" s="3">
@@ -3732,15 +3735,15 @@
         <v>1</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C66" s="20">
         <v>0</v>
@@ -3748,7 +3751,7 @@
       <c r="D66" s="20">
         <v>0</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E66" s="21">
         <v>1</v>
       </c>
       <c r="F66" s="3">
@@ -3758,15 +3761,15 @@
         <v>1</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C67" s="20">
         <v>0</v>
@@ -3774,7 +3777,7 @@
       <c r="D67" s="20">
         <v>0</v>
       </c>
-      <c r="E67" s="21">
+      <c r="E67" s="20">
         <v>1</v>
       </c>
       <c r="F67" s="3">
@@ -3784,15 +3787,15 @@
         <v>1</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C68" s="20">
         <v>0</v>
@@ -3810,23 +3813,23 @@
         <v>1</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69" s="2">
-        <v>0</v>
-      </c>
-      <c r="D69" s="2">
-        <v>0</v>
-      </c>
-      <c r="E69" s="4">
+        <v>55</v>
+      </c>
+      <c r="C69" s="20">
+        <v>0</v>
+      </c>
+      <c r="D69" s="20">
+        <v>0</v>
+      </c>
+      <c r="E69" s="21">
         <v>1</v>
       </c>
       <c r="F69" s="3">
@@ -3836,15 +3839,15 @@
         <v>1</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -3862,15 +3865,15 @@
         <v>1</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -3888,15 +3891,15 @@
         <v>1</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -3914,15 +3917,15 @@
         <v>1</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -3940,15 +3943,15 @@
         <v>1</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -3966,15 +3969,15 @@
         <v>1</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -3992,15 +3995,15 @@
         <v>1</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -4018,15 +4021,15 @@
         <v>1</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -4044,15 +4047,15 @@
         <v>1</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -4070,15 +4073,15 @@
         <v>1</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -4096,15 +4099,15 @@
         <v>1</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -4122,67 +4125,67 @@
         <v>1</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <v>1</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B82" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C81" s="2">
-        <v>0</v>
-      </c>
-      <c r="D81" s="2">
-        <v>0</v>
-      </c>
-      <c r="E81" s="4">
-        <v>1</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1</v>
-      </c>
-      <c r="H81" s="13" t="s">
+      <c r="C82" s="2">
+        <v>0</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4">
+        <v>1</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0</v>
+      </c>
+      <c r="G82" s="3">
+        <v>1</v>
+      </c>
+      <c r="H82" s="13" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C82" s="2">
-        <v>0</v>
-      </c>
-      <c r="D82" s="2">
-        <v>0</v>
-      </c>
-      <c r="E82" s="2">
-        <v>1</v>
-      </c>
-      <c r="F82" s="3">
-        <v>1</v>
-      </c>
-      <c r="G82" s="3">
-        <v>1</v>
-      </c>
-      <c r="H82" s="17" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -4197,18 +4200,18 @@
         <v>1</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -4226,15 +4229,15 @@
         <v>0</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -4252,15 +4255,15 @@
         <v>0</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
@@ -4278,15 +4281,15 @@
         <v>0</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
@@ -4304,15 +4307,15 @@
         <v>0</v>
       </c>
       <c r="H87" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
@@ -4330,15 +4333,15 @@
         <v>0</v>
       </c>
       <c r="H88" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C89" s="2">
         <v>0</v>
@@ -4356,15 +4359,15 @@
         <v>0</v>
       </c>
       <c r="H89" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C90" s="2">
         <v>0</v>
@@ -4382,15 +4385,15 @@
         <v>0</v>
       </c>
       <c r="H90" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
@@ -4408,15 +4411,15 @@
         <v>0</v>
       </c>
       <c r="H91" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
@@ -4434,15 +4437,15 @@
         <v>0</v>
       </c>
       <c r="H92" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
@@ -4460,15 +4463,15 @@
         <v>0</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -4486,15 +4489,15 @@
         <v>0</v>
       </c>
       <c r="H94" s="17" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -4512,15 +4515,15 @@
         <v>0</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -4538,15 +4541,15 @@
         <v>0</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -4564,15 +4567,15 @@
         <v>0</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -4590,15 +4593,15 @@
         <v>0</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -4613,18 +4616,18 @@
         <v>1</v>
       </c>
       <c r="G99" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>87</v>
+        <v>357</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -4642,15 +4645,15 @@
         <v>1</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -4668,15 +4671,15 @@
         <v>1</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -4694,15 +4697,15 @@
         <v>1</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -4720,15 +4723,15 @@
         <v>1</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -4746,15 +4749,15 @@
         <v>1</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -4772,15 +4775,15 @@
         <v>1</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -4798,15 +4801,15 @@
         <v>1</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -4814,25 +4817,25 @@
       <c r="D107" s="2">
         <v>0</v>
       </c>
-      <c r="E107" s="20">
-        <v>1</v>
-      </c>
-      <c r="F107" s="22">
+      <c r="E107" s="2">
+        <v>1</v>
+      </c>
+      <c r="F107" s="3">
         <v>1</v>
       </c>
       <c r="G107" s="3">
         <v>1</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -4850,15 +4853,15 @@
         <v>1</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -4876,15 +4879,15 @@
         <v>1</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -4895,22 +4898,22 @@
       <c r="E110" s="20">
         <v>1</v>
       </c>
-      <c r="F110" s="20">
+      <c r="F110" s="22">
         <v>1</v>
       </c>
       <c r="G110" s="3">
         <v>1</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -4921,22 +4924,22 @@
       <c r="E111" s="20">
         <v>1</v>
       </c>
-      <c r="F111" s="22">
+      <c r="F111" s="20">
         <v>1</v>
       </c>
       <c r="G111" s="3">
         <v>1</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -4954,15 +4957,15 @@
         <v>1</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -4980,15 +4983,15 @@
         <v>1</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -4999,22 +5002,22 @@
       <c r="E114" s="20">
         <v>1</v>
       </c>
-      <c r="F114" s="20">
+      <c r="F114" s="22">
         <v>1</v>
       </c>
       <c r="G114" s="3">
         <v>1</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>102</v>
+        <v>372</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -5025,22 +5028,22 @@
       <c r="E115" s="20">
         <v>1</v>
       </c>
-      <c r="F115" s="22">
+      <c r="F115" s="20">
         <v>1</v>
       </c>
       <c r="G115" s="3">
         <v>1</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -5055,18 +5058,18 @@
         <v>1</v>
       </c>
       <c r="G116" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -5084,15 +5087,15 @@
         <v>0</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>239</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -5110,15 +5113,15 @@
         <v>0</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -5136,15 +5139,15 @@
         <v>0</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5155,22 +5158,22 @@
       <c r="E120" s="20">
         <v>1</v>
       </c>
-      <c r="F120" s="20">
+      <c r="F120" s="22">
         <v>1</v>
       </c>
       <c r="G120" s="3">
         <v>0</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5181,22 +5184,22 @@
       <c r="E121" s="20">
         <v>1</v>
       </c>
-      <c r="F121" s="22">
+      <c r="F121" s="20">
         <v>1</v>
       </c>
       <c r="G121" s="3">
         <v>0</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -5214,67 +5217,67 @@
         <v>0</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0</v>
+      </c>
+      <c r="D123" s="2">
+        <v>0</v>
+      </c>
+      <c r="E123" s="20">
+        <v>1</v>
+      </c>
+      <c r="F123" s="22">
+        <v>1</v>
+      </c>
+      <c r="G123" s="3">
+        <v>0</v>
+      </c>
+      <c r="H123" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B124" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C123" s="2">
-        <v>0</v>
-      </c>
-      <c r="D123" s="2">
-        <v>0</v>
-      </c>
-      <c r="E123" s="20">
-        <v>1</v>
-      </c>
-      <c r="F123" s="22">
-        <v>1</v>
-      </c>
-      <c r="G123" s="3">
-        <v>0</v>
-      </c>
-      <c r="H123" s="17" t="s">
+      <c r="C124" s="2">
+        <v>0</v>
+      </c>
+      <c r="D124" s="2">
+        <v>0</v>
+      </c>
+      <c r="E124" s="20">
+        <v>1</v>
+      </c>
+      <c r="F124" s="22">
+        <v>1</v>
+      </c>
+      <c r="G124" s="3">
+        <v>0</v>
+      </c>
+      <c r="H124" s="17" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="B124" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="C124" s="2">
-        <v>0</v>
-      </c>
-      <c r="D124" s="2">
-        <v>0</v>
-      </c>
-      <c r="E124" s="20">
-        <v>1</v>
-      </c>
-      <c r="F124" s="20">
-        <v>1</v>
-      </c>
-      <c r="G124" s="3">
-        <v>0</v>
-      </c>
-      <c r="H124" s="18" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -5292,15 +5295,15 @@
         <v>0</v>
       </c>
       <c r="H125" s="18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5318,15 +5321,15 @@
         <v>0</v>
       </c>
       <c r="H126" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -5344,15 +5347,15 @@
         <v>0</v>
       </c>
       <c r="H127" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -5370,67 +5373,67 @@
         <v>0</v>
       </c>
       <c r="H128" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="C129" s="2">
+        <v>0</v>
+      </c>
+      <c r="D129" s="2">
+        <v>0</v>
+      </c>
+      <c r="E129" s="20">
+        <v>1</v>
+      </c>
+      <c r="F129" s="20">
+        <v>1</v>
+      </c>
+      <c r="G129" s="3">
+        <v>0</v>
+      </c>
+      <c r="H129" s="18" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="B129" s="16" t="s">
+      <c r="B130" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="C129" s="2">
-        <v>0</v>
-      </c>
-      <c r="D129" s="2">
-        <v>0</v>
-      </c>
-      <c r="E129" s="20">
-        <v>1</v>
-      </c>
-      <c r="F129" s="20">
-        <v>1</v>
-      </c>
-      <c r="G129" s="3">
-        <v>0</v>
-      </c>
-      <c r="H129" s="18" t="s">
+      <c r="C130" s="2">
+        <v>0</v>
+      </c>
+      <c r="D130" s="2">
+        <v>0</v>
+      </c>
+      <c r="E130" s="20">
+        <v>1</v>
+      </c>
+      <c r="F130" s="20">
+        <v>1</v>
+      </c>
+      <c r="G130" s="3">
+        <v>0</v>
+      </c>
+      <c r="H130" s="18" t="s">
         <v>464</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="B130" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C130" s="2">
-        <v>0</v>
-      </c>
-      <c r="D130" s="2">
-        <v>0</v>
-      </c>
-      <c r="E130" s="20">
-        <v>1</v>
-      </c>
-      <c r="F130" s="22">
-        <v>1</v>
-      </c>
-      <c r="G130" s="3">
-        <v>0</v>
-      </c>
-      <c r="H130" s="17" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B131" s="23" t="s">
-        <v>441</v>
+        <v>382</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -5438,7 +5441,7 @@
       <c r="D131" s="2">
         <v>0</v>
       </c>
-      <c r="E131" s="4">
+      <c r="E131" s="20">
         <v>1</v>
       </c>
       <c r="F131" s="22">
@@ -5448,15 +5451,15 @@
         <v>0</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>423</v>
+        <v>246</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5474,15 +5477,15 @@
         <v>0</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5500,15 +5503,15 @@
         <v>0</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5526,15 +5529,15 @@
         <v>0</v>
       </c>
       <c r="H134" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5552,15 +5555,15 @@
         <v>0</v>
       </c>
       <c r="H135" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5578,15 +5581,15 @@
         <v>0</v>
       </c>
       <c r="H136" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B137" s="23" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5604,15 +5607,15 @@
         <v>0</v>
       </c>
       <c r="H137" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B138" s="23" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5630,15 +5633,15 @@
         <v>0</v>
       </c>
       <c r="H138" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5656,15 +5659,15 @@
         <v>0</v>
       </c>
       <c r="H139" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -5682,15 +5685,15 @@
         <v>0</v>
       </c>
       <c r="H140" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -5708,15 +5711,15 @@
         <v>0</v>
       </c>
       <c r="H141" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -5734,15 +5737,15 @@
         <v>0</v>
       </c>
       <c r="H142" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -5760,15 +5763,15 @@
         <v>0</v>
       </c>
       <c r="H143" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -5786,15 +5789,15 @@
         <v>0</v>
       </c>
       <c r="H144" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -5812,15 +5815,15 @@
         <v>0</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -5838,15 +5841,15 @@
         <v>0</v>
       </c>
       <c r="H146" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -5864,15 +5867,15 @@
         <v>0</v>
       </c>
       <c r="H147" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -5890,15 +5893,15 @@
         <v>0</v>
       </c>
       <c r="H148" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="B149" s="14" t="s">
-        <v>112</v>
+        <v>482</v>
+      </c>
+      <c r="B149" s="23" t="s">
+        <v>457</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -5906,7 +5909,7 @@
       <c r="D149" s="2">
         <v>0</v>
       </c>
-      <c r="E149" s="20">
+      <c r="E149" s="4">
         <v>1</v>
       </c>
       <c r="F149" s="22">
@@ -5916,15 +5919,15 @@
         <v>0</v>
       </c>
       <c r="H149" s="17" t="s">
-        <v>247</v>
+        <v>440</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
-        <v>517</v>
+        <v>383</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -5942,15 +5945,15 @@
         <v>0</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
-        <v>384</v>
+        <v>517</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -5965,18 +5968,18 @@
         <v>1</v>
       </c>
       <c r="G151" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -5994,15 +5997,15 @@
         <v>1</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>511</v>
+        <v>385</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>512</v>
+        <v>115</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6020,15 +6023,15 @@
         <v>1</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>513</v>
+        <v>250</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6046,15 +6049,15 @@
         <v>1</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="B155" s="15" t="s">
-        <v>116</v>
+        <v>514</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>515</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6069,18 +6072,18 @@
         <v>1</v>
       </c>
       <c r="G155" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>251</v>
+        <v>516</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6098,15 +6101,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="B157" s="14" t="s">
-        <v>118</v>
+        <v>387</v>
+      </c>
+      <c r="B157" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6124,15 +6127,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6143,22 +6146,22 @@
       <c r="E158" s="20">
         <v>1</v>
       </c>
-      <c r="F158" s="20">
+      <c r="F158" s="22">
         <v>1</v>
       </c>
       <c r="G158" s="3">
         <v>0</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6169,22 +6172,22 @@
       <c r="E159" s="20">
         <v>1</v>
       </c>
-      <c r="F159" s="22">
+      <c r="F159" s="20">
         <v>1</v>
       </c>
       <c r="G159" s="3">
         <v>0</v>
       </c>
       <c r="H159" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6202,15 +6205,15 @@
         <v>0</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6225,18 +6228,18 @@
         <v>1</v>
       </c>
       <c r="G161" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6254,15 +6257,15 @@
         <v>1</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
-        <v>495</v>
+        <v>393</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6277,18 +6280,18 @@
         <v>1</v>
       </c>
       <c r="G163" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6306,15 +6309,15 @@
         <v>0</v>
       </c>
       <c r="H164" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6332,15 +6335,15 @@
         <v>0</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6358,15 +6361,15 @@
         <v>0</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6384,15 +6387,15 @@
         <v>0</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6410,15 +6413,15 @@
         <v>0</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6436,15 +6439,15 @@
         <v>0</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6462,15 +6465,15 @@
         <v>0</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6488,15 +6491,15 @@
         <v>0</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6514,15 +6517,15 @@
         <v>0</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6540,15 +6543,15 @@
         <v>0</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6566,15 +6569,15 @@
         <v>0</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="17" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6592,15 +6595,15 @@
         <v>0</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6611,22 +6614,22 @@
       <c r="E176" s="20">
         <v>1</v>
       </c>
-      <c r="F176" s="20">
+      <c r="F176" s="22">
         <v>1</v>
       </c>
       <c r="G176" s="3">
         <v>0</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -6637,22 +6640,22 @@
       <c r="E177" s="20">
         <v>1</v>
       </c>
-      <c r="F177" s="22">
+      <c r="F177" s="20">
         <v>1</v>
       </c>
       <c r="G177" s="3">
         <v>0</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -6670,58 +6673,84 @@
         <v>0</v>
       </c>
       <c r="H178" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="B179" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C179" s="2">
+        <v>0</v>
+      </c>
+      <c r="D179" s="2">
+        <v>0</v>
+      </c>
+      <c r="E179" s="20">
+        <v>1</v>
+      </c>
+      <c r="F179" s="22">
+        <v>1</v>
+      </c>
+      <c r="G179" s="3">
+        <v>0</v>
+      </c>
+      <c r="H179" s="17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="B179" s="14" t="s">
+      <c r="B180" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C179" s="2">
-        <v>0</v>
-      </c>
-      <c r="D179" s="2">
-        <v>0</v>
-      </c>
-      <c r="E179" s="20">
-        <v>1</v>
-      </c>
-      <c r="F179" s="22">
-        <v>1</v>
-      </c>
-      <c r="G179" s="3">
-        <v>0</v>
-      </c>
-      <c r="H179" s="17" t="s">
+      <c r="C180" s="2">
+        <v>0</v>
+      </c>
+      <c r="D180" s="2">
+        <v>0</v>
+      </c>
+      <c r="E180" s="20">
+        <v>1</v>
+      </c>
+      <c r="F180" s="22">
+        <v>1</v>
+      </c>
+      <c r="G180" s="3">
+        <v>0</v>
+      </c>
+      <c r="H180" s="17" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" s="18" t="s">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="B180" s="16" t="s">
+      <c r="B181" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C180" s="2">
-        <v>0</v>
-      </c>
-      <c r="D180" s="2">
-        <v>0</v>
-      </c>
-      <c r="E180" s="20">
-        <v>1</v>
-      </c>
-      <c r="F180" s="22">
-        <v>1</v>
-      </c>
-      <c r="G180" s="3">
-        <v>0</v>
-      </c>
-      <c r="H180" s="18" t="s">
+      <c r="C181" s="2">
+        <v>0</v>
+      </c>
+      <c r="D181" s="2">
+        <v>0</v>
+      </c>
+      <c r="E181" s="20">
+        <v>1</v>
+      </c>
+      <c r="F181" s="22">
+        <v>1</v>
+      </c>
+      <c r="G181" s="3">
+        <v>0</v>
+      </c>
+      <c r="H181" s="18" t="s">
         <v>276</v>
       </c>
     </row>

--- a/inst/extdata/main_dict_senegal.xlsx
+++ b/inst/extdata/main_dict_senegal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="641">
   <si>
     <t>old</t>
   </si>
@@ -1941,6 +1941,12 @@
   </si>
   <si>
     <t>report_end</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>end_time</t>
   </si>
 </sst>
 </file>
@@ -2373,10 +2379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H219"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="F207" sqref="F207"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2548,62 +2554,62 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
-        <v>529</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>530</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>529</v>
-      </c>
-    </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>531</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>532</v>
+      <c r="A9" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>640</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -2618,18 +2624,18 @@
         <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>531</v>
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -2647,249 +2653,249 @@
         <v>1</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>532</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
         <v>535</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B13" s="24" t="s">
         <v>536</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="24" t="s">
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="24" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B14" s="19" t="s">
         <v>636</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="19" t="s">
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8" t="s">
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>283</v>
+        <v>403</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>28</v>
+        <v>405</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -2907,15 +2913,15 @@
         <v>0</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>149</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>402</v>
+        <v>282</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>401</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -2930,24 +2936,24 @@
         <v>1</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>401</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
@@ -2956,18 +2962,18 @@
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>286</v>
+        <v>402</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>11</v>
+        <v>401</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -2985,21 +2991,21 @@
         <v>0</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>152</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
       </c>
       <c r="D24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
@@ -3008,24 +3014,24 @@
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -3034,24 +3040,24 @@
         <v>1</v>
       </c>
       <c r="G25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>524</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
       </c>
       <c r="D26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
@@ -3060,76 +3066,76 @@
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="20">
-        <v>1</v>
-      </c>
-      <c r="D27" s="20">
-        <v>0</v>
-      </c>
-      <c r="E27" s="21">
-        <v>1</v>
-      </c>
-      <c r="F27" s="22">
-        <v>1</v>
-      </c>
-      <c r="G27" s="22">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
         <v>1</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="20">
-        <v>1</v>
-      </c>
-      <c r="D28" s="20">
-        <v>0</v>
-      </c>
-      <c r="E28" s="20">
-        <v>1</v>
-      </c>
-      <c r="F28" s="20">
-        <v>1</v>
-      </c>
-      <c r="G28" s="22">
+        <v>524</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
         <v>1</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C29" s="20">
         <v>1</v>
       </c>
       <c r="D29" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="21">
         <v>1</v>
@@ -3141,67 +3147,67 @@
         <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
+        <v>23</v>
+      </c>
+      <c r="C30" s="20">
+        <v>1</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0</v>
+      </c>
+      <c r="E30" s="20">
+        <v>1</v>
+      </c>
+      <c r="F30" s="20">
+        <v>1</v>
+      </c>
+      <c r="G30" s="22">
         <v>1</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C31" s="20">
+        <v>1</v>
+      </c>
+      <c r="D31" s="20">
+        <v>1</v>
+      </c>
+      <c r="E31" s="21">
+        <v>1</v>
+      </c>
+      <c r="F31" s="22">
+        <v>1</v>
+      </c>
+      <c r="G31" s="22">
+        <v>1</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>158</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -3219,93 +3225,93 @@
         <v>1</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B35" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" s="11" t="s">
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="11" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -3320,18 +3326,18 @@
         <v>1</v>
       </c>
       <c r="G36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -3349,15 +3355,15 @@
         <v>0</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>416</v>
+        <v>298</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>417</v>
+        <v>15</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -3372,96 +3378,96 @@
         <v>1</v>
       </c>
       <c r="G38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>418</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B41" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0</v>
-      </c>
-      <c r="H39" s="12" t="s">
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -3479,15 +3485,15 @@
         <v>1</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>47</v>
+      <c r="A43" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -3504,16 +3510,16 @@
       <c r="G43" s="3">
         <v>1</v>
       </c>
-      <c r="H43" s="7" t="s">
-        <v>169</v>
+      <c r="H43" s="10" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -3531,15 +3537,15 @@
         <v>1</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -3554,18 +3560,18 @@
         <v>1</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -3580,18 +3586,18 @@
         <v>1</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -3609,24 +3615,24 @@
         <v>0</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
       </c>
       <c r="D48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="3">
         <v>1</v>
@@ -3635,15 +3641,15 @@
         <v>0</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -3661,24 +3667,24 @@
         <v>0</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>29</v>
+      <c r="A50" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
       </c>
       <c r="D50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="3">
         <v>1</v>
@@ -3686,224 +3692,224 @@
       <c r="G50" s="3">
         <v>0</v>
       </c>
-      <c r="H50" s="6" t="s">
-        <v>176</v>
+      <c r="H50" s="7" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B53" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="2">
-        <v>0</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1</v>
-      </c>
-      <c r="E51" s="4">
-        <v>1</v>
-      </c>
-      <c r="F51" s="3">
-        <v>1</v>
-      </c>
-      <c r="G51" s="3">
-        <v>1</v>
-      </c>
-      <c r="H51" s="7" t="s">
+      <c r="C53" s="2">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1</v>
+      </c>
+      <c r="H53" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B54" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1</v>
-      </c>
-      <c r="E52" s="4">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1</v>
-      </c>
-      <c r="H52" s="7" t="s">
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
+      <c r="H54" s="7" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B55" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="2">
-        <v>0</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53" s="4">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0</v>
-      </c>
-      <c r="G53" s="3">
-        <v>0</v>
-      </c>
-      <c r="H53" s="9" t="s">
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+      <c r="H55" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B56" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="2">
-        <v>0</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="4">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="9" t="s">
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B57" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="2">
-        <v>0</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0</v>
-      </c>
-      <c r="G55" s="3">
-        <v>1</v>
-      </c>
-      <c r="H55" s="11" t="s">
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1</v>
+      </c>
+      <c r="H57" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B58" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="C56" s="2">
-        <v>0</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3">
-        <v>1</v>
-      </c>
-      <c r="H56" s="11" t="s">
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+      <c r="H58" s="11" t="s">
         <v>527</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="2">
-        <v>0</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0</v>
-      </c>
-      <c r="F57" s="4">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="2">
-        <v>0</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1</v>
-      </c>
-      <c r="E58" s="4">
-        <v>0</v>
-      </c>
-      <c r="F58" s="4">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>396</v>
+        <v>316</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>400</v>
+        <v>38</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -3921,15 +3927,15 @@
         <v>0</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>398</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>397</v>
+        <v>317</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>406</v>
+        <v>39</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -3947,15 +3953,15 @@
         <v>0</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>399</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -3973,15 +3979,15 @@
         <v>0</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>40</v>
+        <v>406</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -3999,15 +4005,15 @@
         <v>0</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>183</v>
+        <v>399</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>319</v>
+        <v>407</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>41</v>
+        <v>408</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -4025,15 +4031,15 @@
         <v>0</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>184</v>
+        <v>409</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -4051,205 +4057,205 @@
         <v>0</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B67" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="2">
-        <v>0</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1</v>
-      </c>
-      <c r="E65" s="4">
-        <v>0</v>
-      </c>
-      <c r="F65" s="4">
-        <v>0</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0</v>
-      </c>
-      <c r="H65" s="9" t="s">
+      <c r="C67" s="2">
+        <v>0</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+      <c r="H67" s="9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="19" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B68" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="C66" s="2">
-        <v>1</v>
-      </c>
-      <c r="D66" s="2">
-        <v>1</v>
-      </c>
-      <c r="E66" s="4">
-        <v>1</v>
-      </c>
-      <c r="F66" s="4">
-        <v>1</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1</v>
-      </c>
-      <c r="H66" s="11" t="s">
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <v>1</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1</v>
+      </c>
+      <c r="H68" s="11" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="19" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B69" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="C67" s="2">
-        <v>1</v>
-      </c>
-      <c r="D67" s="2">
-        <v>1</v>
-      </c>
-      <c r="E67" s="4">
-        <v>1</v>
-      </c>
-      <c r="F67" s="4">
-        <v>1</v>
-      </c>
-      <c r="G67" s="3">
-        <v>1</v>
-      </c>
-      <c r="H67" s="11" t="s">
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+      <c r="H69" s="11" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="11" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B70" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="C68" s="2">
-        <v>1</v>
-      </c>
-      <c r="D68" s="2">
-        <v>1</v>
-      </c>
-      <c r="E68" s="4">
-        <v>1</v>
-      </c>
-      <c r="F68" s="4">
-        <v>0</v>
-      </c>
-      <c r="G68" s="3">
-        <v>1</v>
-      </c>
-      <c r="H68" s="11" t="s">
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4">
+        <v>1</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
+      <c r="H70" s="11" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="11" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B71" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="C69" s="2">
-        <v>1</v>
-      </c>
-      <c r="D69" s="2">
-        <v>1</v>
-      </c>
-      <c r="E69" s="4">
-        <v>1</v>
-      </c>
-      <c r="F69" s="4">
-        <v>0</v>
-      </c>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
-      <c r="H69" s="11" t="s">
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4">
+        <v>1</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="11" t="s">
         <v>410</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70" s="2">
-        <v>0</v>
-      </c>
-      <c r="D70" s="2">
-        <v>0</v>
-      </c>
-      <c r="E70" s="4">
-        <v>1</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C71" s="20">
-        <v>0</v>
-      </c>
-      <c r="D71" s="20">
-        <v>0</v>
-      </c>
-      <c r="E71" s="21">
-        <v>1</v>
-      </c>
-      <c r="F71" s="3">
-        <v>0</v>
-      </c>
-      <c r="G71" s="3">
-        <v>1</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C72" s="20">
-        <v>0</v>
-      </c>
-      <c r="D72" s="20">
-        <v>0</v>
-      </c>
-      <c r="E72" s="20">
+        <v>51</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
         <v>1</v>
       </c>
       <c r="F72" s="3">
@@ -4259,15 +4265,15 @@
         <v>1</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C73" s="20">
         <v>0</v>
@@ -4285,15 +4291,15 @@
         <v>1</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C74" s="20">
         <v>0</v>
@@ -4301,7 +4307,7 @@
       <c r="D74" s="20">
         <v>0</v>
       </c>
-      <c r="E74" s="21">
+      <c r="E74" s="20">
         <v>1</v>
       </c>
       <c r="F74" s="3">
@@ -4311,23 +4317,23 @@
         <v>1</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C75" s="2">
-        <v>0</v>
-      </c>
-      <c r="D75" s="2">
-        <v>0</v>
-      </c>
-      <c r="E75" s="4">
+        <v>54</v>
+      </c>
+      <c r="C75" s="20">
+        <v>0</v>
+      </c>
+      <c r="D75" s="20">
+        <v>0</v>
+      </c>
+      <c r="E75" s="21">
         <v>1</v>
       </c>
       <c r="F75" s="3">
@@ -4337,23 +4343,23 @@
         <v>1</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C76" s="2">
-        <v>0</v>
-      </c>
-      <c r="D76" s="2">
-        <v>0</v>
-      </c>
-      <c r="E76" s="4">
+        <v>55</v>
+      </c>
+      <c r="C76" s="20">
+        <v>0</v>
+      </c>
+      <c r="D76" s="20">
+        <v>0</v>
+      </c>
+      <c r="E76" s="21">
         <v>1</v>
       </c>
       <c r="F76" s="3">
@@ -4363,15 +4369,15 @@
         <v>1</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -4389,15 +4395,15 @@
         <v>1</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -4415,15 +4421,15 @@
         <v>1</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -4441,15 +4447,15 @@
         <v>1</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -4467,15 +4473,15 @@
         <v>1</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -4493,15 +4499,15 @@
         <v>1</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -4519,15 +4525,15 @@
         <v>1</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -4545,15 +4551,15 @@
         <v>1</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -4571,15 +4577,15 @@
         <v>1</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -4597,15 +4603,15 @@
         <v>1</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
@@ -4623,93 +4629,93 @@
         <v>1</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87" s="4">
+        <v>1</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0</v>
+      </c>
+      <c r="G87" s="3">
+        <v>1</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0</v>
+      </c>
+      <c r="E88" s="4">
+        <v>1</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0</v>
+      </c>
+      <c r="G88" s="3">
+        <v>1</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B89" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C87" s="2">
-        <v>0</v>
-      </c>
-      <c r="D87" s="2">
-        <v>0</v>
-      </c>
-      <c r="E87" s="4">
-        <v>1</v>
-      </c>
-      <c r="F87" s="3">
-        <v>0</v>
-      </c>
-      <c r="G87" s="3">
-        <v>1</v>
-      </c>
-      <c r="H87" s="13" t="s">
+      <c r="C89" s="2">
+        <v>0</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89" s="4">
+        <v>1</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>1</v>
+      </c>
+      <c r="H89" s="13" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C88" s="2">
-        <v>0</v>
-      </c>
-      <c r="D88" s="2">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2">
-        <v>1</v>
-      </c>
-      <c r="F88" s="3">
-        <v>1</v>
-      </c>
-      <c r="G88" s="3">
-        <v>1</v>
-      </c>
-      <c r="H88" s="17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C89" s="2">
-        <v>0</v>
-      </c>
-      <c r="D89" s="2">
-        <v>0</v>
-      </c>
-      <c r="E89" s="2">
-        <v>1</v>
-      </c>
-      <c r="F89" s="3">
-        <v>1</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="17" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C90" s="2">
         <v>0</v>
@@ -4724,18 +4730,18 @@
         <v>1</v>
       </c>
       <c r="G90" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
@@ -4753,15 +4759,15 @@
         <v>0</v>
       </c>
       <c r="H91" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
@@ -4779,15 +4785,15 @@
         <v>0</v>
       </c>
       <c r="H92" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
@@ -4805,15 +4811,15 @@
         <v>0</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -4831,15 +4837,15 @@
         <v>0</v>
       </c>
       <c r="H94" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="17" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -4857,15 +4863,15 @@
         <v>0</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -4883,15 +4889,15 @@
         <v>0</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -4909,15 +4915,15 @@
         <v>0</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -4935,15 +4941,15 @@
         <v>0</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -4961,15 +4967,15 @@
         <v>0</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -4987,15 +4993,15 @@
         <v>0</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -5013,15 +5019,15 @@
         <v>0</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -5039,15 +5045,15 @@
         <v>0</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -5065,15 +5071,15 @@
         <v>0</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -5091,15 +5097,15 @@
         <v>0</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -5114,18 +5120,18 @@
         <v>1</v>
       </c>
       <c r="G105" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>87</v>
+        <v>356</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -5140,18 +5146,18 @@
         <v>1</v>
       </c>
       <c r="G106" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>88</v>
+        <v>357</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -5169,15 +5175,15 @@
         <v>1</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -5195,15 +5201,15 @@
         <v>1</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -5221,15 +5227,15 @@
         <v>1</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -5247,15 +5253,15 @@
         <v>1</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -5273,15 +5279,15 @@
         <v>1</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -5299,15 +5305,15 @@
         <v>1</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="17" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -5315,25 +5321,25 @@
       <c r="D113" s="2">
         <v>0</v>
       </c>
-      <c r="E113" s="20">
-        <v>1</v>
-      </c>
-      <c r="F113" s="22">
+      <c r="E113" s="2">
+        <v>1</v>
+      </c>
+      <c r="F113" s="3">
         <v>1</v>
       </c>
       <c r="G113" s="3">
         <v>1</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -5341,25 +5347,25 @@
       <c r="D114" s="2">
         <v>0</v>
       </c>
-      <c r="E114" s="20">
-        <v>1</v>
-      </c>
-      <c r="F114" s="22">
+      <c r="E114" s="2">
+        <v>1</v>
+      </c>
+      <c r="F114" s="3">
         <v>1</v>
       </c>
       <c r="G114" s="3">
         <v>1</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -5377,15 +5383,15 @@
         <v>1</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -5396,22 +5402,22 @@
       <c r="E116" s="20">
         <v>1</v>
       </c>
-      <c r="F116" s="20">
+      <c r="F116" s="22">
         <v>1</v>
       </c>
       <c r="G116" s="3">
         <v>1</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -5429,15 +5435,15 @@
         <v>1</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -5448,22 +5454,22 @@
       <c r="E118" s="20">
         <v>1</v>
       </c>
-      <c r="F118" s="22">
+      <c r="F118" s="20">
         <v>1</v>
       </c>
       <c r="G118" s="3">
         <v>1</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -5481,15 +5487,15 @@
         <v>1</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5500,22 +5506,22 @@
       <c r="E120" s="20">
         <v>1</v>
       </c>
-      <c r="F120" s="20">
+      <c r="F120" s="22">
         <v>1</v>
       </c>
       <c r="G120" s="3">
         <v>1</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="B121" s="14" t="s">
-        <v>102</v>
+        <v>371</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5533,15 +5539,15 @@
         <v>1</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>103</v>
+        <v>372</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -5552,22 +5558,22 @@
       <c r="E122" s="20">
         <v>1</v>
       </c>
-      <c r="F122" s="22">
+      <c r="F122" s="20">
         <v>1</v>
       </c>
       <c r="G122" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>103</v>
+        <v>237</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="17" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -5582,18 +5588,18 @@
         <v>1</v>
       </c>
       <c r="G123" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -5611,15 +5617,15 @@
         <v>0</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>240</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="17" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -5637,15 +5643,15 @@
         <v>0</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5656,100 +5662,100 @@
       <c r="E126" s="20">
         <v>1</v>
       </c>
-      <c r="F126" s="20">
+      <c r="F126" s="22">
         <v>1</v>
       </c>
       <c r="G126" s="3">
         <v>0</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0</v>
+      </c>
+      <c r="D127" s="2">
+        <v>0</v>
+      </c>
+      <c r="E127" s="20">
+        <v>1</v>
+      </c>
+      <c r="F127" s="22">
+        <v>1</v>
+      </c>
+      <c r="G127" s="3">
+        <v>0</v>
+      </c>
+      <c r="H127" s="17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C128" s="2">
+        <v>0</v>
+      </c>
+      <c r="D128" s="2">
+        <v>0</v>
+      </c>
+      <c r="E128" s="20">
+        <v>1</v>
+      </c>
+      <c r="F128" s="20">
+        <v>1</v>
+      </c>
+      <c r="G128" s="3">
+        <v>0</v>
+      </c>
+      <c r="H128" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B129" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C127" s="2">
-        <v>0</v>
-      </c>
-      <c r="D127" s="2">
-        <v>0</v>
-      </c>
-      <c r="E127" s="20">
-        <v>1</v>
-      </c>
-      <c r="F127" s="22">
-        <v>1</v>
-      </c>
-      <c r="G127" s="3">
-        <v>0</v>
-      </c>
-      <c r="H127" s="17" t="s">
+      <c r="C129" s="2">
+        <v>0</v>
+      </c>
+      <c r="D129" s="2">
+        <v>0</v>
+      </c>
+      <c r="E129" s="20">
+        <v>1</v>
+      </c>
+      <c r="F129" s="22">
+        <v>1</v>
+      </c>
+      <c r="G129" s="3">
+        <v>0</v>
+      </c>
+      <c r="H129" s="17" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="18" t="s">
-        <v>537</v>
-      </c>
-      <c r="B128" s="16" t="s">
-        <v>538</v>
-      </c>
-      <c r="C128" s="2">
-        <v>0</v>
-      </c>
-      <c r="D128" s="2">
-        <v>0</v>
-      </c>
-      <c r="E128" s="20">
-        <v>1</v>
-      </c>
-      <c r="F128" s="20">
-        <v>1</v>
-      </c>
-      <c r="G128" s="3">
-        <v>0</v>
-      </c>
-      <c r="H128" s="18" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="18" t="s">
-        <v>540</v>
-      </c>
-      <c r="B129" s="16" t="s">
-        <v>541</v>
-      </c>
-      <c r="C129" s="2">
-        <v>0</v>
-      </c>
-      <c r="D129" s="2">
-        <v>0</v>
-      </c>
-      <c r="E129" s="20">
-        <v>1</v>
-      </c>
-      <c r="F129" s="20">
-        <v>1</v>
-      </c>
-      <c r="G129" s="3">
-        <v>0</v>
-      </c>
-      <c r="H129" s="18" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="18" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -5767,15 +5773,15 @@
         <v>0</v>
       </c>
       <c r="H130" s="18" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="18" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -5793,15 +5799,15 @@
         <v>0</v>
       </c>
       <c r="H131" s="18" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="18" t="s">
-        <v>485</v>
+        <v>543</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>491</v>
+        <v>544</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5819,15 +5825,15 @@
         <v>0</v>
       </c>
       <c r="H132" s="18" t="s">
-        <v>461</v>
+        <v>545</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="18" t="s">
-        <v>584</v>
+        <v>552</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5845,15 +5851,15 @@
         <v>0</v>
       </c>
       <c r="H133" s="18" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="18" t="s">
-        <v>587</v>
+        <v>485</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>588</v>
+        <v>491</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5871,15 +5877,15 @@
         <v>0</v>
       </c>
       <c r="H134" s="18" t="s">
-        <v>589</v>
+        <v>461</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="18" t="s">
-        <v>486</v>
+        <v>584</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>492</v>
+        <v>585</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5897,15 +5903,15 @@
         <v>0</v>
       </c>
       <c r="H135" s="18" t="s">
-        <v>462</v>
+        <v>586</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="18" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5923,15 +5929,15 @@
         <v>0</v>
       </c>
       <c r="H136" s="18" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="18" t="s">
-        <v>593</v>
+        <v>486</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>594</v>
+        <v>492</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5949,15 +5955,15 @@
         <v>0</v>
       </c>
       <c r="H137" s="18" t="s">
-        <v>595</v>
+        <v>462</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="18" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5975,15 +5981,15 @@
         <v>0</v>
       </c>
       <c r="H138" s="18" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="18" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -6001,15 +6007,15 @@
         <v>0</v>
       </c>
       <c r="H139" s="18" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="18" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -6027,15 +6033,15 @@
         <v>0</v>
       </c>
       <c r="H140" s="18" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="18" t="s">
-        <v>546</v>
+        <v>598</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>547</v>
+        <v>599</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -6053,15 +6059,15 @@
         <v>0</v>
       </c>
       <c r="H141" s="18" t="s">
-        <v>548</v>
+        <v>600</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="18" t="s">
-        <v>549</v>
+        <v>602</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>550</v>
+        <v>603</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -6079,15 +6085,15 @@
         <v>0</v>
       </c>
       <c r="H142" s="18" t="s">
-        <v>551</v>
+        <v>604</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="18" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -6105,15 +6111,15 @@
         <v>0</v>
       </c>
       <c r="H143" s="18" t="s">
-        <v>460</v>
+        <v>548</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="18" t="s">
-        <v>487</v>
+        <v>549</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -6131,15 +6137,15 @@
         <v>0</v>
       </c>
       <c r="H144" s="18" t="s">
-        <v>463</v>
+        <v>551</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="18" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -6157,93 +6163,93 @@
         <v>0</v>
       </c>
       <c r="H145" s="18" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="C146" s="2">
+        <v>0</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0</v>
+      </c>
+      <c r="E146" s="20">
+        <v>1</v>
+      </c>
+      <c r="F146" s="20">
+        <v>1</v>
+      </c>
+      <c r="G146" s="3">
+        <v>0</v>
+      </c>
+      <c r="H146" s="18" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="B147" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="C147" s="2">
+        <v>0</v>
+      </c>
+      <c r="D147" s="2">
+        <v>0</v>
+      </c>
+      <c r="E147" s="20">
+        <v>1</v>
+      </c>
+      <c r="F147" s="20">
+        <v>1</v>
+      </c>
+      <c r="G147" s="3">
+        <v>0</v>
+      </c>
+      <c r="H147" s="18" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="B146" s="16" t="s">
+      <c r="B148" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="C146" s="2">
-        <v>0</v>
-      </c>
-      <c r="D146" s="2">
-        <v>0</v>
-      </c>
-      <c r="E146" s="20">
-        <v>1</v>
-      </c>
-      <c r="F146" s="20">
-        <v>1</v>
-      </c>
-      <c r="G146" s="3">
-        <v>0</v>
-      </c>
-      <c r="H146" s="18" t="s">
+      <c r="C148" s="2">
+        <v>0</v>
+      </c>
+      <c r="D148" s="2">
+        <v>0</v>
+      </c>
+      <c r="E148" s="20">
+        <v>1</v>
+      </c>
+      <c r="F148" s="20">
+        <v>1</v>
+      </c>
+      <c r="G148" s="3">
+        <v>0</v>
+      </c>
+      <c r="H148" s="18" t="s">
         <v>464</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="B147" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C147" s="2">
-        <v>0</v>
-      </c>
-      <c r="D147" s="2">
-        <v>0</v>
-      </c>
-      <c r="E147" s="20">
-        <v>1</v>
-      </c>
-      <c r="F147" s="22">
-        <v>1</v>
-      </c>
-      <c r="G147" s="3">
-        <v>0</v>
-      </c>
-      <c r="H147" s="17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="B148" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C148" s="2">
-        <v>0</v>
-      </c>
-      <c r="D148" s="2">
-        <v>0</v>
-      </c>
-      <c r="E148" s="20">
-        <v>1</v>
-      </c>
-      <c r="F148" s="22">
-        <v>1</v>
-      </c>
-      <c r="G148" s="3">
-        <v>0</v>
-      </c>
-      <c r="H148" s="17" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="17" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -6261,15 +6267,15 @@
         <v>0</v>
       </c>
       <c r="H149" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B150" s="23" t="s">
-        <v>441</v>
+        <v>381</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -6277,7 +6283,7 @@
       <c r="D150" s="2">
         <v>0</v>
       </c>
-      <c r="E150" s="4">
+      <c r="E150" s="20">
         <v>1</v>
       </c>
       <c r="F150" s="22">
@@ -6287,15 +6293,15 @@
         <v>0</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>423</v>
+        <v>245</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="B151" s="23" t="s">
-        <v>442</v>
+        <v>382</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -6303,7 +6309,7 @@
       <c r="D151" s="2">
         <v>0</v>
       </c>
-      <c r="E151" s="4">
+      <c r="E151" s="20">
         <v>1</v>
       </c>
       <c r="F151" s="22">
@@ -6313,15 +6319,15 @@
         <v>0</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>424</v>
+        <v>246</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="17" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -6339,15 +6345,15 @@
         <v>0</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6365,15 +6371,15 @@
         <v>0</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6391,15 +6397,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6417,15 +6423,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6443,15 +6449,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6469,15 +6475,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6495,15 +6501,15 @@
         <v>0</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="17" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6521,15 +6527,15 @@
         <v>0</v>
       </c>
       <c r="H159" s="17" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6547,15 +6553,15 @@
         <v>0</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6573,15 +6579,15 @@
         <v>0</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6599,15 +6605,15 @@
         <v>0</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="17" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6625,15 +6631,15 @@
         <v>0</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6651,15 +6657,15 @@
         <v>0</v>
       </c>
       <c r="H164" s="17" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="17" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6677,15 +6683,15 @@
         <v>0</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6703,15 +6709,15 @@
         <v>0</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6729,15 +6735,15 @@
         <v>0</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="B168" s="14" t="s">
-        <v>112</v>
+        <v>481</v>
+      </c>
+      <c r="B168" s="23" t="s">
+        <v>458</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6745,7 +6751,7 @@
       <c r="D168" s="2">
         <v>0</v>
       </c>
-      <c r="E168" s="20">
+      <c r="E168" s="4">
         <v>1</v>
       </c>
       <c r="F168" s="22">
@@ -6755,15 +6761,15 @@
         <v>0</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>247</v>
+        <v>439</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="17" t="s">
-        <v>517</v>
-      </c>
-      <c r="B169" s="14" t="s">
-        <v>113</v>
+        <v>482</v>
+      </c>
+      <c r="B169" s="23" t="s">
+        <v>457</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6771,7 +6777,7 @@
       <c r="D169" s="2">
         <v>0</v>
       </c>
-      <c r="E169" s="20">
+      <c r="E169" s="4">
         <v>1</v>
       </c>
       <c r="F169" s="22">
@@ -6781,15 +6787,15 @@
         <v>0</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>248</v>
+        <v>440</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6804,18 +6810,18 @@
         <v>1</v>
       </c>
       <c r="G170" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="17" t="s">
-        <v>385</v>
+        <v>517</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6830,18 +6836,18 @@
         <v>1</v>
       </c>
       <c r="G171" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="17" t="s">
-        <v>511</v>
+        <v>384</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>512</v>
+        <v>114</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6859,15 +6865,15 @@
         <v>1</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>513</v>
+        <v>249</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="17" t="s">
-        <v>514</v>
+        <v>385</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>515</v>
+        <v>115</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6885,15 +6891,15 @@
         <v>1</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>516</v>
+        <v>250</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="B174" s="15" t="s">
-        <v>116</v>
+        <v>511</v>
+      </c>
+      <c r="B174" s="14" t="s">
+        <v>512</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6908,96 +6914,96 @@
         <v>1</v>
       </c>
       <c r="G174" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>251</v>
+        <v>513</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="B175" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="C175" s="2">
+        <v>0</v>
+      </c>
+      <c r="D175" s="2">
+        <v>0</v>
+      </c>
+      <c r="E175" s="20">
+        <v>1</v>
+      </c>
+      <c r="F175" s="22">
+        <v>1</v>
+      </c>
+      <c r="G175" s="3">
+        <v>1</v>
+      </c>
+      <c r="H175" s="17" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C176" s="2">
+        <v>0</v>
+      </c>
+      <c r="D176" s="2">
+        <v>0</v>
+      </c>
+      <c r="E176" s="20">
+        <v>1</v>
+      </c>
+      <c r="F176" s="22">
+        <v>1</v>
+      </c>
+      <c r="G176" s="3">
+        <v>0</v>
+      </c>
+      <c r="H176" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="B175" s="15" t="s">
+      <c r="B177" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C175" s="2">
-        <v>0</v>
-      </c>
-      <c r="D175" s="2">
-        <v>0</v>
-      </c>
-      <c r="E175" s="20">
-        <v>1</v>
-      </c>
-      <c r="F175" s="22">
-        <v>1</v>
-      </c>
-      <c r="G175" s="3">
-        <v>0</v>
-      </c>
-      <c r="H175" s="17" t="s">
+      <c r="C177" s="2">
+        <v>0</v>
+      </c>
+      <c r="D177" s="2">
+        <v>0</v>
+      </c>
+      <c r="E177" s="20">
+        <v>1</v>
+      </c>
+      <c r="F177" s="22">
+        <v>1</v>
+      </c>
+      <c r="G177" s="3">
+        <v>0</v>
+      </c>
+      <c r="H177" s="17" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A176" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="B176" s="16" t="s">
-        <v>556</v>
-      </c>
-      <c r="C176" s="2">
-        <v>0</v>
-      </c>
-      <c r="D176" s="2">
-        <v>0</v>
-      </c>
-      <c r="E176" s="20">
-        <v>1</v>
-      </c>
-      <c r="F176" s="20">
-        <v>1</v>
-      </c>
-      <c r="G176" s="3">
-        <v>0</v>
-      </c>
-      <c r="H176" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A177" s="18" t="s">
-        <v>561</v>
-      </c>
-      <c r="B177" s="16" t="s">
-        <v>560</v>
-      </c>
-      <c r="C177" s="2">
-        <v>0</v>
-      </c>
-      <c r="D177" s="2">
-        <v>0</v>
-      </c>
-      <c r="E177" s="20">
-        <v>1</v>
-      </c>
-      <c r="F177" s="20">
-        <v>1</v>
-      </c>
-      <c r="G177" s="3">
-        <v>0</v>
-      </c>
-      <c r="H177" s="18" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="18" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B178" s="16" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -7015,15 +7021,15 @@
         <v>0</v>
       </c>
       <c r="H178" s="18" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="18" t="s">
-        <v>607</v>
+        <v>561</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -7041,15 +7047,15 @@
         <v>0</v>
       </c>
       <c r="H179" s="18" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="18" t="s">
-        <v>608</v>
+        <v>562</v>
       </c>
       <c r="B180" s="16" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -7067,15 +7073,15 @@
         <v>0</v>
       </c>
       <c r="H180" s="18" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="18" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>605</v>
+        <v>576</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -7093,15 +7099,15 @@
         <v>0</v>
       </c>
       <c r="H181" s="18" t="s">
-        <v>623</v>
+        <v>565</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="18" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="B182" s="16" t="s">
-        <v>606</v>
+        <v>577</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -7119,15 +7125,15 @@
         <v>0</v>
       </c>
       <c r="H182" s="18" t="s">
-        <v>624</v>
+        <v>566</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="18" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B183" s="16" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -7145,15 +7151,15 @@
         <v>0</v>
       </c>
       <c r="H183" s="18" t="s">
-        <v>567</v>
+        <v>623</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="18" t="s">
-        <v>611</v>
+        <v>634</v>
       </c>
       <c r="B184" s="16" t="s">
-        <v>629</v>
+        <v>606</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -7171,15 +7177,15 @@
         <v>0</v>
       </c>
       <c r="H184" s="18" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="18" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B185" s="16" t="s">
-        <v>630</v>
+        <v>578</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7197,15 +7203,15 @@
         <v>0</v>
       </c>
       <c r="H185" s="18" t="s">
-        <v>625</v>
+        <v>567</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="18" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B186" s="16" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7223,15 +7229,15 @@
         <v>0</v>
       </c>
       <c r="H186" s="18" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="18" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B187" s="16" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7249,15 +7255,15 @@
         <v>0</v>
       </c>
       <c r="H187" s="18" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="18" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B188" s="16" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7275,15 +7281,15 @@
         <v>0</v>
       </c>
       <c r="H188" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="18" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>579</v>
+        <v>632</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7301,15 +7307,15 @@
         <v>0</v>
       </c>
       <c r="H189" s="18" t="s">
-        <v>568</v>
+        <v>627</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="18" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B190" s="16" t="s">
-        <v>580</v>
+        <v>633</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7327,15 +7333,15 @@
         <v>0</v>
       </c>
       <c r="H190" s="18" t="s">
-        <v>569</v>
+        <v>628</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="18" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7353,15 +7359,15 @@
         <v>0</v>
       </c>
       <c r="H191" s="18" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="18" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B192" s="16" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7379,15 +7385,15 @@
         <v>0</v>
       </c>
       <c r="H192" s="18" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="18" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B193" s="16" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7405,93 +7411,93 @@
         <v>0</v>
       </c>
       <c r="H193" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="B194" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="C194" s="2">
+        <v>0</v>
+      </c>
+      <c r="D194" s="2">
+        <v>0</v>
+      </c>
+      <c r="E194" s="20">
+        <v>1</v>
+      </c>
+      <c r="F194" s="20">
+        <v>1</v>
+      </c>
+      <c r="G194" s="3">
+        <v>0</v>
+      </c>
+      <c r="H194" s="18" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="B195" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="C195" s="2">
+        <v>0</v>
+      </c>
+      <c r="D195" s="2">
+        <v>0</v>
+      </c>
+      <c r="E195" s="20">
+        <v>1</v>
+      </c>
+      <c r="F195" s="20">
+        <v>1</v>
+      </c>
+      <c r="G195" s="3">
+        <v>0</v>
+      </c>
+      <c r="H195" s="18" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" s="18" t="s">
         <v>621</v>
       </c>
-      <c r="B194" s="16" t="s">
+      <c r="B196" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="C194" s="2">
-        <v>0</v>
-      </c>
-      <c r="D194" s="2">
-        <v>0</v>
-      </c>
-      <c r="E194" s="20">
-        <v>1</v>
-      </c>
-      <c r="F194" s="20">
-        <v>1</v>
-      </c>
-      <c r="G194" s="3">
-        <v>0</v>
-      </c>
-      <c r="H194" s="18" t="s">
+      <c r="C196" s="2">
+        <v>0</v>
+      </c>
+      <c r="D196" s="2">
+        <v>0</v>
+      </c>
+      <c r="E196" s="20">
+        <v>1</v>
+      </c>
+      <c r="F196" s="20">
+        <v>1</v>
+      </c>
+      <c r="G196" s="3">
+        <v>0</v>
+      </c>
+      <c r="H196" s="18" t="s">
         <v>573</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A195" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="B195" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C195" s="2">
-        <v>0</v>
-      </c>
-      <c r="D195" s="2">
-        <v>0</v>
-      </c>
-      <c r="E195" s="20">
-        <v>1</v>
-      </c>
-      <c r="F195" s="22">
-        <v>1</v>
-      </c>
-      <c r="G195" s="3">
-        <v>0</v>
-      </c>
-      <c r="H195" s="17" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A196" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="B196" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C196" s="2">
-        <v>0</v>
-      </c>
-      <c r="D196" s="2">
-        <v>0</v>
-      </c>
-      <c r="E196" s="20">
-        <v>1</v>
-      </c>
-      <c r="F196" s="20">
-        <v>1</v>
-      </c>
-      <c r="G196" s="3">
-        <v>0</v>
-      </c>
-      <c r="H196" s="17" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -7509,15 +7515,15 @@
         <v>0</v>
       </c>
       <c r="H197" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -7528,22 +7534,22 @@
       <c r="E198" s="20">
         <v>1</v>
       </c>
-      <c r="F198" s="22">
+      <c r="F198" s="20">
         <v>1</v>
       </c>
       <c r="G198" s="3">
         <v>0</v>
       </c>
       <c r="H198" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -7558,18 +7564,18 @@
         <v>1</v>
       </c>
       <c r="G199" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="17" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -7584,18 +7590,18 @@
         <v>1</v>
       </c>
       <c r="G200" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="17" t="s">
-        <v>495</v>
+        <v>392</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -7610,18 +7616,18 @@
         <v>1</v>
       </c>
       <c r="G201" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="17" t="s">
-        <v>497</v>
+        <v>393</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -7636,18 +7642,18 @@
         <v>1</v>
       </c>
       <c r="G202" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -7665,15 +7671,15 @@
         <v>0</v>
       </c>
       <c r="H203" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C204" s="2">
         <v>0</v>
@@ -7691,15 +7697,15 @@
         <v>0</v>
       </c>
       <c r="H204" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="17" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
@@ -7717,15 +7723,15 @@
         <v>0</v>
       </c>
       <c r="H205" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C206" s="2">
         <v>0</v>
@@ -7743,15 +7749,15 @@
         <v>0</v>
       </c>
       <c r="H206" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C207" s="2">
         <v>0</v>
@@ -7769,15 +7775,15 @@
         <v>0</v>
       </c>
       <c r="H207" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="17" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C208" s="2">
         <v>0</v>
@@ -7795,15 +7801,15 @@
         <v>0</v>
       </c>
       <c r="H208" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="17" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C209" s="2">
         <v>0</v>
@@ -7821,15 +7827,15 @@
         <v>0</v>
       </c>
       <c r="H209" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="17" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C210" s="2">
         <v>0</v>
@@ -7847,15 +7853,15 @@
         <v>0</v>
       </c>
       <c r="H210" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C211" s="2">
         <v>0</v>
@@ -7873,15 +7879,15 @@
         <v>0</v>
       </c>
       <c r="H211" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="17" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B212" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C212" s="2">
         <v>0</v>
@@ -7899,15 +7905,15 @@
         <v>0</v>
       </c>
       <c r="H212" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="17" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="B213" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C213" s="2">
         <v>0</v>
@@ -7925,15 +7931,15 @@
         <v>0</v>
       </c>
       <c r="H213" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="17" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="B214" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C214" s="2">
         <v>0</v>
@@ -7944,22 +7950,22 @@
       <c r="E214" s="20">
         <v>1</v>
       </c>
-      <c r="F214" s="20">
+      <c r="F214" s="22">
         <v>1</v>
       </c>
       <c r="G214" s="3">
         <v>0</v>
       </c>
       <c r="H214" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B215" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C215" s="2">
         <v>0</v>
@@ -7977,15 +7983,15 @@
         <v>0</v>
       </c>
       <c r="H215" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="17" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B216" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C216" s="2">
         <v>0</v>
@@ -7996,91 +8002,143 @@
       <c r="E216" s="20">
         <v>1</v>
       </c>
-      <c r="F216" s="22">
+      <c r="F216" s="20">
         <v>1</v>
       </c>
       <c r="G216" s="3">
         <v>0</v>
       </c>
       <c r="H216" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="B217" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C217" s="2">
+        <v>0</v>
+      </c>
+      <c r="D217" s="2">
+        <v>0</v>
+      </c>
+      <c r="E217" s="20">
+        <v>1</v>
+      </c>
+      <c r="F217" s="22">
+        <v>1</v>
+      </c>
+      <c r="G217" s="3">
+        <v>0</v>
+      </c>
+      <c r="H217" s="17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="B218" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C218" s="2">
+        <v>0</v>
+      </c>
+      <c r="D218" s="2">
+        <v>0</v>
+      </c>
+      <c r="E218" s="20">
+        <v>1</v>
+      </c>
+      <c r="F218" s="22">
+        <v>1</v>
+      </c>
+      <c r="G218" s="3">
+        <v>0</v>
+      </c>
+      <c r="H218" s="17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="B217" s="14" t="s">
+      <c r="B219" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C217" s="2">
-        <v>0</v>
-      </c>
-      <c r="D217" s="2">
-        <v>0</v>
-      </c>
-      <c r="E217" s="20">
-        <v>1</v>
-      </c>
-      <c r="F217" s="22">
-        <v>1</v>
-      </c>
-      <c r="G217" s="3">
-        <v>0</v>
-      </c>
-      <c r="H217" s="17" t="s">
+      <c r="C219" s="2">
+        <v>0</v>
+      </c>
+      <c r="D219" s="2">
+        <v>0</v>
+      </c>
+      <c r="E219" s="20">
+        <v>1</v>
+      </c>
+      <c r="F219" s="22">
+        <v>1</v>
+      </c>
+      <c r="G219" s="3">
+        <v>0</v>
+      </c>
+      <c r="H219" s="17" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A218" s="18" t="s">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="B218" s="16" t="s">
+      <c r="B220" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C218" s="2">
-        <v>0</v>
-      </c>
-      <c r="D218" s="2">
-        <v>0</v>
-      </c>
-      <c r="E218" s="20">
-        <v>1</v>
-      </c>
-      <c r="F218" s="22">
-        <v>1</v>
-      </c>
-      <c r="G218" s="3">
-        <v>0</v>
-      </c>
-      <c r="H218" s="18" t="s">
+      <c r="C220" s="2">
+        <v>0</v>
+      </c>
+      <c r="D220" s="2">
+        <v>0</v>
+      </c>
+      <c r="E220" s="20">
+        <v>1</v>
+      </c>
+      <c r="F220" s="22">
+        <v>1</v>
+      </c>
+      <c r="G220" s="3">
+        <v>0</v>
+      </c>
+      <c r="H220" s="18" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A219" s="25" t="s">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" s="25" t="s">
         <v>637</v>
       </c>
-      <c r="B219" s="26" t="s">
+      <c r="B221" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="C219" s="2">
-        <v>0</v>
-      </c>
-      <c r="D219" s="2">
-        <v>0</v>
-      </c>
-      <c r="E219" s="4">
-        <v>1</v>
-      </c>
-      <c r="F219" s="3">
-        <v>1</v>
-      </c>
-      <c r="G219" s="3">
-        <v>0</v>
-      </c>
-      <c r="H219" s="27" t="s">
+      <c r="C221" s="2">
+        <v>0</v>
+      </c>
+      <c r="D221" s="2">
+        <v>0</v>
+      </c>
+      <c r="E221" s="4">
+        <v>1</v>
+      </c>
+      <c r="F221" s="3">
+        <v>1</v>
+      </c>
+      <c r="G221" s="3">
+        <v>0</v>
+      </c>
+      <c r="H221" s="27" t="s">
         <v>638</v>
       </c>
     </row>

--- a/inst/extdata/main_dict_senegal.xlsx
+++ b/inst/extdata/main_dict_senegal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="649">
   <si>
     <t>old</t>
   </si>
@@ -1931,12 +1931,6 @@
     <t>crfs-t09a2-metronidazol_hf</t>
   </si>
   <si>
-    <t>t_form_completion</t>
-  </si>
-  <si>
-    <t>t_screening_start</t>
-  </si>
-  <si>
     <t>crfs-t07a-report_end</t>
   </si>
   <si>
@@ -1953,6 +1947,30 @@
   </si>
   <si>
     <t>submission_date</t>
+  </si>
+  <si>
+    <t>consent-consent_end</t>
+  </si>
+  <si>
+    <t>ts_screening_start</t>
+  </si>
+  <si>
+    <t>ts_consent</t>
+  </si>
+  <si>
+    <t>consent_end</t>
+  </si>
+  <si>
+    <t>ts_form_completion</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-report_start</t>
+  </si>
+  <si>
+    <t>ts_after_consultation</t>
+  </si>
+  <si>
+    <t>report_start</t>
   </si>
 </sst>
 </file>
@@ -2028,7 +2046,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2069,9 +2087,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2090,17 +2105,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2385,24 +2394,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H222"/>
+  <dimension ref="A1:H224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.58203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="9.25" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2428,7 +2437,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -2454,7 +2463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -2480,7 +2489,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -2506,7 +2515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>394</v>
       </c>
@@ -2532,12 +2541,12 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -2555,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>510</v>
       </c>
@@ -2584,12 +2593,12 @@
         <v>510</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -2610,7 +2619,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>528</v>
       </c>
@@ -2636,12 +2645,12 @@
         <v>528</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -2662,11 +2671,11 @@
         <v>528</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="20" t="s">
         <v>530</v>
       </c>
       <c r="C11" s="2">
@@ -2682,17 +2691,17 @@
         <v>1</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="20" t="s">
         <v>532</v>
       </c>
       <c r="C12" s="2">
@@ -2708,17 +2717,17 @@
         <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="20" t="s">
         <v>534</v>
       </c>
       <c r="C13" s="2">
@@ -2734,17 +2743,17 @@
         <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="20" t="s">
         <v>536</v>
       </c>
       <c r="C14" s="2">
@@ -2760,18 +2769,18 @@
         <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="20" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>636</v>
+      <c r="B15" s="16" t="s">
+        <v>642</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -2788,11 +2797,11 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="16" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>278</v>
       </c>
@@ -2818,7 +2827,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>279</v>
       </c>
@@ -2844,7 +2853,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>395</v>
       </c>
@@ -2870,7 +2879,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>280</v>
       </c>
@@ -2896,7 +2905,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>281</v>
       </c>
@@ -2922,7 +2931,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>403</v>
       </c>
@@ -2948,7 +2957,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>282</v>
       </c>
@@ -2974,7 +2983,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>283</v>
       </c>
@@ -3000,7 +3009,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>402</v>
       </c>
@@ -3026,7 +3035,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>284</v>
       </c>
@@ -3052,7 +3061,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>286</v>
       </c>
@@ -3078,7 +3087,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>287</v>
       </c>
@@ -3104,7 +3113,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>288</v>
       </c>
@@ -3130,7 +3139,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>285</v>
       </c>
@@ -3156,85 +3165,85 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>289</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="20">
-        <v>1</v>
-      </c>
-      <c r="D30" s="20">
-        <v>0</v>
-      </c>
-      <c r="E30" s="21">
-        <v>1</v>
-      </c>
-      <c r="F30" s="22">
-        <v>1</v>
-      </c>
-      <c r="G30" s="22">
+      <c r="C30" s="17">
+        <v>1</v>
+      </c>
+      <c r="D30" s="17">
+        <v>0</v>
+      </c>
+      <c r="E30" s="18">
+        <v>1</v>
+      </c>
+      <c r="F30" s="19">
+        <v>1</v>
+      </c>
+      <c r="G30" s="19">
         <v>1</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>290</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="20">
-        <v>1</v>
-      </c>
-      <c r="D31" s="20">
-        <v>0</v>
-      </c>
-      <c r="E31" s="20">
-        <v>1</v>
-      </c>
-      <c r="F31" s="20">
-        <v>1</v>
-      </c>
-      <c r="G31" s="22">
+      <c r="C31" s="17">
+        <v>1</v>
+      </c>
+      <c r="D31" s="17">
+        <v>0</v>
+      </c>
+      <c r="E31" s="17">
+        <v>1</v>
+      </c>
+      <c r="F31" s="17">
+        <v>1</v>
+      </c>
+      <c r="G31" s="19">
         <v>1</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>291</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="20">
-        <v>1</v>
-      </c>
-      <c r="D32" s="20">
-        <v>1</v>
-      </c>
-      <c r="E32" s="21">
-        <v>1</v>
-      </c>
-      <c r="F32" s="22">
-        <v>1</v>
-      </c>
-      <c r="G32" s="22">
+      <c r="C32" s="17">
+        <v>1</v>
+      </c>
+      <c r="D32" s="17">
+        <v>1</v>
+      </c>
+      <c r="E32" s="18">
+        <v>1</v>
+      </c>
+      <c r="F32" s="19">
+        <v>1</v>
+      </c>
+      <c r="G32" s="19">
         <v>1</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>292</v>
       </c>
@@ -3260,7 +3269,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>293</v>
       </c>
@@ -3286,7 +3295,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>294</v>
       </c>
@@ -3312,7 +3321,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>295</v>
       </c>
@@ -3338,7 +3347,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>296</v>
       </c>
@@ -3364,7 +3373,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>297</v>
       </c>
@@ -3390,7 +3399,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>298</v>
       </c>
@@ -3416,7 +3425,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>299</v>
       </c>
@@ -3442,7 +3451,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>416</v>
       </c>
@@ -3468,7 +3477,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>420</v>
       </c>
@@ -3494,7 +3503,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>300</v>
       </c>
@@ -3520,7 +3529,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>301</v>
       </c>
@@ -3546,7 +3555,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>302</v>
       </c>
@@ -3572,7 +3581,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>303</v>
       </c>
@@ -3598,7 +3607,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>304</v>
       </c>
@@ -3624,7 +3633,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>305</v>
       </c>
@@ -3650,7 +3659,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>306</v>
       </c>
@@ -3676,7 +3685,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>307</v>
       </c>
@@ -3702,7 +3711,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>308</v>
       </c>
@@ -3728,7 +3737,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>309</v>
       </c>
@@ -3754,506 +3763,506 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B54" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="2">
-        <v>1</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53" s="4">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3">
-        <v>1</v>
-      </c>
-      <c r="G53" s="3">
-        <v>0</v>
-      </c>
-      <c r="H53" s="6" t="s">
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B55" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="2">
-        <v>0</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="4">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1</v>
-      </c>
-      <c r="H54" s="7" t="s">
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+      <c r="H55" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B56" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C55" s="2">
-        <v>1</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3">
-        <v>1</v>
-      </c>
-      <c r="H55" s="7" t="s">
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
+      <c r="H56" s="7" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B57" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="2">
-        <v>0</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3">
-        <v>0</v>
-      </c>
-      <c r="H56" s="9" t="s">
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B58" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="2">
-        <v>0</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="9" t="s">
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B59" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="2">
-        <v>0</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1</v>
-      </c>
-      <c r="E58" s="4">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1</v>
-      </c>
-      <c r="H58" s="11" t="s">
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1</v>
+      </c>
+      <c r="H59" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B60" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="C59" s="2">
-        <v>0</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1</v>
-      </c>
-      <c r="E59" s="4">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1</v>
-      </c>
-      <c r="H59" s="11" t="s">
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+      <c r="H60" s="11" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B61" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="2">
-        <v>0</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1</v>
-      </c>
-      <c r="E60" s="4">
-        <v>0</v>
-      </c>
-      <c r="F60" s="4">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="9" t="s">
+      <c r="C61" s="2">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B62" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C61" s="2">
-        <v>0</v>
-      </c>
-      <c r="D61" s="2">
-        <v>1</v>
-      </c>
-      <c r="E61" s="4">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="9" t="s">
+      <c r="C62" s="2">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="9" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B63" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C62" s="2">
-        <v>0</v>
-      </c>
-      <c r="D62" s="2">
-        <v>1</v>
-      </c>
-      <c r="E62" s="4">
-        <v>0</v>
-      </c>
-      <c r="F62" s="4">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="9" t="s">
+      <c r="C63" s="2">
+        <v>0</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0</v>
+      </c>
+      <c r="H63" s="9" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B64" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="C63" s="2">
-        <v>0</v>
-      </c>
-      <c r="D63" s="2">
-        <v>1</v>
-      </c>
-      <c r="E63" s="4">
-        <v>0</v>
-      </c>
-      <c r="F63" s="4">
-        <v>0</v>
-      </c>
-      <c r="G63" s="3">
-        <v>0</v>
-      </c>
-      <c r="H63" s="9" t="s">
+      <c r="C64" s="2">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0</v>
+      </c>
+      <c r="H64" s="9" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B65" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="C64" s="2">
-        <v>0</v>
-      </c>
-      <c r="D64" s="2">
-        <v>1</v>
-      </c>
-      <c r="E64" s="4">
-        <v>0</v>
-      </c>
-      <c r="F64" s="4">
-        <v>0</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0</v>
-      </c>
-      <c r="H64" s="9" t="s">
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="9" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B66" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="2">
-        <v>0</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1</v>
-      </c>
-      <c r="E65" s="4">
-        <v>0</v>
-      </c>
-      <c r="F65" s="4">
-        <v>0</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0</v>
-      </c>
-      <c r="H65" s="9" t="s">
+      <c r="C66" s="2">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="9" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B67" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C66" s="2">
-        <v>0</v>
-      </c>
-      <c r="D66" s="2">
-        <v>1</v>
-      </c>
-      <c r="E66" s="4">
-        <v>0</v>
-      </c>
-      <c r="F66" s="4">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="9" t="s">
+      <c r="C67" s="2">
+        <v>0</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+      <c r="H67" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="9" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B68" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C67" s="2">
-        <v>0</v>
-      </c>
-      <c r="D67" s="2">
-        <v>1</v>
-      </c>
-      <c r="E67" s="4">
-        <v>0</v>
-      </c>
-      <c r="F67" s="4">
-        <v>0</v>
-      </c>
-      <c r="G67" s="3">
-        <v>0</v>
-      </c>
-      <c r="H67" s="9" t="s">
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+      <c r="H68" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B69" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C68" s="2">
-        <v>0</v>
-      </c>
-      <c r="D68" s="2">
-        <v>1</v>
-      </c>
-      <c r="E68" s="4">
-        <v>0</v>
-      </c>
-      <c r="F68" s="4">
-        <v>0</v>
-      </c>
-      <c r="G68" s="3">
-        <v>0</v>
-      </c>
-      <c r="H68" s="9" t="s">
+      <c r="C69" s="2">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0</v>
+      </c>
+      <c r="H69" s="9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="19" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B70" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="C69" s="2">
-        <v>1</v>
-      </c>
-      <c r="D69" s="2">
-        <v>1</v>
-      </c>
-      <c r="E69" s="4">
-        <v>1</v>
-      </c>
-      <c r="F69" s="4">
-        <v>1</v>
-      </c>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
-      <c r="H69" s="11" t="s">
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4">
+        <v>1</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
+      <c r="H70" s="11" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="B71" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="C70" s="2">
-        <v>1</v>
-      </c>
-      <c r="D70" s="2">
-        <v>1</v>
-      </c>
-      <c r="E70" s="4">
-        <v>1</v>
-      </c>
-      <c r="F70" s="4">
-        <v>1</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1</v>
-      </c>
-      <c r="H70" s="11" t="s">
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4">
+        <v>1</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="11" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="11" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B72" s="11" t="s">
         <v>411</v>
-      </c>
-      <c r="C71" s="2">
-        <v>1</v>
-      </c>
-      <c r="D71" s="2">
-        <v>1</v>
-      </c>
-      <c r="E71" s="4">
-        <v>1</v>
-      </c>
-      <c r="F71" s="4">
-        <v>0</v>
-      </c>
-      <c r="G71" s="3">
-        <v>1</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>509</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -4274,3904 +4283,3956 @@
         <v>410</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="13" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B74" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C73" s="2">
-        <v>0</v>
-      </c>
-      <c r="D73" s="2">
-        <v>0</v>
-      </c>
-      <c r="E73" s="4">
-        <v>1</v>
-      </c>
-      <c r="F73" s="3">
-        <v>0</v>
-      </c>
-      <c r="G73" s="3">
-        <v>1</v>
-      </c>
-      <c r="H73" s="13" t="s">
+      <c r="C74" s="2">
+        <v>0</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0</v>
+      </c>
+      <c r="G74" s="3">
+        <v>1</v>
+      </c>
+      <c r="H74" s="13" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="13" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B75" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="20">
-        <v>0</v>
-      </c>
-      <c r="D74" s="20">
-        <v>0</v>
-      </c>
-      <c r="E74" s="21">
-        <v>1</v>
-      </c>
-      <c r="F74" s="3">
-        <v>0</v>
-      </c>
-      <c r="G74" s="3">
-        <v>1</v>
-      </c>
-      <c r="H74" s="13" t="s">
+      <c r="C75" s="17">
+        <v>0</v>
+      </c>
+      <c r="D75" s="17">
+        <v>0</v>
+      </c>
+      <c r="E75" s="18">
+        <v>1</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0</v>
+      </c>
+      <c r="G75" s="3">
+        <v>1</v>
+      </c>
+      <c r="H75" s="13" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="13" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B76" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C75" s="20">
-        <v>0</v>
-      </c>
-      <c r="D75" s="20">
-        <v>0</v>
-      </c>
-      <c r="E75" s="20">
-        <v>1</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0</v>
-      </c>
-      <c r="G75" s="3">
-        <v>1</v>
-      </c>
-      <c r="H75" s="13" t="s">
+      <c r="C76" s="17">
+        <v>0</v>
+      </c>
+      <c r="D76" s="17">
+        <v>0</v>
+      </c>
+      <c r="E76" s="17">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1</v>
+      </c>
+      <c r="H76" s="13" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="13" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B77" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C76" s="20">
-        <v>0</v>
-      </c>
-      <c r="D76" s="20">
-        <v>0</v>
-      </c>
-      <c r="E76" s="21">
-        <v>1</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1</v>
-      </c>
-      <c r="H76" s="13" t="s">
+      <c r="C77" s="17">
+        <v>0</v>
+      </c>
+      <c r="D77" s="17">
+        <v>0</v>
+      </c>
+      <c r="E77" s="18">
+        <v>1</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0</v>
+      </c>
+      <c r="G77" s="3">
+        <v>1</v>
+      </c>
+      <c r="H77" s="13" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="13" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B78" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C77" s="20">
-        <v>0</v>
-      </c>
-      <c r="D77" s="20">
-        <v>0</v>
-      </c>
-      <c r="E77" s="21">
-        <v>1</v>
-      </c>
-      <c r="F77" s="3">
-        <v>0</v>
-      </c>
-      <c r="G77" s="3">
-        <v>1</v>
-      </c>
-      <c r="H77" s="13" t="s">
+      <c r="C78" s="17">
+        <v>0</v>
+      </c>
+      <c r="D78" s="17">
+        <v>0</v>
+      </c>
+      <c r="E78" s="18">
+        <v>1</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0</v>
+      </c>
+      <c r="G78" s="3">
+        <v>1</v>
+      </c>
+      <c r="H78" s="13" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="13" t="s">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B79" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C78" s="2">
-        <v>0</v>
-      </c>
-      <c r="D78" s="2">
-        <v>0</v>
-      </c>
-      <c r="E78" s="4">
-        <v>1</v>
-      </c>
-      <c r="F78" s="3">
-        <v>0</v>
-      </c>
-      <c r="G78" s="3">
-        <v>1</v>
-      </c>
-      <c r="H78" s="13" t="s">
+      <c r="C79" s="2">
+        <v>0</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0</v>
+      </c>
+      <c r="E79" s="4">
+        <v>1</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0</v>
+      </c>
+      <c r="G79" s="3">
+        <v>1</v>
+      </c>
+      <c r="H79" s="13" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="13" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B80" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C79" s="2">
-        <v>0</v>
-      </c>
-      <c r="D79" s="2">
-        <v>0</v>
-      </c>
-      <c r="E79" s="4">
-        <v>1</v>
-      </c>
-      <c r="F79" s="3">
-        <v>0</v>
-      </c>
-      <c r="G79" s="3">
-        <v>1</v>
-      </c>
-      <c r="H79" s="13" t="s">
+      <c r="C80" s="2">
+        <v>0</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0</v>
+      </c>
+      <c r="E80" s="4">
+        <v>1</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0</v>
+      </c>
+      <c r="G80" s="3">
+        <v>1</v>
+      </c>
+      <c r="H80" s="13" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="13" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C80" s="2">
-        <v>0</v>
-      </c>
-      <c r="D80" s="2">
-        <v>0</v>
-      </c>
-      <c r="E80" s="4">
-        <v>1</v>
-      </c>
-      <c r="F80" s="3">
-        <v>0</v>
-      </c>
-      <c r="G80" s="3">
-        <v>1</v>
-      </c>
-      <c r="H80" s="13" t="s">
+      <c r="C81" s="2">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <v>1</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1</v>
+      </c>
+      <c r="H81" s="13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="13" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B82" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C81" s="2">
-        <v>0</v>
-      </c>
-      <c r="D81" s="2">
-        <v>0</v>
-      </c>
-      <c r="E81" s="4">
-        <v>1</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1</v>
-      </c>
-      <c r="H81" s="13" t="s">
+      <c r="C82" s="2">
+        <v>0</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4">
+        <v>1</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0</v>
+      </c>
+      <c r="G82" s="3">
+        <v>1</v>
+      </c>
+      <c r="H82" s="13" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="13" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B83" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C82" s="2">
-        <v>0</v>
-      </c>
-      <c r="D82" s="2">
-        <v>0</v>
-      </c>
-      <c r="E82" s="4">
-        <v>1</v>
-      </c>
-      <c r="F82" s="3">
-        <v>0</v>
-      </c>
-      <c r="G82" s="3">
-        <v>1</v>
-      </c>
-      <c r="H82" s="13" t="s">
+      <c r="C83" s="2">
+        <v>0</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0</v>
+      </c>
+      <c r="E83" s="4">
+        <v>1</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1</v>
+      </c>
+      <c r="H83" s="13" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="13" t="s">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B84" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C83" s="2">
-        <v>0</v>
-      </c>
-      <c r="D83" s="2">
-        <v>0</v>
-      </c>
-      <c r="E83" s="4">
-        <v>1</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1</v>
-      </c>
-      <c r="H83" s="13" t="s">
+      <c r="C84" s="2">
+        <v>0</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0</v>
+      </c>
+      <c r="E84" s="4">
+        <v>1</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0</v>
+      </c>
+      <c r="G84" s="3">
+        <v>1</v>
+      </c>
+      <c r="H84" s="13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B85" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C84" s="2">
-        <v>0</v>
-      </c>
-      <c r="D84" s="2">
-        <v>0</v>
-      </c>
-      <c r="E84" s="4">
-        <v>1</v>
-      </c>
-      <c r="F84" s="3">
-        <v>0</v>
-      </c>
-      <c r="G84" s="3">
-        <v>1</v>
-      </c>
-      <c r="H84" s="13" t="s">
+      <c r="C85" s="2">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0</v>
+      </c>
+      <c r="E85" s="4">
+        <v>1</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0</v>
+      </c>
+      <c r="G85" s="3">
+        <v>1</v>
+      </c>
+      <c r="H85" s="13" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="13" t="s">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B86" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C85" s="2">
-        <v>0</v>
-      </c>
-      <c r="D85" s="2">
-        <v>0</v>
-      </c>
-      <c r="E85" s="4">
-        <v>1</v>
-      </c>
-      <c r="F85" s="3">
-        <v>0</v>
-      </c>
-      <c r="G85" s="3">
-        <v>1</v>
-      </c>
-      <c r="H85" s="13" t="s">
+      <c r="C86" s="2">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="4">
+        <v>1</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0</v>
+      </c>
+      <c r="G86" s="3">
+        <v>1</v>
+      </c>
+      <c r="H86" s="13" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="13" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B87" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C86" s="2">
-        <v>0</v>
-      </c>
-      <c r="D86" s="2">
-        <v>0</v>
-      </c>
-      <c r="E86" s="4">
-        <v>1</v>
-      </c>
-      <c r="F86" s="3">
-        <v>0</v>
-      </c>
-      <c r="G86" s="3">
-        <v>1</v>
-      </c>
-      <c r="H86" s="13" t="s">
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87" s="4">
+        <v>1</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0</v>
+      </c>
+      <c r="G87" s="3">
+        <v>1</v>
+      </c>
+      <c r="H87" s="13" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="13" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B88" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C87" s="2">
-        <v>0</v>
-      </c>
-      <c r="D87" s="2">
-        <v>0</v>
-      </c>
-      <c r="E87" s="4">
-        <v>1</v>
-      </c>
-      <c r="F87" s="3">
-        <v>0</v>
-      </c>
-      <c r="G87" s="3">
-        <v>1</v>
-      </c>
-      <c r="H87" s="13" t="s">
+      <c r="C88" s="2">
+        <v>0</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0</v>
+      </c>
+      <c r="E88" s="4">
+        <v>1</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0</v>
+      </c>
+      <c r="G88" s="3">
+        <v>1</v>
+      </c>
+      <c r="H88" s="13" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="13" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B89" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C88" s="2">
-        <v>0</v>
-      </c>
-      <c r="D88" s="2">
-        <v>0</v>
-      </c>
-      <c r="E88" s="4">
-        <v>1</v>
-      </c>
-      <c r="F88" s="3">
-        <v>0</v>
-      </c>
-      <c r="G88" s="3">
-        <v>1</v>
-      </c>
-      <c r="H88" s="13" t="s">
+      <c r="C89" s="2">
+        <v>0</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89" s="4">
+        <v>1</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>1</v>
+      </c>
+      <c r="H89" s="13" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="13" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B90" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C89" s="2">
-        <v>0</v>
-      </c>
-      <c r="D89" s="2">
-        <v>0</v>
-      </c>
-      <c r="E89" s="4">
-        <v>1</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>1</v>
-      </c>
-      <c r="H89" s="13" t="s">
+      <c r="C90" s="2">
+        <v>0</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0</v>
+      </c>
+      <c r="E90" s="4">
+        <v>1</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="3">
+        <v>1</v>
+      </c>
+      <c r="H90" s="13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="13" t="s">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B91" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C90" s="2">
-        <v>0</v>
-      </c>
-      <c r="D90" s="2">
-        <v>0</v>
-      </c>
-      <c r="E90" s="4">
-        <v>1</v>
-      </c>
-      <c r="F90" s="3">
-        <v>0</v>
-      </c>
-      <c r="G90" s="3">
-        <v>1</v>
-      </c>
-      <c r="H90" s="13" t="s">
+      <c r="C91" s="2">
+        <v>0</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0</v>
+      </c>
+      <c r="E91" s="4">
+        <v>1</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>1</v>
+      </c>
+      <c r="H91" s="13" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="17" t="s">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B92" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C91" s="2">
-        <v>0</v>
-      </c>
-      <c r="D91" s="2">
-        <v>0</v>
-      </c>
-      <c r="E91" s="2">
-        <v>1</v>
-      </c>
-      <c r="F91" s="3">
-        <v>1</v>
-      </c>
-      <c r="G91" s="3">
-        <v>1</v>
-      </c>
-      <c r="H91" s="17" t="s">
+      <c r="C92" s="2">
+        <v>0</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2">
+        <v>1</v>
+      </c>
+      <c r="F92" s="3">
+        <v>1</v>
+      </c>
+      <c r="G92" s="3">
+        <v>1</v>
+      </c>
+      <c r="H92" s="14" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="17" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B93" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C92" s="2">
-        <v>0</v>
-      </c>
-      <c r="D92" s="2">
-        <v>0</v>
-      </c>
-      <c r="E92" s="2">
-        <v>1</v>
-      </c>
-      <c r="F92" s="3">
-        <v>1</v>
-      </c>
-      <c r="G92" s="3">
-        <v>0</v>
-      </c>
-      <c r="H92" s="17" t="s">
+      <c r="C93" s="2">
+        <v>0</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+      <c r="E93" s="2">
+        <v>1</v>
+      </c>
+      <c r="F93" s="3">
+        <v>1</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0</v>
+      </c>
+      <c r="H93" s="14" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="17" t="s">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B94" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C93" s="2">
-        <v>0</v>
-      </c>
-      <c r="D93" s="2">
-        <v>0</v>
-      </c>
-      <c r="E93" s="2">
-        <v>1</v>
-      </c>
-      <c r="F93" s="3">
-        <v>1</v>
-      </c>
-      <c r="G93" s="3">
-        <v>0</v>
-      </c>
-      <c r="H93" s="17" t="s">
+      <c r="C94" s="2">
+        <v>0</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0</v>
+      </c>
+      <c r="E94" s="2">
+        <v>1</v>
+      </c>
+      <c r="F94" s="3">
+        <v>1</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="14" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="17" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B95" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C94" s="2">
-        <v>0</v>
-      </c>
-      <c r="D94" s="2">
-        <v>0</v>
-      </c>
-      <c r="E94" s="2">
-        <v>1</v>
-      </c>
-      <c r="F94" s="3">
-        <v>1</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="17" t="s">
+      <c r="C95" s="2">
+        <v>0</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1</v>
+      </c>
+      <c r="F95" s="3">
+        <v>1</v>
+      </c>
+      <c r="G95" s="3">
+        <v>0</v>
+      </c>
+      <c r="H95" s="14" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="17" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B96" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C95" s="2">
-        <v>0</v>
-      </c>
-      <c r="D95" s="2">
-        <v>0</v>
-      </c>
-      <c r="E95" s="2">
-        <v>1</v>
-      </c>
-      <c r="F95" s="3">
-        <v>1</v>
-      </c>
-      <c r="G95" s="3">
-        <v>0</v>
-      </c>
-      <c r="H95" s="17" t="s">
+      <c r="C96" s="2">
+        <v>0</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1</v>
+      </c>
+      <c r="F96" s="3">
+        <v>1</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="17" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B97" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C96" s="2">
-        <v>0</v>
-      </c>
-      <c r="D96" s="2">
-        <v>0</v>
-      </c>
-      <c r="E96" s="2">
-        <v>1</v>
-      </c>
-      <c r="F96" s="3">
-        <v>1</v>
-      </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="17" t="s">
+      <c r="C97" s="2">
+        <v>0</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0</v>
+      </c>
+      <c r="E97" s="2">
+        <v>1</v>
+      </c>
+      <c r="F97" s="3">
+        <v>1</v>
+      </c>
+      <c r="G97" s="3">
+        <v>0</v>
+      </c>
+      <c r="H97" s="14" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="17" t="s">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B98" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C97" s="2">
-        <v>0</v>
-      </c>
-      <c r="D97" s="2">
-        <v>0</v>
-      </c>
-      <c r="E97" s="2">
-        <v>1</v>
-      </c>
-      <c r="F97" s="3">
-        <v>1</v>
-      </c>
-      <c r="G97" s="3">
-        <v>0</v>
-      </c>
-      <c r="H97" s="17" t="s">
+      <c r="C98" s="2">
+        <v>0</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0</v>
+      </c>
+      <c r="E98" s="2">
+        <v>1</v>
+      </c>
+      <c r="F98" s="3">
+        <v>1</v>
+      </c>
+      <c r="G98" s="3">
+        <v>0</v>
+      </c>
+      <c r="H98" s="14" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="17" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B99" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C98" s="2">
-        <v>0</v>
-      </c>
-      <c r="D98" s="2">
-        <v>0</v>
-      </c>
-      <c r="E98" s="2">
-        <v>1</v>
-      </c>
-      <c r="F98" s="3">
-        <v>1</v>
-      </c>
-      <c r="G98" s="3">
-        <v>0</v>
-      </c>
-      <c r="H98" s="17" t="s">
+      <c r="C99" s="2">
+        <v>0</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0</v>
+      </c>
+      <c r="E99" s="2">
+        <v>1</v>
+      </c>
+      <c r="F99" s="3">
+        <v>1</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0</v>
+      </c>
+      <c r="H99" s="14" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="17" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B100" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C99" s="2">
-        <v>0</v>
-      </c>
-      <c r="D99" s="2">
-        <v>0</v>
-      </c>
-      <c r="E99" s="2">
-        <v>1</v>
-      </c>
-      <c r="F99" s="3">
-        <v>1</v>
-      </c>
-      <c r="G99" s="3">
-        <v>0</v>
-      </c>
-      <c r="H99" s="17" t="s">
+      <c r="C100" s="2">
+        <v>0</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0</v>
+      </c>
+      <c r="E100" s="2">
+        <v>1</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="14" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="17" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B101" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C100" s="2">
-        <v>0</v>
-      </c>
-      <c r="D100" s="2">
-        <v>0</v>
-      </c>
-      <c r="E100" s="2">
-        <v>1</v>
-      </c>
-      <c r="F100" s="3">
-        <v>1</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="17" t="s">
+      <c r="C101" s="2">
+        <v>0</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1</v>
+      </c>
+      <c r="F101" s="3">
+        <v>1</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="14" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="17" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B102" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C101" s="2">
-        <v>0</v>
-      </c>
-      <c r="D101" s="2">
-        <v>0</v>
-      </c>
-      <c r="E101" s="2">
-        <v>1</v>
-      </c>
-      <c r="F101" s="3">
-        <v>1</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="17" t="s">
+      <c r="C102" s="2">
+        <v>0</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0</v>
+      </c>
+      <c r="E102" s="2">
+        <v>1</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="14" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="17" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B103" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C102" s="2">
-        <v>0</v>
-      </c>
-      <c r="D102" s="2">
-        <v>0</v>
-      </c>
-      <c r="E102" s="2">
-        <v>1</v>
-      </c>
-      <c r="F102" s="3">
-        <v>1</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="17" t="s">
+      <c r="C103" s="2">
+        <v>0</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0</v>
+      </c>
+      <c r="E103" s="2">
+        <v>1</v>
+      </c>
+      <c r="F103" s="3">
+        <v>1</v>
+      </c>
+      <c r="G103" s="3">
+        <v>0</v>
+      </c>
+      <c r="H103" s="14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="17" t="s">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B104" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C103" s="2">
-        <v>0</v>
-      </c>
-      <c r="D103" s="2">
-        <v>0</v>
-      </c>
-      <c r="E103" s="2">
-        <v>1</v>
-      </c>
-      <c r="F103" s="3">
-        <v>1</v>
-      </c>
-      <c r="G103" s="3">
-        <v>0</v>
-      </c>
-      <c r="H103" s="17" t="s">
+      <c r="C104" s="2">
+        <v>0</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0</v>
+      </c>
+      <c r="E104" s="2">
+        <v>1</v>
+      </c>
+      <c r="F104" s="3">
+        <v>1</v>
+      </c>
+      <c r="G104" s="3">
+        <v>0</v>
+      </c>
+      <c r="H104" s="14" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="17" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B105" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="2">
-        <v>0</v>
-      </c>
-      <c r="D104" s="2">
-        <v>0</v>
-      </c>
-      <c r="E104" s="2">
-        <v>1</v>
-      </c>
-      <c r="F104" s="3">
-        <v>1</v>
-      </c>
-      <c r="G104" s="3">
-        <v>0</v>
-      </c>
-      <c r="H104" s="17" t="s">
+      <c r="C105" s="2">
+        <v>0</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0</v>
+      </c>
+      <c r="E105" s="2">
+        <v>1</v>
+      </c>
+      <c r="F105" s="3">
+        <v>1</v>
+      </c>
+      <c r="G105" s="3">
+        <v>0</v>
+      </c>
+      <c r="H105" s="14" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="17" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B106" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C105" s="2">
-        <v>0</v>
-      </c>
-      <c r="D105" s="2">
-        <v>0</v>
-      </c>
-      <c r="E105" s="2">
-        <v>1</v>
-      </c>
-      <c r="F105" s="3">
-        <v>1</v>
-      </c>
-      <c r="G105" s="3">
-        <v>0</v>
-      </c>
-      <c r="H105" s="17" t="s">
+      <c r="C106" s="2">
+        <v>0</v>
+      </c>
+      <c r="D106" s="2">
+        <v>0</v>
+      </c>
+      <c r="E106" s="2">
+        <v>1</v>
+      </c>
+      <c r="F106" s="3">
+        <v>1</v>
+      </c>
+      <c r="G106" s="3">
+        <v>0</v>
+      </c>
+      <c r="H106" s="14" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="17" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B107" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C106" s="2">
-        <v>0</v>
-      </c>
-      <c r="D106" s="2">
-        <v>0</v>
-      </c>
-      <c r="E106" s="2">
-        <v>1</v>
-      </c>
-      <c r="F106" s="3">
-        <v>1</v>
-      </c>
-      <c r="G106" s="3">
-        <v>0</v>
-      </c>
-      <c r="H106" s="17" t="s">
+      <c r="C107" s="2">
+        <v>0</v>
+      </c>
+      <c r="D107" s="2">
+        <v>0</v>
+      </c>
+      <c r="E107" s="2">
+        <v>1</v>
+      </c>
+      <c r="F107" s="3">
+        <v>1</v>
+      </c>
+      <c r="G107" s="3">
+        <v>0</v>
+      </c>
+      <c r="H107" s="14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="17" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B108" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C107" s="2">
-        <v>0</v>
-      </c>
-      <c r="D107" s="2">
-        <v>0</v>
-      </c>
-      <c r="E107" s="2">
-        <v>1</v>
-      </c>
-      <c r="F107" s="3">
-        <v>1</v>
-      </c>
-      <c r="G107" s="3">
-        <v>0</v>
-      </c>
-      <c r="H107" s="17" t="s">
+      <c r="C108" s="2">
+        <v>0</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0</v>
+      </c>
+      <c r="E108" s="2">
+        <v>1</v>
+      </c>
+      <c r="F108" s="3">
+        <v>1</v>
+      </c>
+      <c r="G108" s="3">
+        <v>0</v>
+      </c>
+      <c r="H108" s="14" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="17" t="s">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B109" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C108" s="2">
-        <v>0</v>
-      </c>
-      <c r="D108" s="2">
-        <v>0</v>
-      </c>
-      <c r="E108" s="2">
-        <v>1</v>
-      </c>
-      <c r="F108" s="3">
-        <v>1</v>
-      </c>
-      <c r="G108" s="3">
-        <v>1</v>
-      </c>
-      <c r="H108" s="17" t="s">
+      <c r="C109" s="2">
+        <v>0</v>
+      </c>
+      <c r="D109" s="2">
+        <v>0</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1</v>
+      </c>
+      <c r="F109" s="3">
+        <v>1</v>
+      </c>
+      <c r="G109" s="3">
+        <v>1</v>
+      </c>
+      <c r="H109" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="17" t="s">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B110" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C109" s="2">
-        <v>0</v>
-      </c>
-      <c r="D109" s="2">
-        <v>0</v>
-      </c>
-      <c r="E109" s="2">
-        <v>1</v>
-      </c>
-      <c r="F109" s="3">
-        <v>1</v>
-      </c>
-      <c r="G109" s="3">
-        <v>1</v>
-      </c>
-      <c r="H109" s="17" t="s">
+      <c r="C110" s="2">
+        <v>0</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0</v>
+      </c>
+      <c r="E110" s="2">
+        <v>1</v>
+      </c>
+      <c r="F110" s="3">
+        <v>1</v>
+      </c>
+      <c r="G110" s="3">
+        <v>1</v>
+      </c>
+      <c r="H110" s="14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="17" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="B111" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C110" s="2">
-        <v>0</v>
-      </c>
-      <c r="D110" s="2">
-        <v>0</v>
-      </c>
-      <c r="E110" s="2">
-        <v>1</v>
-      </c>
-      <c r="F110" s="3">
-        <v>1</v>
-      </c>
-      <c r="G110" s="3">
-        <v>1</v>
-      </c>
-      <c r="H110" s="17" t="s">
+      <c r="C111" s="2">
+        <v>0</v>
+      </c>
+      <c r="D111" s="2">
+        <v>0</v>
+      </c>
+      <c r="E111" s="2">
+        <v>1</v>
+      </c>
+      <c r="F111" s="3">
+        <v>1</v>
+      </c>
+      <c r="G111" s="3">
+        <v>1</v>
+      </c>
+      <c r="H111" s="14" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="17" t="s">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="B111" s="15" t="s">
+      <c r="B112" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C111" s="2">
-        <v>0</v>
-      </c>
-      <c r="D111" s="2">
-        <v>0</v>
-      </c>
-      <c r="E111" s="2">
-        <v>1</v>
-      </c>
-      <c r="F111" s="3">
-        <v>1</v>
-      </c>
-      <c r="G111" s="3">
-        <v>1</v>
-      </c>
-      <c r="H111" s="17" t="s">
+      <c r="C112" s="2">
+        <v>0</v>
+      </c>
+      <c r="D112" s="2">
+        <v>0</v>
+      </c>
+      <c r="E112" s="2">
+        <v>1</v>
+      </c>
+      <c r="F112" s="3">
+        <v>1</v>
+      </c>
+      <c r="G112" s="3">
+        <v>1</v>
+      </c>
+      <c r="H112" s="14" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="17" t="s">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="B112" s="15" t="s">
+      <c r="B113" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C112" s="2">
-        <v>0</v>
-      </c>
-      <c r="D112" s="2">
-        <v>0</v>
-      </c>
-      <c r="E112" s="2">
-        <v>1</v>
-      </c>
-      <c r="F112" s="3">
-        <v>1</v>
-      </c>
-      <c r="G112" s="3">
-        <v>1</v>
-      </c>
-      <c r="H112" s="17" t="s">
+      <c r="C113" s="2">
+        <v>0</v>
+      </c>
+      <c r="D113" s="2">
+        <v>0</v>
+      </c>
+      <c r="E113" s="2">
+        <v>1</v>
+      </c>
+      <c r="F113" s="3">
+        <v>1</v>
+      </c>
+      <c r="G113" s="3">
+        <v>1</v>
+      </c>
+      <c r="H113" s="14" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="17" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="B114" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C113" s="2">
-        <v>0</v>
-      </c>
-      <c r="D113" s="2">
-        <v>0</v>
-      </c>
-      <c r="E113" s="2">
-        <v>1</v>
-      </c>
-      <c r="F113" s="3">
-        <v>1</v>
-      </c>
-      <c r="G113" s="3">
-        <v>1</v>
-      </c>
-      <c r="H113" s="17" t="s">
+      <c r="C114" s="2">
+        <v>0</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0</v>
+      </c>
+      <c r="E114" s="2">
+        <v>1</v>
+      </c>
+      <c r="F114" s="3">
+        <v>1</v>
+      </c>
+      <c r="G114" s="3">
+        <v>1</v>
+      </c>
+      <c r="H114" s="14" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="17" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="B114" s="15" t="s">
+      <c r="B115" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C114" s="2">
-        <v>0</v>
-      </c>
-      <c r="D114" s="2">
-        <v>0</v>
-      </c>
-      <c r="E114" s="2">
-        <v>1</v>
-      </c>
-      <c r="F114" s="3">
-        <v>1</v>
-      </c>
-      <c r="G114" s="3">
-        <v>1</v>
-      </c>
-      <c r="H114" s="17" t="s">
+      <c r="C115" s="2">
+        <v>0</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0</v>
+      </c>
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+      <c r="F115" s="3">
+        <v>1</v>
+      </c>
+      <c r="G115" s="3">
+        <v>1</v>
+      </c>
+      <c r="H115" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="17" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="B115" s="15" t="s">
+      <c r="B116" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C115" s="2">
-        <v>0</v>
-      </c>
-      <c r="D115" s="2">
-        <v>0</v>
-      </c>
-      <c r="E115" s="2">
-        <v>1</v>
-      </c>
-      <c r="F115" s="3">
-        <v>1</v>
-      </c>
-      <c r="G115" s="3">
-        <v>1</v>
-      </c>
-      <c r="H115" s="17" t="s">
+      <c r="C116" s="2">
+        <v>0</v>
+      </c>
+      <c r="D116" s="2">
+        <v>0</v>
+      </c>
+      <c r="E116" s="2">
+        <v>1</v>
+      </c>
+      <c r="F116" s="3">
+        <v>1</v>
+      </c>
+      <c r="G116" s="3">
+        <v>1</v>
+      </c>
+      <c r="H116" s="14" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="17" t="s">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="B116" s="15" t="s">
+      <c r="B117" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C116" s="2">
-        <v>0</v>
-      </c>
-      <c r="D116" s="2">
-        <v>0</v>
-      </c>
-      <c r="E116" s="20">
-        <v>1</v>
-      </c>
-      <c r="F116" s="22">
-        <v>1</v>
-      </c>
-      <c r="G116" s="3">
-        <v>1</v>
-      </c>
-      <c r="H116" s="17" t="s">
+      <c r="C117" s="2">
+        <v>0</v>
+      </c>
+      <c r="D117" s="2">
+        <v>0</v>
+      </c>
+      <c r="E117" s="17">
+        <v>1</v>
+      </c>
+      <c r="F117" s="19">
+        <v>1</v>
+      </c>
+      <c r="G117" s="3">
+        <v>1</v>
+      </c>
+      <c r="H117" s="14" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="17" t="s">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="B117" s="15" t="s">
+      <c r="B118" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C117" s="2">
-        <v>0</v>
-      </c>
-      <c r="D117" s="2">
-        <v>0</v>
-      </c>
-      <c r="E117" s="20">
-        <v>1</v>
-      </c>
-      <c r="F117" s="22">
-        <v>1</v>
-      </c>
-      <c r="G117" s="3">
-        <v>1</v>
-      </c>
-      <c r="H117" s="17" t="s">
+      <c r="C118" s="2">
+        <v>0</v>
+      </c>
+      <c r="D118" s="2">
+        <v>0</v>
+      </c>
+      <c r="E118" s="17">
+        <v>1</v>
+      </c>
+      <c r="F118" s="19">
+        <v>1</v>
+      </c>
+      <c r="G118" s="3">
+        <v>1</v>
+      </c>
+      <c r="H118" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="17" t="s">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="B118" s="15" t="s">
+      <c r="B119" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C118" s="2">
-        <v>0</v>
-      </c>
-      <c r="D118" s="2">
-        <v>0</v>
-      </c>
-      <c r="E118" s="20">
-        <v>1</v>
-      </c>
-      <c r="F118" s="22">
-        <v>1</v>
-      </c>
-      <c r="G118" s="3">
-        <v>1</v>
-      </c>
-      <c r="H118" s="17" t="s">
+      <c r="C119" s="2">
+        <v>0</v>
+      </c>
+      <c r="D119" s="2">
+        <v>0</v>
+      </c>
+      <c r="E119" s="17">
+        <v>1</v>
+      </c>
+      <c r="F119" s="19">
+        <v>1</v>
+      </c>
+      <c r="G119" s="3">
+        <v>1</v>
+      </c>
+      <c r="H119" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="17" t="s">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="B119" s="15" t="s">
+      <c r="B120" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C119" s="2">
-        <v>0</v>
-      </c>
-      <c r="D119" s="2">
-        <v>0</v>
-      </c>
-      <c r="E119" s="20">
-        <v>1</v>
-      </c>
-      <c r="F119" s="20">
-        <v>1</v>
-      </c>
-      <c r="G119" s="3">
-        <v>1</v>
-      </c>
-      <c r="H119" s="17" t="s">
+      <c r="C120" s="2">
+        <v>0</v>
+      </c>
+      <c r="D120" s="2">
+        <v>0</v>
+      </c>
+      <c r="E120" s="17">
+        <v>1</v>
+      </c>
+      <c r="F120" s="17">
+        <v>1</v>
+      </c>
+      <c r="G120" s="3">
+        <v>1</v>
+      </c>
+      <c r="H120" s="14" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="17" t="s">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="B120" s="15" t="s">
+      <c r="B121" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C120" s="2">
-        <v>0</v>
-      </c>
-      <c r="D120" s="2">
-        <v>0</v>
-      </c>
-      <c r="E120" s="20">
-        <v>1</v>
-      </c>
-      <c r="F120" s="22">
-        <v>1</v>
-      </c>
-      <c r="G120" s="3">
-        <v>1</v>
-      </c>
-      <c r="H120" s="17" t="s">
+      <c r="C121" s="2">
+        <v>0</v>
+      </c>
+      <c r="D121" s="2">
+        <v>0</v>
+      </c>
+      <c r="E121" s="17">
+        <v>1</v>
+      </c>
+      <c r="F121" s="19">
+        <v>1</v>
+      </c>
+      <c r="G121" s="3">
+        <v>1</v>
+      </c>
+      <c r="H121" s="14" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="17" t="s">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="B121" s="15" t="s">
+      <c r="B122" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C121" s="2">
-        <v>0</v>
-      </c>
-      <c r="D121" s="2">
-        <v>0</v>
-      </c>
-      <c r="E121" s="20">
-        <v>1</v>
-      </c>
-      <c r="F121" s="22">
-        <v>1</v>
-      </c>
-      <c r="G121" s="3">
-        <v>1</v>
-      </c>
-      <c r="H121" s="17" t="s">
+      <c r="C122" s="2">
+        <v>0</v>
+      </c>
+      <c r="D122" s="2">
+        <v>0</v>
+      </c>
+      <c r="E122" s="17">
+        <v>1</v>
+      </c>
+      <c r="F122" s="19">
+        <v>1</v>
+      </c>
+      <c r="G122" s="3">
+        <v>1</v>
+      </c>
+      <c r="H122" s="14" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="17" t="s">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="B122" s="15" t="s">
+      <c r="B123" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C122" s="2">
-        <v>0</v>
-      </c>
-      <c r="D122" s="2">
-        <v>0</v>
-      </c>
-      <c r="E122" s="20">
-        <v>1</v>
-      </c>
-      <c r="F122" s="22">
-        <v>1</v>
-      </c>
-      <c r="G122" s="3">
-        <v>1</v>
-      </c>
-      <c r="H122" s="17" t="s">
+      <c r="C123" s="2">
+        <v>0</v>
+      </c>
+      <c r="D123" s="2">
+        <v>0</v>
+      </c>
+      <c r="E123" s="17">
+        <v>1</v>
+      </c>
+      <c r="F123" s="19">
+        <v>1</v>
+      </c>
+      <c r="G123" s="3">
+        <v>1</v>
+      </c>
+      <c r="H123" s="14" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="17" t="s">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B124" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C123" s="2">
-        <v>0</v>
-      </c>
-      <c r="D123" s="2">
-        <v>0</v>
-      </c>
-      <c r="E123" s="20">
-        <v>1</v>
-      </c>
-      <c r="F123" s="20">
-        <v>1</v>
-      </c>
-      <c r="G123" s="3">
-        <v>1</v>
-      </c>
-      <c r="H123" s="17" t="s">
+      <c r="C124" s="2">
+        <v>0</v>
+      </c>
+      <c r="D124" s="2">
+        <v>0</v>
+      </c>
+      <c r="E124" s="17">
+        <v>1</v>
+      </c>
+      <c r="F124" s="17">
+        <v>1</v>
+      </c>
+      <c r="G124" s="3">
+        <v>1</v>
+      </c>
+      <c r="H124" s="14" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="17" t="s">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="21" t="s">
+        <v>646</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>647</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0</v>
+      </c>
+      <c r="D125" s="2">
+        <v>0</v>
+      </c>
+      <c r="E125" s="4">
+        <v>1</v>
+      </c>
+      <c r="F125" s="3">
+        <v>1</v>
+      </c>
+      <c r="G125" s="3">
+        <v>0</v>
+      </c>
+      <c r="H125" s="22" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B126" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C124" s="2">
-        <v>0</v>
-      </c>
-      <c r="D124" s="2">
-        <v>0</v>
-      </c>
-      <c r="E124" s="20">
-        <v>1</v>
-      </c>
-      <c r="F124" s="22">
-        <v>1</v>
-      </c>
-      <c r="G124" s="3">
-        <v>1</v>
-      </c>
-      <c r="H124" s="17" t="s">
+      <c r="C126" s="2">
+        <v>0</v>
+      </c>
+      <c r="D126" s="2">
+        <v>0</v>
+      </c>
+      <c r="E126" s="17">
+        <v>1</v>
+      </c>
+      <c r="F126" s="19">
+        <v>1</v>
+      </c>
+      <c r="G126" s="3">
+        <v>1</v>
+      </c>
+      <c r="H126" s="14" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="17" t="s">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B127" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C125" s="2">
-        <v>0</v>
-      </c>
-      <c r="D125" s="2">
-        <v>0</v>
-      </c>
-      <c r="E125" s="20">
-        <v>1</v>
-      </c>
-      <c r="F125" s="22">
-        <v>1</v>
-      </c>
-      <c r="G125" s="3">
-        <v>0</v>
-      </c>
-      <c r="H125" s="17" t="s">
+      <c r="C127" s="2">
+        <v>0</v>
+      </c>
+      <c r="D127" s="2">
+        <v>0</v>
+      </c>
+      <c r="E127" s="17">
+        <v>1</v>
+      </c>
+      <c r="F127" s="19">
+        <v>1</v>
+      </c>
+      <c r="G127" s="3">
+        <v>0</v>
+      </c>
+      <c r="H127" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="17" t="s">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="B126" s="14" t="s">
+      <c r="B128" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C126" s="2">
-        <v>0</v>
-      </c>
-      <c r="D126" s="2">
-        <v>0</v>
-      </c>
-      <c r="E126" s="20">
-        <v>1</v>
-      </c>
-      <c r="F126" s="22">
-        <v>1</v>
-      </c>
-      <c r="G126" s="3">
-        <v>0</v>
-      </c>
-      <c r="H126" s="17" t="s">
+      <c r="C128" s="2">
+        <v>0</v>
+      </c>
+      <c r="D128" s="2">
+        <v>0</v>
+      </c>
+      <c r="E128" s="17">
+        <v>1</v>
+      </c>
+      <c r="F128" s="19">
+        <v>1</v>
+      </c>
+      <c r="G128" s="3">
+        <v>0</v>
+      </c>
+      <c r="H128" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="17" t="s">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B129" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C127" s="2">
-        <v>0</v>
-      </c>
-      <c r="D127" s="2">
-        <v>0</v>
-      </c>
-      <c r="E127" s="20">
-        <v>1</v>
-      </c>
-      <c r="F127" s="22">
-        <v>1</v>
-      </c>
-      <c r="G127" s="3">
-        <v>0</v>
-      </c>
-      <c r="H127" s="17" t="s">
+      <c r="C129" s="2">
+        <v>0</v>
+      </c>
+      <c r="D129" s="2">
+        <v>0</v>
+      </c>
+      <c r="E129" s="17">
+        <v>1</v>
+      </c>
+      <c r="F129" s="19">
+        <v>1</v>
+      </c>
+      <c r="G129" s="3">
+        <v>0</v>
+      </c>
+      <c r="H129" s="14" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="17" t="s">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B130" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C128" s="2">
-        <v>0</v>
-      </c>
-      <c r="D128" s="2">
-        <v>0</v>
-      </c>
-      <c r="E128" s="20">
-        <v>1</v>
-      </c>
-      <c r="F128" s="22">
-        <v>1</v>
-      </c>
-      <c r="G128" s="3">
-        <v>0</v>
-      </c>
-      <c r="H128" s="17" t="s">
+      <c r="C130" s="2">
+        <v>0</v>
+      </c>
+      <c r="D130" s="2">
+        <v>0</v>
+      </c>
+      <c r="E130" s="17">
+        <v>1</v>
+      </c>
+      <c r="F130" s="19">
+        <v>1</v>
+      </c>
+      <c r="G130" s="3">
+        <v>0</v>
+      </c>
+      <c r="H130" s="14" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="17" t="s">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B131" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C129" s="2">
-        <v>0</v>
-      </c>
-      <c r="D129" s="2">
-        <v>0</v>
-      </c>
-      <c r="E129" s="20">
-        <v>1</v>
-      </c>
-      <c r="F129" s="20">
-        <v>1</v>
-      </c>
-      <c r="G129" s="3">
-        <v>0</v>
-      </c>
-      <c r="H129" s="17" t="s">
+      <c r="C131" s="2">
+        <v>0</v>
+      </c>
+      <c r="D131" s="2">
+        <v>0</v>
+      </c>
+      <c r="E131" s="17">
+        <v>1</v>
+      </c>
+      <c r="F131" s="17">
+        <v>1</v>
+      </c>
+      <c r="G131" s="3">
+        <v>0</v>
+      </c>
+      <c r="H131" s="14" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="17" t="s">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="B130" s="14" t="s">
+      <c r="B132" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C130" s="2">
-        <v>0</v>
-      </c>
-      <c r="D130" s="2">
-        <v>0</v>
-      </c>
-      <c r="E130" s="20">
-        <v>1</v>
-      </c>
-      <c r="F130" s="22">
-        <v>1</v>
-      </c>
-      <c r="G130" s="3">
-        <v>0</v>
-      </c>
-      <c r="H130" s="17" t="s">
+      <c r="C132" s="2">
+        <v>0</v>
+      </c>
+      <c r="D132" s="2">
+        <v>0</v>
+      </c>
+      <c r="E132" s="17">
+        <v>1</v>
+      </c>
+      <c r="F132" s="19">
+        <v>1</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0</v>
+      </c>
+      <c r="H132" s="14" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="18" t="s">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="B131" s="16" t="s">
+      <c r="B133" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="C131" s="2">
-        <v>0</v>
-      </c>
-      <c r="D131" s="2">
-        <v>0</v>
-      </c>
-      <c r="E131" s="20">
-        <v>1</v>
-      </c>
-      <c r="F131" s="20">
-        <v>1</v>
-      </c>
-      <c r="G131" s="3">
-        <v>0</v>
-      </c>
-      <c r="H131" s="18" t="s">
+      <c r="C133" s="2">
+        <v>0</v>
+      </c>
+      <c r="D133" s="2">
+        <v>0</v>
+      </c>
+      <c r="E133" s="17">
+        <v>1</v>
+      </c>
+      <c r="F133" s="17">
+        <v>1</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0</v>
+      </c>
+      <c r="H133" s="15" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="18" t="s">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="B132" s="16" t="s">
+      <c r="B134" s="15" t="s">
         <v>541</v>
       </c>
-      <c r="C132" s="2">
-        <v>0</v>
-      </c>
-      <c r="D132" s="2">
-        <v>0</v>
-      </c>
-      <c r="E132" s="20">
-        <v>1</v>
-      </c>
-      <c r="F132" s="20">
-        <v>1</v>
-      </c>
-      <c r="G132" s="3">
-        <v>0</v>
-      </c>
-      <c r="H132" s="18" t="s">
+      <c r="C134" s="2">
+        <v>0</v>
+      </c>
+      <c r="D134" s="2">
+        <v>0</v>
+      </c>
+      <c r="E134" s="17">
+        <v>1</v>
+      </c>
+      <c r="F134" s="17">
+        <v>1</v>
+      </c>
+      <c r="G134" s="3">
+        <v>0</v>
+      </c>
+      <c r="H134" s="15" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="18" t="s">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="B133" s="16" t="s">
+      <c r="B135" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="C133" s="2">
-        <v>0</v>
-      </c>
-      <c r="D133" s="2">
-        <v>0</v>
-      </c>
-      <c r="E133" s="20">
-        <v>1</v>
-      </c>
-      <c r="F133" s="20">
-        <v>1</v>
-      </c>
-      <c r="G133" s="3">
-        <v>0</v>
-      </c>
-      <c r="H133" s="18" t="s">
+      <c r="C135" s="2">
+        <v>0</v>
+      </c>
+      <c r="D135" s="2">
+        <v>0</v>
+      </c>
+      <c r="E135" s="17">
+        <v>1</v>
+      </c>
+      <c r="F135" s="17">
+        <v>1</v>
+      </c>
+      <c r="G135" s="3">
+        <v>0</v>
+      </c>
+      <c r="H135" s="15" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="18" t="s">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="B134" s="16" t="s">
+      <c r="B136" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="C134" s="2">
-        <v>0</v>
-      </c>
-      <c r="D134" s="2">
-        <v>0</v>
-      </c>
-      <c r="E134" s="20">
-        <v>1</v>
-      </c>
-      <c r="F134" s="20">
-        <v>1</v>
-      </c>
-      <c r="G134" s="3">
-        <v>0</v>
-      </c>
-      <c r="H134" s="18" t="s">
+      <c r="C136" s="2">
+        <v>0</v>
+      </c>
+      <c r="D136" s="2">
+        <v>0</v>
+      </c>
+      <c r="E136" s="17">
+        <v>1</v>
+      </c>
+      <c r="F136" s="17">
+        <v>1</v>
+      </c>
+      <c r="G136" s="3">
+        <v>0</v>
+      </c>
+      <c r="H136" s="15" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="18" t="s">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="B135" s="16" t="s">
+      <c r="B137" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="C135" s="2">
-        <v>0</v>
-      </c>
-      <c r="D135" s="2">
-        <v>0</v>
-      </c>
-      <c r="E135" s="20">
-        <v>1</v>
-      </c>
-      <c r="F135" s="20">
-        <v>1</v>
-      </c>
-      <c r="G135" s="3">
-        <v>0</v>
-      </c>
-      <c r="H135" s="18" t="s">
+      <c r="C137" s="2">
+        <v>0</v>
+      </c>
+      <c r="D137" s="2">
+        <v>0</v>
+      </c>
+      <c r="E137" s="17">
+        <v>1</v>
+      </c>
+      <c r="F137" s="17">
+        <v>1</v>
+      </c>
+      <c r="G137" s="3">
+        <v>0</v>
+      </c>
+      <c r="H137" s="15" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="18" t="s">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="15" t="s">
         <v>584</v>
       </c>
-      <c r="B136" s="16" t="s">
+      <c r="B138" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="C136" s="2">
-        <v>0</v>
-      </c>
-      <c r="D136" s="2">
-        <v>0</v>
-      </c>
-      <c r="E136" s="20">
-        <v>1</v>
-      </c>
-      <c r="F136" s="20">
-        <v>1</v>
-      </c>
-      <c r="G136" s="3">
-        <v>0</v>
-      </c>
-      <c r="H136" s="18" t="s">
+      <c r="C138" s="2">
+        <v>0</v>
+      </c>
+      <c r="D138" s="2">
+        <v>0</v>
+      </c>
+      <c r="E138" s="17">
+        <v>1</v>
+      </c>
+      <c r="F138" s="17">
+        <v>1</v>
+      </c>
+      <c r="G138" s="3">
+        <v>0</v>
+      </c>
+      <c r="H138" s="15" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="18" t="s">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="15" t="s">
         <v>587</v>
       </c>
-      <c r="B137" s="16" t="s">
+      <c r="B139" s="15" t="s">
         <v>588</v>
       </c>
-      <c r="C137" s="2">
-        <v>0</v>
-      </c>
-      <c r="D137" s="2">
-        <v>0</v>
-      </c>
-      <c r="E137" s="20">
-        <v>1</v>
-      </c>
-      <c r="F137" s="20">
-        <v>1</v>
-      </c>
-      <c r="G137" s="3">
-        <v>0</v>
-      </c>
-      <c r="H137" s="18" t="s">
+      <c r="C139" s="2">
+        <v>0</v>
+      </c>
+      <c r="D139" s="2">
+        <v>0</v>
+      </c>
+      <c r="E139" s="17">
+        <v>1</v>
+      </c>
+      <c r="F139" s="17">
+        <v>1</v>
+      </c>
+      <c r="G139" s="3">
+        <v>0</v>
+      </c>
+      <c r="H139" s="15" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="18" t="s">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="B138" s="16" t="s">
+      <c r="B140" s="15" t="s">
         <v>492</v>
       </c>
-      <c r="C138" s="2">
-        <v>0</v>
-      </c>
-      <c r="D138" s="2">
-        <v>0</v>
-      </c>
-      <c r="E138" s="20">
-        <v>1</v>
-      </c>
-      <c r="F138" s="20">
-        <v>1</v>
-      </c>
-      <c r="G138" s="3">
-        <v>0</v>
-      </c>
-      <c r="H138" s="18" t="s">
+      <c r="C140" s="2">
+        <v>0</v>
+      </c>
+      <c r="D140" s="2">
+        <v>0</v>
+      </c>
+      <c r="E140" s="17">
+        <v>1</v>
+      </c>
+      <c r="F140" s="17">
+        <v>1</v>
+      </c>
+      <c r="G140" s="3">
+        <v>0</v>
+      </c>
+      <c r="H140" s="15" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="18" t="s">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="15" t="s">
         <v>590</v>
       </c>
-      <c r="B139" s="16" t="s">
+      <c r="B141" s="15" t="s">
         <v>591</v>
       </c>
-      <c r="C139" s="2">
-        <v>0</v>
-      </c>
-      <c r="D139" s="2">
-        <v>0</v>
-      </c>
-      <c r="E139" s="20">
-        <v>1</v>
-      </c>
-      <c r="F139" s="20">
-        <v>1</v>
-      </c>
-      <c r="G139" s="3">
-        <v>0</v>
-      </c>
-      <c r="H139" s="18" t="s">
+      <c r="C141" s="2">
+        <v>0</v>
+      </c>
+      <c r="D141" s="2">
+        <v>0</v>
+      </c>
+      <c r="E141" s="17">
+        <v>1</v>
+      </c>
+      <c r="F141" s="17">
+        <v>1</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0</v>
+      </c>
+      <c r="H141" s="15" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="18" t="s">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="B140" s="16" t="s">
+      <c r="B142" s="15" t="s">
         <v>594</v>
       </c>
-      <c r="C140" s="2">
-        <v>0</v>
-      </c>
-      <c r="D140" s="2">
-        <v>0</v>
-      </c>
-      <c r="E140" s="20">
-        <v>1</v>
-      </c>
-      <c r="F140" s="20">
-        <v>1</v>
-      </c>
-      <c r="G140" s="3">
-        <v>0</v>
-      </c>
-      <c r="H140" s="18" t="s">
+      <c r="C142" s="2">
+        <v>0</v>
+      </c>
+      <c r="D142" s="2">
+        <v>0</v>
+      </c>
+      <c r="E142" s="17">
+        <v>1</v>
+      </c>
+      <c r="F142" s="17">
+        <v>1</v>
+      </c>
+      <c r="G142" s="3">
+        <v>0</v>
+      </c>
+      <c r="H142" s="15" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="18" t="s">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="15" t="s">
         <v>596</v>
       </c>
-      <c r="B141" s="16" t="s">
+      <c r="B143" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="C141" s="2">
-        <v>0</v>
-      </c>
-      <c r="D141" s="2">
-        <v>0</v>
-      </c>
-      <c r="E141" s="20">
-        <v>1</v>
-      </c>
-      <c r="F141" s="20">
-        <v>1</v>
-      </c>
-      <c r="G141" s="3">
-        <v>0</v>
-      </c>
-      <c r="H141" s="18" t="s">
+      <c r="C143" s="2">
+        <v>0</v>
+      </c>
+      <c r="D143" s="2">
+        <v>0</v>
+      </c>
+      <c r="E143" s="17">
+        <v>1</v>
+      </c>
+      <c r="F143" s="17">
+        <v>1</v>
+      </c>
+      <c r="G143" s="3">
+        <v>0</v>
+      </c>
+      <c r="H143" s="15" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="18" t="s">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="B142" s="16" t="s">
+      <c r="B144" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="C142" s="2">
-        <v>0</v>
-      </c>
-      <c r="D142" s="2">
-        <v>0</v>
-      </c>
-      <c r="E142" s="20">
-        <v>1</v>
-      </c>
-      <c r="F142" s="20">
-        <v>1</v>
-      </c>
-      <c r="G142" s="3">
-        <v>0</v>
-      </c>
-      <c r="H142" s="18" t="s">
+      <c r="C144" s="2">
+        <v>0</v>
+      </c>
+      <c r="D144" s="2">
+        <v>0</v>
+      </c>
+      <c r="E144" s="17">
+        <v>1</v>
+      </c>
+      <c r="F144" s="17">
+        <v>1</v>
+      </c>
+      <c r="G144" s="3">
+        <v>0</v>
+      </c>
+      <c r="H144" s="15" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="18" t="s">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="15" t="s">
         <v>602</v>
       </c>
-      <c r="B143" s="16" t="s">
+      <c r="B145" s="15" t="s">
         <v>603</v>
       </c>
-      <c r="C143" s="2">
-        <v>0</v>
-      </c>
-      <c r="D143" s="2">
-        <v>0</v>
-      </c>
-      <c r="E143" s="20">
-        <v>1</v>
-      </c>
-      <c r="F143" s="20">
-        <v>1</v>
-      </c>
-      <c r="G143" s="3">
-        <v>0</v>
-      </c>
-      <c r="H143" s="18" t="s">
+      <c r="C145" s="2">
+        <v>0</v>
+      </c>
+      <c r="D145" s="2">
+        <v>0</v>
+      </c>
+      <c r="E145" s="17">
+        <v>1</v>
+      </c>
+      <c r="F145" s="17">
+        <v>1</v>
+      </c>
+      <c r="G145" s="3">
+        <v>0</v>
+      </c>
+      <c r="H145" s="15" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="18" t="s">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="B144" s="16" t="s">
+      <c r="B146" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="C144" s="2">
-        <v>0</v>
-      </c>
-      <c r="D144" s="2">
-        <v>0</v>
-      </c>
-      <c r="E144" s="20">
-        <v>1</v>
-      </c>
-      <c r="F144" s="20">
-        <v>1</v>
-      </c>
-      <c r="G144" s="3">
-        <v>0</v>
-      </c>
-      <c r="H144" s="18" t="s">
+      <c r="C146" s="2">
+        <v>0</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0</v>
+      </c>
+      <c r="E146" s="17">
+        <v>1</v>
+      </c>
+      <c r="F146" s="17">
+        <v>1</v>
+      </c>
+      <c r="G146" s="3">
+        <v>0</v>
+      </c>
+      <c r="H146" s="15" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" s="18" t="s">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="B145" s="16" t="s">
+      <c r="B147" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="C145" s="2">
-        <v>0</v>
-      </c>
-      <c r="D145" s="2">
-        <v>0</v>
-      </c>
-      <c r="E145" s="20">
-        <v>1</v>
-      </c>
-      <c r="F145" s="20">
-        <v>1</v>
-      </c>
-      <c r="G145" s="3">
-        <v>0</v>
-      </c>
-      <c r="H145" s="18" t="s">
+      <c r="C147" s="2">
+        <v>0</v>
+      </c>
+      <c r="D147" s="2">
+        <v>0</v>
+      </c>
+      <c r="E147" s="17">
+        <v>1</v>
+      </c>
+      <c r="F147" s="17">
+        <v>1</v>
+      </c>
+      <c r="G147" s="3">
+        <v>0</v>
+      </c>
+      <c r="H147" s="15" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="18" t="s">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="15" t="s">
         <v>484</v>
       </c>
-      <c r="B146" s="16" t="s">
+      <c r="B148" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="C146" s="2">
-        <v>0</v>
-      </c>
-      <c r="D146" s="2">
-        <v>0</v>
-      </c>
-      <c r="E146" s="20">
-        <v>1</v>
-      </c>
-      <c r="F146" s="20">
-        <v>1</v>
-      </c>
-      <c r="G146" s="3">
-        <v>0</v>
-      </c>
-      <c r="H146" s="18" t="s">
+      <c r="C148" s="2">
+        <v>0</v>
+      </c>
+      <c r="D148" s="2">
+        <v>0</v>
+      </c>
+      <c r="E148" s="17">
+        <v>1</v>
+      </c>
+      <c r="F148" s="17">
+        <v>1</v>
+      </c>
+      <c r="G148" s="3">
+        <v>0</v>
+      </c>
+      <c r="H148" s="15" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" s="18" t="s">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="B147" s="16" t="s">
+      <c r="B149" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="C147" s="2">
-        <v>0</v>
-      </c>
-      <c r="D147" s="2">
-        <v>0</v>
-      </c>
-      <c r="E147" s="20">
-        <v>1</v>
-      </c>
-      <c r="F147" s="20">
-        <v>1</v>
-      </c>
-      <c r="G147" s="3">
-        <v>0</v>
-      </c>
-      <c r="H147" s="18" t="s">
+      <c r="C149" s="2">
+        <v>0</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0</v>
+      </c>
+      <c r="E149" s="17">
+        <v>1</v>
+      </c>
+      <c r="F149" s="17">
+        <v>1</v>
+      </c>
+      <c r="G149" s="3">
+        <v>0</v>
+      </c>
+      <c r="H149" s="15" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" s="18" t="s">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="B148" s="16" t="s">
+      <c r="B150" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="C148" s="2">
-        <v>0</v>
-      </c>
-      <c r="D148" s="2">
-        <v>0</v>
-      </c>
-      <c r="E148" s="20">
-        <v>1</v>
-      </c>
-      <c r="F148" s="20">
-        <v>1</v>
-      </c>
-      <c r="G148" s="3">
-        <v>0</v>
-      </c>
-      <c r="H148" s="18" t="s">
+      <c r="C150" s="2">
+        <v>0</v>
+      </c>
+      <c r="D150" s="2">
+        <v>0</v>
+      </c>
+      <c r="E150" s="17">
+        <v>1</v>
+      </c>
+      <c r="F150" s="17">
+        <v>1</v>
+      </c>
+      <c r="G150" s="3">
+        <v>0</v>
+      </c>
+      <c r="H150" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" s="18" t="s">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="B149" s="16" t="s">
+      <c r="B151" s="15" t="s">
         <v>494</v>
       </c>
-      <c r="C149" s="2">
-        <v>0</v>
-      </c>
-      <c r="D149" s="2">
-        <v>0</v>
-      </c>
-      <c r="E149" s="20">
-        <v>1</v>
-      </c>
-      <c r="F149" s="20">
-        <v>1</v>
-      </c>
-      <c r="G149" s="3">
-        <v>0</v>
-      </c>
-      <c r="H149" s="18" t="s">
+      <c r="C151" s="2">
+        <v>0</v>
+      </c>
+      <c r="D151" s="2">
+        <v>0</v>
+      </c>
+      <c r="E151" s="17">
+        <v>1</v>
+      </c>
+      <c r="F151" s="17">
+        <v>1</v>
+      </c>
+      <c r="G151" s="3">
+        <v>0</v>
+      </c>
+      <c r="H151" s="15" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" s="17" t="s">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="B150" s="14" t="s">
+      <c r="B152" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C150" s="2">
-        <v>0</v>
-      </c>
-      <c r="D150" s="2">
-        <v>0</v>
-      </c>
-      <c r="E150" s="20">
-        <v>1</v>
-      </c>
-      <c r="F150" s="22">
-        <v>1</v>
-      </c>
-      <c r="G150" s="3">
-        <v>0</v>
-      </c>
-      <c r="H150" s="17" t="s">
+      <c r="C152" s="2">
+        <v>0</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0</v>
+      </c>
+      <c r="E152" s="17">
+        <v>1</v>
+      </c>
+      <c r="F152" s="19">
+        <v>1</v>
+      </c>
+      <c r="G152" s="3">
+        <v>0</v>
+      </c>
+      <c r="H152" s="14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151" s="17" t="s">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="B151" s="14" t="s">
+      <c r="B153" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C151" s="2">
-        <v>0</v>
-      </c>
-      <c r="D151" s="2">
-        <v>0</v>
-      </c>
-      <c r="E151" s="20">
-        <v>1</v>
-      </c>
-      <c r="F151" s="22">
-        <v>1</v>
-      </c>
-      <c r="G151" s="3">
-        <v>0</v>
-      </c>
-      <c r="H151" s="17" t="s">
+      <c r="C153" s="2">
+        <v>0</v>
+      </c>
+      <c r="D153" s="2">
+        <v>0</v>
+      </c>
+      <c r="E153" s="17">
+        <v>1</v>
+      </c>
+      <c r="F153" s="19">
+        <v>1</v>
+      </c>
+      <c r="G153" s="3">
+        <v>0</v>
+      </c>
+      <c r="H153" s="14" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="17" t="s">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="B152" s="14" t="s">
+      <c r="B154" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C152" s="2">
-        <v>0</v>
-      </c>
-      <c r="D152" s="2">
-        <v>0</v>
-      </c>
-      <c r="E152" s="20">
-        <v>1</v>
-      </c>
-      <c r="F152" s="22">
-        <v>1</v>
-      </c>
-      <c r="G152" s="3">
-        <v>0</v>
-      </c>
-      <c r="H152" s="17" t="s">
+      <c r="C154" s="2">
+        <v>0</v>
+      </c>
+      <c r="D154" s="2">
+        <v>0</v>
+      </c>
+      <c r="E154" s="17">
+        <v>1</v>
+      </c>
+      <c r="F154" s="19">
+        <v>1</v>
+      </c>
+      <c r="G154" s="3">
+        <v>0</v>
+      </c>
+      <c r="H154" s="14" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153" s="17" t="s">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="B153" s="23" t="s">
+      <c r="B155" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="C153" s="2">
-        <v>0</v>
-      </c>
-      <c r="D153" s="2">
-        <v>0</v>
-      </c>
-      <c r="E153" s="4">
-        <v>1</v>
-      </c>
-      <c r="F153" s="22">
-        <v>1</v>
-      </c>
-      <c r="G153" s="3">
-        <v>0</v>
-      </c>
-      <c r="H153" s="17" t="s">
+      <c r="C155" s="2">
+        <v>0</v>
+      </c>
+      <c r="D155" s="2">
+        <v>0</v>
+      </c>
+      <c r="E155" s="4">
+        <v>1</v>
+      </c>
+      <c r="F155" s="19">
+        <v>1</v>
+      </c>
+      <c r="G155" s="3">
+        <v>0</v>
+      </c>
+      <c r="H155" s="14" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="17" t="s">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="B154" s="23" t="s">
+      <c r="B156" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="C154" s="2">
-        <v>0</v>
-      </c>
-      <c r="D154" s="2">
-        <v>0</v>
-      </c>
-      <c r="E154" s="4">
-        <v>1</v>
-      </c>
-      <c r="F154" s="22">
-        <v>1</v>
-      </c>
-      <c r="G154" s="3">
-        <v>0</v>
-      </c>
-      <c r="H154" s="17" t="s">
+      <c r="C156" s="2">
+        <v>0</v>
+      </c>
+      <c r="D156" s="2">
+        <v>0</v>
+      </c>
+      <c r="E156" s="4">
+        <v>1</v>
+      </c>
+      <c r="F156" s="19">
+        <v>1</v>
+      </c>
+      <c r="G156" s="3">
+        <v>0</v>
+      </c>
+      <c r="H156" s="14" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A155" s="17" t="s">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="B155" s="23" t="s">
+      <c r="B157" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="C155" s="2">
-        <v>0</v>
-      </c>
-      <c r="D155" s="2">
-        <v>0</v>
-      </c>
-      <c r="E155" s="4">
-        <v>1</v>
-      </c>
-      <c r="F155" s="22">
-        <v>1</v>
-      </c>
-      <c r="G155" s="3">
-        <v>0</v>
-      </c>
-      <c r="H155" s="17" t="s">
+      <c r="C157" s="2">
+        <v>0</v>
+      </c>
+      <c r="D157" s="2">
+        <v>0</v>
+      </c>
+      <c r="E157" s="4">
+        <v>1</v>
+      </c>
+      <c r="F157" s="19">
+        <v>1</v>
+      </c>
+      <c r="G157" s="3">
+        <v>0</v>
+      </c>
+      <c r="H157" s="14" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156" s="17" t="s">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="B156" s="23" t="s">
+      <c r="B158" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="C156" s="2">
-        <v>0</v>
-      </c>
-      <c r="D156" s="2">
-        <v>0</v>
-      </c>
-      <c r="E156" s="4">
-        <v>1</v>
-      </c>
-      <c r="F156" s="22">
-        <v>1</v>
-      </c>
-      <c r="G156" s="3">
-        <v>0</v>
-      </c>
-      <c r="H156" s="17" t="s">
+      <c r="C158" s="2">
+        <v>0</v>
+      </c>
+      <c r="D158" s="2">
+        <v>0</v>
+      </c>
+      <c r="E158" s="4">
+        <v>1</v>
+      </c>
+      <c r="F158" s="19">
+        <v>1</v>
+      </c>
+      <c r="G158" s="3">
+        <v>0</v>
+      </c>
+      <c r="H158" s="14" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" s="17" t="s">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="B157" s="23" t="s">
+      <c r="B159" s="14" t="s">
         <v>449</v>
       </c>
-      <c r="C157" s="2">
-        <v>0</v>
-      </c>
-      <c r="D157" s="2">
-        <v>0</v>
-      </c>
-      <c r="E157" s="4">
-        <v>1</v>
-      </c>
-      <c r="F157" s="22">
-        <v>1</v>
-      </c>
-      <c r="G157" s="3">
-        <v>0</v>
-      </c>
-      <c r="H157" s="17" t="s">
+      <c r="C159" s="2">
+        <v>0</v>
+      </c>
+      <c r="D159" s="2">
+        <v>0</v>
+      </c>
+      <c r="E159" s="4">
+        <v>1</v>
+      </c>
+      <c r="F159" s="19">
+        <v>1</v>
+      </c>
+      <c r="G159" s="3">
+        <v>0</v>
+      </c>
+      <c r="H159" s="14" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="17" t="s">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="B158" s="23" t="s">
+      <c r="B160" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="C158" s="2">
-        <v>0</v>
-      </c>
-      <c r="D158" s="2">
-        <v>0</v>
-      </c>
-      <c r="E158" s="4">
-        <v>1</v>
-      </c>
-      <c r="F158" s="22">
-        <v>1</v>
-      </c>
-      <c r="G158" s="3">
-        <v>0</v>
-      </c>
-      <c r="H158" s="17" t="s">
+      <c r="C160" s="2">
+        <v>0</v>
+      </c>
+      <c r="D160" s="2">
+        <v>0</v>
+      </c>
+      <c r="E160" s="4">
+        <v>1</v>
+      </c>
+      <c r="F160" s="19">
+        <v>1</v>
+      </c>
+      <c r="G160" s="3">
+        <v>0</v>
+      </c>
+      <c r="H160" s="14" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="17" t="s">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="B159" s="23" t="s">
+      <c r="B161" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="C159" s="2">
-        <v>0</v>
-      </c>
-      <c r="D159" s="2">
-        <v>0</v>
-      </c>
-      <c r="E159" s="4">
-        <v>1</v>
-      </c>
-      <c r="F159" s="22">
-        <v>1</v>
-      </c>
-      <c r="G159" s="3">
-        <v>0</v>
-      </c>
-      <c r="H159" s="17" t="s">
+      <c r="C161" s="2">
+        <v>0</v>
+      </c>
+      <c r="D161" s="2">
+        <v>0</v>
+      </c>
+      <c r="E161" s="4">
+        <v>1</v>
+      </c>
+      <c r="F161" s="19">
+        <v>1</v>
+      </c>
+      <c r="G161" s="3">
+        <v>0</v>
+      </c>
+      <c r="H161" s="14" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="17" t="s">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="B160" s="23" t="s">
+      <c r="B162" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="C160" s="2">
-        <v>0</v>
-      </c>
-      <c r="D160" s="2">
-        <v>0</v>
-      </c>
-      <c r="E160" s="4">
-        <v>1</v>
-      </c>
-      <c r="F160" s="22">
-        <v>1</v>
-      </c>
-      <c r="G160" s="3">
-        <v>0</v>
-      </c>
-      <c r="H160" s="17" t="s">
+      <c r="C162" s="2">
+        <v>0</v>
+      </c>
+      <c r="D162" s="2">
+        <v>0</v>
+      </c>
+      <c r="E162" s="4">
+        <v>1</v>
+      </c>
+      <c r="F162" s="19">
+        <v>1</v>
+      </c>
+      <c r="G162" s="3">
+        <v>0</v>
+      </c>
+      <c r="H162" s="14" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="17" t="s">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="B161" s="23" t="s">
+      <c r="B163" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="C161" s="2">
-        <v>0</v>
-      </c>
-      <c r="D161" s="2">
-        <v>0</v>
-      </c>
-      <c r="E161" s="4">
-        <v>1</v>
-      </c>
-      <c r="F161" s="22">
-        <v>1</v>
-      </c>
-      <c r="G161" s="3">
-        <v>0</v>
-      </c>
-      <c r="H161" s="17" t="s">
+      <c r="C163" s="2">
+        <v>0</v>
+      </c>
+      <c r="D163" s="2">
+        <v>0</v>
+      </c>
+      <c r="E163" s="4">
+        <v>1</v>
+      </c>
+      <c r="F163" s="19">
+        <v>1</v>
+      </c>
+      <c r="G163" s="3">
+        <v>0</v>
+      </c>
+      <c r="H163" s="14" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="17" t="s">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="B162" s="23" t="s">
+      <c r="B164" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="C162" s="2">
-        <v>0</v>
-      </c>
-      <c r="D162" s="2">
-        <v>0</v>
-      </c>
-      <c r="E162" s="4">
-        <v>1</v>
-      </c>
-      <c r="F162" s="22">
-        <v>1</v>
-      </c>
-      <c r="G162" s="3">
-        <v>0</v>
-      </c>
-      <c r="H162" s="17" t="s">
+      <c r="C164" s="2">
+        <v>0</v>
+      </c>
+      <c r="D164" s="2">
+        <v>0</v>
+      </c>
+      <c r="E164" s="4">
+        <v>1</v>
+      </c>
+      <c r="F164" s="19">
+        <v>1</v>
+      </c>
+      <c r="G164" s="3">
+        <v>0</v>
+      </c>
+      <c r="H164" s="14" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="17" t="s">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="B163" s="23" t="s">
+      <c r="B165" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="C163" s="2">
-        <v>0</v>
-      </c>
-      <c r="D163" s="2">
-        <v>0</v>
-      </c>
-      <c r="E163" s="4">
-        <v>1</v>
-      </c>
-      <c r="F163" s="22">
-        <v>1</v>
-      </c>
-      <c r="G163" s="3">
-        <v>0</v>
-      </c>
-      <c r="H163" s="17" t="s">
+      <c r="C165" s="2">
+        <v>0</v>
+      </c>
+      <c r="D165" s="2">
+        <v>0</v>
+      </c>
+      <c r="E165" s="4">
+        <v>1</v>
+      </c>
+      <c r="F165" s="19">
+        <v>1</v>
+      </c>
+      <c r="G165" s="3">
+        <v>0</v>
+      </c>
+      <c r="H165" s="14" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="17" t="s">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="B164" s="23" t="s">
+      <c r="B166" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="C164" s="2">
-        <v>0</v>
-      </c>
-      <c r="D164" s="2">
-        <v>0</v>
-      </c>
-      <c r="E164" s="4">
-        <v>1</v>
-      </c>
-      <c r="F164" s="22">
-        <v>1</v>
-      </c>
-      <c r="G164" s="3">
-        <v>0</v>
-      </c>
-      <c r="H164" s="17" t="s">
+      <c r="C166" s="2">
+        <v>0</v>
+      </c>
+      <c r="D166" s="2">
+        <v>0</v>
+      </c>
+      <c r="E166" s="4">
+        <v>1</v>
+      </c>
+      <c r="F166" s="19">
+        <v>1</v>
+      </c>
+      <c r="G166" s="3">
+        <v>0</v>
+      </c>
+      <c r="H166" s="14" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="17" t="s">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="B165" s="23" t="s">
+      <c r="B167" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="C165" s="2">
-        <v>0</v>
-      </c>
-      <c r="D165" s="2">
-        <v>0</v>
-      </c>
-      <c r="E165" s="4">
-        <v>1</v>
-      </c>
-      <c r="F165" s="22">
-        <v>1</v>
-      </c>
-      <c r="G165" s="3">
-        <v>0</v>
-      </c>
-      <c r="H165" s="17" t="s">
+      <c r="C167" s="2">
+        <v>0</v>
+      </c>
+      <c r="D167" s="2">
+        <v>0</v>
+      </c>
+      <c r="E167" s="4">
+        <v>1</v>
+      </c>
+      <c r="F167" s="19">
+        <v>1</v>
+      </c>
+      <c r="G167" s="3">
+        <v>0</v>
+      </c>
+      <c r="H167" s="14" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="17" t="s">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="B166" s="23" t="s">
+      <c r="B168" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="C166" s="2">
-        <v>0</v>
-      </c>
-      <c r="D166" s="2">
-        <v>0</v>
-      </c>
-      <c r="E166" s="4">
-        <v>1</v>
-      </c>
-      <c r="F166" s="22">
-        <v>1</v>
-      </c>
-      <c r="G166" s="3">
-        <v>0</v>
-      </c>
-      <c r="H166" s="17" t="s">
+      <c r="C168" s="2">
+        <v>0</v>
+      </c>
+      <c r="D168" s="2">
+        <v>0</v>
+      </c>
+      <c r="E168" s="4">
+        <v>1</v>
+      </c>
+      <c r="F168" s="19">
+        <v>1</v>
+      </c>
+      <c r="G168" s="3">
+        <v>0</v>
+      </c>
+      <c r="H168" s="14" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" s="17" t="s">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="B167" s="23" t="s">
+      <c r="B169" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="C167" s="2">
-        <v>0</v>
-      </c>
-      <c r="D167" s="2">
-        <v>0</v>
-      </c>
-      <c r="E167" s="4">
-        <v>1</v>
-      </c>
-      <c r="F167" s="22">
-        <v>1</v>
-      </c>
-      <c r="G167" s="3">
-        <v>0</v>
-      </c>
-      <c r="H167" s="17" t="s">
+      <c r="C169" s="2">
+        <v>0</v>
+      </c>
+      <c r="D169" s="2">
+        <v>0</v>
+      </c>
+      <c r="E169" s="4">
+        <v>1</v>
+      </c>
+      <c r="F169" s="19">
+        <v>1</v>
+      </c>
+      <c r="G169" s="3">
+        <v>0</v>
+      </c>
+      <c r="H169" s="14" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" s="17" t="s">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="B168" s="23" t="s">
+      <c r="B170" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="C168" s="2">
-        <v>0</v>
-      </c>
-      <c r="D168" s="2">
-        <v>0</v>
-      </c>
-      <c r="E168" s="4">
-        <v>1</v>
-      </c>
-      <c r="F168" s="22">
-        <v>1</v>
-      </c>
-      <c r="G168" s="3">
-        <v>0</v>
-      </c>
-      <c r="H168" s="17" t="s">
+      <c r="C170" s="2">
+        <v>0</v>
+      </c>
+      <c r="D170" s="2">
+        <v>0</v>
+      </c>
+      <c r="E170" s="4">
+        <v>1</v>
+      </c>
+      <c r="F170" s="19">
+        <v>1</v>
+      </c>
+      <c r="G170" s="3">
+        <v>0</v>
+      </c>
+      <c r="H170" s="14" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" s="17" t="s">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="B169" s="23" t="s">
+      <c r="B171" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="C169" s="2">
-        <v>0</v>
-      </c>
-      <c r="D169" s="2">
-        <v>0</v>
-      </c>
-      <c r="E169" s="4">
-        <v>1</v>
-      </c>
-      <c r="F169" s="22">
-        <v>1</v>
-      </c>
-      <c r="G169" s="3">
-        <v>0</v>
-      </c>
-      <c r="H169" s="17" t="s">
+      <c r="C171" s="2">
+        <v>0</v>
+      </c>
+      <c r="D171" s="2">
+        <v>0</v>
+      </c>
+      <c r="E171" s="4">
+        <v>1</v>
+      </c>
+      <c r="F171" s="19">
+        <v>1</v>
+      </c>
+      <c r="G171" s="3">
+        <v>0</v>
+      </c>
+      <c r="H171" s="14" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="17" t="s">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="B170" s="23" t="s">
+      <c r="B172" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="C170" s="2">
-        <v>0</v>
-      </c>
-      <c r="D170" s="2">
-        <v>0</v>
-      </c>
-      <c r="E170" s="4">
-        <v>1</v>
-      </c>
-      <c r="F170" s="22">
-        <v>1</v>
-      </c>
-      <c r="G170" s="3">
-        <v>0</v>
-      </c>
-      <c r="H170" s="17" t="s">
+      <c r="C172" s="2">
+        <v>0</v>
+      </c>
+      <c r="D172" s="2">
+        <v>0</v>
+      </c>
+      <c r="E172" s="4">
+        <v>1</v>
+      </c>
+      <c r="F172" s="19">
+        <v>1</v>
+      </c>
+      <c r="G172" s="3">
+        <v>0</v>
+      </c>
+      <c r="H172" s="14" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" s="17" t="s">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="B171" s="14" t="s">
+      <c r="B173" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C171" s="2">
-        <v>0</v>
-      </c>
-      <c r="D171" s="2">
-        <v>0</v>
-      </c>
-      <c r="E171" s="20">
-        <v>1</v>
-      </c>
-      <c r="F171" s="22">
-        <v>1</v>
-      </c>
-      <c r="G171" s="3">
-        <v>0</v>
-      </c>
-      <c r="H171" s="17" t="s">
+      <c r="C173" s="2">
+        <v>0</v>
+      </c>
+      <c r="D173" s="2">
+        <v>0</v>
+      </c>
+      <c r="E173" s="17">
+        <v>1</v>
+      </c>
+      <c r="F173" s="19">
+        <v>1</v>
+      </c>
+      <c r="G173" s="3">
+        <v>0</v>
+      </c>
+      <c r="H173" s="14" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" s="17" t="s">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="B172" s="14" t="s">
+      <c r="B174" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C172" s="2">
-        <v>0</v>
-      </c>
-      <c r="D172" s="2">
-        <v>0</v>
-      </c>
-      <c r="E172" s="20">
-        <v>1</v>
-      </c>
-      <c r="F172" s="22">
-        <v>1</v>
-      </c>
-      <c r="G172" s="3">
-        <v>0</v>
-      </c>
-      <c r="H172" s="17" t="s">
+      <c r="C174" s="2">
+        <v>0</v>
+      </c>
+      <c r="D174" s="2">
+        <v>0</v>
+      </c>
+      <c r="E174" s="17">
+        <v>1</v>
+      </c>
+      <c r="F174" s="19">
+        <v>1</v>
+      </c>
+      <c r="G174" s="3">
+        <v>0</v>
+      </c>
+      <c r="H174" s="14" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" s="17" t="s">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="B173" s="14" t="s">
+      <c r="B175" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C173" s="2">
-        <v>0</v>
-      </c>
-      <c r="D173" s="2">
-        <v>0</v>
-      </c>
-      <c r="E173" s="20">
-        <v>1</v>
-      </c>
-      <c r="F173" s="22">
-        <v>1</v>
-      </c>
-      <c r="G173" s="3">
-        <v>1</v>
-      </c>
-      <c r="H173" s="17" t="s">
+      <c r="C175" s="2">
+        <v>0</v>
+      </c>
+      <c r="D175" s="2">
+        <v>0</v>
+      </c>
+      <c r="E175" s="17">
+        <v>1</v>
+      </c>
+      <c r="F175" s="19">
+        <v>1</v>
+      </c>
+      <c r="G175" s="3">
+        <v>1</v>
+      </c>
+      <c r="H175" s="14" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" s="17" t="s">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="B174" s="14" t="s">
+      <c r="B176" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C174" s="2">
-        <v>0</v>
-      </c>
-      <c r="D174" s="2">
-        <v>0</v>
-      </c>
-      <c r="E174" s="20">
-        <v>1</v>
-      </c>
-      <c r="F174" s="22">
-        <v>1</v>
-      </c>
-      <c r="G174" s="3">
-        <v>1</v>
-      </c>
-      <c r="H174" s="17" t="s">
+      <c r="C176" s="2">
+        <v>0</v>
+      </c>
+      <c r="D176" s="2">
+        <v>0</v>
+      </c>
+      <c r="E176" s="17">
+        <v>1</v>
+      </c>
+      <c r="F176" s="19">
+        <v>1</v>
+      </c>
+      <c r="G176" s="3">
+        <v>1</v>
+      </c>
+      <c r="H176" s="14" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" s="17" t="s">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="B175" s="14" t="s">
+      <c r="B177" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="C175" s="2">
-        <v>0</v>
-      </c>
-      <c r="D175" s="2">
-        <v>0</v>
-      </c>
-      <c r="E175" s="20">
-        <v>1</v>
-      </c>
-      <c r="F175" s="22">
-        <v>1</v>
-      </c>
-      <c r="G175" s="3">
-        <v>1</v>
-      </c>
-      <c r="H175" s="17" t="s">
+      <c r="C177" s="2">
+        <v>0</v>
+      </c>
+      <c r="D177" s="2">
+        <v>0</v>
+      </c>
+      <c r="E177" s="17">
+        <v>1</v>
+      </c>
+      <c r="F177" s="19">
+        <v>1</v>
+      </c>
+      <c r="G177" s="3">
+        <v>1</v>
+      </c>
+      <c r="H177" s="14" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" s="17" t="s">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="B176" s="14" t="s">
+      <c r="B178" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="C176" s="2">
-        <v>0</v>
-      </c>
-      <c r="D176" s="2">
-        <v>0</v>
-      </c>
-      <c r="E176" s="20">
-        <v>1</v>
-      </c>
-      <c r="F176" s="22">
-        <v>1</v>
-      </c>
-      <c r="G176" s="3">
-        <v>1</v>
-      </c>
-      <c r="H176" s="17" t="s">
+      <c r="C178" s="2">
+        <v>0</v>
+      </c>
+      <c r="D178" s="2">
+        <v>0</v>
+      </c>
+      <c r="E178" s="17">
+        <v>1</v>
+      </c>
+      <c r="F178" s="19">
+        <v>1</v>
+      </c>
+      <c r="G178" s="3">
+        <v>1</v>
+      </c>
+      <c r="H178" s="14" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" s="17" t="s">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="B177" s="15" t="s">
+      <c r="B179" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C177" s="2">
-        <v>0</v>
-      </c>
-      <c r="D177" s="2">
-        <v>0</v>
-      </c>
-      <c r="E177" s="20">
-        <v>1</v>
-      </c>
-      <c r="F177" s="22">
-        <v>1</v>
-      </c>
-      <c r="G177" s="3">
-        <v>0</v>
-      </c>
-      <c r="H177" s="17" t="s">
+      <c r="C179" s="2">
+        <v>0</v>
+      </c>
+      <c r="D179" s="2">
+        <v>0</v>
+      </c>
+      <c r="E179" s="17">
+        <v>1</v>
+      </c>
+      <c r="F179" s="19">
+        <v>1</v>
+      </c>
+      <c r="G179" s="3">
+        <v>0</v>
+      </c>
+      <c r="H179" s="14" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="17" t="s">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="B178" s="15" t="s">
+      <c r="B180" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C178" s="2">
-        <v>0</v>
-      </c>
-      <c r="D178" s="2">
-        <v>0</v>
-      </c>
-      <c r="E178" s="20">
-        <v>1</v>
-      </c>
-      <c r="F178" s="22">
-        <v>1</v>
-      </c>
-      <c r="G178" s="3">
-        <v>0</v>
-      </c>
-      <c r="H178" s="17" t="s">
+      <c r="C180" s="2">
+        <v>0</v>
+      </c>
+      <c r="D180" s="2">
+        <v>0</v>
+      </c>
+      <c r="E180" s="17">
+        <v>1</v>
+      </c>
+      <c r="F180" s="19">
+        <v>1</v>
+      </c>
+      <c r="G180" s="3">
+        <v>0</v>
+      </c>
+      <c r="H180" s="14" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A179" s="18" t="s">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="B179" s="16" t="s">
+      <c r="B181" s="15" t="s">
         <v>556</v>
       </c>
-      <c r="C179" s="2">
-        <v>0</v>
-      </c>
-      <c r="D179" s="2">
-        <v>0</v>
-      </c>
-      <c r="E179" s="20">
-        <v>1</v>
-      </c>
-      <c r="F179" s="20">
-        <v>1</v>
-      </c>
-      <c r="G179" s="3">
-        <v>0</v>
-      </c>
-      <c r="H179" s="18" t="s">
+      <c r="C181" s="2">
+        <v>0</v>
+      </c>
+      <c r="D181" s="2">
+        <v>0</v>
+      </c>
+      <c r="E181" s="17">
+        <v>1</v>
+      </c>
+      <c r="F181" s="17">
+        <v>1</v>
+      </c>
+      <c r="G181" s="3">
+        <v>0</v>
+      </c>
+      <c r="H181" s="15" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" s="18" t="s">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="B180" s="16" t="s">
+      <c r="B182" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="C180" s="2">
-        <v>0</v>
-      </c>
-      <c r="D180" s="2">
-        <v>0</v>
-      </c>
-      <c r="E180" s="20">
-        <v>1</v>
-      </c>
-      <c r="F180" s="20">
-        <v>1</v>
-      </c>
-      <c r="G180" s="3">
-        <v>0</v>
-      </c>
-      <c r="H180" s="18" t="s">
+      <c r="C182" s="2">
+        <v>0</v>
+      </c>
+      <c r="D182" s="2">
+        <v>0</v>
+      </c>
+      <c r="E182" s="17">
+        <v>1</v>
+      </c>
+      <c r="F182" s="17">
+        <v>1</v>
+      </c>
+      <c r="G182" s="3">
+        <v>0</v>
+      </c>
+      <c r="H182" s="15" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="18" t="s">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" s="15" t="s">
         <v>562</v>
       </c>
-      <c r="B181" s="16" t="s">
+      <c r="B183" s="15" t="s">
         <v>575</v>
       </c>
-      <c r="C181" s="2">
-        <v>0</v>
-      </c>
-      <c r="D181" s="2">
-        <v>0</v>
-      </c>
-      <c r="E181" s="20">
-        <v>1</v>
-      </c>
-      <c r="F181" s="20">
-        <v>1</v>
-      </c>
-      <c r="G181" s="3">
-        <v>0</v>
-      </c>
-      <c r="H181" s="18" t="s">
+      <c r="C183" s="2">
+        <v>0</v>
+      </c>
+      <c r="D183" s="2">
+        <v>0</v>
+      </c>
+      <c r="E183" s="17">
+        <v>1</v>
+      </c>
+      <c r="F183" s="17">
+        <v>1</v>
+      </c>
+      <c r="G183" s="3">
+        <v>0</v>
+      </c>
+      <c r="H183" s="15" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" s="18" t="s">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="B182" s="16" t="s">
+      <c r="B184" s="15" t="s">
         <v>576</v>
       </c>
-      <c r="C182" s="2">
-        <v>0</v>
-      </c>
-      <c r="D182" s="2">
-        <v>0</v>
-      </c>
-      <c r="E182" s="20">
-        <v>1</v>
-      </c>
-      <c r="F182" s="20">
-        <v>1</v>
-      </c>
-      <c r="G182" s="3">
-        <v>0</v>
-      </c>
-      <c r="H182" s="18" t="s">
+      <c r="C184" s="2">
+        <v>0</v>
+      </c>
+      <c r="D184" s="2">
+        <v>0</v>
+      </c>
+      <c r="E184" s="17">
+        <v>1</v>
+      </c>
+      <c r="F184" s="17">
+        <v>1</v>
+      </c>
+      <c r="G184" s="3">
+        <v>0</v>
+      </c>
+      <c r="H184" s="15" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="18" t="s">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="B183" s="16" t="s">
+      <c r="B185" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="C183" s="2">
-        <v>0</v>
-      </c>
-      <c r="D183" s="2">
-        <v>0</v>
-      </c>
-      <c r="E183" s="20">
-        <v>1</v>
-      </c>
-      <c r="F183" s="20">
-        <v>1</v>
-      </c>
-      <c r="G183" s="3">
-        <v>0</v>
-      </c>
-      <c r="H183" s="18" t="s">
+      <c r="C185" s="2">
+        <v>0</v>
+      </c>
+      <c r="D185" s="2">
+        <v>0</v>
+      </c>
+      <c r="E185" s="17">
+        <v>1</v>
+      </c>
+      <c r="F185" s="17">
+        <v>1</v>
+      </c>
+      <c r="G185" s="3">
+        <v>0</v>
+      </c>
+      <c r="H185" s="15" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" s="18" t="s">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" s="15" t="s">
         <v>609</v>
       </c>
-      <c r="B184" s="16" t="s">
+      <c r="B186" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="C184" s="2">
-        <v>0</v>
-      </c>
-      <c r="D184" s="2">
-        <v>0</v>
-      </c>
-      <c r="E184" s="20">
-        <v>1</v>
-      </c>
-      <c r="F184" s="20">
-        <v>1</v>
-      </c>
-      <c r="G184" s="3">
-        <v>0</v>
-      </c>
-      <c r="H184" s="18" t="s">
+      <c r="C186" s="2">
+        <v>0</v>
+      </c>
+      <c r="D186" s="2">
+        <v>0</v>
+      </c>
+      <c r="E186" s="17">
+        <v>1</v>
+      </c>
+      <c r="F186" s="17">
+        <v>1</v>
+      </c>
+      <c r="G186" s="3">
+        <v>0</v>
+      </c>
+      <c r="H186" s="15" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" s="18" t="s">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="B185" s="16" t="s">
+      <c r="B187" s="15" t="s">
         <v>606</v>
       </c>
-      <c r="C185" s="2">
-        <v>0</v>
-      </c>
-      <c r="D185" s="2">
-        <v>0</v>
-      </c>
-      <c r="E185" s="20">
-        <v>1</v>
-      </c>
-      <c r="F185" s="20">
-        <v>1</v>
-      </c>
-      <c r="G185" s="3">
-        <v>0</v>
-      </c>
-      <c r="H185" s="18" t="s">
+      <c r="C187" s="2">
+        <v>0</v>
+      </c>
+      <c r="D187" s="2">
+        <v>0</v>
+      </c>
+      <c r="E187" s="17">
+        <v>1</v>
+      </c>
+      <c r="F187" s="17">
+        <v>1</v>
+      </c>
+      <c r="G187" s="3">
+        <v>0</v>
+      </c>
+      <c r="H187" s="15" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A186" s="18" t="s">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" s="15" t="s">
         <v>610</v>
       </c>
-      <c r="B186" s="16" t="s">
+      <c r="B188" s="15" t="s">
         <v>578</v>
       </c>
-      <c r="C186" s="2">
-        <v>0</v>
-      </c>
-      <c r="D186" s="2">
-        <v>0</v>
-      </c>
-      <c r="E186" s="20">
-        <v>1</v>
-      </c>
-      <c r="F186" s="20">
-        <v>1</v>
-      </c>
-      <c r="G186" s="3">
-        <v>0</v>
-      </c>
-      <c r="H186" s="18" t="s">
+      <c r="C188" s="2">
+        <v>0</v>
+      </c>
+      <c r="D188" s="2">
+        <v>0</v>
+      </c>
+      <c r="E188" s="17">
+        <v>1</v>
+      </c>
+      <c r="F188" s="17">
+        <v>1</v>
+      </c>
+      <c r="G188" s="3">
+        <v>0</v>
+      </c>
+      <c r="H188" s="15" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A187" s="18" t="s">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="B187" s="16" t="s">
+      <c r="B189" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="C187" s="2">
-        <v>0</v>
-      </c>
-      <c r="D187" s="2">
-        <v>0</v>
-      </c>
-      <c r="E187" s="20">
-        <v>1</v>
-      </c>
-      <c r="F187" s="20">
-        <v>1</v>
-      </c>
-      <c r="G187" s="3">
-        <v>0</v>
-      </c>
-      <c r="H187" s="18" t="s">
+      <c r="C189" s="2">
+        <v>0</v>
+      </c>
+      <c r="D189" s="2">
+        <v>0</v>
+      </c>
+      <c r="E189" s="17">
+        <v>1</v>
+      </c>
+      <c r="F189" s="17">
+        <v>1</v>
+      </c>
+      <c r="G189" s="3">
+        <v>0</v>
+      </c>
+      <c r="H189" s="15" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A188" s="18" t="s">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" s="15" t="s">
         <v>614</v>
       </c>
-      <c r="B188" s="16" t="s">
+      <c r="B190" s="15" t="s">
         <v>630</v>
       </c>
-      <c r="C188" s="2">
-        <v>0</v>
-      </c>
-      <c r="D188" s="2">
-        <v>0</v>
-      </c>
-      <c r="E188" s="20">
-        <v>1</v>
-      </c>
-      <c r="F188" s="20">
-        <v>1</v>
-      </c>
-      <c r="G188" s="3">
-        <v>0</v>
-      </c>
-      <c r="H188" s="18" t="s">
+      <c r="C190" s="2">
+        <v>0</v>
+      </c>
+      <c r="D190" s="2">
+        <v>0</v>
+      </c>
+      <c r="E190" s="17">
+        <v>1</v>
+      </c>
+      <c r="F190" s="17">
+        <v>1</v>
+      </c>
+      <c r="G190" s="3">
+        <v>0</v>
+      </c>
+      <c r="H190" s="15" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A189" s="18" t="s">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" s="15" t="s">
         <v>613</v>
       </c>
-      <c r="B189" s="16" t="s">
+      <c r="B191" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="C189" s="2">
-        <v>0</v>
-      </c>
-      <c r="D189" s="2">
-        <v>0</v>
-      </c>
-      <c r="E189" s="20">
-        <v>1</v>
-      </c>
-      <c r="F189" s="20">
-        <v>1</v>
-      </c>
-      <c r="G189" s="3">
-        <v>0</v>
-      </c>
-      <c r="H189" s="18" t="s">
+      <c r="C191" s="2">
+        <v>0</v>
+      </c>
+      <c r="D191" s="2">
+        <v>0</v>
+      </c>
+      <c r="E191" s="17">
+        <v>1</v>
+      </c>
+      <c r="F191" s="17">
+        <v>1</v>
+      </c>
+      <c r="G191" s="3">
+        <v>0</v>
+      </c>
+      <c r="H191" s="15" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A190" s="18" t="s">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="B190" s="16" t="s">
+      <c r="B192" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="C190" s="2">
-        <v>0</v>
-      </c>
-      <c r="D190" s="2">
-        <v>0</v>
-      </c>
-      <c r="E190" s="20">
-        <v>1</v>
-      </c>
-      <c r="F190" s="20">
-        <v>1</v>
-      </c>
-      <c r="G190" s="3">
-        <v>0</v>
-      </c>
-      <c r="H190" s="18" t="s">
+      <c r="C192" s="2">
+        <v>0</v>
+      </c>
+      <c r="D192" s="2">
+        <v>0</v>
+      </c>
+      <c r="E192" s="17">
+        <v>1</v>
+      </c>
+      <c r="F192" s="17">
+        <v>1</v>
+      </c>
+      <c r="G192" s="3">
+        <v>0</v>
+      </c>
+      <c r="H192" s="15" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A191" s="18" t="s">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="B191" s="16" t="s">
+      <c r="B193" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="C191" s="2">
-        <v>0</v>
-      </c>
-      <c r="D191" s="2">
-        <v>0</v>
-      </c>
-      <c r="E191" s="20">
-        <v>1</v>
-      </c>
-      <c r="F191" s="20">
-        <v>1</v>
-      </c>
-      <c r="G191" s="3">
-        <v>0</v>
-      </c>
-      <c r="H191" s="18" t="s">
+      <c r="C193" s="2">
+        <v>0</v>
+      </c>
+      <c r="D193" s="2">
+        <v>0</v>
+      </c>
+      <c r="E193" s="17">
+        <v>1</v>
+      </c>
+      <c r="F193" s="17">
+        <v>1</v>
+      </c>
+      <c r="G193" s="3">
+        <v>0</v>
+      </c>
+      <c r="H193" s="15" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A192" s="18" t="s">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="B192" s="16" t="s">
+      <c r="B194" s="15" t="s">
         <v>579</v>
       </c>
-      <c r="C192" s="2">
-        <v>0</v>
-      </c>
-      <c r="D192" s="2">
-        <v>0</v>
-      </c>
-      <c r="E192" s="20">
-        <v>1</v>
-      </c>
-      <c r="F192" s="20">
-        <v>1</v>
-      </c>
-      <c r="G192" s="3">
-        <v>0</v>
-      </c>
-      <c r="H192" s="18" t="s">
+      <c r="C194" s="2">
+        <v>0</v>
+      </c>
+      <c r="D194" s="2">
+        <v>0</v>
+      </c>
+      <c r="E194" s="17">
+        <v>1</v>
+      </c>
+      <c r="F194" s="17">
+        <v>1</v>
+      </c>
+      <c r="G194" s="3">
+        <v>0</v>
+      </c>
+      <c r="H194" s="15" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A193" s="18" t="s">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="B193" s="16" t="s">
+      <c r="B195" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C193" s="2">
-        <v>0</v>
-      </c>
-      <c r="D193" s="2">
-        <v>0</v>
-      </c>
-      <c r="E193" s="20">
-        <v>1</v>
-      </c>
-      <c r="F193" s="20">
-        <v>1</v>
-      </c>
-      <c r="G193" s="3">
-        <v>0</v>
-      </c>
-      <c r="H193" s="18" t="s">
+      <c r="C195" s="2">
+        <v>0</v>
+      </c>
+      <c r="D195" s="2">
+        <v>0</v>
+      </c>
+      <c r="E195" s="17">
+        <v>1</v>
+      </c>
+      <c r="F195" s="17">
+        <v>1</v>
+      </c>
+      <c r="G195" s="3">
+        <v>0</v>
+      </c>
+      <c r="H195" s="15" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A194" s="18" t="s">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" s="15" t="s">
         <v>618</v>
       </c>
-      <c r="B194" s="16" t="s">
+      <c r="B196" s="15" t="s">
         <v>581</v>
       </c>
-      <c r="C194" s="2">
-        <v>0</v>
-      </c>
-      <c r="D194" s="2">
-        <v>0</v>
-      </c>
-      <c r="E194" s="20">
-        <v>1</v>
-      </c>
-      <c r="F194" s="20">
-        <v>1</v>
-      </c>
-      <c r="G194" s="3">
-        <v>0</v>
-      </c>
-      <c r="H194" s="18" t="s">
+      <c r="C196" s="2">
+        <v>0</v>
+      </c>
+      <c r="D196" s="2">
+        <v>0</v>
+      </c>
+      <c r="E196" s="17">
+        <v>1</v>
+      </c>
+      <c r="F196" s="17">
+        <v>1</v>
+      </c>
+      <c r="G196" s="3">
+        <v>0</v>
+      </c>
+      <c r="H196" s="15" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A195" s="18" t="s">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" s="15" t="s">
         <v>619</v>
       </c>
-      <c r="B195" s="16" t="s">
+      <c r="B197" s="15" t="s">
         <v>582</v>
       </c>
-      <c r="C195" s="2">
-        <v>0</v>
-      </c>
-      <c r="D195" s="2">
-        <v>0</v>
-      </c>
-      <c r="E195" s="20">
-        <v>1</v>
-      </c>
-      <c r="F195" s="20">
-        <v>1</v>
-      </c>
-      <c r="G195" s="3">
-        <v>0</v>
-      </c>
-      <c r="H195" s="18" t="s">
+      <c r="C197" s="2">
+        <v>0</v>
+      </c>
+      <c r="D197" s="2">
+        <v>0</v>
+      </c>
+      <c r="E197" s="17">
+        <v>1</v>
+      </c>
+      <c r="F197" s="17">
+        <v>1</v>
+      </c>
+      <c r="G197" s="3">
+        <v>0</v>
+      </c>
+      <c r="H197" s="15" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A196" s="18" t="s">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="B196" s="16" t="s">
+      <c r="B198" s="15" t="s">
         <v>583</v>
       </c>
-      <c r="C196" s="2">
-        <v>0</v>
-      </c>
-      <c r="D196" s="2">
-        <v>0</v>
-      </c>
-      <c r="E196" s="20">
-        <v>1</v>
-      </c>
-      <c r="F196" s="20">
-        <v>1</v>
-      </c>
-      <c r="G196" s="3">
-        <v>0</v>
-      </c>
-      <c r="H196" s="18" t="s">
+      <c r="C198" s="2">
+        <v>0</v>
+      </c>
+      <c r="D198" s="2">
+        <v>0</v>
+      </c>
+      <c r="E198" s="17">
+        <v>1</v>
+      </c>
+      <c r="F198" s="17">
+        <v>1</v>
+      </c>
+      <c r="G198" s="3">
+        <v>0</v>
+      </c>
+      <c r="H198" s="15" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A197" s="18" t="s">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="B197" s="16" t="s">
+      <c r="B199" s="15" t="s">
         <v>574</v>
       </c>
-      <c r="C197" s="2">
-        <v>0</v>
-      </c>
-      <c r="D197" s="2">
-        <v>0</v>
-      </c>
-      <c r="E197" s="20">
-        <v>1</v>
-      </c>
-      <c r="F197" s="20">
-        <v>1</v>
-      </c>
-      <c r="G197" s="3">
-        <v>0</v>
-      </c>
-      <c r="H197" s="18" t="s">
+      <c r="C199" s="2">
+        <v>0</v>
+      </c>
+      <c r="D199" s="2">
+        <v>0</v>
+      </c>
+      <c r="E199" s="17">
+        <v>1</v>
+      </c>
+      <c r="F199" s="17">
+        <v>1</v>
+      </c>
+      <c r="G199" s="3">
+        <v>0</v>
+      </c>
+      <c r="H199" s="15" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" s="17" t="s">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="B198" s="14" t="s">
+      <c r="B200" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C198" s="2">
-        <v>0</v>
-      </c>
-      <c r="D198" s="2">
-        <v>0</v>
-      </c>
-      <c r="E198" s="20">
-        <v>1</v>
-      </c>
-      <c r="F198" s="22">
-        <v>1</v>
-      </c>
-      <c r="G198" s="3">
-        <v>0</v>
-      </c>
-      <c r="H198" s="17" t="s">
+      <c r="C200" s="2">
+        <v>0</v>
+      </c>
+      <c r="D200" s="2">
+        <v>0</v>
+      </c>
+      <c r="E200" s="17">
+        <v>1</v>
+      </c>
+      <c r="F200" s="19">
+        <v>1</v>
+      </c>
+      <c r="G200" s="3">
+        <v>0</v>
+      </c>
+      <c r="H200" s="14" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A199" s="17" t="s">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="B199" s="14" t="s">
+      <c r="B201" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C199" s="2">
-        <v>0</v>
-      </c>
-      <c r="D199" s="2">
-        <v>0</v>
-      </c>
-      <c r="E199" s="20">
-        <v>1</v>
-      </c>
-      <c r="F199" s="20">
-        <v>1</v>
-      </c>
-      <c r="G199" s="3">
-        <v>0</v>
-      </c>
-      <c r="H199" s="17" t="s">
+      <c r="C201" s="2">
+        <v>0</v>
+      </c>
+      <c r="D201" s="2">
+        <v>0</v>
+      </c>
+      <c r="E201" s="17">
+        <v>1</v>
+      </c>
+      <c r="F201" s="17">
+        <v>1</v>
+      </c>
+      <c r="G201" s="3">
+        <v>0</v>
+      </c>
+      <c r="H201" s="14" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A200" s="17" t="s">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="B200" s="14" t="s">
+      <c r="B202" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C200" s="2">
-        <v>0</v>
-      </c>
-      <c r="D200" s="2">
-        <v>0</v>
-      </c>
-      <c r="E200" s="20">
-        <v>1</v>
-      </c>
-      <c r="F200" s="22">
-        <v>1</v>
-      </c>
-      <c r="G200" s="3">
-        <v>0</v>
-      </c>
-      <c r="H200" s="17" t="s">
+      <c r="C202" s="2">
+        <v>0</v>
+      </c>
+      <c r="D202" s="2">
+        <v>0</v>
+      </c>
+      <c r="E202" s="17">
+        <v>1</v>
+      </c>
+      <c r="F202" s="19">
+        <v>1</v>
+      </c>
+      <c r="G202" s="3">
+        <v>0</v>
+      </c>
+      <c r="H202" s="14" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A201" s="17" t="s">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="B201" s="14" t="s">
+      <c r="B203" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C201" s="2">
-        <v>0</v>
-      </c>
-      <c r="D201" s="2">
-        <v>0</v>
-      </c>
-      <c r="E201" s="20">
-        <v>1</v>
-      </c>
-      <c r="F201" s="22">
-        <v>1</v>
-      </c>
-      <c r="G201" s="3">
-        <v>0</v>
-      </c>
-      <c r="H201" s="17" t="s">
+      <c r="C203" s="2">
+        <v>0</v>
+      </c>
+      <c r="D203" s="2">
+        <v>0</v>
+      </c>
+      <c r="E203" s="17">
+        <v>1</v>
+      </c>
+      <c r="F203" s="19">
+        <v>1</v>
+      </c>
+      <c r="G203" s="3">
+        <v>0</v>
+      </c>
+      <c r="H203" s="14" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A202" s="17" t="s">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="B202" s="14" t="s">
+      <c r="B204" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C202" s="2">
-        <v>0</v>
-      </c>
-      <c r="D202" s="2">
-        <v>0</v>
-      </c>
-      <c r="E202" s="20">
-        <v>1</v>
-      </c>
-      <c r="F202" s="22">
-        <v>1</v>
-      </c>
-      <c r="G202" s="3">
-        <v>1</v>
-      </c>
-      <c r="H202" s="17" t="s">
+      <c r="C204" s="2">
+        <v>0</v>
+      </c>
+      <c r="D204" s="2">
+        <v>0</v>
+      </c>
+      <c r="E204" s="17">
+        <v>1</v>
+      </c>
+      <c r="F204" s="19">
+        <v>1</v>
+      </c>
+      <c r="G204" s="3">
+        <v>1</v>
+      </c>
+      <c r="H204" s="14" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A203" s="17" t="s">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="B203" s="14" t="s">
+      <c r="B205" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C203" s="2">
-        <v>0</v>
-      </c>
-      <c r="D203" s="2">
-        <v>0</v>
-      </c>
-      <c r="E203" s="20">
-        <v>1</v>
-      </c>
-      <c r="F203" s="22">
-        <v>1</v>
-      </c>
-      <c r="G203" s="3">
-        <v>1</v>
-      </c>
-      <c r="H203" s="17" t="s">
+      <c r="C205" s="2">
+        <v>0</v>
+      </c>
+      <c r="D205" s="2">
+        <v>0</v>
+      </c>
+      <c r="E205" s="17">
+        <v>1</v>
+      </c>
+      <c r="F205" s="19">
+        <v>1</v>
+      </c>
+      <c r="G205" s="3">
+        <v>1</v>
+      </c>
+      <c r="H205" s="14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A204" s="17" t="s">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="B204" s="14" t="s">
+      <c r="B206" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C204" s="2">
-        <v>0</v>
-      </c>
-      <c r="D204" s="2">
-        <v>0</v>
-      </c>
-      <c r="E204" s="20">
-        <v>1</v>
-      </c>
-      <c r="F204" s="22">
-        <v>1</v>
-      </c>
-      <c r="G204" s="3">
-        <v>0</v>
-      </c>
-      <c r="H204" s="17" t="s">
+      <c r="C206" s="2">
+        <v>0</v>
+      </c>
+      <c r="D206" s="2">
+        <v>0</v>
+      </c>
+      <c r="E206" s="17">
+        <v>1</v>
+      </c>
+      <c r="F206" s="19">
+        <v>1</v>
+      </c>
+      <c r="G206" s="3">
+        <v>0</v>
+      </c>
+      <c r="H206" s="14" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A205" s="17" t="s">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="B205" s="14" t="s">
+      <c r="B207" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C205" s="2">
-        <v>0</v>
-      </c>
-      <c r="D205" s="2">
-        <v>0</v>
-      </c>
-      <c r="E205" s="20">
-        <v>1</v>
-      </c>
-      <c r="F205" s="22">
-        <v>1</v>
-      </c>
-      <c r="G205" s="3">
-        <v>0</v>
-      </c>
-      <c r="H205" s="17" t="s">
+      <c r="C207" s="2">
+        <v>0</v>
+      </c>
+      <c r="D207" s="2">
+        <v>0</v>
+      </c>
+      <c r="E207" s="17">
+        <v>1</v>
+      </c>
+      <c r="F207" s="19">
+        <v>1</v>
+      </c>
+      <c r="G207" s="3">
+        <v>0</v>
+      </c>
+      <c r="H207" s="14" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A206" s="17" t="s">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" s="14" t="s">
         <v>496</v>
       </c>
-      <c r="B206" s="14" t="s">
+      <c r="B208" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C206" s="2">
-        <v>0</v>
-      </c>
-      <c r="D206" s="2">
-        <v>0</v>
-      </c>
-      <c r="E206" s="20">
-        <v>1</v>
-      </c>
-      <c r="F206" s="22">
-        <v>1</v>
-      </c>
-      <c r="G206" s="3">
-        <v>0</v>
-      </c>
-      <c r="H206" s="17" t="s">
+      <c r="C208" s="2">
+        <v>0</v>
+      </c>
+      <c r="D208" s="2">
+        <v>0</v>
+      </c>
+      <c r="E208" s="17">
+        <v>1</v>
+      </c>
+      <c r="F208" s="19">
+        <v>1</v>
+      </c>
+      <c r="G208" s="3">
+        <v>0</v>
+      </c>
+      <c r="H208" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A207" s="17" t="s">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="B207" s="14" t="s">
+      <c r="B209" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C207" s="2">
-        <v>0</v>
-      </c>
-      <c r="D207" s="2">
-        <v>0</v>
-      </c>
-      <c r="E207" s="20">
-        <v>1</v>
-      </c>
-      <c r="F207" s="22">
-        <v>1</v>
-      </c>
-      <c r="G207" s="3">
-        <v>0</v>
-      </c>
-      <c r="H207" s="17" t="s">
+      <c r="C209" s="2">
+        <v>0</v>
+      </c>
+      <c r="D209" s="2">
+        <v>0</v>
+      </c>
+      <c r="E209" s="17">
+        <v>1</v>
+      </c>
+      <c r="F209" s="19">
+        <v>1</v>
+      </c>
+      <c r="G209" s="3">
+        <v>0</v>
+      </c>
+      <c r="H209" s="14" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A208" s="17" t="s">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" s="14" t="s">
         <v>499</v>
       </c>
-      <c r="B208" s="14" t="s">
+      <c r="B210" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C208" s="2">
-        <v>0</v>
-      </c>
-      <c r="D208" s="2">
-        <v>0</v>
-      </c>
-      <c r="E208" s="20">
-        <v>1</v>
-      </c>
-      <c r="F208" s="22">
-        <v>1</v>
-      </c>
-      <c r="G208" s="3">
-        <v>0</v>
-      </c>
-      <c r="H208" s="17" t="s">
+      <c r="C210" s="2">
+        <v>0</v>
+      </c>
+      <c r="D210" s="2">
+        <v>0</v>
+      </c>
+      <c r="E210" s="17">
+        <v>1</v>
+      </c>
+      <c r="F210" s="19">
+        <v>1</v>
+      </c>
+      <c r="G210" s="3">
+        <v>0</v>
+      </c>
+      <c r="H210" s="14" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A209" s="17" t="s">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="B209" s="14" t="s">
+      <c r="B211" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C209" s="2">
-        <v>0</v>
-      </c>
-      <c r="D209" s="2">
-        <v>0</v>
-      </c>
-      <c r="E209" s="20">
-        <v>1</v>
-      </c>
-      <c r="F209" s="22">
-        <v>1</v>
-      </c>
-      <c r="G209" s="3">
-        <v>0</v>
-      </c>
-      <c r="H209" s="17" t="s">
+      <c r="C211" s="2">
+        <v>0</v>
+      </c>
+      <c r="D211" s="2">
+        <v>0</v>
+      </c>
+      <c r="E211" s="17">
+        <v>1</v>
+      </c>
+      <c r="F211" s="19">
+        <v>1</v>
+      </c>
+      <c r="G211" s="3">
+        <v>0</v>
+      </c>
+      <c r="H211" s="14" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A210" s="17" t="s">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="B210" s="14" t="s">
+      <c r="B212" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C210" s="2">
-        <v>0</v>
-      </c>
-      <c r="D210" s="2">
-        <v>0</v>
-      </c>
-      <c r="E210" s="20">
-        <v>1</v>
-      </c>
-      <c r="F210" s="22">
-        <v>1</v>
-      </c>
-      <c r="G210" s="3">
-        <v>0</v>
-      </c>
-      <c r="H210" s="17" t="s">
+      <c r="C212" s="2">
+        <v>0</v>
+      </c>
+      <c r="D212" s="2">
+        <v>0</v>
+      </c>
+      <c r="E212" s="17">
+        <v>1</v>
+      </c>
+      <c r="F212" s="19">
+        <v>1</v>
+      </c>
+      <c r="G212" s="3">
+        <v>0</v>
+      </c>
+      <c r="H212" s="14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A211" s="17" t="s">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="B211" s="14" t="s">
+      <c r="B213" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C211" s="2">
-        <v>0</v>
-      </c>
-      <c r="D211" s="2">
-        <v>0</v>
-      </c>
-      <c r="E211" s="20">
-        <v>1</v>
-      </c>
-      <c r="F211" s="22">
-        <v>1</v>
-      </c>
-      <c r="G211" s="3">
-        <v>0</v>
-      </c>
-      <c r="H211" s="17" t="s">
+      <c r="C213" s="2">
+        <v>0</v>
+      </c>
+      <c r="D213" s="2">
+        <v>0</v>
+      </c>
+      <c r="E213" s="17">
+        <v>1</v>
+      </c>
+      <c r="F213" s="19">
+        <v>1</v>
+      </c>
+      <c r="G213" s="3">
+        <v>0</v>
+      </c>
+      <c r="H213" s="14" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A212" s="17" t="s">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="B212" s="14" t="s">
+      <c r="B214" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C212" s="2">
-        <v>0</v>
-      </c>
-      <c r="D212" s="2">
-        <v>0</v>
-      </c>
-      <c r="E212" s="20">
-        <v>1</v>
-      </c>
-      <c r="F212" s="22">
-        <v>1</v>
-      </c>
-      <c r="G212" s="3">
-        <v>0</v>
-      </c>
-      <c r="H212" s="17" t="s">
+      <c r="C214" s="2">
+        <v>0</v>
+      </c>
+      <c r="D214" s="2">
+        <v>0</v>
+      </c>
+      <c r="E214" s="17">
+        <v>1</v>
+      </c>
+      <c r="F214" s="19">
+        <v>1</v>
+      </c>
+      <c r="G214" s="3">
+        <v>0</v>
+      </c>
+      <c r="H214" s="14" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A213" s="17" t="s">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="B213" s="14" t="s">
+      <c r="B215" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C213" s="2">
-        <v>0</v>
-      </c>
-      <c r="D213" s="2">
-        <v>0</v>
-      </c>
-      <c r="E213" s="20">
-        <v>1</v>
-      </c>
-      <c r="F213" s="22">
-        <v>1</v>
-      </c>
-      <c r="G213" s="3">
-        <v>0</v>
-      </c>
-      <c r="H213" s="17" t="s">
+      <c r="C215" s="2">
+        <v>0</v>
+      </c>
+      <c r="D215" s="2">
+        <v>0</v>
+      </c>
+      <c r="E215" s="17">
+        <v>1</v>
+      </c>
+      <c r="F215" s="19">
+        <v>1</v>
+      </c>
+      <c r="G215" s="3">
+        <v>0</v>
+      </c>
+      <c r="H215" s="14" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A214" s="17" t="s">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" s="14" t="s">
         <v>505</v>
       </c>
-      <c r="B214" s="14" t="s">
+      <c r="B216" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C214" s="2">
-        <v>0</v>
-      </c>
-      <c r="D214" s="2">
-        <v>0</v>
-      </c>
-      <c r="E214" s="20">
-        <v>1</v>
-      </c>
-      <c r="F214" s="22">
-        <v>1</v>
-      </c>
-      <c r="G214" s="3">
-        <v>0</v>
-      </c>
-      <c r="H214" s="17" t="s">
+      <c r="C216" s="2">
+        <v>0</v>
+      </c>
+      <c r="D216" s="2">
+        <v>0</v>
+      </c>
+      <c r="E216" s="17">
+        <v>1</v>
+      </c>
+      <c r="F216" s="19">
+        <v>1</v>
+      </c>
+      <c r="G216" s="3">
+        <v>0</v>
+      </c>
+      <c r="H216" s="14" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A215" s="17" t="s">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="B215" s="14" t="s">
+      <c r="B217" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C215" s="2">
-        <v>0</v>
-      </c>
-      <c r="D215" s="2">
-        <v>0</v>
-      </c>
-      <c r="E215" s="20">
-        <v>1</v>
-      </c>
-      <c r="F215" s="22">
-        <v>1</v>
-      </c>
-      <c r="G215" s="3">
-        <v>0</v>
-      </c>
-      <c r="H215" s="17" t="s">
+      <c r="C217" s="2">
+        <v>0</v>
+      </c>
+      <c r="D217" s="2">
+        <v>0</v>
+      </c>
+      <c r="E217" s="17">
+        <v>1</v>
+      </c>
+      <c r="F217" s="19">
+        <v>1</v>
+      </c>
+      <c r="G217" s="3">
+        <v>0</v>
+      </c>
+      <c r="H217" s="14" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A216" s="17" t="s">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="B216" s="14" t="s">
+      <c r="B218" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C216" s="2">
-        <v>0</v>
-      </c>
-      <c r="D216" s="2">
-        <v>0</v>
-      </c>
-      <c r="E216" s="20">
-        <v>1</v>
-      </c>
-      <c r="F216" s="22">
-        <v>1</v>
-      </c>
-      <c r="G216" s="3">
-        <v>0</v>
-      </c>
-      <c r="H216" s="17" t="s">
+      <c r="C218" s="2">
+        <v>0</v>
+      </c>
+      <c r="D218" s="2">
+        <v>0</v>
+      </c>
+      <c r="E218" s="17">
+        <v>1</v>
+      </c>
+      <c r="F218" s="19">
+        <v>1</v>
+      </c>
+      <c r="G218" s="3">
+        <v>0</v>
+      </c>
+      <c r="H218" s="14" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A217" s="17" t="s">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="B217" s="14" t="s">
+      <c r="B219" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C217" s="2">
-        <v>0</v>
-      </c>
-      <c r="D217" s="2">
-        <v>0</v>
-      </c>
-      <c r="E217" s="20">
-        <v>1</v>
-      </c>
-      <c r="F217" s="20">
-        <v>1</v>
-      </c>
-      <c r="G217" s="3">
-        <v>0</v>
-      </c>
-      <c r="H217" s="17" t="s">
+      <c r="C219" s="2">
+        <v>0</v>
+      </c>
+      <c r="D219" s="2">
+        <v>0</v>
+      </c>
+      <c r="E219" s="17">
+        <v>1</v>
+      </c>
+      <c r="F219" s="17">
+        <v>1</v>
+      </c>
+      <c r="G219" s="3">
+        <v>0</v>
+      </c>
+      <c r="H219" s="14" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A218" s="17" t="s">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="B218" s="14" t="s">
+      <c r="B220" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C218" s="2">
-        <v>0</v>
-      </c>
-      <c r="D218" s="2">
-        <v>0</v>
-      </c>
-      <c r="E218" s="20">
-        <v>1</v>
-      </c>
-      <c r="F218" s="22">
-        <v>1</v>
-      </c>
-      <c r="G218" s="3">
-        <v>0</v>
-      </c>
-      <c r="H218" s="17" t="s">
+      <c r="C220" s="2">
+        <v>0</v>
+      </c>
+      <c r="D220" s="2">
+        <v>0</v>
+      </c>
+      <c r="E220" s="17">
+        <v>1</v>
+      </c>
+      <c r="F220" s="19">
+        <v>1</v>
+      </c>
+      <c r="G220" s="3">
+        <v>0</v>
+      </c>
+      <c r="H220" s="14" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A219" s="17" t="s">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="B219" s="14" t="s">
+      <c r="B221" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C219" s="2">
-        <v>0</v>
-      </c>
-      <c r="D219" s="2">
-        <v>0</v>
-      </c>
-      <c r="E219" s="20">
-        <v>1</v>
-      </c>
-      <c r="F219" s="22">
-        <v>1</v>
-      </c>
-      <c r="G219" s="3">
-        <v>0</v>
-      </c>
-      <c r="H219" s="17" t="s">
+      <c r="C221" s="2">
+        <v>0</v>
+      </c>
+      <c r="D221" s="2">
+        <v>0</v>
+      </c>
+      <c r="E221" s="17">
+        <v>1</v>
+      </c>
+      <c r="F221" s="19">
+        <v>1</v>
+      </c>
+      <c r="G221" s="3">
+        <v>0</v>
+      </c>
+      <c r="H221" s="14" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A220" s="17" t="s">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="B220" s="14" t="s">
+      <c r="B222" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C220" s="2">
-        <v>0</v>
-      </c>
-      <c r="D220" s="2">
-        <v>0</v>
-      </c>
-      <c r="E220" s="20">
-        <v>1</v>
-      </c>
-      <c r="F220" s="22">
-        <v>1</v>
-      </c>
-      <c r="G220" s="3">
-        <v>0</v>
-      </c>
-      <c r="H220" s="17" t="s">
+      <c r="C222" s="2">
+        <v>0</v>
+      </c>
+      <c r="D222" s="2">
+        <v>0</v>
+      </c>
+      <c r="E222" s="17">
+        <v>1</v>
+      </c>
+      <c r="F222" s="19">
+        <v>1</v>
+      </c>
+      <c r="G222" s="3">
+        <v>0</v>
+      </c>
+      <c r="H222" s="14" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A221" s="18" t="s">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="B221" s="16" t="s">
+      <c r="B223" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C221" s="2">
-        <v>0</v>
-      </c>
-      <c r="D221" s="2">
-        <v>0</v>
-      </c>
-      <c r="E221" s="20">
-        <v>1</v>
-      </c>
-      <c r="F221" s="22">
-        <v>1</v>
-      </c>
-      <c r="G221" s="3">
-        <v>0</v>
-      </c>
-      <c r="H221" s="18" t="s">
+      <c r="C223" s="2">
+        <v>0</v>
+      </c>
+      <c r="D223" s="2">
+        <v>0</v>
+      </c>
+      <c r="E223" s="17">
+        <v>1</v>
+      </c>
+      <c r="F223" s="19">
+        <v>1</v>
+      </c>
+      <c r="G223" s="3">
+        <v>0</v>
+      </c>
+      <c r="H223" s="15" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A222" s="25" t="s">
-        <v>637</v>
-      </c>
-      <c r="B222" s="26" t="s">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" s="21" t="s">
         <v>635</v>
       </c>
-      <c r="C222" s="2">
-        <v>0</v>
-      </c>
-      <c r="D222" s="2">
-        <v>0</v>
-      </c>
-      <c r="E222" s="4">
-        <v>1</v>
-      </c>
-      <c r="F222" s="3">
-        <v>1</v>
-      </c>
-      <c r="G222" s="3">
-        <v>0</v>
-      </c>
-      <c r="H222" s="27" t="s">
-        <v>638</v>
+      <c r="B224" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="C224" s="2">
+        <v>0</v>
+      </c>
+      <c r="D224" s="2">
+        <v>0</v>
+      </c>
+      <c r="E224" s="4">
+        <v>1</v>
+      </c>
+      <c r="F224" s="3">
+        <v>1</v>
+      </c>
+      <c r="G224" s="3">
+        <v>0</v>
+      </c>
+      <c r="H224" s="22" t="s">
+        <v>636</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/main_dict_senegal.xlsx
+++ b/inst/extdata/main_dict_senegal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="652">
   <si>
     <t>old</t>
   </si>
@@ -1971,6 +1971,15 @@
   </si>
   <si>
     <t>report_start</t>
+  </si>
+  <si>
+    <t>meta-instanceID</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>instanceID</t>
   </si>
 </sst>
 </file>
@@ -2394,10 +2403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H224"/>
+  <dimension ref="A1:H225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="A225" sqref="A225:XFD225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8235,6 +8244,32 @@
         <v>636</v>
       </c>
     </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="C225" s="2">
+        <v>1</v>
+      </c>
+      <c r="D225" s="2">
+        <v>1</v>
+      </c>
+      <c r="E225" s="4">
+        <v>1</v>
+      </c>
+      <c r="F225" s="3">
+        <v>1</v>
+      </c>
+      <c r="G225" s="3">
+        <v>0</v>
+      </c>
+      <c r="H225" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/inst/extdata/main_dict_senegal.xlsx
+++ b/inst/extdata/main_dict_senegal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="661">
   <si>
     <t>old</t>
   </si>
@@ -1989,6 +1989,24 @@
   </si>
   <si>
     <t>referral_type_hf</t>
+  </si>
+  <si>
+    <t>consent-a1_a_4</t>
+  </si>
+  <si>
+    <t>child_id_scan</t>
+  </si>
+  <si>
+    <t>a1_a_4</t>
+  </si>
+  <si>
+    <t>consent-a1_a_4a</t>
+  </si>
+  <si>
+    <t>a1_a_4a</t>
+  </si>
+  <si>
+    <t>child_id_manual</t>
   </si>
 </sst>
 </file>
@@ -2412,10 +2430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H226"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="B176" sqref="B176:B177"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3834,219 +3852,219 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B57" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="2">
-        <v>0</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3">
-        <v>1</v>
-      </c>
-      <c r="H55" s="7" t="s">
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1</v>
+      </c>
+      <c r="H57" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B58" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C56" s="2">
-        <v>1</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3">
-        <v>1</v>
-      </c>
-      <c r="H56" s="7" t="s">
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+      <c r="H58" s="7" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B59" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="2">
-        <v>0</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="9" t="s">
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B60" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="2">
-        <v>0</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1</v>
-      </c>
-      <c r="E58" s="4">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="9" t="s">
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B61" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="2">
-        <v>0</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1</v>
-      </c>
-      <c r="E59" s="4">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1</v>
-      </c>
-      <c r="H59" s="11" t="s">
+      <c r="C61" s="2">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+      <c r="H61" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B62" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="C60" s="2">
-        <v>0</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1</v>
-      </c>
-      <c r="E60" s="4">
-        <v>1</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1</v>
-      </c>
-      <c r="H60" s="11" t="s">
+      <c r="C62" s="2">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1</v>
+      </c>
+      <c r="H62" s="11" t="s">
         <v>526</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" s="2">
-        <v>0</v>
-      </c>
-      <c r="D61" s="2">
-        <v>1</v>
-      </c>
-      <c r="E61" s="4">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C62" s="2">
-        <v>0</v>
-      </c>
-      <c r="D62" s="2">
-        <v>1</v>
-      </c>
-      <c r="E62" s="4">
-        <v>0</v>
-      </c>
-      <c r="F62" s="4">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>395</v>
+        <v>315</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>399</v>
+        <v>38</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -4064,15 +4082,15 @@
         <v>0</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>397</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>396</v>
+        <v>316</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>405</v>
+        <v>39</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -4090,15 +4108,15 @@
         <v>0</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>398</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -4116,15 +4134,15 @@
         <v>0</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>317</v>
+        <v>396</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>40</v>
+        <v>405</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -4142,15 +4160,15 @@
         <v>0</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>182</v>
+        <v>398</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>41</v>
+        <v>407</v>
       </c>
       <c r="C67" s="2">
         <v>0</v>
@@ -4168,15 +4186,15 @@
         <v>0</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>183</v>
+        <v>408</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -4194,205 +4212,205 @@
         <v>0</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B71" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C69" s="2">
-        <v>0</v>
-      </c>
-      <c r="D69" s="2">
-        <v>1</v>
-      </c>
-      <c r="E69" s="4">
-        <v>0</v>
-      </c>
-      <c r="F69" s="4">
-        <v>0</v>
-      </c>
-      <c r="G69" s="3">
-        <v>0</v>
-      </c>
-      <c r="H69" s="9" t="s">
+      <c r="C71" s="2">
+        <v>0</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0</v>
+      </c>
+      <c r="H71" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="16" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B72" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="C70" s="2">
-        <v>1</v>
-      </c>
-      <c r="D70" s="2">
-        <v>1</v>
-      </c>
-      <c r="E70" s="4">
-        <v>1</v>
-      </c>
-      <c r="F70" s="4">
-        <v>1</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1</v>
-      </c>
-      <c r="H70" s="11" t="s">
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
+      <c r="H72" s="11" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="16" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B73" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="C71" s="2">
-        <v>1</v>
-      </c>
-      <c r="D71" s="2">
-        <v>1</v>
-      </c>
-      <c r="E71" s="4">
-        <v>1</v>
-      </c>
-      <c r="F71" s="4">
-        <v>1</v>
-      </c>
-      <c r="G71" s="3">
-        <v>1</v>
-      </c>
-      <c r="H71" s="11" t="s">
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
+      <c r="H73" s="11" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="11" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B74" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="C72" s="2">
-        <v>1</v>
-      </c>
-      <c r="D72" s="2">
-        <v>1</v>
-      </c>
-      <c r="E72" s="4">
-        <v>1</v>
-      </c>
-      <c r="F72" s="4">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>1</v>
-      </c>
-      <c r="H72" s="11" t="s">
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0</v>
+      </c>
+      <c r="G74" s="3">
+        <v>1</v>
+      </c>
+      <c r="H74" s="11" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="11" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B75" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="C73" s="2">
-        <v>1</v>
-      </c>
-      <c r="D73" s="2">
-        <v>1</v>
-      </c>
-      <c r="E73" s="4">
-        <v>1</v>
-      </c>
-      <c r="F73" s="4">
-        <v>0</v>
-      </c>
-      <c r="G73" s="3">
-        <v>1</v>
-      </c>
-      <c r="H73" s="11" t="s">
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+      <c r="E75" s="4">
+        <v>1</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0</v>
+      </c>
+      <c r="G75" s="3">
+        <v>1</v>
+      </c>
+      <c r="H75" s="11" t="s">
         <v>409</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74" s="2">
-        <v>0</v>
-      </c>
-      <c r="D74" s="2">
-        <v>0</v>
-      </c>
-      <c r="E74" s="4">
-        <v>1</v>
-      </c>
-      <c r="F74" s="3">
-        <v>0</v>
-      </c>
-      <c r="G74" s="3">
-        <v>1</v>
-      </c>
-      <c r="H74" s="13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C75" s="17">
-        <v>0</v>
-      </c>
-      <c r="D75" s="17">
-        <v>0</v>
-      </c>
-      <c r="E75" s="18">
-        <v>1</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0</v>
-      </c>
-      <c r="G75" s="3">
-        <v>1</v>
-      </c>
-      <c r="H75" s="13" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C76" s="17">
-        <v>0</v>
-      </c>
-      <c r="D76" s="17">
-        <v>0</v>
-      </c>
-      <c r="E76" s="17">
+        <v>51</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0</v>
+      </c>
+      <c r="E76" s="4">
         <v>1</v>
       </c>
       <c r="F76" s="3">
@@ -4402,15 +4420,15 @@
         <v>1</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C77" s="17">
         <v>0</v>
@@ -4428,15 +4446,15 @@
         <v>1</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C78" s="17">
         <v>0</v>
@@ -4444,7 +4462,7 @@
       <c r="D78" s="17">
         <v>0</v>
       </c>
-      <c r="E78" s="18">
+      <c r="E78" s="17">
         <v>1</v>
       </c>
       <c r="F78" s="3">
@@ -4454,23 +4472,23 @@
         <v>1</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C79" s="2">
-        <v>0</v>
-      </c>
-      <c r="D79" s="2">
-        <v>0</v>
-      </c>
-      <c r="E79" s="4">
+        <v>54</v>
+      </c>
+      <c r="C79" s="17">
+        <v>0</v>
+      </c>
+      <c r="D79" s="17">
+        <v>0</v>
+      </c>
+      <c r="E79" s="18">
         <v>1</v>
       </c>
       <c r="F79" s="3">
@@ -4480,23 +4498,23 @@
         <v>1</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C80" s="2">
-        <v>0</v>
-      </c>
-      <c r="D80" s="2">
-        <v>0</v>
-      </c>
-      <c r="E80" s="4">
+        <v>55</v>
+      </c>
+      <c r="C80" s="17">
+        <v>0</v>
+      </c>
+      <c r="D80" s="17">
+        <v>0</v>
+      </c>
+      <c r="E80" s="18">
         <v>1</v>
       </c>
       <c r="F80" s="3">
@@ -4506,15 +4524,15 @@
         <v>1</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -4532,15 +4550,15 @@
         <v>1</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -4558,15 +4576,15 @@
         <v>1</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -4584,15 +4602,15 @@
         <v>1</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -4610,15 +4628,15 @@
         <v>1</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -4636,15 +4654,15 @@
         <v>1</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
@@ -4662,15 +4680,15 @@
         <v>1</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
@@ -4688,15 +4706,15 @@
         <v>1</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
@@ -4714,15 +4732,15 @@
         <v>1</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C89" s="2">
         <v>0</v>
@@ -4740,15 +4758,15 @@
         <v>1</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C90" s="2">
         <v>0</v>
@@ -4766,93 +4784,93 @@
         <v>1</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0</v>
+      </c>
+      <c r="E91" s="4">
+        <v>1</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>1</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0</v>
+      </c>
+      <c r="E92" s="4">
+        <v>1</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0</v>
+      </c>
+      <c r="G92" s="3">
+        <v>1</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="B93" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C91" s="2">
-        <v>0</v>
-      </c>
-      <c r="D91" s="2">
-        <v>0</v>
-      </c>
-      <c r="E91" s="4">
-        <v>1</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>1</v>
-      </c>
-      <c r="H91" s="13" t="s">
+      <c r="C93" s="2">
+        <v>0</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+      <c r="E93" s="4">
+        <v>1</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0</v>
+      </c>
+      <c r="G93" s="3">
+        <v>1</v>
+      </c>
+      <c r="H93" s="13" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C92" s="2">
-        <v>0</v>
-      </c>
-      <c r="D92" s="2">
-        <v>0</v>
-      </c>
-      <c r="E92" s="2">
-        <v>1</v>
-      </c>
-      <c r="F92" s="3">
-        <v>1</v>
-      </c>
-      <c r="G92" s="3">
-        <v>1</v>
-      </c>
-      <c r="H92" s="14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C93" s="2">
-        <v>0</v>
-      </c>
-      <c r="D93" s="2">
-        <v>0</v>
-      </c>
-      <c r="E93" s="2">
-        <v>1</v>
-      </c>
-      <c r="F93" s="3">
-        <v>1</v>
-      </c>
-      <c r="G93" s="3">
-        <v>0</v>
-      </c>
-      <c r="H93" s="14" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -4867,18 +4885,18 @@
         <v>1</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -4896,15 +4914,15 @@
         <v>0</v>
       </c>
       <c r="H95" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -4922,15 +4940,15 @@
         <v>0</v>
       </c>
       <c r="H96" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -4948,15 +4966,15 @@
         <v>0</v>
       </c>
       <c r="H97" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -4974,15 +4992,15 @@
         <v>0</v>
       </c>
       <c r="H98" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -5000,15 +5018,15 @@
         <v>0</v>
       </c>
       <c r="H99" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -5026,15 +5044,15 @@
         <v>0</v>
       </c>
       <c r="H100" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -5052,15 +5070,15 @@
         <v>0</v>
       </c>
       <c r="H101" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -5078,15 +5096,15 @@
         <v>0</v>
       </c>
       <c r="H102" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -5104,15 +5122,15 @@
         <v>0</v>
       </c>
       <c r="H103" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -5130,15 +5148,15 @@
         <v>0</v>
       </c>
       <c r="H104" s="14" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -5156,15 +5174,15 @@
         <v>0</v>
       </c>
       <c r="H105" s="14" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -5182,15 +5200,15 @@
         <v>0</v>
       </c>
       <c r="H106" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -5208,15 +5226,15 @@
         <v>0</v>
       </c>
       <c r="H107" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -5234,15 +5252,15 @@
         <v>0</v>
       </c>
       <c r="H108" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -5257,18 +5275,18 @@
         <v>1</v>
       </c>
       <c r="G109" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="B110" s="22" t="s">
-        <v>87</v>
+        <v>355</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -5283,18 +5301,18 @@
         <v>1</v>
       </c>
       <c r="G110" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="B111" s="22" t="s">
-        <v>88</v>
+        <v>356</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -5312,15 +5330,15 @@
         <v>1</v>
       </c>
       <c r="H111" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -5338,15 +5356,15 @@
         <v>1</v>
       </c>
       <c r="H112" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -5364,15 +5382,15 @@
         <v>1</v>
       </c>
       <c r="H113" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -5390,15 +5408,15 @@
         <v>1</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -5416,15 +5434,15 @@
         <v>1</v>
       </c>
       <c r="H115" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -5442,15 +5460,15 @@
         <v>1</v>
       </c>
       <c r="H116" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -5458,25 +5476,25 @@
       <c r="D117" s="2">
         <v>0</v>
       </c>
-      <c r="E117" s="17">
-        <v>1</v>
-      </c>
-      <c r="F117" s="19">
+      <c r="E117" s="2">
+        <v>1</v>
+      </c>
+      <c r="F117" s="3">
         <v>1</v>
       </c>
       <c r="G117" s="3">
         <v>1</v>
       </c>
       <c r="H117" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -5484,25 +5502,25 @@
       <c r="D118" s="2">
         <v>0</v>
       </c>
-      <c r="E118" s="17">
-        <v>1</v>
-      </c>
-      <c r="F118" s="19">
+      <c r="E118" s="2">
+        <v>1</v>
+      </c>
+      <c r="F118" s="3">
         <v>1</v>
       </c>
       <c r="G118" s="3">
         <v>1</v>
       </c>
       <c r="H118" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B119" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -5520,15 +5538,15 @@
         <v>1</v>
       </c>
       <c r="H119" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5539,22 +5557,22 @@
       <c r="E120" s="17">
         <v>1</v>
       </c>
-      <c r="F120" s="17">
+      <c r="F120" s="19">
         <v>1</v>
       </c>
       <c r="G120" s="3">
         <v>1</v>
       </c>
       <c r="H120" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B121" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5572,15 +5590,15 @@
         <v>1</v>
       </c>
       <c r="H121" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -5591,22 +5609,22 @@
       <c r="E122" s="17">
         <v>1</v>
       </c>
-      <c r="F122" s="19">
+      <c r="F122" s="17">
         <v>1</v>
       </c>
       <c r="G122" s="3">
         <v>1</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B123" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -5624,15 +5642,15 @@
         <v>1</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -5643,22 +5661,22 @@
       <c r="E124" s="17">
         <v>1</v>
       </c>
-      <c r="F124" s="17">
+      <c r="F124" s="19">
         <v>1</v>
       </c>
       <c r="G124" s="3">
         <v>1</v>
       </c>
       <c r="H124" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="21" t="s">
-        <v>645</v>
-      </c>
-      <c r="B125" s="21" t="s">
-        <v>646</v>
+      <c r="A125" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B125" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -5666,25 +5684,25 @@
       <c r="D125" s="2">
         <v>0</v>
       </c>
-      <c r="E125" s="4">
-        <v>1</v>
-      </c>
-      <c r="F125" s="3">
+      <c r="E125" s="17">
+        <v>1</v>
+      </c>
+      <c r="F125" s="19">
         <v>1</v>
       </c>
       <c r="G125" s="3">
-        <v>0</v>
-      </c>
-      <c r="H125" s="22" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="H125" s="14" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>102</v>
+        <v>371</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>101</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5695,22 +5713,22 @@
       <c r="E126" s="17">
         <v>1</v>
       </c>
-      <c r="F126" s="19">
+      <c r="F126" s="17">
         <v>1</v>
       </c>
       <c r="G126" s="3">
         <v>1</v>
       </c>
       <c r="H126" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>103</v>
+      <c r="A127" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>646</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -5718,25 +5736,25 @@
       <c r="D127" s="2">
         <v>0</v>
       </c>
-      <c r="E127" s="17">
-        <v>1</v>
-      </c>
-      <c r="F127" s="19">
+      <c r="E127" s="4">
+        <v>1</v>
+      </c>
+      <c r="F127" s="3">
         <v>1</v>
       </c>
       <c r="G127" s="3">
         <v>0</v>
       </c>
-      <c r="H127" s="14" t="s">
-        <v>103</v>
+      <c r="H127" s="22" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -5751,18 +5769,18 @@
         <v>1</v>
       </c>
       <c r="G128" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -5780,15 +5798,15 @@
         <v>0</v>
       </c>
       <c r="H129" s="14" t="s">
-        <v>239</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -5806,15 +5824,15 @@
         <v>0</v>
       </c>
       <c r="H130" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -5825,100 +5843,100 @@
       <c r="E131" s="17">
         <v>1</v>
       </c>
-      <c r="F131" s="17">
+      <c r="F131" s="19">
         <v>1</v>
       </c>
       <c r="G131" s="3">
         <v>0</v>
       </c>
       <c r="H131" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C132" s="2">
+        <v>0</v>
+      </c>
+      <c r="D132" s="2">
+        <v>0</v>
+      </c>
+      <c r="E132" s="17">
+        <v>1</v>
+      </c>
+      <c r="F132" s="19">
+        <v>1</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0</v>
+      </c>
+      <c r="H132" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0</v>
+      </c>
+      <c r="D133" s="2">
+        <v>0</v>
+      </c>
+      <c r="E133" s="17">
+        <v>1</v>
+      </c>
+      <c r="F133" s="17">
+        <v>1</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0</v>
+      </c>
+      <c r="H133" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="B134" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C132" s="2">
-        <v>0</v>
-      </c>
-      <c r="D132" s="2">
-        <v>0</v>
-      </c>
-      <c r="E132" s="17">
-        <v>1</v>
-      </c>
-      <c r="F132" s="19">
-        <v>1</v>
-      </c>
-      <c r="G132" s="3">
-        <v>0</v>
-      </c>
-      <c r="H132" s="14" t="s">
+      <c r="C134" s="2">
+        <v>0</v>
+      </c>
+      <c r="D134" s="2">
+        <v>0</v>
+      </c>
+      <c r="E134" s="17">
+        <v>1</v>
+      </c>
+      <c r="F134" s="19">
+        <v>1</v>
+      </c>
+      <c r="G134" s="3">
+        <v>0</v>
+      </c>
+      <c r="H134" s="14" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="15" t="s">
-        <v>536</v>
-      </c>
-      <c r="B133" s="15" t="s">
-        <v>537</v>
-      </c>
-      <c r="C133" s="2">
-        <v>0</v>
-      </c>
-      <c r="D133" s="2">
-        <v>0</v>
-      </c>
-      <c r="E133" s="17">
-        <v>1</v>
-      </c>
-      <c r="F133" s="17">
-        <v>1</v>
-      </c>
-      <c r="G133" s="3">
-        <v>0</v>
-      </c>
-      <c r="H133" s="15" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="B134" s="15" t="s">
-        <v>540</v>
-      </c>
-      <c r="C134" s="2">
-        <v>0</v>
-      </c>
-      <c r="D134" s="2">
-        <v>0</v>
-      </c>
-      <c r="E134" s="17">
-        <v>1</v>
-      </c>
-      <c r="F134" s="17">
-        <v>1</v>
-      </c>
-      <c r="G134" s="3">
-        <v>0</v>
-      </c>
-      <c r="H134" s="15" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="15" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5936,15 +5954,15 @@
         <v>0</v>
       </c>
       <c r="H135" s="15" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5962,15 +5980,15 @@
         <v>0</v>
       </c>
       <c r="H136" s="15" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="15" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5988,15 +6006,15 @@
         <v>0</v>
       </c>
       <c r="H137" s="15" t="s">
-        <v>460</v>
+        <v>544</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
-        <v>583</v>
+        <v>551</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>584</v>
+        <v>552</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -6014,15 +6032,15 @@
         <v>0</v>
       </c>
       <c r="H138" s="15" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="15" t="s">
-        <v>586</v>
+        <v>484</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>587</v>
+        <v>490</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -6040,15 +6058,15 @@
         <v>0</v>
       </c>
       <c r="H139" s="15" t="s">
-        <v>588</v>
+        <v>460</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
-        <v>485</v>
+        <v>583</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>491</v>
+        <v>584</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -6066,15 +6084,15 @@
         <v>0</v>
       </c>
       <c r="H140" s="15" t="s">
-        <v>461</v>
+        <v>585</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="15" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -6092,15 +6110,15 @@
         <v>0</v>
       </c>
       <c r="H141" s="15" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="15" t="s">
-        <v>592</v>
+        <v>485</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>593</v>
+        <v>491</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -6118,15 +6136,15 @@
         <v>0</v>
       </c>
       <c r="H142" s="15" t="s">
-        <v>594</v>
+        <v>461</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="15" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -6144,15 +6162,15 @@
         <v>0</v>
       </c>
       <c r="H143" s="15" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="15" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -6170,15 +6188,15 @@
         <v>0</v>
       </c>
       <c r="H144" s="15" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="15" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -6196,15 +6214,15 @@
         <v>0</v>
       </c>
       <c r="H145" s="15" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="15" t="s">
-        <v>545</v>
+        <v>597</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>546</v>
+        <v>598</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -6222,15 +6240,15 @@
         <v>0</v>
       </c>
       <c r="H146" s="15" t="s">
-        <v>547</v>
+        <v>599</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="15" t="s">
-        <v>548</v>
+        <v>601</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>549</v>
+        <v>602</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -6248,15 +6266,15 @@
         <v>0</v>
       </c>
       <c r="H147" s="15" t="s">
-        <v>550</v>
+        <v>603</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="15" t="s">
-        <v>483</v>
+        <v>545</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -6274,15 +6292,15 @@
         <v>0</v>
       </c>
       <c r="H148" s="15" t="s">
-        <v>459</v>
+        <v>547</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="15" t="s">
-        <v>486</v>
+        <v>548</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -6300,15 +6318,15 @@
         <v>0</v>
       </c>
       <c r="H149" s="15" t="s">
-        <v>462</v>
+        <v>550</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="15" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -6326,93 +6344,93 @@
         <v>0</v>
       </c>
       <c r="H150" s="15" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="C151" s="2">
+        <v>0</v>
+      </c>
+      <c r="D151" s="2">
+        <v>0</v>
+      </c>
+      <c r="E151" s="17">
+        <v>1</v>
+      </c>
+      <c r="F151" s="17">
+        <v>1</v>
+      </c>
+      <c r="G151" s="3">
+        <v>0</v>
+      </c>
+      <c r="H151" s="15" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="C152" s="2">
+        <v>0</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0</v>
+      </c>
+      <c r="E152" s="17">
+        <v>1</v>
+      </c>
+      <c r="F152" s="17">
+        <v>1</v>
+      </c>
+      <c r="G152" s="3">
+        <v>0</v>
+      </c>
+      <c r="H152" s="15" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="B151" s="15" t="s">
+      <c r="B153" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="C151" s="2">
-        <v>0</v>
-      </c>
-      <c r="D151" s="2">
-        <v>0</v>
-      </c>
-      <c r="E151" s="17">
-        <v>1</v>
-      </c>
-      <c r="F151" s="17">
-        <v>1</v>
-      </c>
-      <c r="G151" s="3">
-        <v>0</v>
-      </c>
-      <c r="H151" s="15" t="s">
+      <c r="C153" s="2">
+        <v>0</v>
+      </c>
+      <c r="D153" s="2">
+        <v>0</v>
+      </c>
+      <c r="E153" s="17">
+        <v>1</v>
+      </c>
+      <c r="F153" s="17">
+        <v>1</v>
+      </c>
+      <c r="G153" s="3">
+        <v>0</v>
+      </c>
+      <c r="H153" s="15" t="s">
         <v>463</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="B152" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C152" s="2">
-        <v>0</v>
-      </c>
-      <c r="D152" s="2">
-        <v>0</v>
-      </c>
-      <c r="E152" s="17">
-        <v>1</v>
-      </c>
-      <c r="F152" s="19">
-        <v>1</v>
-      </c>
-      <c r="G152" s="3">
-        <v>0</v>
-      </c>
-      <c r="H152" s="14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="B153" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C153" s="2">
-        <v>0</v>
-      </c>
-      <c r="D153" s="2">
-        <v>0</v>
-      </c>
-      <c r="E153" s="17">
-        <v>1</v>
-      </c>
-      <c r="F153" s="19">
-        <v>1</v>
-      </c>
-      <c r="G153" s="3">
-        <v>0</v>
-      </c>
-      <c r="H153" s="14" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6430,15 +6448,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="14" t="s">
-        <v>464</v>
+        <v>380</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>440</v>
+        <v>110</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6446,7 +6464,7 @@
       <c r="D155" s="2">
         <v>0</v>
       </c>
-      <c r="E155" s="4">
+      <c r="E155" s="17">
         <v>1</v>
       </c>
       <c r="F155" s="19">
@@ -6456,15 +6474,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="14" t="s">
-        <v>422</v>
+        <v>244</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="14" t="s">
-        <v>465</v>
+        <v>381</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>441</v>
+        <v>111</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6472,7 +6490,7 @@
       <c r="D156" s="2">
         <v>0</v>
       </c>
-      <c r="E156" s="4">
+      <c r="E156" s="17">
         <v>1</v>
       </c>
       <c r="F156" s="19">
@@ -6482,15 +6500,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="14" t="s">
-        <v>423</v>
+        <v>245</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="14" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6508,15 +6526,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6534,15 +6552,15 @@
         <v>0</v>
       </c>
       <c r="H158" s="14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6560,15 +6578,15 @@
         <v>0</v>
       </c>
       <c r="H159" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="14" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6586,15 +6604,15 @@
         <v>0</v>
       </c>
       <c r="H160" s="14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="14" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6612,15 +6630,15 @@
         <v>0</v>
       </c>
       <c r="H161" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6638,15 +6656,15 @@
         <v>0</v>
       </c>
       <c r="H162" s="14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="14" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6664,15 +6682,15 @@
         <v>0</v>
       </c>
       <c r="H163" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6690,15 +6708,15 @@
         <v>0</v>
       </c>
       <c r="H164" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="14" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6716,15 +6734,15 @@
         <v>0</v>
       </c>
       <c r="H165" s="14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6742,15 +6760,15 @@
         <v>0</v>
       </c>
       <c r="H166" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6768,15 +6786,15 @@
         <v>0</v>
       </c>
       <c r="H167" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="14" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6794,15 +6812,15 @@
         <v>0</v>
       </c>
       <c r="H168" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="14" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6820,15 +6838,15 @@
         <v>0</v>
       </c>
       <c r="H169" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6846,15 +6864,15 @@
         <v>0</v>
       </c>
       <c r="H170" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="14" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6872,15 +6890,15 @@
         <v>0</v>
       </c>
       <c r="H171" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6898,15 +6916,15 @@
         <v>0</v>
       </c>
       <c r="H172" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="14" t="s">
-        <v>382</v>
+        <v>480</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>112</v>
+        <v>457</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6914,7 +6932,7 @@
       <c r="D173" s="2">
         <v>0</v>
       </c>
-      <c r="E173" s="17">
+      <c r="E173" s="4">
         <v>1</v>
       </c>
       <c r="F173" s="19">
@@ -6924,15 +6942,15 @@
         <v>0</v>
       </c>
       <c r="H173" s="14" t="s">
-        <v>246</v>
+        <v>438</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="14" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>113</v>
+        <v>456</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6940,7 +6958,7 @@
       <c r="D174" s="2">
         <v>0</v>
       </c>
-      <c r="E174" s="17">
+      <c r="E174" s="4">
         <v>1</v>
       </c>
       <c r="F174" s="19">
@@ -6950,15 +6968,15 @@
         <v>0</v>
       </c>
       <c r="H174" s="14" t="s">
-        <v>247</v>
+        <v>439</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6973,18 +6991,18 @@
         <v>1</v>
       </c>
       <c r="G175" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="14" t="s">
-        <v>384</v>
+        <v>516</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>653</v>
+        <v>113</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6999,18 +7017,18 @@
         <v>1</v>
       </c>
       <c r="G176" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="14" t="s">
-        <v>651</v>
+        <v>383</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>654</v>
+        <v>114</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -7028,15 +7046,15 @@
         <v>1</v>
       </c>
       <c r="H177" s="14" t="s">
-        <v>652</v>
+        <v>248</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="14" t="s">
-        <v>510</v>
+        <v>384</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>511</v>
+        <v>653</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -7054,15 +7072,15 @@
         <v>1</v>
       </c>
       <c r="H178" s="14" t="s">
-        <v>512</v>
+        <v>249</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="14" t="s">
-        <v>513</v>
+        <v>651</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>514</v>
+        <v>654</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -7080,15 +7098,15 @@
         <v>1</v>
       </c>
       <c r="H179" s="14" t="s">
-        <v>515</v>
+        <v>652</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="B180" s="22" t="s">
-        <v>115</v>
+        <v>510</v>
+      </c>
+      <c r="B180" s="14" t="s">
+        <v>511</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -7103,96 +7121,96 @@
         <v>1</v>
       </c>
       <c r="G180" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180" s="14" t="s">
-        <v>250</v>
+        <v>512</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="B181" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C181" s="2">
+        <v>0</v>
+      </c>
+      <c r="D181" s="2">
+        <v>0</v>
+      </c>
+      <c r="E181" s="17">
+        <v>1</v>
+      </c>
+      <c r="F181" s="19">
+        <v>1</v>
+      </c>
+      <c r="G181" s="3">
+        <v>1</v>
+      </c>
+      <c r="H181" s="14" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="B182" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C182" s="2">
+        <v>0</v>
+      </c>
+      <c r="D182" s="2">
+        <v>0</v>
+      </c>
+      <c r="E182" s="17">
+        <v>1</v>
+      </c>
+      <c r="F182" s="19">
+        <v>1</v>
+      </c>
+      <c r="G182" s="3">
+        <v>0</v>
+      </c>
+      <c r="H182" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="B181" s="22" t="s">
+      <c r="B183" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C181" s="2">
-        <v>0</v>
-      </c>
-      <c r="D181" s="2">
-        <v>0</v>
-      </c>
-      <c r="E181" s="17">
-        <v>1</v>
-      </c>
-      <c r="F181" s="19">
-        <v>1</v>
-      </c>
-      <c r="G181" s="3">
-        <v>0</v>
-      </c>
-      <c r="H181" s="14" t="s">
+      <c r="C183" s="2">
+        <v>0</v>
+      </c>
+      <c r="D183" s="2">
+        <v>0</v>
+      </c>
+      <c r="E183" s="17">
+        <v>1</v>
+      </c>
+      <c r="F183" s="19">
+        <v>1</v>
+      </c>
+      <c r="G183" s="3">
+        <v>0</v>
+      </c>
+      <c r="H183" s="14" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="B182" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="C182" s="2">
-        <v>0</v>
-      </c>
-      <c r="D182" s="2">
-        <v>0</v>
-      </c>
-      <c r="E182" s="17">
-        <v>1</v>
-      </c>
-      <c r="F182" s="17">
-        <v>1</v>
-      </c>
-      <c r="G182" s="3">
-        <v>0</v>
-      </c>
-      <c r="H182" s="15" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="15" t="s">
-        <v>560</v>
-      </c>
-      <c r="B183" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="C183" s="2">
-        <v>0</v>
-      </c>
-      <c r="D183" s="2">
-        <v>0</v>
-      </c>
-      <c r="E183" s="17">
-        <v>1</v>
-      </c>
-      <c r="F183" s="17">
-        <v>1</v>
-      </c>
-      <c r="G183" s="3">
-        <v>0</v>
-      </c>
-      <c r="H183" s="15" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="15" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -7210,15 +7228,15 @@
         <v>0</v>
       </c>
       <c r="H184" s="15" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="15" t="s">
-        <v>606</v>
+        <v>560</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7236,15 +7254,15 @@
         <v>0</v>
       </c>
       <c r="H185" s="15" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="15" t="s">
-        <v>607</v>
+        <v>561</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7262,15 +7280,15 @@
         <v>0</v>
       </c>
       <c r="H186" s="15" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="15" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>604</v>
+        <v>575</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7288,15 +7306,15 @@
         <v>0</v>
       </c>
       <c r="H187" s="15" t="s">
-        <v>622</v>
+        <v>564</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="15" t="s">
-        <v>633</v>
+        <v>607</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>605</v>
+        <v>576</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7314,15 +7332,15 @@
         <v>0</v>
       </c>
       <c r="H188" s="15" t="s">
-        <v>623</v>
+        <v>565</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="15" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>577</v>
+        <v>604</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7340,15 +7358,15 @@
         <v>0</v>
       </c>
       <c r="H189" s="15" t="s">
-        <v>566</v>
+        <v>622</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="15" t="s">
-        <v>610</v>
+        <v>633</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7366,15 +7384,15 @@
         <v>0</v>
       </c>
       <c r="H190" s="15" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="15" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>629</v>
+        <v>577</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7392,15 +7410,15 @@
         <v>0</v>
       </c>
       <c r="H191" s="15" t="s">
-        <v>624</v>
+        <v>566</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="15" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7418,15 +7436,15 @@
         <v>0</v>
       </c>
       <c r="H192" s="15" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="15" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7444,15 +7462,15 @@
         <v>0</v>
       </c>
       <c r="H193" s="15" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="15" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7470,15 +7488,15 @@
         <v>0</v>
       </c>
       <c r="H194" s="15" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="15" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>578</v>
+        <v>631</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -7496,15 +7514,15 @@
         <v>0</v>
       </c>
       <c r="H195" s="15" t="s">
-        <v>567</v>
+        <v>626</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="15" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>579</v>
+        <v>632</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -7522,15 +7540,15 @@
         <v>0</v>
       </c>
       <c r="H196" s="15" t="s">
-        <v>568</v>
+        <v>627</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="15" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -7548,15 +7566,15 @@
         <v>0</v>
       </c>
       <c r="H197" s="15" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="15" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -7574,15 +7592,15 @@
         <v>0</v>
       </c>
       <c r="H198" s="15" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="15" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -7600,93 +7618,93 @@
         <v>0</v>
       </c>
       <c r="H199" s="15" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="B200" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="C200" s="2">
+        <v>0</v>
+      </c>
+      <c r="D200" s="2">
+        <v>0</v>
+      </c>
+      <c r="E200" s="17">
+        <v>1</v>
+      </c>
+      <c r="F200" s="17">
+        <v>1</v>
+      </c>
+      <c r="G200" s="3">
+        <v>0</v>
+      </c>
+      <c r="H200" s="15" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="B201" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="C201" s="2">
+        <v>0</v>
+      </c>
+      <c r="D201" s="2">
+        <v>0</v>
+      </c>
+      <c r="E201" s="17">
+        <v>1</v>
+      </c>
+      <c r="F201" s="17">
+        <v>1</v>
+      </c>
+      <c r="G201" s="3">
+        <v>0</v>
+      </c>
+      <c r="H201" s="15" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="B200" s="15" t="s">
+      <c r="B202" s="15" t="s">
         <v>573</v>
       </c>
-      <c r="C200" s="2">
-        <v>0</v>
-      </c>
-      <c r="D200" s="2">
-        <v>0</v>
-      </c>
-      <c r="E200" s="17">
-        <v>1</v>
-      </c>
-      <c r="F200" s="17">
-        <v>1</v>
-      </c>
-      <c r="G200" s="3">
-        <v>0</v>
-      </c>
-      <c r="H200" s="15" t="s">
+      <c r="C202" s="2">
+        <v>0</v>
+      </c>
+      <c r="D202" s="2">
+        <v>0</v>
+      </c>
+      <c r="E202" s="17">
+        <v>1</v>
+      </c>
+      <c r="F202" s="17">
+        <v>1</v>
+      </c>
+      <c r="G202" s="3">
+        <v>0</v>
+      </c>
+      <c r="H202" s="15" t="s">
         <v>572</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A201" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="B201" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C201" s="2">
-        <v>0</v>
-      </c>
-      <c r="D201" s="2">
-        <v>0</v>
-      </c>
-      <c r="E201" s="17">
-        <v>1</v>
-      </c>
-      <c r="F201" s="19">
-        <v>1</v>
-      </c>
-      <c r="G201" s="3">
-        <v>0</v>
-      </c>
-      <c r="H201" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A202" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="B202" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C202" s="2">
-        <v>0</v>
-      </c>
-      <c r="D202" s="2">
-        <v>0</v>
-      </c>
-      <c r="E202" s="17">
-        <v>1</v>
-      </c>
-      <c r="F202" s="17">
-        <v>1</v>
-      </c>
-      <c r="G202" s="3">
-        <v>0</v>
-      </c>
-      <c r="H202" s="14" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -7704,15 +7722,15 @@
         <v>0</v>
       </c>
       <c r="H203" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C204" s="2">
         <v>0</v>
@@ -7723,22 +7741,22 @@
       <c r="E204" s="17">
         <v>1</v>
       </c>
-      <c r="F204" s="19">
+      <c r="F204" s="17">
         <v>1</v>
       </c>
       <c r="G204" s="3">
         <v>0</v>
       </c>
       <c r="H204" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
@@ -7753,18 +7771,18 @@
         <v>1</v>
       </c>
       <c r="G205" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C206" s="2">
         <v>0</v>
@@ -7779,18 +7797,18 @@
         <v>1</v>
       </c>
       <c r="G206" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="14" t="s">
-        <v>494</v>
+        <v>391</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C207" s="2">
         <v>0</v>
@@ -7805,18 +7823,18 @@
         <v>1</v>
       </c>
       <c r="G207" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="14" t="s">
-        <v>496</v>
+        <v>392</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C208" s="2">
         <v>0</v>
@@ -7831,18 +7849,18 @@
         <v>1</v>
       </c>
       <c r="G208" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C209" s="2">
         <v>0</v>
@@ -7860,15 +7878,15 @@
         <v>0</v>
       </c>
       <c r="H209" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C210" s="2">
         <v>0</v>
@@ -7886,15 +7904,15 @@
         <v>0</v>
       </c>
       <c r="H210" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="14" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C211" s="2">
         <v>0</v>
@@ -7912,15 +7930,15 @@
         <v>0</v>
       </c>
       <c r="H211" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B212" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C212" s="2">
         <v>0</v>
@@ -7938,15 +7956,15 @@
         <v>0</v>
       </c>
       <c r="H212" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="14" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B213" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C213" s="2">
         <v>0</v>
@@ -7964,15 +7982,15 @@
         <v>0</v>
       </c>
       <c r="H213" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="14" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B214" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C214" s="2">
         <v>0</v>
@@ -7990,15 +8008,15 @@
         <v>0</v>
       </c>
       <c r="H214" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="14" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B215" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C215" s="2">
         <v>0</v>
@@ -8016,15 +8034,15 @@
         <v>0</v>
       </c>
       <c r="H215" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="14" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B216" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C216" s="2">
         <v>0</v>
@@ -8042,15 +8060,15 @@
         <v>0</v>
       </c>
       <c r="H216" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="14" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C217" s="2">
         <v>0</v>
@@ -8068,15 +8086,15 @@
         <v>0</v>
       </c>
       <c r="H217" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="14" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C218" s="2">
         <v>0</v>
@@ -8094,15 +8112,15 @@
         <v>0</v>
       </c>
       <c r="H218" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="14" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="B219" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C219" s="2">
         <v>0</v>
@@ -8120,15 +8138,15 @@
         <v>0</v>
       </c>
       <c r="H219" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="14" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="B220" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C220" s="2">
         <v>0</v>
@@ -8139,22 +8157,22 @@
       <c r="E220" s="17">
         <v>1</v>
       </c>
-      <c r="F220" s="17">
+      <c r="F220" s="19">
         <v>1</v>
       </c>
       <c r="G220" s="3">
         <v>0</v>
       </c>
       <c r="H220" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C221" s="2">
         <v>0</v>
@@ -8172,15 +8190,15 @@
         <v>0</v>
       </c>
       <c r="H221" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="14" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C222" s="2">
         <v>0</v>
@@ -8191,117 +8209,169 @@
       <c r="E222" s="17">
         <v>1</v>
       </c>
-      <c r="F222" s="19">
+      <c r="F222" s="17">
         <v>1</v>
       </c>
       <c r="G222" s="3">
         <v>0</v>
       </c>
       <c r="H222" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="B223" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C223" s="2">
+        <v>0</v>
+      </c>
+      <c r="D223" s="2">
+        <v>0</v>
+      </c>
+      <c r="E223" s="17">
+        <v>1</v>
+      </c>
+      <c r="F223" s="19">
+        <v>1</v>
+      </c>
+      <c r="G223" s="3">
+        <v>0</v>
+      </c>
+      <c r="H223" s="14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="B224" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C224" s="2">
+        <v>0</v>
+      </c>
+      <c r="D224" s="2">
+        <v>0</v>
+      </c>
+      <c r="E224" s="17">
+        <v>1</v>
+      </c>
+      <c r="F224" s="19">
+        <v>1</v>
+      </c>
+      <c r="G224" s="3">
+        <v>0</v>
+      </c>
+      <c r="H224" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="B223" s="14" t="s">
+      <c r="B225" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C223" s="2">
-        <v>0</v>
-      </c>
-      <c r="D223" s="2">
-        <v>0</v>
-      </c>
-      <c r="E223" s="17">
-        <v>1</v>
-      </c>
-      <c r="F223" s="19">
-        <v>1</v>
-      </c>
-      <c r="G223" s="3">
-        <v>0</v>
-      </c>
-      <c r="H223" s="14" t="s">
+      <c r="C225" s="2">
+        <v>0</v>
+      </c>
+      <c r="D225" s="2">
+        <v>0</v>
+      </c>
+      <c r="E225" s="17">
+        <v>1</v>
+      </c>
+      <c r="F225" s="19">
+        <v>1</v>
+      </c>
+      <c r="G225" s="3">
+        <v>0</v>
+      </c>
+      <c r="H225" s="14" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A224" s="15" t="s">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" s="15" t="s">
         <v>522</v>
       </c>
-      <c r="B224" s="15" t="s">
+      <c r="B226" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C224" s="2">
-        <v>0</v>
-      </c>
-      <c r="D224" s="2">
-        <v>0</v>
-      </c>
-      <c r="E224" s="17">
-        <v>1</v>
-      </c>
-      <c r="F224" s="19">
-        <v>1</v>
-      </c>
-      <c r="G224" s="3">
-        <v>0</v>
-      </c>
-      <c r="H224" s="15" t="s">
+      <c r="C226" s="2">
+        <v>0</v>
+      </c>
+      <c r="D226" s="2">
+        <v>0</v>
+      </c>
+      <c r="E226" s="17">
+        <v>1</v>
+      </c>
+      <c r="F226" s="19">
+        <v>1</v>
+      </c>
+      <c r="G226" s="3">
+        <v>0</v>
+      </c>
+      <c r="H226" s="15" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A225" s="21" t="s">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="B225" s="21" t="s">
+      <c r="B227" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="C225" s="2">
-        <v>0</v>
-      </c>
-      <c r="D225" s="2">
-        <v>0</v>
-      </c>
-      <c r="E225" s="4">
-        <v>1</v>
-      </c>
-      <c r="F225" s="3">
-        <v>1</v>
-      </c>
-      <c r="G225" s="3">
-        <v>0</v>
-      </c>
-      <c r="H225" s="22" t="s">
+      <c r="C227" s="2">
+        <v>0</v>
+      </c>
+      <c r="D227" s="2">
+        <v>0</v>
+      </c>
+      <c r="E227" s="4">
+        <v>1</v>
+      </c>
+      <c r="F227" s="3">
+        <v>1</v>
+      </c>
+      <c r="G227" s="3">
+        <v>0</v>
+      </c>
+      <c r="H227" s="22" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A226" s="5" t="s">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="B226" s="5" t="s">
+      <c r="B228" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="C226" s="2">
-        <v>1</v>
-      </c>
-      <c r="D226" s="2">
-        <v>1</v>
-      </c>
-      <c r="E226" s="4">
-        <v>1</v>
-      </c>
-      <c r="F226" s="3">
-        <v>1</v>
-      </c>
-      <c r="G226" s="3">
-        <v>0</v>
-      </c>
-      <c r="H226" s="5" t="s">
+      <c r="C228" s="2">
+        <v>1</v>
+      </c>
+      <c r="D228" s="2">
+        <v>1</v>
+      </c>
+      <c r="E228" s="4">
+        <v>1</v>
+      </c>
+      <c r="F228" s="3">
+        <v>1</v>
+      </c>
+      <c r="G228" s="3">
+        <v>0</v>
+      </c>
+      <c r="H228" s="5" t="s">
         <v>650</v>
       </c>
     </row>

--- a/inst/extdata/main_dict_senegal.xlsx
+++ b/inst/extdata/main_dict_senegal.xlsx
@@ -2432,22 +2432,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.58203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="9.25" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>393</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>638</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>509</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>636</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>527</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>637</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>528</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>530</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>532</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>534</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>557</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>277</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>278</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>394</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>279</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>280</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>402</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>281</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>282</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>401</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>283</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>285</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>286</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>287</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>284</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>288</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>289</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>290</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>291</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>292</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>293</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>294</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>295</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>296</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>297</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>298</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>415</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>419</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>299</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>300</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>301</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>302</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>303</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>304</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>305</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>306</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>307</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>308</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>640</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>309</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>655</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>658</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>310</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>311</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>312</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>313</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>314</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>524</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>315</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>316</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>395</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>396</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>406</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>317</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>318</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>319</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>320</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="16" t="s">
         <v>411</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="16" t="s">
         <v>413</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
         <v>506</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>507</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>321</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
         <v>322</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
         <v>323</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
         <v>324</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
         <v>325</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
         <v>326</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
         <v>327</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
         <v>328</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
         <v>329</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
         <v>330</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
         <v>331</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
         <v>332</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
         <v>333</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
         <v>334</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
         <v>335</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
         <v>336</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
         <v>337</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
         <v>338</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="s">
         <v>339</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
         <v>340</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
         <v>341</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
         <v>342</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
         <v>343</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="14" t="s">
         <v>344</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
         <v>345</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="14" t="s">
         <v>346</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="14" t="s">
         <v>347</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="14" t="s">
         <v>348</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="14" t="s">
         <v>349</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="14" t="s">
         <v>350</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="14" t="s">
         <v>351</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="14" t="s">
         <v>352</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="14" t="s">
         <v>353</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="s">
         <v>354</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="14" t="s">
         <v>355</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="14" t="s">
         <v>356</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="14" t="s">
         <v>357</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="14" t="s">
         <v>358</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="14" t="s">
         <v>359</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="s">
         <v>360</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="s">
         <v>361</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="s">
         <v>362</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="14" t="s">
         <v>363</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="14" t="s">
         <v>364</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="14" t="s">
         <v>365</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="14" t="s">
         <v>366</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="14" t="s">
         <v>367</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="14" t="s">
         <v>368</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="14" t="s">
         <v>369</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="14" t="s">
         <v>370</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="14" t="s">
         <v>371</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="21" t="s">
         <v>645</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="14" t="s">
         <v>372</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="14" t="s">
         <v>373</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="s">
         <v>374</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="14" t="s">
         <v>375</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="14" t="s">
         <v>376</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="s">
         <v>377</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="14" t="s">
         <v>378</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="15" t="s">
         <v>536</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="15" t="s">
         <v>539</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="15" t="s">
         <v>542</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="15" t="s">
         <v>551</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="15" t="s">
         <v>484</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="15" t="s">
         <v>583</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="15" t="s">
         <v>586</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="15" t="s">
         <v>485</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="15" t="s">
         <v>589</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="15" t="s">
         <v>592</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="15" t="s">
         <v>595</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="15" t="s">
         <v>597</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="15" t="s">
         <v>601</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="15" t="s">
         <v>545</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="15" t="s">
         <v>548</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="15" t="s">
         <v>483</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="15" t="s">
         <v>486</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="15" t="s">
         <v>482</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="15" t="s">
         <v>487</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="14" t="s">
         <v>379</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="14" t="s">
         <v>380</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="14" t="s">
         <v>381</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="14" t="s">
         <v>464</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="14" t="s">
         <v>465</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="14" t="s">
         <v>466</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="14" t="s">
         <v>467</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="14" t="s">
         <v>468</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="14" t="s">
         <v>469</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="14" t="s">
         <v>470</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="14" t="s">
         <v>471</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="14" t="s">
         <v>472</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="14" t="s">
         <v>473</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="14" t="s">
         <v>474</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="14" t="s">
         <v>475</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="14" t="s">
         <v>476</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="14" t="s">
         <v>477</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="14" t="s">
         <v>478</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="14" t="s">
         <v>479</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="14" t="s">
         <v>480</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="14" t="s">
         <v>481</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="14" t="s">
         <v>382</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="14" t="s">
         <v>516</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="14" t="s">
         <v>383</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="14" t="s">
         <v>384</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="14" t="s">
         <v>651</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="14" t="s">
         <v>510</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="14" t="s">
         <v>513</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="14" t="s">
         <v>385</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="14" t="s">
         <v>386</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="15" t="s">
         <v>554</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="15" t="s">
         <v>560</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
         <v>561</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
         <v>606</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
         <v>607</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
         <v>608</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
         <v>633</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="s">
         <v>609</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
         <v>610</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
         <v>613</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="15" t="s">
         <v>612</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="15" t="s">
         <v>611</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
         <v>614</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
         <v>615</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="15" t="s">
         <v>616</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="15" t="s">
         <v>617</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="15" t="s">
         <v>618</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="15" t="s">
         <v>619</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="15" t="s">
         <v>620</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="14" t="s">
         <v>387</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="14" t="s">
         <v>388</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="14" t="s">
         <v>389</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="14" t="s">
         <v>390</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="14" t="s">
         <v>391</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="14" t="s">
         <v>392</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="14" t="s">
         <v>494</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="14" t="s">
         <v>496</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="14" t="s">
         <v>495</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="14" t="s">
         <v>497</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="14" t="s">
         <v>498</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="14" t="s">
         <v>499</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="14" t="s">
         <v>500</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="14" t="s">
         <v>501</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="14" t="s">
         <v>502</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="14" t="s">
         <v>503</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="14" t="s">
         <v>504</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="14" t="s">
         <v>505</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="14" t="s">
         <v>517</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="14" t="s">
         <v>518</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="14" t="s">
         <v>519</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="14" t="s">
         <v>520</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="14" t="s">
         <v>521</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="15" t="s">
         <v>522</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="21" t="s">
         <v>634</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>648</v>
       </c>

--- a/inst/extdata/main_dict_senegal.xlsx
+++ b/inst/extdata/main_dict_senegal.xlsx
@@ -1595,9 +1595,6 @@
     <t>crfs-t07a-c3_4</t>
   </si>
   <si>
-    <t>yg_infant_ctg</t>
-  </si>
-  <si>
     <t>crfs-t02b-a4_a_10a</t>
   </si>
   <si>
@@ -2007,6 +2004,9 @@
   </si>
   <si>
     <t>child_id_manual</t>
+  </si>
+  <si>
+    <t>who_age_ctg</t>
   </si>
 </sst>
 </file>
@@ -2432,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2579,11 +2579,11 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>639</v>
-      </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2631,10 +2631,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -2657,10 +2657,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -2678,15 +2678,15 @@
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -2704,16 +2704,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>528</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>529</v>
-      </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
@@ -2730,16 +2730,16 @@
         <v>0</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>530</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>531</v>
-      </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
@@ -2756,16 +2756,16 @@
         <v>0</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>532</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>533</v>
-      </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
@@ -2782,16 +2782,16 @@
         <v>0</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>535</v>
-      </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
@@ -2808,33 +2808,33 @@
         <v>0</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>640</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16" t="s">
         <v>557</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>641</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -3180,7 +3180,7 @@
         <v>284</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>523</v>
+        <v>660</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -3801,28 +3801,28 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="7" t="s">
         <v>642</v>
-      </c>
-      <c r="C53" s="2">
-        <v>1</v>
-      </c>
-      <c r="D53" s="2">
-        <v>0</v>
-      </c>
-      <c r="E53" s="4">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0</v>
-      </c>
-      <c r="G53" s="3">
-        <v>0</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -3853,54 +3853,54 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+      <c r="H55" s="6" t="s">
         <v>656</v>
-      </c>
-      <c r="C55" s="2">
-        <v>1</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3">
-        <v>1</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
+      <c r="H56" s="6" t="s">
         <v>658</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="C56" s="2">
-        <v>1</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3">
-        <v>1</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -4035,28 +4035,28 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="C62" s="2">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1</v>
+      </c>
+      <c r="H62" s="11" t="s">
         <v>525</v>
-      </c>
-      <c r="C62" s="2">
-        <v>0</v>
-      </c>
-      <c r="D62" s="2">
-        <v>1</v>
-      </c>
-      <c r="E62" s="4">
-        <v>1</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -5725,28 +5725,28 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="B127" s="21" t="s">
         <v>645</v>
       </c>
-      <c r="B127" s="21" t="s">
+      <c r="C127" s="2">
+        <v>0</v>
+      </c>
+      <c r="D127" s="2">
+        <v>0</v>
+      </c>
+      <c r="E127" s="4">
+        <v>1</v>
+      </c>
+      <c r="F127" s="3">
+        <v>1</v>
+      </c>
+      <c r="G127" s="3">
+        <v>0</v>
+      </c>
+      <c r="H127" s="22" t="s">
         <v>646</v>
-      </c>
-      <c r="C127" s="2">
-        <v>0</v>
-      </c>
-      <c r="D127" s="2">
-        <v>0</v>
-      </c>
-      <c r="E127" s="4">
-        <v>1</v>
-      </c>
-      <c r="F127" s="3">
-        <v>1</v>
-      </c>
-      <c r="G127" s="3">
-        <v>0</v>
-      </c>
-      <c r="H127" s="22" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -5933,106 +5933,106 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="B135" s="15" t="s">
         <v>536</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="C135" s="2">
+        <v>0</v>
+      </c>
+      <c r="D135" s="2">
+        <v>0</v>
+      </c>
+      <c r="E135" s="17">
+        <v>1</v>
+      </c>
+      <c r="F135" s="17">
+        <v>1</v>
+      </c>
+      <c r="G135" s="3">
+        <v>0</v>
+      </c>
+      <c r="H135" s="15" t="s">
         <v>537</v>
-      </c>
-      <c r="C135" s="2">
-        <v>0</v>
-      </c>
-      <c r="D135" s="2">
-        <v>0</v>
-      </c>
-      <c r="E135" s="17">
-        <v>1</v>
-      </c>
-      <c r="F135" s="17">
-        <v>1</v>
-      </c>
-      <c r="G135" s="3">
-        <v>0</v>
-      </c>
-      <c r="H135" s="15" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="B136" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="B136" s="15" t="s">
+      <c r="C136" s="2">
+        <v>0</v>
+      </c>
+      <c r="D136" s="2">
+        <v>0</v>
+      </c>
+      <c r="E136" s="17">
+        <v>1</v>
+      </c>
+      <c r="F136" s="17">
+        <v>1</v>
+      </c>
+      <c r="G136" s="3">
+        <v>0</v>
+      </c>
+      <c r="H136" s="15" t="s">
         <v>540</v>
-      </c>
-      <c r="C136" s="2">
-        <v>0</v>
-      </c>
-      <c r="D136" s="2">
-        <v>0</v>
-      </c>
-      <c r="E136" s="17">
-        <v>1</v>
-      </c>
-      <c r="F136" s="17">
-        <v>1</v>
-      </c>
-      <c r="G136" s="3">
-        <v>0</v>
-      </c>
-      <c r="H136" s="15" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="B137" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="B137" s="15" t="s">
+      <c r="C137" s="2">
+        <v>0</v>
+      </c>
+      <c r="D137" s="2">
+        <v>0</v>
+      </c>
+      <c r="E137" s="17">
+        <v>1</v>
+      </c>
+      <c r="F137" s="17">
+        <v>1</v>
+      </c>
+      <c r="G137" s="3">
+        <v>0</v>
+      </c>
+      <c r="H137" s="15" t="s">
         <v>543</v>
-      </c>
-      <c r="C137" s="2">
-        <v>0</v>
-      </c>
-      <c r="D137" s="2">
-        <v>0</v>
-      </c>
-      <c r="E137" s="17">
-        <v>1</v>
-      </c>
-      <c r="F137" s="17">
-        <v>1</v>
-      </c>
-      <c r="G137" s="3">
-        <v>0</v>
-      </c>
-      <c r="H137" s="15" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="B138" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="B138" s="15" t="s">
+      <c r="C138" s="2">
+        <v>0</v>
+      </c>
+      <c r="D138" s="2">
+        <v>0</v>
+      </c>
+      <c r="E138" s="17">
+        <v>1</v>
+      </c>
+      <c r="F138" s="17">
+        <v>1</v>
+      </c>
+      <c r="G138" s="3">
+        <v>0</v>
+      </c>
+      <c r="H138" s="15" t="s">
         <v>552</v>
-      </c>
-      <c r="C138" s="2">
-        <v>0</v>
-      </c>
-      <c r="D138" s="2">
-        <v>0</v>
-      </c>
-      <c r="E138" s="17">
-        <v>1</v>
-      </c>
-      <c r="F138" s="17">
-        <v>1</v>
-      </c>
-      <c r="G138" s="3">
-        <v>0</v>
-      </c>
-      <c r="H138" s="15" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -6063,54 +6063,54 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="B140" s="15" t="s">
         <v>583</v>
       </c>
-      <c r="B140" s="15" t="s">
+      <c r="C140" s="2">
+        <v>0</v>
+      </c>
+      <c r="D140" s="2">
+        <v>0</v>
+      </c>
+      <c r="E140" s="17">
+        <v>1</v>
+      </c>
+      <c r="F140" s="17">
+        <v>1</v>
+      </c>
+      <c r="G140" s="3">
+        <v>0</v>
+      </c>
+      <c r="H140" s="15" t="s">
         <v>584</v>
-      </c>
-      <c r="C140" s="2">
-        <v>0</v>
-      </c>
-      <c r="D140" s="2">
-        <v>0</v>
-      </c>
-      <c r="E140" s="17">
-        <v>1</v>
-      </c>
-      <c r="F140" s="17">
-        <v>1</v>
-      </c>
-      <c r="G140" s="3">
-        <v>0</v>
-      </c>
-      <c r="H140" s="15" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="B141" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="B141" s="15" t="s">
+      <c r="C141" s="2">
+        <v>0</v>
+      </c>
+      <c r="D141" s="2">
+        <v>0</v>
+      </c>
+      <c r="E141" s="17">
+        <v>1</v>
+      </c>
+      <c r="F141" s="17">
+        <v>1</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0</v>
+      </c>
+      <c r="H141" s="15" t="s">
         <v>587</v>
-      </c>
-      <c r="C141" s="2">
-        <v>0</v>
-      </c>
-      <c r="D141" s="2">
-        <v>0</v>
-      </c>
-      <c r="E141" s="17">
-        <v>1</v>
-      </c>
-      <c r="F141" s="17">
-        <v>1</v>
-      </c>
-      <c r="G141" s="3">
-        <v>0</v>
-      </c>
-      <c r="H141" s="15" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -6141,184 +6141,184 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="B143" s="15" t="s">
         <v>589</v>
       </c>
-      <c r="B143" s="15" t="s">
+      <c r="C143" s="2">
+        <v>0</v>
+      </c>
+      <c r="D143" s="2">
+        <v>0</v>
+      </c>
+      <c r="E143" s="17">
+        <v>1</v>
+      </c>
+      <c r="F143" s="17">
+        <v>1</v>
+      </c>
+      <c r="G143" s="3">
+        <v>0</v>
+      </c>
+      <c r="H143" s="15" t="s">
         <v>590</v>
-      </c>
-      <c r="C143" s="2">
-        <v>0</v>
-      </c>
-      <c r="D143" s="2">
-        <v>0</v>
-      </c>
-      <c r="E143" s="17">
-        <v>1</v>
-      </c>
-      <c r="F143" s="17">
-        <v>1</v>
-      </c>
-      <c r="G143" s="3">
-        <v>0</v>
-      </c>
-      <c r="H143" s="15" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="B144" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="B144" s="15" t="s">
+      <c r="C144" s="2">
+        <v>0</v>
+      </c>
+      <c r="D144" s="2">
+        <v>0</v>
+      </c>
+      <c r="E144" s="17">
+        <v>1</v>
+      </c>
+      <c r="F144" s="17">
+        <v>1</v>
+      </c>
+      <c r="G144" s="3">
+        <v>0</v>
+      </c>
+      <c r="H144" s="15" t="s">
         <v>593</v>
-      </c>
-      <c r="C144" s="2">
-        <v>0</v>
-      </c>
-      <c r="D144" s="2">
-        <v>0</v>
-      </c>
-      <c r="E144" s="17">
-        <v>1</v>
-      </c>
-      <c r="F144" s="17">
-        <v>1</v>
-      </c>
-      <c r="G144" s="3">
-        <v>0</v>
-      </c>
-      <c r="H144" s="15" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="C145" s="2">
+        <v>0</v>
+      </c>
+      <c r="D145" s="2">
+        <v>0</v>
+      </c>
+      <c r="E145" s="17">
+        <v>1</v>
+      </c>
+      <c r="F145" s="17">
+        <v>1</v>
+      </c>
+      <c r="G145" s="3">
+        <v>0</v>
+      </c>
+      <c r="H145" s="15" t="s">
         <v>595</v>
-      </c>
-      <c r="B145" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="C145" s="2">
-        <v>0</v>
-      </c>
-      <c r="D145" s="2">
-        <v>0</v>
-      </c>
-      <c r="E145" s="17">
-        <v>1</v>
-      </c>
-      <c r="F145" s="17">
-        <v>1</v>
-      </c>
-      <c r="G145" s="3">
-        <v>0</v>
-      </c>
-      <c r="H145" s="15" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="B146" s="15" t="s">
         <v>597</v>
       </c>
-      <c r="B146" s="15" t="s">
+      <c r="C146" s="2">
+        <v>0</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0</v>
+      </c>
+      <c r="E146" s="17">
+        <v>1</v>
+      </c>
+      <c r="F146" s="17">
+        <v>1</v>
+      </c>
+      <c r="G146" s="3">
+        <v>0</v>
+      </c>
+      <c r="H146" s="15" t="s">
         <v>598</v>
-      </c>
-      <c r="C146" s="2">
-        <v>0</v>
-      </c>
-      <c r="D146" s="2">
-        <v>0</v>
-      </c>
-      <c r="E146" s="17">
-        <v>1</v>
-      </c>
-      <c r="F146" s="17">
-        <v>1</v>
-      </c>
-      <c r="G146" s="3">
-        <v>0</v>
-      </c>
-      <c r="H146" s="15" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="B147" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="B147" s="15" t="s">
+      <c r="C147" s="2">
+        <v>0</v>
+      </c>
+      <c r="D147" s="2">
+        <v>0</v>
+      </c>
+      <c r="E147" s="17">
+        <v>1</v>
+      </c>
+      <c r="F147" s="17">
+        <v>1</v>
+      </c>
+      <c r="G147" s="3">
+        <v>0</v>
+      </c>
+      <c r="H147" s="15" t="s">
         <v>602</v>
-      </c>
-      <c r="C147" s="2">
-        <v>0</v>
-      </c>
-      <c r="D147" s="2">
-        <v>0</v>
-      </c>
-      <c r="E147" s="17">
-        <v>1</v>
-      </c>
-      <c r="F147" s="17">
-        <v>1</v>
-      </c>
-      <c r="G147" s="3">
-        <v>0</v>
-      </c>
-      <c r="H147" s="15" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="B148" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="B148" s="15" t="s">
+      <c r="C148" s="2">
+        <v>0</v>
+      </c>
+      <c r="D148" s="2">
+        <v>0</v>
+      </c>
+      <c r="E148" s="17">
+        <v>1</v>
+      </c>
+      <c r="F148" s="17">
+        <v>1</v>
+      </c>
+      <c r="G148" s="3">
+        <v>0</v>
+      </c>
+      <c r="H148" s="15" t="s">
         <v>546</v>
-      </c>
-      <c r="C148" s="2">
-        <v>0</v>
-      </c>
-      <c r="D148" s="2">
-        <v>0</v>
-      </c>
-      <c r="E148" s="17">
-        <v>1</v>
-      </c>
-      <c r="F148" s="17">
-        <v>1</v>
-      </c>
-      <c r="G148" s="3">
-        <v>0</v>
-      </c>
-      <c r="H148" s="15" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="B149" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="B149" s="15" t="s">
+      <c r="C149" s="2">
+        <v>0</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0</v>
+      </c>
+      <c r="E149" s="17">
+        <v>1</v>
+      </c>
+      <c r="F149" s="17">
+        <v>1</v>
+      </c>
+      <c r="G149" s="3">
+        <v>0</v>
+      </c>
+      <c r="H149" s="15" t="s">
         <v>549</v>
-      </c>
-      <c r="C149" s="2">
-        <v>0</v>
-      </c>
-      <c r="D149" s="2">
-        <v>0</v>
-      </c>
-      <c r="E149" s="17">
-        <v>1</v>
-      </c>
-      <c r="F149" s="17">
-        <v>1</v>
-      </c>
-      <c r="G149" s="3">
-        <v>0</v>
-      </c>
-      <c r="H149" s="15" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -7054,7 +7054,7 @@
         <v>384</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -7077,28 +7077,28 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="B179" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="C179" s="2">
+        <v>0</v>
+      </c>
+      <c r="D179" s="2">
+        <v>0</v>
+      </c>
+      <c r="E179" s="17">
+        <v>1</v>
+      </c>
+      <c r="F179" s="19">
+        <v>1</v>
+      </c>
+      <c r="G179" s="3">
+        <v>1</v>
+      </c>
+      <c r="H179" s="14" t="s">
         <v>651</v>
-      </c>
-      <c r="B179" s="14" t="s">
-        <v>654</v>
-      </c>
-      <c r="C179" s="2">
-        <v>0</v>
-      </c>
-      <c r="D179" s="2">
-        <v>0</v>
-      </c>
-      <c r="E179" s="17">
-        <v>1</v>
-      </c>
-      <c r="F179" s="19">
-        <v>1</v>
-      </c>
-      <c r="G179" s="3">
-        <v>1</v>
-      </c>
-      <c r="H179" s="14" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -7207,36 +7207,36 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="B184" s="15" t="s">
         <v>554</v>
       </c>
-      <c r="B184" s="15" t="s">
+      <c r="C184" s="2">
+        <v>0</v>
+      </c>
+      <c r="D184" s="2">
+        <v>0</v>
+      </c>
+      <c r="E184" s="17">
+        <v>1</v>
+      </c>
+      <c r="F184" s="17">
+        <v>1</v>
+      </c>
+      <c r="G184" s="3">
+        <v>0</v>
+      </c>
+      <c r="H184" s="15" t="s">
         <v>555</v>
-      </c>
-      <c r="C184" s="2">
-        <v>0</v>
-      </c>
-      <c r="D184" s="2">
-        <v>0</v>
-      </c>
-      <c r="E184" s="17">
-        <v>1</v>
-      </c>
-      <c r="F184" s="17">
-        <v>1</v>
-      </c>
-      <c r="G184" s="3">
-        <v>0</v>
-      </c>
-      <c r="H184" s="15" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7254,15 +7254,15 @@
         <v>0</v>
       </c>
       <c r="H185" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7280,15 +7280,15 @@
         <v>0</v>
       </c>
       <c r="H186" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7306,15 +7306,15 @@
         <v>0</v>
       </c>
       <c r="H187" s="15" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7332,15 +7332,15 @@
         <v>0</v>
       </c>
       <c r="H188" s="15" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7358,15 +7358,15 @@
         <v>0</v>
       </c>
       <c r="H189" s="15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7384,15 +7384,15 @@
         <v>0</v>
       </c>
       <c r="H190" s="15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7410,15 +7410,15 @@
         <v>0</v>
       </c>
       <c r="H191" s="15" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7436,15 +7436,15 @@
         <v>0</v>
       </c>
       <c r="H192" s="15" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7462,15 +7462,15 @@
         <v>0</v>
       </c>
       <c r="H193" s="15" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7488,15 +7488,15 @@
         <v>0</v>
       </c>
       <c r="H194" s="15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -7514,15 +7514,15 @@
         <v>0</v>
       </c>
       <c r="H195" s="15" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -7540,15 +7540,15 @@
         <v>0</v>
       </c>
       <c r="H196" s="15" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -7566,15 +7566,15 @@
         <v>0</v>
       </c>
       <c r="H197" s="15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -7592,15 +7592,15 @@
         <v>0</v>
       </c>
       <c r="H198" s="15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="15" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -7618,15 +7618,15 @@
         <v>0</v>
       </c>
       <c r="H199" s="15" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="15" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -7644,15 +7644,15 @@
         <v>0</v>
       </c>
       <c r="H200" s="15" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="15" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -7670,15 +7670,15 @@
         <v>0</v>
       </c>
       <c r="H201" s="15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="15" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -7696,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="H202" s="15" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -8325,54 +8325,54 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="B227" s="21" t="s">
+        <v>643</v>
+      </c>
+      <c r="C227" s="2">
+        <v>0</v>
+      </c>
+      <c r="D227" s="2">
+        <v>0</v>
+      </c>
+      <c r="E227" s="4">
+        <v>1</v>
+      </c>
+      <c r="F227" s="3">
+        <v>1</v>
+      </c>
+      <c r="G227" s="3">
+        <v>0</v>
+      </c>
+      <c r="H227" s="22" t="s">
         <v>634</v>
-      </c>
-      <c r="B227" s="21" t="s">
-        <v>644</v>
-      </c>
-      <c r="C227" s="2">
-        <v>0</v>
-      </c>
-      <c r="D227" s="2">
-        <v>0</v>
-      </c>
-      <c r="E227" s="4">
-        <v>1</v>
-      </c>
-      <c r="F227" s="3">
-        <v>1</v>
-      </c>
-      <c r="G227" s="3">
-        <v>0</v>
-      </c>
-      <c r="H227" s="22" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="B228" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="B228" s="5" t="s">
+      <c r="C228" s="2">
+        <v>1</v>
+      </c>
+      <c r="D228" s="2">
+        <v>1</v>
+      </c>
+      <c r="E228" s="4">
+        <v>1</v>
+      </c>
+      <c r="F228" s="3">
+        <v>1</v>
+      </c>
+      <c r="G228" s="3">
+        <v>0</v>
+      </c>
+      <c r="H228" s="5" t="s">
         <v>649</v>
-      </c>
-      <c r="C228" s="2">
-        <v>1</v>
-      </c>
-      <c r="D228" s="2">
-        <v>1</v>
-      </c>
-      <c r="E228" s="4">
-        <v>1</v>
-      </c>
-      <c r="F228" s="3">
-        <v>1</v>
-      </c>
-      <c r="G228" s="3">
-        <v>0</v>
-      </c>
-      <c r="H228" s="5" t="s">
-        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/main_dict_senegal.xlsx
+++ b/inst/extdata/main_dict_senegal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="663">
   <si>
     <t>old</t>
   </si>
@@ -2007,6 +2007,12 @@
   </si>
   <si>
     <t>who_age_ctg</t>
+  </si>
+  <si>
+    <t>FormVersion</t>
+  </si>
+  <si>
+    <t>form_version</t>
   </si>
 </sst>
 </file>
@@ -2430,10 +2436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="A229" sqref="A229:XFD229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8375,6 +8381,32 @@
         <v>649</v>
       </c>
     </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C229" s="2">
+        <v>1</v>
+      </c>
+      <c r="D229" s="2">
+        <v>1</v>
+      </c>
+      <c r="E229" s="2">
+        <v>1</v>
+      </c>
+      <c r="F229" s="2">
+        <v>1</v>
+      </c>
+      <c r="G229" s="2">
+        <v>1</v>
+      </c>
+      <c r="H229" s="5" t="s">
+        <v>661</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
